--- a/mbrMoPvt_94.xlsx
+++ b/mbrMoPvt_94.xlsx
@@ -14,7 +14,115 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+  <si>
+    <t>m-2019-01</t>
+  </si>
+  <si>
+    <t>m-2019-02</t>
+  </si>
+  <si>
+    <t>m-2019-03</t>
+  </si>
+  <si>
+    <t>m-2019-04</t>
+  </si>
+  <si>
+    <t>m-2019-05</t>
+  </si>
+  <si>
+    <t>m-2019-06</t>
+  </si>
+  <si>
+    <t>m-2019-07</t>
+  </si>
+  <si>
+    <t>m-2019-08</t>
+  </si>
+  <si>
+    <t>m-2019-09</t>
+  </si>
+  <si>
+    <t>m-2019-10</t>
+  </si>
+  <si>
+    <t>m-2019-11</t>
+  </si>
+  <si>
+    <t>m-2019-12</t>
+  </si>
+  <si>
+    <t>m-2020-01</t>
+  </si>
+  <si>
+    <t>m-2020-02</t>
+  </si>
+  <si>
+    <t>m-2020-03</t>
+  </si>
+  <si>
+    <t>m-2020-04</t>
+  </si>
+  <si>
+    <t>m-2020-05</t>
+  </si>
+  <si>
+    <t>m-2020-06</t>
+  </si>
+  <si>
+    <t>m-2020-07</t>
+  </si>
+  <si>
+    <t>m-2020-08</t>
+  </si>
+  <si>
+    <t>m-2020-09</t>
+  </si>
+  <si>
+    <t>m-2020-10</t>
+  </si>
+  <si>
+    <t>m-2020-11</t>
+  </si>
+  <si>
+    <t>m-2020-12</t>
+  </si>
+  <si>
+    <t>m-2021-01</t>
+  </si>
+  <si>
+    <t>m-2021-02</t>
+  </si>
+  <si>
+    <t>m-2021-03</t>
+  </si>
+  <si>
+    <t>m-2021-04</t>
+  </si>
+  <si>
+    <t>m-2021-05</t>
+  </si>
+  <si>
+    <t>m-2021-06</t>
+  </si>
+  <si>
+    <t>m-2021-07</t>
+  </si>
+  <si>
+    <t>m-2021-08</t>
+  </si>
+  <si>
+    <t>m-2021-09</t>
+  </si>
+  <si>
+    <t>m-2021-10</t>
+  </si>
+  <si>
+    <t>m-2021-11</t>
+  </si>
+  <si>
+    <t>m-2021-12</t>
+  </si>
   <si>
     <t>m-2022-01</t>
   </si>
@@ -386,15 +494,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:AM3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -402,26 +510,242 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:39">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B2">
+        <v>6150.12</v>
+      </c>
+      <c r="C2">
+        <v>5823.6</v>
+      </c>
+      <c r="D2">
+        <v>6440.7</v>
+      </c>
+      <c r="E2">
+        <v>7129.88</v>
+      </c>
+      <c r="F2">
+        <v>6853.6</v>
+      </c>
+      <c r="G2">
+        <v>6726.18</v>
+      </c>
+      <c r="H2">
+        <v>6820.55</v>
+      </c>
+      <c r="I2">
+        <v>7244.3</v>
+      </c>
+      <c r="J2">
+        <v>7605.29</v>
+      </c>
+      <c r="K2">
+        <v>7793.32</v>
+      </c>
+      <c r="L2">
+        <v>7446.01</v>
+      </c>
+      <c r="M2">
+        <v>6705.23</v>
+      </c>
+      <c r="N2">
+        <v>6684.75</v>
+      </c>
+      <c r="O2">
+        <v>6751.91</v>
+      </c>
+      <c r="P2">
+        <v>5638.49</v>
+      </c>
+      <c r="Q2">
+        <v>4241.49</v>
+      </c>
+      <c r="R2">
+        <v>5776.06</v>
+      </c>
+      <c r="S2">
+        <v>7476.47</v>
+      </c>
+      <c r="T2">
+        <v>6988.45</v>
+      </c>
+      <c r="U2">
+        <v>7160.53</v>
+      </c>
+      <c r="V2">
+        <v>7588.69</v>
+      </c>
+      <c r="W2">
+        <v>8214.120000000001</v>
+      </c>
+      <c r="X2">
+        <v>7875.93</v>
+      </c>
+      <c r="Y2">
+        <v>7162.69</v>
+      </c>
+      <c r="Z2">
+        <v>7419.86</v>
+      </c>
+      <c r="AA2">
+        <v>6924.86</v>
+      </c>
+      <c r="AB2">
+        <v>8947.139999999999</v>
+      </c>
+      <c r="AC2">
+        <v>9155.280000000001</v>
+      </c>
+      <c r="AD2">
+        <v>9417.09</v>
+      </c>
+      <c r="AE2">
+        <v>9854.68</v>
+      </c>
+      <c r="AF2">
+        <v>8775.16</v>
+      </c>
+      <c r="AG2">
+        <v>9461.58</v>
+      </c>
+      <c r="AH2">
+        <v>9327.940000000001</v>
+      </c>
+      <c r="AI2">
+        <v>8787.75</v>
+      </c>
+      <c r="AJ2">
+        <v>8764.719999999999</v>
+      </c>
+      <c r="AK2">
+        <v>6450.96</v>
+      </c>
+      <c r="AL2">
         <v>560.61</v>
       </c>
-      <c r="C2">
+      <c r="AM2">
         <v>2.26</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:39">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="AL3">
         <v>1399.64</v>
       </c>
-      <c r="C3">
+      <c r="AM3">
         <v>3.64</v>
       </c>
     </row>

--- a/mbrMoPvt_94.xlsx
+++ b/mbrMoPvt_94.xlsx
@@ -742,6 +742,114 @@
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="B3">
+        <v>7222.83</v>
+      </c>
+      <c r="C3">
+        <v>7750.44</v>
+      </c>
+      <c r="D3">
+        <v>8237.35</v>
+      </c>
+      <c r="E3">
+        <v>8578.549999999999</v>
+      </c>
+      <c r="F3">
+        <v>11155.42</v>
+      </c>
+      <c r="G3">
+        <v>9235.389999999999</v>
+      </c>
+      <c r="H3">
+        <v>8622.200000000001</v>
+      </c>
+      <c r="I3">
+        <v>7869.18</v>
+      </c>
+      <c r="J3">
+        <v>6854.8</v>
+      </c>
+      <c r="K3">
+        <v>11890.7</v>
+      </c>
+      <c r="L3">
+        <v>10916.61</v>
+      </c>
+      <c r="M3">
+        <v>10553.43</v>
+      </c>
+      <c r="N3">
+        <v>9244.27</v>
+      </c>
+      <c r="O3">
+        <v>8661.51</v>
+      </c>
+      <c r="P3">
+        <v>6962.21</v>
+      </c>
+      <c r="Q3">
+        <v>4474.31</v>
+      </c>
+      <c r="R3">
+        <v>6970.48</v>
+      </c>
+      <c r="S3">
+        <v>7262.08</v>
+      </c>
+      <c r="T3">
+        <v>8206.709999999999</v>
+      </c>
+      <c r="U3">
+        <v>11467.56</v>
+      </c>
+      <c r="V3">
+        <v>12212.68</v>
+      </c>
+      <c r="W3">
+        <v>12909.84</v>
+      </c>
+      <c r="X3">
+        <v>11233.65</v>
+      </c>
+      <c r="Y3">
+        <v>13363.74</v>
+      </c>
+      <c r="Z3">
+        <v>14942.64</v>
+      </c>
+      <c r="AA3">
+        <v>13441.86</v>
+      </c>
+      <c r="AB3">
+        <v>15268.8</v>
+      </c>
+      <c r="AC3">
+        <v>13792.09</v>
+      </c>
+      <c r="AD3">
+        <v>11038.41</v>
+      </c>
+      <c r="AE3">
+        <v>12028.82</v>
+      </c>
+      <c r="AF3">
+        <v>10802.11</v>
+      </c>
+      <c r="AG3">
+        <v>13737</v>
+      </c>
+      <c r="AH3">
+        <v>14218.8</v>
+      </c>
+      <c r="AI3">
+        <v>14803.53</v>
+      </c>
+      <c r="AJ3">
+        <v>13397.89</v>
+      </c>
+      <c r="AK3">
+        <v>12722.59</v>
+      </c>
       <c r="AL3">
         <v>1399.64</v>
       </c>

--- a/mbrMoPvt_94.xlsx
+++ b/mbrMoPvt_94.xlsx
@@ -729,7 +729,7 @@
         <v>8764.719999999999</v>
       </c>
       <c r="AK2">
-        <v>6450.96</v>
+        <v>6451.13</v>
       </c>
       <c r="AL2">
         <v>560.61</v>

--- a/mbrMoPvt_94.xlsx
+++ b/mbrMoPvt_94.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -137,6 +137,21 @@
   </si>
   <si>
     <t>BLUEROCKDC</t>
+  </si>
+  <si>
+    <t>CANODCE</t>
+  </si>
+  <si>
+    <t>CITYBLOCKDCE</t>
+  </si>
+  <si>
+    <t>ILUMEDPI</t>
+  </si>
+  <si>
+    <t>INTERMNTUTDC</t>
+  </si>
+  <si>
+    <t>LATITUDEDC</t>
   </si>
 </sst>
 </file>
@@ -494,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM3"/>
+  <dimension ref="A1:AM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -857,6 +872,601 @@
         <v>3.64</v>
       </c>
     </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>7672.43</v>
+      </c>
+      <c r="C4">
+        <v>7664.76</v>
+      </c>
+      <c r="D4">
+        <v>8194.42</v>
+      </c>
+      <c r="E4">
+        <v>8466.120000000001</v>
+      </c>
+      <c r="F4">
+        <v>9093.33</v>
+      </c>
+      <c r="G4">
+        <v>7925</v>
+      </c>
+      <c r="H4">
+        <v>8789.93</v>
+      </c>
+      <c r="I4">
+        <v>8639.75</v>
+      </c>
+      <c r="J4">
+        <v>8091.1</v>
+      </c>
+      <c r="K4">
+        <v>8990.16</v>
+      </c>
+      <c r="L4">
+        <v>8544.27</v>
+      </c>
+      <c r="M4">
+        <v>8514.889999999999</v>
+      </c>
+      <c r="N4">
+        <v>8588.65</v>
+      </c>
+      <c r="O4">
+        <v>8753.27</v>
+      </c>
+      <c r="P4">
+        <v>7457.06</v>
+      </c>
+      <c r="Q4">
+        <v>5260.57</v>
+      </c>
+      <c r="R4">
+        <v>7329.25</v>
+      </c>
+      <c r="S4">
+        <v>8717.18</v>
+      </c>
+      <c r="T4">
+        <v>8762.35</v>
+      </c>
+      <c r="U4">
+        <v>8475.530000000001</v>
+      </c>
+      <c r="V4">
+        <v>9227.59</v>
+      </c>
+      <c r="W4">
+        <v>9877.389999999999</v>
+      </c>
+      <c r="X4">
+        <v>9451.889999999999</v>
+      </c>
+      <c r="Y4">
+        <v>10140.34</v>
+      </c>
+      <c r="Z4">
+        <v>9238.120000000001</v>
+      </c>
+      <c r="AA4">
+        <v>9347.610000000001</v>
+      </c>
+      <c r="AB4">
+        <v>10902.99</v>
+      </c>
+      <c r="AC4">
+        <v>11212.18</v>
+      </c>
+      <c r="AD4">
+        <v>10808.72</v>
+      </c>
+      <c r="AE4">
+        <v>11353.32</v>
+      </c>
+      <c r="AF4">
+        <v>11093.97</v>
+      </c>
+      <c r="AG4">
+        <v>11302.17</v>
+      </c>
+      <c r="AH4">
+        <v>11066.52</v>
+      </c>
+      <c r="AI4">
+        <v>11811.58</v>
+      </c>
+      <c r="AJ4">
+        <v>11702.66</v>
+      </c>
+      <c r="AK4">
+        <v>11360.41</v>
+      </c>
+      <c r="AL4">
+        <v>628.12</v>
+      </c>
+      <c r="AM4">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>6306.67</v>
+      </c>
+      <c r="C5">
+        <v>6425.46</v>
+      </c>
+      <c r="D5">
+        <v>7513.16</v>
+      </c>
+      <c r="E5">
+        <v>6677.87</v>
+      </c>
+      <c r="F5">
+        <v>7360.6</v>
+      </c>
+      <c r="G5">
+        <v>6997.76</v>
+      </c>
+      <c r="H5">
+        <v>6964.79</v>
+      </c>
+      <c r="I5">
+        <v>7021.88</v>
+      </c>
+      <c r="J5">
+        <v>7464.32</v>
+      </c>
+      <c r="K5">
+        <v>8034.71</v>
+      </c>
+      <c r="L5">
+        <v>7529.03</v>
+      </c>
+      <c r="M5">
+        <v>7220.63</v>
+      </c>
+      <c r="N5">
+        <v>5914.55</v>
+      </c>
+      <c r="O5">
+        <v>7077.14</v>
+      </c>
+      <c r="P5">
+        <v>5971.21</v>
+      </c>
+      <c r="Q5">
+        <v>5450.38</v>
+      </c>
+      <c r="R5">
+        <v>7491.88</v>
+      </c>
+      <c r="S5">
+        <v>7014.21</v>
+      </c>
+      <c r="T5">
+        <v>7142.59</v>
+      </c>
+      <c r="U5">
+        <v>6607.54</v>
+      </c>
+      <c r="V5">
+        <v>8099.46</v>
+      </c>
+      <c r="W5">
+        <v>8634.059999999999</v>
+      </c>
+      <c r="X5">
+        <v>8179.51</v>
+      </c>
+      <c r="Y5">
+        <v>8197.809999999999</v>
+      </c>
+      <c r="Z5">
+        <v>8338.16</v>
+      </c>
+      <c r="AA5">
+        <v>8660.709999999999</v>
+      </c>
+      <c r="AB5">
+        <v>9449.219999999999</v>
+      </c>
+      <c r="AC5">
+        <v>8961.110000000001</v>
+      </c>
+      <c r="AD5">
+        <v>8200.99</v>
+      </c>
+      <c r="AE5">
+        <v>9117.360000000001</v>
+      </c>
+      <c r="AF5">
+        <v>9691.52</v>
+      </c>
+      <c r="AG5">
+        <v>10118.68</v>
+      </c>
+      <c r="AH5">
+        <v>10058.93</v>
+      </c>
+      <c r="AI5">
+        <v>10718.9</v>
+      </c>
+      <c r="AJ5">
+        <v>10015.22</v>
+      </c>
+      <c r="AK5">
+        <v>9892.17</v>
+      </c>
+      <c r="AL5">
+        <v>593.8099999999999</v>
+      </c>
+      <c r="AM5">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>8836.190000000001</v>
+      </c>
+      <c r="C6">
+        <v>8516.52</v>
+      </c>
+      <c r="D6">
+        <v>9779.48</v>
+      </c>
+      <c r="E6">
+        <v>10416.06</v>
+      </c>
+      <c r="F6">
+        <v>9518.469999999999</v>
+      </c>
+      <c r="G6">
+        <v>10517.99</v>
+      </c>
+      <c r="H6">
+        <v>10193.32</v>
+      </c>
+      <c r="I6">
+        <v>9333.129999999999</v>
+      </c>
+      <c r="J6">
+        <v>8084.82</v>
+      </c>
+      <c r="K6">
+        <v>12097.76</v>
+      </c>
+      <c r="L6">
+        <v>9177.700000000001</v>
+      </c>
+      <c r="M6">
+        <v>9682.120000000001</v>
+      </c>
+      <c r="N6">
+        <v>9866.799999999999</v>
+      </c>
+      <c r="O6">
+        <v>10072.78</v>
+      </c>
+      <c r="P6">
+        <v>9688</v>
+      </c>
+      <c r="Q6">
+        <v>6683.04</v>
+      </c>
+      <c r="R6">
+        <v>8733.790000000001</v>
+      </c>
+      <c r="S6">
+        <v>10124.63</v>
+      </c>
+      <c r="T6">
+        <v>11310.34</v>
+      </c>
+      <c r="U6">
+        <v>10859.12</v>
+      </c>
+      <c r="V6">
+        <v>11151.6</v>
+      </c>
+      <c r="W6">
+        <v>12122.31</v>
+      </c>
+      <c r="X6">
+        <v>11767.56</v>
+      </c>
+      <c r="Y6">
+        <v>12453.87</v>
+      </c>
+      <c r="Z6">
+        <v>10741.54</v>
+      </c>
+      <c r="AA6">
+        <v>13410.42</v>
+      </c>
+      <c r="AB6">
+        <v>12709.99</v>
+      </c>
+      <c r="AC6">
+        <v>13011.48</v>
+      </c>
+      <c r="AD6">
+        <v>12644.94</v>
+      </c>
+      <c r="AE6">
+        <v>13631.5</v>
+      </c>
+      <c r="AF6">
+        <v>15611.18</v>
+      </c>
+      <c r="AG6">
+        <v>13470.33</v>
+      </c>
+      <c r="AH6">
+        <v>12302.81</v>
+      </c>
+      <c r="AI6">
+        <v>12489.23</v>
+      </c>
+      <c r="AJ6">
+        <v>12446.72</v>
+      </c>
+      <c r="AK6">
+        <v>7701.01</v>
+      </c>
+      <c r="AL6">
+        <v>639.99</v>
+      </c>
+      <c r="AM6">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7">
+        <v>7008.25</v>
+      </c>
+      <c r="C7">
+        <v>6915.29</v>
+      </c>
+      <c r="D7">
+        <v>7771.55</v>
+      </c>
+      <c r="E7">
+        <v>7811.22</v>
+      </c>
+      <c r="F7">
+        <v>8108.12</v>
+      </c>
+      <c r="G7">
+        <v>7236.54</v>
+      </c>
+      <c r="H7">
+        <v>7257.66</v>
+      </c>
+      <c r="I7">
+        <v>7718.22</v>
+      </c>
+      <c r="J7">
+        <v>7431.46</v>
+      </c>
+      <c r="K7">
+        <v>8688.08</v>
+      </c>
+      <c r="L7">
+        <v>7510.51</v>
+      </c>
+      <c r="M7">
+        <v>7580.47</v>
+      </c>
+      <c r="N7">
+        <v>7187.08</v>
+      </c>
+      <c r="O7">
+        <v>7266.93</v>
+      </c>
+      <c r="P7">
+        <v>6649.36</v>
+      </c>
+      <c r="Q7">
+        <v>4719.8</v>
+      </c>
+      <c r="R7">
+        <v>6136.1</v>
+      </c>
+      <c r="S7">
+        <v>7549.26</v>
+      </c>
+      <c r="T7">
+        <v>8191.13</v>
+      </c>
+      <c r="U7">
+        <v>8031</v>
+      </c>
+      <c r="V7">
+        <v>8512.440000000001</v>
+      </c>
+      <c r="W7">
+        <v>8857.450000000001</v>
+      </c>
+      <c r="X7">
+        <v>8137</v>
+      </c>
+      <c r="Y7">
+        <v>8656.200000000001</v>
+      </c>
+      <c r="Z7">
+        <v>7652.77</v>
+      </c>
+      <c r="AA7">
+        <v>7666.49</v>
+      </c>
+      <c r="AB7">
+        <v>9282.74</v>
+      </c>
+      <c r="AC7">
+        <v>9322.85</v>
+      </c>
+      <c r="AD7">
+        <v>9242.09</v>
+      </c>
+      <c r="AE7">
+        <v>9317.51</v>
+      </c>
+      <c r="AF7">
+        <v>9578.08</v>
+      </c>
+      <c r="AG7">
+        <v>9825.549999999999</v>
+      </c>
+      <c r="AH7">
+        <v>9933.09</v>
+      </c>
+      <c r="AI7">
+        <v>9848.73</v>
+      </c>
+      <c r="AJ7">
+        <v>9385.059999999999</v>
+      </c>
+      <c r="AK7">
+        <v>8343.629999999999</v>
+      </c>
+      <c r="AL7">
+        <v>654.3</v>
+      </c>
+      <c r="AM7">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>6892.17</v>
+      </c>
+      <c r="C8">
+        <v>6765.63</v>
+      </c>
+      <c r="D8">
+        <v>6695.52</v>
+      </c>
+      <c r="E8">
+        <v>7889.41</v>
+      </c>
+      <c r="F8">
+        <v>8885.57</v>
+      </c>
+      <c r="G8">
+        <v>7122.58</v>
+      </c>
+      <c r="H8">
+        <v>7919.98</v>
+      </c>
+      <c r="I8">
+        <v>8509.91</v>
+      </c>
+      <c r="J8">
+        <v>7121.89</v>
+      </c>
+      <c r="K8">
+        <v>8164.06</v>
+      </c>
+      <c r="L8">
+        <v>8075.48</v>
+      </c>
+      <c r="M8">
+        <v>6485.17</v>
+      </c>
+      <c r="N8">
+        <v>5856.5</v>
+      </c>
+      <c r="O8">
+        <v>8460.93</v>
+      </c>
+      <c r="P8">
+        <v>6883.08</v>
+      </c>
+      <c r="Q8">
+        <v>5876.05</v>
+      </c>
+      <c r="R8">
+        <v>7720.53</v>
+      </c>
+      <c r="S8">
+        <v>7050.53</v>
+      </c>
+      <c r="T8">
+        <v>8412.040000000001</v>
+      </c>
+      <c r="U8">
+        <v>9538.32</v>
+      </c>
+      <c r="V8">
+        <v>9948.08</v>
+      </c>
+      <c r="W8">
+        <v>9980.33</v>
+      </c>
+      <c r="X8">
+        <v>8532.620000000001</v>
+      </c>
+      <c r="Y8">
+        <v>8613.48</v>
+      </c>
+      <c r="Z8">
+        <v>7981.86</v>
+      </c>
+      <c r="AA8">
+        <v>6252.86</v>
+      </c>
+      <c r="AB8">
+        <v>8271.33</v>
+      </c>
+      <c r="AC8">
+        <v>9046.959999999999</v>
+      </c>
+      <c r="AD8">
+        <v>9268.07</v>
+      </c>
+      <c r="AE8">
+        <v>8809.67</v>
+      </c>
+      <c r="AF8">
+        <v>8891.02</v>
+      </c>
+      <c r="AG8">
+        <v>9178.67</v>
+      </c>
+      <c r="AH8">
+        <v>9443.51</v>
+      </c>
+      <c r="AI8">
+        <v>9565.360000000001</v>
+      </c>
+      <c r="AJ8">
+        <v>11907.27</v>
+      </c>
+      <c r="AK8">
+        <v>9983.17</v>
+      </c>
+      <c r="AL8">
+        <v>594.5599999999999</v>
+      </c>
+      <c r="AM8">
+        <v>1.65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mbrMoPvt_94.xlsx
+++ b/mbrMoPvt_94.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>org_id</t>
+  </si>
+  <si>
+    <t>BLUEROCKDC</t>
   </si>
   <si>
     <t>ILUMEDPI</t>
@@ -491,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM2"/>
+  <dimension ref="A1:AM3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,117 +624,236 @@
         <v>39</v>
       </c>
       <c r="B2">
+        <v>7222.83</v>
+      </c>
+      <c r="C2">
+        <v>7750.44</v>
+      </c>
+      <c r="D2">
+        <v>8237.35</v>
+      </c>
+      <c r="E2">
+        <v>8578.549999999999</v>
+      </c>
+      <c r="F2">
+        <v>11155.42</v>
+      </c>
+      <c r="G2">
+        <v>9235.389999999999</v>
+      </c>
+      <c r="H2">
+        <v>8622.200000000001</v>
+      </c>
+      <c r="I2">
+        <v>7869.18</v>
+      </c>
+      <c r="J2">
+        <v>6854.8</v>
+      </c>
+      <c r="K2">
+        <v>11890.7</v>
+      </c>
+      <c r="L2">
+        <v>10916.61</v>
+      </c>
+      <c r="M2">
+        <v>10553.43</v>
+      </c>
+      <c r="N2">
+        <v>9244.27</v>
+      </c>
+      <c r="O2">
+        <v>8661.51</v>
+      </c>
+      <c r="P2">
+        <v>6962.21</v>
+      </c>
+      <c r="Q2">
+        <v>4474.31</v>
+      </c>
+      <c r="R2">
+        <v>6970.48</v>
+      </c>
+      <c r="S2">
+        <v>7262.08</v>
+      </c>
+      <c r="T2">
+        <v>8206.709999999999</v>
+      </c>
+      <c r="U2">
+        <v>11467.56</v>
+      </c>
+      <c r="V2">
+        <v>12212.68</v>
+      </c>
+      <c r="W2">
+        <v>12909.84</v>
+      </c>
+      <c r="X2">
+        <v>11233.65</v>
+      </c>
+      <c r="Y2">
+        <v>13363.74</v>
+      </c>
+      <c r="Z2">
+        <v>14942.64</v>
+      </c>
+      <c r="AA2">
+        <v>13441.86</v>
+      </c>
+      <c r="AB2">
+        <v>15268.8</v>
+      </c>
+      <c r="AC2">
+        <v>13792.09</v>
+      </c>
+      <c r="AD2">
+        <v>11038.41</v>
+      </c>
+      <c r="AE2">
+        <v>12028.82</v>
+      </c>
+      <c r="AF2">
+        <v>10802.11</v>
+      </c>
+      <c r="AG2">
+        <v>13737</v>
+      </c>
+      <c r="AH2">
+        <v>14218.8</v>
+      </c>
+      <c r="AI2">
+        <v>14803.53</v>
+      </c>
+      <c r="AJ2">
+        <v>13397.89</v>
+      </c>
+      <c r="AK2">
+        <v>12722.59</v>
+      </c>
+      <c r="AL2">
+        <v>1399.64</v>
+      </c>
+      <c r="AM2">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
         <v>8837.780000000001</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>8328.540000000001</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>9778.809999999999</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>10460.36</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>9508.629999999999</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>10344.29</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>10213.22</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>9315.93</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>8085.17</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>12005.47</v>
       </c>
-      <c r="L2">
+      <c r="L3">
         <v>9005.4</v>
       </c>
-      <c r="M2">
+      <c r="M3">
         <v>9624.040000000001</v>
       </c>
-      <c r="N2">
+      <c r="N3">
         <v>9898.809999999999</v>
       </c>
-      <c r="O2">
+      <c r="O3">
         <v>10062.66</v>
       </c>
-      <c r="P2">
+      <c r="P3">
         <v>9698.24</v>
       </c>
-      <c r="Q2">
+      <c r="Q3">
         <v>6679.43</v>
       </c>
-      <c r="R2">
+      <c r="R3">
         <v>8745.879999999999</v>
       </c>
-      <c r="S2">
+      <c r="S3">
         <v>10145.89</v>
       </c>
-      <c r="T2">
+      <c r="T3">
         <v>11274.67</v>
       </c>
-      <c r="U2">
+      <c r="U3">
         <v>10879.19</v>
       </c>
-      <c r="V2">
+      <c r="V3">
         <v>11163.03</v>
       </c>
-      <c r="W2">
+      <c r="W3">
         <v>12130.95</v>
       </c>
-      <c r="X2">
+      <c r="X3">
         <v>11800.57</v>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <v>12484.63</v>
       </c>
-      <c r="Z2">
+      <c r="Z3">
         <v>10771.49</v>
       </c>
-      <c r="AA2">
+      <c r="AA3">
         <v>13467.01</v>
       </c>
-      <c r="AB2">
+      <c r="AB3">
         <v>12728.56</v>
       </c>
-      <c r="AC2">
+      <c r="AC3">
         <v>13014.73</v>
       </c>
-      <c r="AD2">
+      <c r="AD3">
         <v>12522.89</v>
       </c>
-      <c r="AE2">
+      <c r="AE3">
         <v>13653.49</v>
       </c>
-      <c r="AF2">
+      <c r="AF3">
         <v>15663.49</v>
       </c>
-      <c r="AG2">
+      <c r="AG3">
         <v>13488.9</v>
       </c>
-      <c r="AH2">
+      <c r="AH3">
         <v>12309.93</v>
       </c>
-      <c r="AI2">
+      <c r="AI3">
         <v>12490.74</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ3">
         <v>11779.87</v>
       </c>
-      <c r="AK2">
+      <c r="AK3">
         <v>7272.94</v>
       </c>
-      <c r="AL2">
+      <c r="AL3">
         <v>639.99</v>
       </c>
-      <c r="AM2">
+      <c r="AM3">
         <v>3.29</v>
       </c>
     </row>

--- a/mbrMoPvt_94.xlsx
+++ b/mbrMoPvt_94.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>org_id</t>
-  </si>
-  <si>
-    <t>BLUEROCKDC</t>
   </si>
   <si>
     <t>ILUMEDPI</t>
@@ -494,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM3"/>
+  <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,236 +621,117 @@
         <v>39</v>
       </c>
       <c r="B2">
-        <v>7222.83</v>
+        <v>8837.780000000001</v>
       </c>
       <c r="C2">
-        <v>7750.44</v>
+        <v>8328.540000000001</v>
       </c>
       <c r="D2">
-        <v>8237.35</v>
+        <v>9778.809999999999</v>
       </c>
       <c r="E2">
-        <v>8578.549999999999</v>
+        <v>10460.36</v>
       </c>
       <c r="F2">
-        <v>11155.42</v>
+        <v>9508.629999999999</v>
       </c>
       <c r="G2">
-        <v>9235.389999999999</v>
+        <v>10344.29</v>
       </c>
       <c r="H2">
-        <v>8622.200000000001</v>
+        <v>10213.22</v>
       </c>
       <c r="I2">
-        <v>7869.18</v>
+        <v>9315.93</v>
       </c>
       <c r="J2">
-        <v>6854.8</v>
+        <v>8085.17</v>
       </c>
       <c r="K2">
-        <v>11890.7</v>
+        <v>12005.47</v>
       </c>
       <c r="L2">
-        <v>10916.61</v>
+        <v>9005.4</v>
       </c>
       <c r="M2">
-        <v>10553.43</v>
+        <v>9624.040000000001</v>
       </c>
       <c r="N2">
-        <v>9244.27</v>
+        <v>9898.809999999999</v>
       </c>
       <c r="O2">
-        <v>8661.51</v>
+        <v>10062.66</v>
       </c>
       <c r="P2">
-        <v>6962.21</v>
+        <v>9698.24</v>
       </c>
       <c r="Q2">
-        <v>4474.31</v>
+        <v>6679.43</v>
       </c>
       <c r="R2">
-        <v>6970.48</v>
+        <v>8745.879999999999</v>
       </c>
       <c r="S2">
-        <v>7262.08</v>
+        <v>10145.89</v>
       </c>
       <c r="T2">
-        <v>8206.709999999999</v>
+        <v>11274.67</v>
       </c>
       <c r="U2">
-        <v>11467.56</v>
+        <v>10879.19</v>
       </c>
       <c r="V2">
-        <v>12212.68</v>
+        <v>11163.03</v>
       </c>
       <c r="W2">
-        <v>12909.84</v>
+        <v>12130.95</v>
       </c>
       <c r="X2">
-        <v>11233.65</v>
+        <v>11800.57</v>
       </c>
       <c r="Y2">
-        <v>13363.74</v>
+        <v>12484.63</v>
       </c>
       <c r="Z2">
-        <v>14942.64</v>
+        <v>10771.49</v>
       </c>
       <c r="AA2">
-        <v>13441.86</v>
+        <v>13467.01</v>
       </c>
       <c r="AB2">
-        <v>15268.8</v>
+        <v>12728.56</v>
       </c>
       <c r="AC2">
-        <v>13792.09</v>
+        <v>13014.73</v>
       </c>
       <c r="AD2">
-        <v>11038.41</v>
+        <v>12522.89</v>
       </c>
       <c r="AE2">
-        <v>12028.82</v>
+        <v>13653.49</v>
       </c>
       <c r="AF2">
-        <v>10802.11</v>
+        <v>15663.49</v>
       </c>
       <c r="AG2">
-        <v>13737</v>
+        <v>13488.9</v>
       </c>
       <c r="AH2">
-        <v>14218.8</v>
+        <v>12309.93</v>
       </c>
       <c r="AI2">
-        <v>14803.53</v>
+        <v>12490.74</v>
       </c>
       <c r="AJ2">
-        <v>13397.89</v>
+        <v>11780.13</v>
       </c>
       <c r="AK2">
-        <v>12722.59</v>
+        <v>7272.94</v>
       </c>
       <c r="AL2">
-        <v>1399.64</v>
+        <v>639.99</v>
       </c>
       <c r="AM2">
-        <v>3.64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3">
-        <v>8837.780000000001</v>
-      </c>
-      <c r="C3">
-        <v>8328.540000000001</v>
-      </c>
-      <c r="D3">
-        <v>9778.809999999999</v>
-      </c>
-      <c r="E3">
-        <v>10460.36</v>
-      </c>
-      <c r="F3">
-        <v>9508.629999999999</v>
-      </c>
-      <c r="G3">
-        <v>10344.29</v>
-      </c>
-      <c r="H3">
-        <v>10213.22</v>
-      </c>
-      <c r="I3">
-        <v>9315.93</v>
-      </c>
-      <c r="J3">
-        <v>8085.17</v>
-      </c>
-      <c r="K3">
-        <v>12005.47</v>
-      </c>
-      <c r="L3">
-        <v>9005.4</v>
-      </c>
-      <c r="M3">
-        <v>9624.040000000001</v>
-      </c>
-      <c r="N3">
-        <v>9898.809999999999</v>
-      </c>
-      <c r="O3">
-        <v>10062.66</v>
-      </c>
-      <c r="P3">
-        <v>9698.24</v>
-      </c>
-      <c r="Q3">
-        <v>6679.43</v>
-      </c>
-      <c r="R3">
-        <v>8745.879999999999</v>
-      </c>
-      <c r="S3">
-        <v>10145.89</v>
-      </c>
-      <c r="T3">
-        <v>11274.67</v>
-      </c>
-      <c r="U3">
-        <v>10879.19</v>
-      </c>
-      <c r="V3">
-        <v>11163.03</v>
-      </c>
-      <c r="W3">
-        <v>12130.95</v>
-      </c>
-      <c r="X3">
-        <v>11800.57</v>
-      </c>
-      <c r="Y3">
-        <v>12484.63</v>
-      </c>
-      <c r="Z3">
-        <v>10771.49</v>
-      </c>
-      <c r="AA3">
-        <v>13467.01</v>
-      </c>
-      <c r="AB3">
-        <v>12728.56</v>
-      </c>
-      <c r="AC3">
-        <v>13014.73</v>
-      </c>
-      <c r="AD3">
-        <v>12522.89</v>
-      </c>
-      <c r="AE3">
-        <v>13653.49</v>
-      </c>
-      <c r="AF3">
-        <v>15663.49</v>
-      </c>
-      <c r="AG3">
-        <v>13488.9</v>
-      </c>
-      <c r="AH3">
-        <v>12309.93</v>
-      </c>
-      <c r="AI3">
-        <v>12490.74</v>
-      </c>
-      <c r="AJ3">
-        <v>11779.87</v>
-      </c>
-      <c r="AK3">
-        <v>7272.94</v>
-      </c>
-      <c r="AL3">
-        <v>639.99</v>
-      </c>
-      <c r="AM3">
         <v>3.29</v>
       </c>
     </row>

--- a/mbrMoPvt_94.xlsx
+++ b/mbrMoPvt_94.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>org_id</t>
+  </si>
+  <si>
+    <t>ADAUGEOPI</t>
   </si>
   <si>
     <t>ILUMEDPI</t>
@@ -491,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM2"/>
+  <dimension ref="A1:AM3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,117 +624,236 @@
         <v>39</v>
       </c>
       <c r="B2">
+        <v>6150.12</v>
+      </c>
+      <c r="C2">
+        <v>5823.6</v>
+      </c>
+      <c r="D2">
+        <v>6440.7</v>
+      </c>
+      <c r="E2">
+        <v>7129.88</v>
+      </c>
+      <c r="F2">
+        <v>6853.6</v>
+      </c>
+      <c r="G2">
+        <v>6726.18</v>
+      </c>
+      <c r="H2">
+        <v>6820.55</v>
+      </c>
+      <c r="I2">
+        <v>7244.3</v>
+      </c>
+      <c r="J2">
+        <v>7605.29</v>
+      </c>
+      <c r="K2">
+        <v>7793.32</v>
+      </c>
+      <c r="L2">
+        <v>7446.01</v>
+      </c>
+      <c r="M2">
+        <v>6705.23</v>
+      </c>
+      <c r="N2">
+        <v>6684.75</v>
+      </c>
+      <c r="O2">
+        <v>6751.91</v>
+      </c>
+      <c r="P2">
+        <v>5638.49</v>
+      </c>
+      <c r="Q2">
+        <v>4241.49</v>
+      </c>
+      <c r="R2">
+        <v>5776.06</v>
+      </c>
+      <c r="S2">
+        <v>7476.47</v>
+      </c>
+      <c r="T2">
+        <v>6988.45</v>
+      </c>
+      <c r="U2">
+        <v>7160.53</v>
+      </c>
+      <c r="V2">
+        <v>7588.69</v>
+      </c>
+      <c r="W2">
+        <v>8214.120000000001</v>
+      </c>
+      <c r="X2">
+        <v>7875.93</v>
+      </c>
+      <c r="Y2">
+        <v>7162.69</v>
+      </c>
+      <c r="Z2">
+        <v>7419.86</v>
+      </c>
+      <c r="AA2">
+        <v>6924.86</v>
+      </c>
+      <c r="AB2">
+        <v>8947.139999999999</v>
+      </c>
+      <c r="AC2">
+        <v>9155.280000000001</v>
+      </c>
+      <c r="AD2">
+        <v>9417.09</v>
+      </c>
+      <c r="AE2">
+        <v>9854.68</v>
+      </c>
+      <c r="AF2">
+        <v>8775.16</v>
+      </c>
+      <c r="AG2">
+        <v>9461.58</v>
+      </c>
+      <c r="AH2">
+        <v>9327.940000000001</v>
+      </c>
+      <c r="AI2">
+        <v>8787.75</v>
+      </c>
+      <c r="AJ2">
+        <v>8764.719999999999</v>
+      </c>
+      <c r="AK2">
+        <v>6451.13</v>
+      </c>
+      <c r="AL2">
+        <v>560.61</v>
+      </c>
+      <c r="AM2">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
         <v>8837.780000000001</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>8328.540000000001</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>9778.809999999999</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>10460.36</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>9508.629999999999</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>10344.29</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>10213.22</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>9315.93</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>8085.17</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>12005.47</v>
       </c>
-      <c r="L2">
+      <c r="L3">
         <v>9005.4</v>
       </c>
-      <c r="M2">
+      <c r="M3">
         <v>9624.040000000001</v>
       </c>
-      <c r="N2">
+      <c r="N3">
         <v>9898.809999999999</v>
       </c>
-      <c r="O2">
+      <c r="O3">
         <v>10062.66</v>
       </c>
-      <c r="P2">
+      <c r="P3">
         <v>9698.24</v>
       </c>
-      <c r="Q2">
+      <c r="Q3">
         <v>6679.43</v>
       </c>
-      <c r="R2">
+      <c r="R3">
         <v>8745.879999999999</v>
       </c>
-      <c r="S2">
+      <c r="S3">
         <v>10145.89</v>
       </c>
-      <c r="T2">
+      <c r="T3">
         <v>11274.67</v>
       </c>
-      <c r="U2">
+      <c r="U3">
         <v>10879.19</v>
       </c>
-      <c r="V2">
+      <c r="V3">
         <v>11163.03</v>
       </c>
-      <c r="W2">
+      <c r="W3">
         <v>12130.95</v>
       </c>
-      <c r="X2">
+      <c r="X3">
         <v>11800.57</v>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <v>12484.63</v>
       </c>
-      <c r="Z2">
+      <c r="Z3">
         <v>10771.49</v>
       </c>
-      <c r="AA2">
+      <c r="AA3">
         <v>13467.01</v>
       </c>
-      <c r="AB2">
+      <c r="AB3">
         <v>12728.56</v>
       </c>
-      <c r="AC2">
+      <c r="AC3">
         <v>13014.73</v>
       </c>
-      <c r="AD2">
+      <c r="AD3">
         <v>12522.89</v>
       </c>
-      <c r="AE2">
+      <c r="AE3">
         <v>13653.49</v>
       </c>
-      <c r="AF2">
+      <c r="AF3">
         <v>15663.49</v>
       </c>
-      <c r="AG2">
+      <c r="AG3">
         <v>13488.9</v>
       </c>
-      <c r="AH2">
+      <c r="AH3">
         <v>12309.93</v>
       </c>
-      <c r="AI2">
+      <c r="AI3">
         <v>12490.74</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ3">
         <v>11780.13</v>
       </c>
-      <c r="AK2">
+      <c r="AK3">
         <v>7272.94</v>
       </c>
-      <c r="AL2">
+      <c r="AL3">
         <v>639.99</v>
       </c>
-      <c r="AM2">
+      <c r="AM3">
         <v>3.29</v>
       </c>
     </row>

--- a/mbrMoPvt_94.xlsx
+++ b/mbrMoPvt_94.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -136,7 +136,22 @@
     <t>ADAUGEOPI</t>
   </si>
   <si>
+    <t>BLUEROCKDC</t>
+  </si>
+  <si>
+    <t>CANODCE</t>
+  </si>
+  <si>
+    <t>CITYBLOCKDCE</t>
+  </si>
+  <si>
     <t>ILUMEDPI</t>
+  </si>
+  <si>
+    <t>INTERMNTUTDC</t>
+  </si>
+  <si>
+    <t>LATITUDEDC</t>
   </si>
 </sst>
 </file>
@@ -494,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM3"/>
+  <dimension ref="A1:AM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -743,118 +758,713 @@
         <v>40</v>
       </c>
       <c r="B3">
+        <v>7222.83</v>
+      </c>
+      <c r="C3">
+        <v>7750.44</v>
+      </c>
+      <c r="D3">
+        <v>8237.35</v>
+      </c>
+      <c r="E3">
+        <v>8578.549999999999</v>
+      </c>
+      <c r="F3">
+        <v>11155.42</v>
+      </c>
+      <c r="G3">
+        <v>9235.389999999999</v>
+      </c>
+      <c r="H3">
+        <v>8622.200000000001</v>
+      </c>
+      <c r="I3">
+        <v>7869.18</v>
+      </c>
+      <c r="J3">
+        <v>6854.8</v>
+      </c>
+      <c r="K3">
+        <v>11890.7</v>
+      </c>
+      <c r="L3">
+        <v>10916.61</v>
+      </c>
+      <c r="M3">
+        <v>10553.43</v>
+      </c>
+      <c r="N3">
+        <v>9244.27</v>
+      </c>
+      <c r="O3">
+        <v>8661.51</v>
+      </c>
+      <c r="P3">
+        <v>6962.21</v>
+      </c>
+      <c r="Q3">
+        <v>4474.31</v>
+      </c>
+      <c r="R3">
+        <v>6970.48</v>
+      </c>
+      <c r="S3">
+        <v>7262.08</v>
+      </c>
+      <c r="T3">
+        <v>8206.709999999999</v>
+      </c>
+      <c r="U3">
+        <v>11467.56</v>
+      </c>
+      <c r="V3">
+        <v>12212.68</v>
+      </c>
+      <c r="W3">
+        <v>12909.84</v>
+      </c>
+      <c r="X3">
+        <v>11233.65</v>
+      </c>
+      <c r="Y3">
+        <v>13363.74</v>
+      </c>
+      <c r="Z3">
+        <v>14942.64</v>
+      </c>
+      <c r="AA3">
+        <v>13441.86</v>
+      </c>
+      <c r="AB3">
+        <v>15268.8</v>
+      </c>
+      <c r="AC3">
+        <v>13792.09</v>
+      </c>
+      <c r="AD3">
+        <v>11038.41</v>
+      </c>
+      <c r="AE3">
+        <v>12028.82</v>
+      </c>
+      <c r="AF3">
+        <v>10802.11</v>
+      </c>
+      <c r="AG3">
+        <v>13737</v>
+      </c>
+      <c r="AH3">
+        <v>14218.8</v>
+      </c>
+      <c r="AI3">
+        <v>14803.53</v>
+      </c>
+      <c r="AJ3">
+        <v>13397.89</v>
+      </c>
+      <c r="AK3">
+        <v>12722.59</v>
+      </c>
+      <c r="AL3">
+        <v>1399.64</v>
+      </c>
+      <c r="AM3">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>7672.43</v>
+      </c>
+      <c r="C4">
+        <v>7664.76</v>
+      </c>
+      <c r="D4">
+        <v>8194.42</v>
+      </c>
+      <c r="E4">
+        <v>8466.120000000001</v>
+      </c>
+      <c r="F4">
+        <v>9093.33</v>
+      </c>
+      <c r="G4">
+        <v>7925</v>
+      </c>
+      <c r="H4">
+        <v>8789.93</v>
+      </c>
+      <c r="I4">
+        <v>8639.75</v>
+      </c>
+      <c r="J4">
+        <v>8091.1</v>
+      </c>
+      <c r="K4">
+        <v>8990.16</v>
+      </c>
+      <c r="L4">
+        <v>8544.27</v>
+      </c>
+      <c r="M4">
+        <v>8514.889999999999</v>
+      </c>
+      <c r="N4">
+        <v>8588.65</v>
+      </c>
+      <c r="O4">
+        <v>8753.27</v>
+      </c>
+      <c r="P4">
+        <v>7457.06</v>
+      </c>
+      <c r="Q4">
+        <v>5260.57</v>
+      </c>
+      <c r="R4">
+        <v>7329.25</v>
+      </c>
+      <c r="S4">
+        <v>8717.18</v>
+      </c>
+      <c r="T4">
+        <v>8762.35</v>
+      </c>
+      <c r="U4">
+        <v>8475.530000000001</v>
+      </c>
+      <c r="V4">
+        <v>9227.59</v>
+      </c>
+      <c r="W4">
+        <v>9877.389999999999</v>
+      </c>
+      <c r="X4">
+        <v>9451.889999999999</v>
+      </c>
+      <c r="Y4">
+        <v>10140.34</v>
+      </c>
+      <c r="Z4">
+        <v>9238.120000000001</v>
+      </c>
+      <c r="AA4">
+        <v>9347.610000000001</v>
+      </c>
+      <c r="AB4">
+        <v>10902.99</v>
+      </c>
+      <c r="AC4">
+        <v>11212.18</v>
+      </c>
+      <c r="AD4">
+        <v>10808.72</v>
+      </c>
+      <c r="AE4">
+        <v>11353.32</v>
+      </c>
+      <c r="AF4">
+        <v>11093.97</v>
+      </c>
+      <c r="AG4">
+        <v>11302.17</v>
+      </c>
+      <c r="AH4">
+        <v>11066.52</v>
+      </c>
+      <c r="AI4">
+        <v>11811.58</v>
+      </c>
+      <c r="AJ4">
+        <v>11702.66</v>
+      </c>
+      <c r="AK4">
+        <v>11360.41</v>
+      </c>
+      <c r="AL4">
+        <v>628.12</v>
+      </c>
+      <c r="AM4">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>6306.67</v>
+      </c>
+      <c r="C5">
+        <v>6425.46</v>
+      </c>
+      <c r="D5">
+        <v>7513.16</v>
+      </c>
+      <c r="E5">
+        <v>6677.87</v>
+      </c>
+      <c r="F5">
+        <v>7360.6</v>
+      </c>
+      <c r="G5">
+        <v>6997.76</v>
+      </c>
+      <c r="H5">
+        <v>6964.79</v>
+      </c>
+      <c r="I5">
+        <v>7021.88</v>
+      </c>
+      <c r="J5">
+        <v>7464.32</v>
+      </c>
+      <c r="K5">
+        <v>8034.71</v>
+      </c>
+      <c r="L5">
+        <v>7529.03</v>
+      </c>
+      <c r="M5">
+        <v>7220.63</v>
+      </c>
+      <c r="N5">
+        <v>5914.55</v>
+      </c>
+      <c r="O5">
+        <v>7077.14</v>
+      </c>
+      <c r="P5">
+        <v>5971.21</v>
+      </c>
+      <c r="Q5">
+        <v>5450.38</v>
+      </c>
+      <c r="R5">
+        <v>7491.88</v>
+      </c>
+      <c r="S5">
+        <v>7014.21</v>
+      </c>
+      <c r="T5">
+        <v>7142.59</v>
+      </c>
+      <c r="U5">
+        <v>6607.54</v>
+      </c>
+      <c r="V5">
+        <v>8099.46</v>
+      </c>
+      <c r="W5">
+        <v>8634.059999999999</v>
+      </c>
+      <c r="X5">
+        <v>8179.51</v>
+      </c>
+      <c r="Y5">
+        <v>8197.809999999999</v>
+      </c>
+      <c r="Z5">
+        <v>8338.16</v>
+      </c>
+      <c r="AA5">
+        <v>8660.709999999999</v>
+      </c>
+      <c r="AB5">
+        <v>9449.219999999999</v>
+      </c>
+      <c r="AC5">
+        <v>8961.110000000001</v>
+      </c>
+      <c r="AD5">
+        <v>8200.99</v>
+      </c>
+      <c r="AE5">
+        <v>9117.360000000001</v>
+      </c>
+      <c r="AF5">
+        <v>9691.52</v>
+      </c>
+      <c r="AG5">
+        <v>10118.68</v>
+      </c>
+      <c r="AH5">
+        <v>10058.93</v>
+      </c>
+      <c r="AI5">
+        <v>10718.9</v>
+      </c>
+      <c r="AJ5">
+        <v>10015.22</v>
+      </c>
+      <c r="AK5">
+        <v>9892.17</v>
+      </c>
+      <c r="AL5">
+        <v>593.8099999999999</v>
+      </c>
+      <c r="AM5">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
         <v>8837.780000000001</v>
       </c>
-      <c r="C3">
+      <c r="C6">
         <v>8328.540000000001</v>
       </c>
-      <c r="D3">
+      <c r="D6">
         <v>9778.809999999999</v>
       </c>
-      <c r="E3">
+      <c r="E6">
         <v>10460.36</v>
       </c>
-      <c r="F3">
+      <c r="F6">
         <v>9508.629999999999</v>
       </c>
-      <c r="G3">
+      <c r="G6">
         <v>10344.29</v>
       </c>
-      <c r="H3">
+      <c r="H6">
         <v>10213.22</v>
       </c>
-      <c r="I3">
+      <c r="I6">
         <v>9315.93</v>
       </c>
-      <c r="J3">
+      <c r="J6">
         <v>8085.17</v>
       </c>
-      <c r="K3">
+      <c r="K6">
         <v>12005.47</v>
       </c>
-      <c r="L3">
+      <c r="L6">
         <v>9005.4</v>
       </c>
-      <c r="M3">
+      <c r="M6">
         <v>9624.040000000001</v>
       </c>
-      <c r="N3">
+      <c r="N6">
         <v>9898.809999999999</v>
       </c>
-      <c r="O3">
+      <c r="O6">
         <v>10062.66</v>
       </c>
-      <c r="P3">
+      <c r="P6">
         <v>9698.24</v>
       </c>
-      <c r="Q3">
+      <c r="Q6">
         <v>6679.43</v>
       </c>
-      <c r="R3">
+      <c r="R6">
         <v>8745.879999999999</v>
       </c>
-      <c r="S3">
+      <c r="S6">
         <v>10145.89</v>
       </c>
-      <c r="T3">
+      <c r="T6">
         <v>11274.67</v>
       </c>
-      <c r="U3">
+      <c r="U6">
         <v>10879.19</v>
       </c>
-      <c r="V3">
+      <c r="V6">
         <v>11163.03</v>
       </c>
-      <c r="W3">
+      <c r="W6">
         <v>12130.95</v>
       </c>
-      <c r="X3">
+      <c r="X6">
         <v>11800.57</v>
       </c>
-      <c r="Y3">
+      <c r="Y6">
         <v>12484.63</v>
       </c>
-      <c r="Z3">
+      <c r="Z6">
         <v>10771.49</v>
       </c>
-      <c r="AA3">
+      <c r="AA6">
         <v>13467.01</v>
       </c>
-      <c r="AB3">
+      <c r="AB6">
         <v>12728.56</v>
       </c>
-      <c r="AC3">
+      <c r="AC6">
         <v>13014.73</v>
       </c>
-      <c r="AD3">
+      <c r="AD6">
         <v>12522.89</v>
       </c>
-      <c r="AE3">
+      <c r="AE6">
         <v>13653.49</v>
       </c>
-      <c r="AF3">
+      <c r="AF6">
         <v>15663.49</v>
       </c>
-      <c r="AG3">
+      <c r="AG6">
         <v>13488.9</v>
       </c>
-      <c r="AH3">
+      <c r="AH6">
         <v>12309.93</v>
       </c>
-      <c r="AI3">
+      <c r="AI6">
         <v>12490.74</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ6">
         <v>11780.13</v>
       </c>
-      <c r="AK3">
+      <c r="AK6">
         <v>7272.94</v>
       </c>
-      <c r="AL3">
+      <c r="AL6">
         <v>639.99</v>
       </c>
-      <c r="AM3">
+      <c r="AM6">
         <v>3.29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7">
+        <v>7008.25</v>
+      </c>
+      <c r="C7">
+        <v>6915.29</v>
+      </c>
+      <c r="D7">
+        <v>7771.55</v>
+      </c>
+      <c r="E7">
+        <v>7811.22</v>
+      </c>
+      <c r="F7">
+        <v>8108.12</v>
+      </c>
+      <c r="G7">
+        <v>7236.54</v>
+      </c>
+      <c r="H7">
+        <v>7257.66</v>
+      </c>
+      <c r="I7">
+        <v>7718.22</v>
+      </c>
+      <c r="J7">
+        <v>7431.46</v>
+      </c>
+      <c r="K7">
+        <v>8688.08</v>
+      </c>
+      <c r="L7">
+        <v>7510.51</v>
+      </c>
+      <c r="M7">
+        <v>7580.47</v>
+      </c>
+      <c r="N7">
+        <v>7187.08</v>
+      </c>
+      <c r="O7">
+        <v>7266.93</v>
+      </c>
+      <c r="P7">
+        <v>6649.36</v>
+      </c>
+      <c r="Q7">
+        <v>4719.8</v>
+      </c>
+      <c r="R7">
+        <v>6136.1</v>
+      </c>
+      <c r="S7">
+        <v>7549.26</v>
+      </c>
+      <c r="T7">
+        <v>8191.13</v>
+      </c>
+      <c r="U7">
+        <v>8031</v>
+      </c>
+      <c r="V7">
+        <v>8512.440000000001</v>
+      </c>
+      <c r="W7">
+        <v>8857.450000000001</v>
+      </c>
+      <c r="X7">
+        <v>8137</v>
+      </c>
+      <c r="Y7">
+        <v>8656.200000000001</v>
+      </c>
+      <c r="Z7">
+        <v>7652.77</v>
+      </c>
+      <c r="AA7">
+        <v>7666.49</v>
+      </c>
+      <c r="AB7">
+        <v>9282.74</v>
+      </c>
+      <c r="AC7">
+        <v>9322.85</v>
+      </c>
+      <c r="AD7">
+        <v>9242.09</v>
+      </c>
+      <c r="AE7">
+        <v>9317.51</v>
+      </c>
+      <c r="AF7">
+        <v>9578.08</v>
+      </c>
+      <c r="AG7">
+        <v>9825.549999999999</v>
+      </c>
+      <c r="AH7">
+        <v>9933.09</v>
+      </c>
+      <c r="AI7">
+        <v>9848.73</v>
+      </c>
+      <c r="AJ7">
+        <v>9385.059999999999</v>
+      </c>
+      <c r="AK7">
+        <v>8343.629999999999</v>
+      </c>
+      <c r="AL7">
+        <v>654.3</v>
+      </c>
+      <c r="AM7">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>6892.17</v>
+      </c>
+      <c r="C8">
+        <v>6765.63</v>
+      </c>
+      <c r="D8">
+        <v>6695.52</v>
+      </c>
+      <c r="E8">
+        <v>7889.41</v>
+      </c>
+      <c r="F8">
+        <v>8885.57</v>
+      </c>
+      <c r="G8">
+        <v>7122.58</v>
+      </c>
+      <c r="H8">
+        <v>7919.98</v>
+      </c>
+      <c r="I8">
+        <v>8509.91</v>
+      </c>
+      <c r="J8">
+        <v>7121.89</v>
+      </c>
+      <c r="K8">
+        <v>8164.06</v>
+      </c>
+      <c r="L8">
+        <v>8075.48</v>
+      </c>
+      <c r="M8">
+        <v>6485.17</v>
+      </c>
+      <c r="N8">
+        <v>5856.5</v>
+      </c>
+      <c r="O8">
+        <v>8460.93</v>
+      </c>
+      <c r="P8">
+        <v>6883.08</v>
+      </c>
+      <c r="Q8">
+        <v>5876.05</v>
+      </c>
+      <c r="R8">
+        <v>7720.53</v>
+      </c>
+      <c r="S8">
+        <v>7050.53</v>
+      </c>
+      <c r="T8">
+        <v>8412.040000000001</v>
+      </c>
+      <c r="U8">
+        <v>9538.32</v>
+      </c>
+      <c r="V8">
+        <v>9948.08</v>
+      </c>
+      <c r="W8">
+        <v>9980.33</v>
+      </c>
+      <c r="X8">
+        <v>8532.620000000001</v>
+      </c>
+      <c r="Y8">
+        <v>8613.48</v>
+      </c>
+      <c r="Z8">
+        <v>7981.86</v>
+      </c>
+      <c r="AA8">
+        <v>6252.86</v>
+      </c>
+      <c r="AB8">
+        <v>8271.33</v>
+      </c>
+      <c r="AC8">
+        <v>9046.959999999999</v>
+      </c>
+      <c r="AD8">
+        <v>9268.07</v>
+      </c>
+      <c r="AE8">
+        <v>8809.67</v>
+      </c>
+      <c r="AF8">
+        <v>8891.02</v>
+      </c>
+      <c r="AG8">
+        <v>9178.67</v>
+      </c>
+      <c r="AH8">
+        <v>9443.51</v>
+      </c>
+      <c r="AI8">
+        <v>9565.360000000001</v>
+      </c>
+      <c r="AJ8">
+        <v>11907.27</v>
+      </c>
+      <c r="AK8">
+        <v>9983.17</v>
+      </c>
+      <c r="AL8">
+        <v>594.5599999999999</v>
+      </c>
+      <c r="AM8">
+        <v>1.65</v>
       </c>
     </row>
   </sheetData>

--- a/mbrMoPvt_94.xlsx
+++ b/mbrMoPvt_94.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -130,28 +130,58 @@
     <t>m-2022-02</t>
   </si>
   <si>
+    <t>m-2022-03</t>
+  </si>
+  <si>
     <t>org_id</t>
   </si>
   <si>
-    <t>ADAUGEOPI</t>
-  </si>
-  <si>
-    <t>BLUEROCKDC</t>
-  </si>
-  <si>
-    <t>CANODCE</t>
-  </si>
-  <si>
-    <t>CITYBLOCKDCE</t>
-  </si>
-  <si>
-    <t>ILUMEDPI</t>
-  </si>
-  <si>
-    <t>INTERMNTUTDC</t>
-  </si>
-  <si>
-    <t>LATITUDEDC</t>
+    <t>A1052</t>
+  </si>
+  <si>
+    <t>A2024</t>
+  </si>
+  <si>
+    <t>A2251</t>
+  </si>
+  <si>
+    <t>A2575</t>
+  </si>
+  <si>
+    <t>A2841</t>
+  </si>
+  <si>
+    <t>A3229</t>
+  </si>
+  <si>
+    <t>A3320</t>
+  </si>
+  <si>
+    <t>A3327</t>
+  </si>
+  <si>
+    <t>A3367</t>
+  </si>
+  <si>
+    <t>A3632</t>
+  </si>
+  <si>
+    <t>A3667</t>
+  </si>
+  <si>
+    <t>A3669</t>
+  </si>
+  <si>
+    <t>A3822</t>
+  </si>
+  <si>
+    <t>A4585</t>
+  </si>
+  <si>
+    <t>A4709</t>
+  </si>
+  <si>
+    <t>A4768</t>
   </si>
 </sst>
 </file>
@@ -509,15 +539,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM8"/>
+  <dimension ref="A1:AN17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -633,838 +663,1942 @@
       <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:40">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>6150.12</v>
+        <v>9094.93</v>
       </c>
       <c r="C2">
-        <v>5823.6</v>
+        <v>9554.059999999999</v>
       </c>
       <c r="D2">
-        <v>6440.7</v>
+        <v>11445.7</v>
       </c>
       <c r="E2">
-        <v>7129.88</v>
+        <v>10733.81</v>
       </c>
       <c r="F2">
-        <v>6853.6</v>
+        <v>11513.88</v>
       </c>
       <c r="G2">
-        <v>6726.18</v>
+        <v>10355.06</v>
       </c>
       <c r="H2">
-        <v>6820.55</v>
+        <v>10561.49</v>
       </c>
       <c r="I2">
-        <v>7244.3</v>
+        <v>11732.48</v>
       </c>
       <c r="J2">
-        <v>7605.29</v>
+        <v>9547.85</v>
       </c>
       <c r="K2">
-        <v>7793.32</v>
+        <v>9187</v>
       </c>
       <c r="L2">
-        <v>7446.01</v>
+        <v>8820.639999999999</v>
       </c>
       <c r="M2">
-        <v>6705.23</v>
+        <v>8617.139999999999</v>
       </c>
       <c r="N2">
-        <v>6684.75</v>
+        <v>9356.09</v>
       </c>
       <c r="O2">
-        <v>6751.91</v>
+        <v>9637.200000000001</v>
       </c>
       <c r="P2">
-        <v>5638.49</v>
+        <v>8084.73</v>
       </c>
       <c r="Q2">
-        <v>4241.49</v>
+        <v>7347.64</v>
       </c>
       <c r="R2">
-        <v>5776.06</v>
+        <v>8074.43</v>
       </c>
       <c r="S2">
-        <v>7476.47</v>
+        <v>9531.559999999999</v>
       </c>
       <c r="T2">
-        <v>6988.45</v>
+        <v>9690.370000000001</v>
       </c>
       <c r="U2">
-        <v>7160.53</v>
+        <v>10515.51</v>
       </c>
       <c r="V2">
-        <v>7588.69</v>
+        <v>9676.27</v>
       </c>
       <c r="W2">
-        <v>8214.120000000001</v>
+        <v>10265.22</v>
       </c>
       <c r="X2">
-        <v>7875.93</v>
+        <v>9334.139999999999</v>
       </c>
       <c r="Y2">
-        <v>7162.69</v>
+        <v>10030.05</v>
       </c>
       <c r="Z2">
-        <v>7419.86</v>
+        <v>11287.14</v>
       </c>
       <c r="AA2">
-        <v>6924.86</v>
+        <v>9978.040000000001</v>
       </c>
       <c r="AB2">
-        <v>8947.139999999999</v>
+        <v>10684.61</v>
       </c>
       <c r="AC2">
-        <v>9155.280000000001</v>
+        <v>10948.24</v>
       </c>
       <c r="AD2">
-        <v>9417.09</v>
+        <v>11089.41</v>
       </c>
       <c r="AE2">
-        <v>9854.68</v>
+        <v>11569.57</v>
       </c>
       <c r="AF2">
-        <v>8775.16</v>
+        <v>10601.25</v>
       </c>
       <c r="AG2">
-        <v>9461.58</v>
+        <v>11441.75</v>
       </c>
       <c r="AH2">
-        <v>9327.940000000001</v>
+        <v>10706.16</v>
       </c>
       <c r="AI2">
-        <v>8787.75</v>
+        <v>10705.15</v>
       </c>
       <c r="AJ2">
-        <v>8764.719999999999</v>
+        <v>10802.07</v>
       </c>
       <c r="AK2">
-        <v>6451.13</v>
+        <v>11267.75</v>
       </c>
       <c r="AL2">
-        <v>560.61</v>
+        <v>5897.03</v>
       </c>
       <c r="AM2">
-        <v>2.26</v>
+        <v>806.5599999999999</v>
+      </c>
+      <c r="AN2">
+        <v>1.55</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:40">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>7222.83</v>
+        <v>11900.9</v>
       </c>
       <c r="C3">
-        <v>7750.44</v>
+        <v>11282.3</v>
       </c>
       <c r="D3">
-        <v>8237.35</v>
+        <v>12178.08</v>
       </c>
       <c r="E3">
-        <v>8578.549999999999</v>
+        <v>12518.02</v>
       </c>
       <c r="F3">
-        <v>11155.42</v>
+        <v>12944.98</v>
       </c>
       <c r="G3">
-        <v>9235.389999999999</v>
+        <v>11723.53</v>
       </c>
       <c r="H3">
-        <v>8622.200000000001</v>
+        <v>12054.74</v>
       </c>
       <c r="I3">
-        <v>7869.18</v>
+        <v>12095.03</v>
       </c>
       <c r="J3">
-        <v>6854.8</v>
+        <v>11596.24</v>
       </c>
       <c r="K3">
-        <v>11890.7</v>
+        <v>13441.38</v>
       </c>
       <c r="L3">
-        <v>10916.61</v>
+        <v>12185.02</v>
       </c>
       <c r="M3">
-        <v>10553.43</v>
+        <v>12117.96</v>
       </c>
       <c r="N3">
-        <v>9244.27</v>
+        <v>11845.06</v>
       </c>
       <c r="O3">
-        <v>8661.51</v>
+        <v>11492.94</v>
       </c>
       <c r="P3">
-        <v>6962.21</v>
+        <v>9779.09</v>
       </c>
       <c r="Q3">
-        <v>4474.31</v>
+        <v>7436.12</v>
       </c>
       <c r="R3">
-        <v>6970.48</v>
+        <v>8700.129999999999</v>
       </c>
       <c r="S3">
-        <v>7262.08</v>
+        <v>10523.77</v>
       </c>
       <c r="T3">
-        <v>8206.709999999999</v>
+        <v>11351.11</v>
       </c>
       <c r="U3">
-        <v>11467.56</v>
+        <v>11058</v>
       </c>
       <c r="V3">
-        <v>12212.68</v>
+        <v>11583.87</v>
       </c>
       <c r="W3">
-        <v>12909.84</v>
+        <v>12405.11</v>
       </c>
       <c r="X3">
-        <v>11233.65</v>
+        <v>11338.98</v>
       </c>
       <c r="Y3">
-        <v>13363.74</v>
+        <v>12005.9</v>
       </c>
       <c r="Z3">
-        <v>14942.64</v>
+        <v>10985.31</v>
       </c>
       <c r="AA3">
-        <v>13441.86</v>
+        <v>10355.52</v>
       </c>
       <c r="AB3">
-        <v>15268.8</v>
+        <v>12209.94</v>
       </c>
       <c r="AC3">
-        <v>13792.09</v>
+        <v>12303.71</v>
       </c>
       <c r="AD3">
-        <v>11038.41</v>
+        <v>11990.84</v>
       </c>
       <c r="AE3">
-        <v>12028.82</v>
+        <v>12304.91</v>
       </c>
       <c r="AF3">
-        <v>10802.11</v>
+        <v>11570.79</v>
       </c>
       <c r="AG3">
-        <v>13737</v>
+        <v>11665.87</v>
       </c>
       <c r="AH3">
-        <v>14218.8</v>
+        <v>12199.45</v>
       </c>
       <c r="AI3">
-        <v>14803.53</v>
+        <v>12596.09</v>
       </c>
       <c r="AJ3">
-        <v>13397.89</v>
+        <v>12101.45</v>
       </c>
       <c r="AK3">
-        <v>12722.59</v>
+        <v>11737.73</v>
       </c>
       <c r="AL3">
-        <v>1399.64</v>
+        <v>8560.959999999999</v>
       </c>
       <c r="AM3">
-        <v>3.64</v>
+        <v>1964.47</v>
+      </c>
+      <c r="AN3">
+        <v>2.7</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:40">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>7672.43</v>
+        <v>10264.22</v>
       </c>
       <c r="C4">
-        <v>7664.76</v>
+        <v>10284.13</v>
       </c>
       <c r="D4">
-        <v>8194.42</v>
+        <v>11441.58</v>
       </c>
       <c r="E4">
-        <v>8466.120000000001</v>
+        <v>10953.43</v>
       </c>
       <c r="F4">
-        <v>9093.33</v>
+        <v>11524.64</v>
       </c>
       <c r="G4">
-        <v>7925</v>
+        <v>10696.47</v>
       </c>
       <c r="H4">
-        <v>8789.93</v>
+        <v>10423.29</v>
       </c>
       <c r="I4">
-        <v>8639.75</v>
+        <v>10514.56</v>
       </c>
       <c r="J4">
-        <v>8091.1</v>
+        <v>10491.73</v>
       </c>
       <c r="K4">
-        <v>8990.16</v>
+        <v>11445.08</v>
       </c>
       <c r="L4">
-        <v>8544.27</v>
+        <v>10268.66</v>
       </c>
       <c r="M4">
-        <v>8514.889999999999</v>
+        <v>10397.21</v>
       </c>
       <c r="N4">
-        <v>8588.65</v>
+        <v>10369.04</v>
       </c>
       <c r="O4">
-        <v>8753.27</v>
+        <v>10796.45</v>
       </c>
       <c r="P4">
-        <v>7457.06</v>
+        <v>9706.940000000001</v>
       </c>
       <c r="Q4">
-        <v>5260.57</v>
+        <v>7548.78</v>
       </c>
       <c r="R4">
-        <v>7329.25</v>
+        <v>8515.58</v>
       </c>
       <c r="S4">
-        <v>8717.18</v>
+        <v>9814.200000000001</v>
       </c>
       <c r="T4">
-        <v>8762.35</v>
+        <v>10762.33</v>
       </c>
       <c r="U4">
-        <v>8475.530000000001</v>
+        <v>10150.15</v>
       </c>
       <c r="V4">
-        <v>9227.59</v>
+        <v>10635.08</v>
       </c>
       <c r="W4">
-        <v>9877.389999999999</v>
+        <v>11039.12</v>
       </c>
       <c r="X4">
-        <v>9451.889999999999</v>
+        <v>10180.16</v>
       </c>
       <c r="Y4">
-        <v>10140.34</v>
+        <v>11332.57</v>
       </c>
       <c r="Z4">
-        <v>9238.120000000001</v>
+        <v>9642.84</v>
       </c>
       <c r="AA4">
-        <v>9347.610000000001</v>
+        <v>9929.389999999999</v>
       </c>
       <c r="AB4">
-        <v>10902.99</v>
+        <v>11266.12</v>
       </c>
       <c r="AC4">
-        <v>11212.18</v>
+        <v>11265.46</v>
       </c>
       <c r="AD4">
-        <v>10808.72</v>
+        <v>10409.5</v>
       </c>
       <c r="AE4">
-        <v>11353.32</v>
+        <v>10972.15</v>
       </c>
       <c r="AF4">
-        <v>11093.97</v>
+        <v>11067.29</v>
       </c>
       <c r="AG4">
-        <v>11302.17</v>
+        <v>11071.55</v>
       </c>
       <c r="AH4">
-        <v>11066.52</v>
+        <v>10919.2</v>
       </c>
       <c r="AI4">
-        <v>11811.58</v>
+        <v>10757.14</v>
       </c>
       <c r="AJ4">
-        <v>11702.66</v>
+        <v>8558.26</v>
       </c>
       <c r="AK4">
-        <v>11360.41</v>
+        <v>8531.66</v>
       </c>
       <c r="AL4">
-        <v>628.12</v>
+        <v>7856.42</v>
       </c>
       <c r="AM4">
-        <v>3.47</v>
+        <v>1419.86</v>
+      </c>
+      <c r="AN4">
+        <v>1.91</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:40">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>6306.67</v>
+        <v>9973.379999999999</v>
       </c>
       <c r="C5">
-        <v>6425.46</v>
+        <v>9817.84</v>
       </c>
       <c r="D5">
-        <v>7513.16</v>
+        <v>10498.43</v>
       </c>
       <c r="E5">
-        <v>6677.87</v>
+        <v>10614.96</v>
       </c>
       <c r="F5">
-        <v>7360.6</v>
+        <v>10875.45</v>
       </c>
       <c r="G5">
-        <v>6997.76</v>
+        <v>9835.24</v>
       </c>
       <c r="H5">
-        <v>6964.79</v>
+        <v>10444.41</v>
       </c>
       <c r="I5">
-        <v>7021.88</v>
+        <v>10826.01</v>
       </c>
       <c r="J5">
-        <v>7464.32</v>
+        <v>9861.98</v>
       </c>
       <c r="K5">
-        <v>8034.71</v>
+        <v>11363.63</v>
       </c>
       <c r="L5">
-        <v>7529.03</v>
+        <v>8894.58</v>
       </c>
       <c r="M5">
-        <v>7220.63</v>
+        <v>9749.809999999999</v>
       </c>
       <c r="N5">
-        <v>5914.55</v>
+        <v>9747.08</v>
       </c>
       <c r="O5">
-        <v>7077.14</v>
+        <v>9760.700000000001</v>
       </c>
       <c r="P5">
-        <v>5971.21</v>
+        <v>8893.58</v>
       </c>
       <c r="Q5">
-        <v>5450.38</v>
+        <v>7190.82</v>
       </c>
       <c r="R5">
-        <v>7491.88</v>
+        <v>8957.02</v>
       </c>
       <c r="S5">
-        <v>7014.21</v>
+        <v>10335.37</v>
       </c>
       <c r="T5">
-        <v>7142.59</v>
+        <v>10644.47</v>
       </c>
       <c r="U5">
-        <v>6607.54</v>
+        <v>10385.11</v>
       </c>
       <c r="V5">
-        <v>8099.46</v>
+        <v>10821.72</v>
       </c>
       <c r="W5">
-        <v>8634.059999999999</v>
+        <v>11104.87</v>
       </c>
       <c r="X5">
-        <v>8179.51</v>
+        <v>9984.469999999999</v>
       </c>
       <c r="Y5">
-        <v>8197.809999999999</v>
+        <v>11308.81</v>
       </c>
       <c r="Z5">
-        <v>8338.16</v>
+        <v>10848.58</v>
       </c>
       <c r="AA5">
-        <v>8660.709999999999</v>
+        <v>10261.25</v>
       </c>
       <c r="AB5">
-        <v>9449.219999999999</v>
+        <v>11952.38</v>
       </c>
       <c r="AC5">
-        <v>8961.110000000001</v>
+        <v>10970.89</v>
       </c>
       <c r="AD5">
-        <v>8200.99</v>
+        <v>10757.07</v>
       </c>
       <c r="AE5">
-        <v>9117.360000000001</v>
+        <v>10874.25</v>
       </c>
       <c r="AF5">
-        <v>9691.52</v>
+        <v>10920.73</v>
       </c>
       <c r="AG5">
-        <v>10118.68</v>
+        <v>11257.09</v>
       </c>
       <c r="AH5">
-        <v>10058.93</v>
+        <v>11260.02</v>
       </c>
       <c r="AI5">
-        <v>10718.9</v>
+        <v>11385.81</v>
       </c>
       <c r="AJ5">
-        <v>10015.22</v>
+        <v>10827.92</v>
       </c>
       <c r="AK5">
-        <v>9892.17</v>
+        <v>10584.59</v>
       </c>
       <c r="AL5">
-        <v>593.8099999999999</v>
+        <v>6234.17</v>
       </c>
       <c r="AM5">
-        <v>2.22</v>
+        <v>1231.39</v>
+      </c>
+      <c r="AN5">
+        <v>3.49</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:40">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>8837.780000000001</v>
+        <v>9618.85</v>
       </c>
       <c r="C6">
-        <v>8328.540000000001</v>
+        <v>9080.17</v>
       </c>
       <c r="D6">
-        <v>9778.809999999999</v>
+        <v>10339.45</v>
       </c>
       <c r="E6">
-        <v>10460.36</v>
+        <v>9888.780000000001</v>
       </c>
       <c r="F6">
-        <v>9508.629999999999</v>
+        <v>10322.79</v>
       </c>
       <c r="G6">
-        <v>10344.29</v>
+        <v>9183.17</v>
       </c>
       <c r="H6">
-        <v>10213.22</v>
+        <v>10245.94</v>
       </c>
       <c r="I6">
-        <v>9315.93</v>
+        <v>9962.790000000001</v>
       </c>
       <c r="J6">
-        <v>8085.17</v>
+        <v>9548.129999999999</v>
       </c>
       <c r="K6">
-        <v>12005.47</v>
+        <v>11600.15</v>
       </c>
       <c r="L6">
-        <v>9005.4</v>
+        <v>8195.700000000001</v>
       </c>
       <c r="M6">
-        <v>9624.040000000001</v>
+        <v>9001</v>
       </c>
       <c r="N6">
-        <v>9898.809999999999</v>
+        <v>9281.24</v>
       </c>
       <c r="O6">
-        <v>10062.66</v>
+        <v>9389.49</v>
       </c>
       <c r="P6">
-        <v>9698.24</v>
+        <v>9148.65</v>
       </c>
       <c r="Q6">
-        <v>6679.43</v>
+        <v>7108.26</v>
       </c>
       <c r="R6">
-        <v>8745.879999999999</v>
+        <v>8211.9</v>
       </c>
       <c r="S6">
-        <v>10145.89</v>
+        <v>9712.74</v>
       </c>
       <c r="T6">
-        <v>11274.67</v>
+        <v>10193.79</v>
       </c>
       <c r="U6">
-        <v>10879.19</v>
+        <v>11200.87</v>
       </c>
       <c r="V6">
-        <v>11163.03</v>
+        <v>10418.15</v>
       </c>
       <c r="W6">
-        <v>12130.95</v>
+        <v>10186.76</v>
       </c>
       <c r="X6">
-        <v>11800.57</v>
+        <v>9487.91</v>
       </c>
       <c r="Y6">
-        <v>12484.63</v>
+        <v>9820.110000000001</v>
       </c>
       <c r="Z6">
-        <v>10771.49</v>
+        <v>9514.139999999999</v>
       </c>
       <c r="AA6">
-        <v>13467.01</v>
+        <v>10516.12</v>
       </c>
       <c r="AB6">
-        <v>12728.56</v>
+        <v>11915.72</v>
       </c>
       <c r="AC6">
-        <v>13014.73</v>
+        <v>9819.83</v>
       </c>
       <c r="AD6">
-        <v>12522.89</v>
+        <v>9565.809999999999</v>
       </c>
       <c r="AE6">
-        <v>13653.49</v>
+        <v>9885.74</v>
       </c>
       <c r="AF6">
-        <v>15663.49</v>
+        <v>10371.94</v>
       </c>
       <c r="AG6">
-        <v>13488.9</v>
+        <v>9627.25</v>
       </c>
       <c r="AH6">
-        <v>12309.93</v>
-      </c>
-      <c r="AI6">
-        <v>12490.74</v>
-      </c>
-      <c r="AJ6">
-        <v>11780.13</v>
-      </c>
-      <c r="AK6">
-        <v>7272.94</v>
-      </c>
-      <c r="AL6">
-        <v>639.99</v>
-      </c>
-      <c r="AM6">
-        <v>3.29</v>
+        <v>9232.76</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:40">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>7008.25</v>
+        <v>9482.82</v>
       </c>
       <c r="C7">
-        <v>6915.29</v>
+        <v>9220.389999999999</v>
       </c>
       <c r="D7">
-        <v>7771.55</v>
+        <v>9982.32</v>
       </c>
       <c r="E7">
-        <v>7811.22</v>
+        <v>10795.02</v>
       </c>
       <c r="F7">
-        <v>8108.12</v>
+        <v>11106.64</v>
       </c>
       <c r="G7">
-        <v>7236.54</v>
+        <v>10093.94</v>
       </c>
       <c r="H7">
-        <v>7257.66</v>
+        <v>10315.29</v>
       </c>
       <c r="I7">
-        <v>7718.22</v>
+        <v>10929.27</v>
       </c>
       <c r="J7">
-        <v>7431.46</v>
+        <v>10313.21</v>
       </c>
       <c r="K7">
-        <v>8688.08</v>
+        <v>10076.56</v>
       </c>
       <c r="L7">
-        <v>7510.51</v>
+        <v>9183.780000000001</v>
       </c>
       <c r="M7">
-        <v>7580.47</v>
+        <v>9436.530000000001</v>
       </c>
       <c r="N7">
-        <v>7187.08</v>
+        <v>9745.27</v>
       </c>
       <c r="O7">
-        <v>7266.93</v>
+        <v>9916.219999999999</v>
       </c>
       <c r="P7">
-        <v>6649.36</v>
+        <v>8845.01</v>
       </c>
       <c r="Q7">
-        <v>4719.8</v>
+        <v>6762.32</v>
       </c>
       <c r="R7">
-        <v>6136.1</v>
+        <v>8852.889999999999</v>
       </c>
       <c r="S7">
-        <v>7549.26</v>
+        <v>10355.21</v>
       </c>
       <c r="T7">
-        <v>8191.13</v>
+        <v>9874.09</v>
       </c>
       <c r="U7">
-        <v>8031</v>
+        <v>9961.719999999999</v>
       </c>
       <c r="V7">
-        <v>8512.440000000001</v>
+        <v>10357.55</v>
       </c>
       <c r="W7">
-        <v>8857.450000000001</v>
+        <v>10969.84</v>
       </c>
       <c r="X7">
-        <v>8137</v>
+        <v>10048.74</v>
       </c>
       <c r="Y7">
-        <v>8656.200000000001</v>
+        <v>11195.29</v>
       </c>
       <c r="Z7">
-        <v>7652.77</v>
+        <v>9295.34</v>
       </c>
       <c r="AA7">
-        <v>7666.49</v>
+        <v>9887.02</v>
       </c>
       <c r="AB7">
-        <v>9282.74</v>
+        <v>10839.86</v>
       </c>
       <c r="AC7">
-        <v>9322.85</v>
+        <v>10669.55</v>
       </c>
       <c r="AD7">
-        <v>9242.09</v>
+        <v>10338.91</v>
       </c>
       <c r="AE7">
-        <v>9317.51</v>
+        <v>10530.99</v>
       </c>
       <c r="AF7">
-        <v>9578.08</v>
+        <v>9809.790000000001</v>
       </c>
       <c r="AG7">
-        <v>9825.549999999999</v>
+        <v>10940.16</v>
       </c>
       <c r="AH7">
-        <v>9933.09</v>
+        <v>10728.88</v>
       </c>
       <c r="AI7">
-        <v>9848.73</v>
+        <v>10471.39</v>
       </c>
       <c r="AJ7">
-        <v>9385.059999999999</v>
+        <v>8307.07</v>
       </c>
       <c r="AK7">
-        <v>8343.629999999999</v>
+        <v>7812.54</v>
       </c>
       <c r="AL7">
-        <v>654.3</v>
+        <v>7331.53</v>
       </c>
       <c r="AM7">
-        <v>4.5</v>
+        <v>1743.16</v>
+      </c>
+      <c r="AN7">
+        <v>2.55</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:40">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>6892.17</v>
+        <v>12509.52</v>
       </c>
       <c r="C8">
-        <v>6765.63</v>
+        <v>12592.77</v>
       </c>
       <c r="D8">
-        <v>6695.52</v>
+        <v>12984.5</v>
       </c>
       <c r="E8">
-        <v>7889.41</v>
+        <v>14494.11</v>
       </c>
       <c r="F8">
-        <v>8885.57</v>
+        <v>13962.19</v>
       </c>
       <c r="G8">
-        <v>7122.58</v>
+        <v>12507.28</v>
       </c>
       <c r="H8">
-        <v>7919.98</v>
+        <v>13017.52</v>
       </c>
       <c r="I8">
-        <v>8509.91</v>
+        <v>12876.88</v>
       </c>
       <c r="J8">
-        <v>7121.89</v>
+        <v>12295.14</v>
       </c>
       <c r="K8">
-        <v>8164.06</v>
+        <v>13328.99</v>
       </c>
       <c r="L8">
-        <v>8075.48</v>
+        <v>12803.09</v>
       </c>
       <c r="M8">
-        <v>6485.17</v>
+        <v>13535.55</v>
       </c>
       <c r="N8">
-        <v>5856.5</v>
+        <v>13371.29</v>
       </c>
       <c r="O8">
-        <v>8460.93</v>
+        <v>12885.12</v>
       </c>
       <c r="P8">
-        <v>6883.08</v>
+        <v>12318.08</v>
       </c>
       <c r="Q8">
-        <v>5876.05</v>
+        <v>8868.049999999999</v>
       </c>
       <c r="R8">
-        <v>7720.53</v>
+        <v>11609.71</v>
       </c>
       <c r="S8">
-        <v>7050.53</v>
+        <v>13086.62</v>
       </c>
       <c r="T8">
-        <v>8412.040000000001</v>
+        <v>13674.02</v>
       </c>
       <c r="U8">
-        <v>9538.32</v>
+        <v>13603.59</v>
       </c>
       <c r="V8">
-        <v>9948.08</v>
+        <v>13382.33</v>
       </c>
       <c r="W8">
-        <v>9980.33</v>
+        <v>14188.33</v>
       </c>
       <c r="X8">
-        <v>8532.620000000001</v>
+        <v>14724.64</v>
       </c>
       <c r="Y8">
-        <v>8613.48</v>
+        <v>15364.09</v>
       </c>
       <c r="Z8">
-        <v>7981.86</v>
+        <v>12372.11</v>
       </c>
       <c r="AA8">
-        <v>6252.86</v>
+        <v>11432.7</v>
       </c>
       <c r="AB8">
-        <v>8271.33</v>
+        <v>13509.15</v>
       </c>
       <c r="AC8">
-        <v>9046.959999999999</v>
+        <v>13641.46</v>
       </c>
       <c r="AD8">
-        <v>9268.07</v>
+        <v>13542.87</v>
       </c>
       <c r="AE8">
-        <v>8809.67</v>
+        <v>13220.07</v>
       </c>
       <c r="AF8">
-        <v>8891.02</v>
+        <v>13773.21</v>
       </c>
       <c r="AG8">
-        <v>9178.67</v>
+        <v>14055.48</v>
       </c>
       <c r="AH8">
-        <v>9443.51</v>
+        <v>13553.76</v>
       </c>
       <c r="AI8">
-        <v>9565.360000000001</v>
+        <v>12993.84</v>
       </c>
       <c r="AJ8">
-        <v>11907.27</v>
+        <v>12672.78</v>
       </c>
       <c r="AK8">
-        <v>9983.17</v>
+        <v>12752.22</v>
       </c>
       <c r="AL8">
-        <v>594.5599999999999</v>
+        <v>7002.25</v>
       </c>
       <c r="AM8">
-        <v>1.65</v>
+        <v>972.22</v>
+      </c>
+      <c r="AN8">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>14016.74</v>
+      </c>
+      <c r="C9">
+        <v>12631.65</v>
+      </c>
+      <c r="D9">
+        <v>14527.32</v>
+      </c>
+      <c r="E9">
+        <v>14108.57</v>
+      </c>
+      <c r="F9">
+        <v>15524.23</v>
+      </c>
+      <c r="G9">
+        <v>13282.77</v>
+      </c>
+      <c r="H9">
+        <v>16171.71</v>
+      </c>
+      <c r="I9">
+        <v>15196.28</v>
+      </c>
+      <c r="J9">
+        <v>14722.22</v>
+      </c>
+      <c r="K9">
+        <v>16869.72</v>
+      </c>
+      <c r="L9">
+        <v>15409.5</v>
+      </c>
+      <c r="M9">
+        <v>15724.42</v>
+      </c>
+      <c r="N9">
+        <v>15628.48</v>
+      </c>
+      <c r="O9">
+        <v>14813.13</v>
+      </c>
+      <c r="P9">
+        <v>13302.2</v>
+      </c>
+      <c r="Q9">
+        <v>10667.73</v>
+      </c>
+      <c r="R9">
+        <v>11388.32</v>
+      </c>
+      <c r="S9">
+        <v>13779.53</v>
+      </c>
+      <c r="T9">
+        <v>14886.1</v>
+      </c>
+      <c r="U9">
+        <v>14548.53</v>
+      </c>
+      <c r="V9">
+        <v>15441.15</v>
+      </c>
+      <c r="W9">
+        <v>16793.3</v>
+      </c>
+      <c r="X9">
+        <v>14914.25</v>
+      </c>
+      <c r="Y9">
+        <v>15617.13</v>
+      </c>
+      <c r="Z9">
+        <v>15434.27</v>
+      </c>
+      <c r="AA9">
+        <v>14628.66</v>
+      </c>
+      <c r="AB9">
+        <v>18200.12</v>
+      </c>
+      <c r="AC9">
+        <v>17628.47</v>
+      </c>
+      <c r="AD9">
+        <v>16544.58</v>
+      </c>
+      <c r="AE9">
+        <v>17482.64</v>
+      </c>
+      <c r="AF9">
+        <v>16942.47</v>
+      </c>
+      <c r="AG9">
+        <v>16220.69</v>
+      </c>
+      <c r="AH9">
+        <v>16920.26</v>
+      </c>
+      <c r="AI9">
+        <v>17452.77</v>
+      </c>
+      <c r="AJ9">
+        <v>17262.72</v>
+      </c>
+      <c r="AK9">
+        <v>16228.47</v>
+      </c>
+      <c r="AL9">
+        <v>8368.459999999999</v>
+      </c>
+      <c r="AM9">
+        <v>1105.07</v>
+      </c>
+      <c r="AN9">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>13937.2</v>
+      </c>
+      <c r="C10">
+        <v>13818</v>
+      </c>
+      <c r="D10">
+        <v>14693.37</v>
+      </c>
+      <c r="E10">
+        <v>14749.31</v>
+      </c>
+      <c r="F10">
+        <v>14505.08</v>
+      </c>
+      <c r="G10">
+        <v>13375.47</v>
+      </c>
+      <c r="H10">
+        <v>14512.54</v>
+      </c>
+      <c r="I10">
+        <v>15043.75</v>
+      </c>
+      <c r="J10">
+        <v>14113.66</v>
+      </c>
+      <c r="K10">
+        <v>14821.91</v>
+      </c>
+      <c r="L10">
+        <v>14789.69</v>
+      </c>
+      <c r="M10">
+        <v>14283.31</v>
+      </c>
+      <c r="N10">
+        <v>15323.06</v>
+      </c>
+      <c r="O10">
+        <v>16082.24</v>
+      </c>
+      <c r="P10">
+        <v>15714.32</v>
+      </c>
+      <c r="Q10">
+        <v>10443.76</v>
+      </c>
+      <c r="R10">
+        <v>12757.18</v>
+      </c>
+      <c r="S10">
+        <v>12883.67</v>
+      </c>
+      <c r="T10">
+        <v>14541.06</v>
+      </c>
+      <c r="U10">
+        <v>15146.16</v>
+      </c>
+      <c r="V10">
+        <v>14864.41</v>
+      </c>
+      <c r="W10">
+        <v>15599.56</v>
+      </c>
+      <c r="X10">
+        <v>13112.24</v>
+      </c>
+      <c r="Y10">
+        <v>15459.52</v>
+      </c>
+      <c r="Z10">
+        <v>13321.43</v>
+      </c>
+      <c r="AA10">
+        <v>11667.19</v>
+      </c>
+      <c r="AB10">
+        <v>13817.04</v>
+      </c>
+      <c r="AC10">
+        <v>13701.98</v>
+      </c>
+      <c r="AD10">
+        <v>12874.86</v>
+      </c>
+      <c r="AE10">
+        <v>14430.23</v>
+      </c>
+      <c r="AF10">
+        <v>14376.44</v>
+      </c>
+      <c r="AG10">
+        <v>13572.28</v>
+      </c>
+      <c r="AH10">
+        <v>13596.02</v>
+      </c>
+      <c r="AI10">
+        <v>15004.11</v>
+      </c>
+      <c r="AJ10">
+        <v>12437.53</v>
+      </c>
+      <c r="AK10">
+        <v>12120.61</v>
+      </c>
+      <c r="AL10">
+        <v>9265.309999999999</v>
+      </c>
+      <c r="AM10">
+        <v>1209.41</v>
+      </c>
+      <c r="AN10">
+        <v>7.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <v>12984.78</v>
+      </c>
+      <c r="C11">
+        <v>12770.72</v>
+      </c>
+      <c r="D11">
+        <v>14401.24</v>
+      </c>
+      <c r="E11">
+        <v>14511.89</v>
+      </c>
+      <c r="F11">
+        <v>14484.27</v>
+      </c>
+      <c r="G11">
+        <v>12480.26</v>
+      </c>
+      <c r="H11">
+        <v>14173.72</v>
+      </c>
+      <c r="I11">
+        <v>14575.03</v>
+      </c>
+      <c r="J11">
+        <v>12888.44</v>
+      </c>
+      <c r="K11">
+        <v>15172.81</v>
+      </c>
+      <c r="L11">
+        <v>13499.07</v>
+      </c>
+      <c r="M11">
+        <v>13887.93</v>
+      </c>
+      <c r="N11">
+        <v>12964</v>
+      </c>
+      <c r="O11">
+        <v>12474.77</v>
+      </c>
+      <c r="P11">
+        <v>11791.52</v>
+      </c>
+      <c r="Q11">
+        <v>8901.76</v>
+      </c>
+      <c r="R11">
+        <v>10845.47</v>
+      </c>
+      <c r="S11">
+        <v>12627.28</v>
+      </c>
+      <c r="T11">
+        <v>13179.49</v>
+      </c>
+      <c r="U11">
+        <v>13137.64</v>
+      </c>
+      <c r="V11">
+        <v>13751.59</v>
+      </c>
+      <c r="W11">
+        <v>15258.06</v>
+      </c>
+      <c r="X11">
+        <v>12924.43</v>
+      </c>
+      <c r="Y11">
+        <v>13904.59</v>
+      </c>
+      <c r="Z11">
+        <v>12842.28</v>
+      </c>
+      <c r="AA11">
+        <v>12710.7</v>
+      </c>
+      <c r="AB11">
+        <v>15462.34</v>
+      </c>
+      <c r="AC11">
+        <v>15065.75</v>
+      </c>
+      <c r="AD11">
+        <v>13832.33</v>
+      </c>
+      <c r="AE11">
+        <v>14957.05</v>
+      </c>
+      <c r="AF11">
+        <v>14259.65</v>
+      </c>
+      <c r="AG11">
+        <v>14182.2</v>
+      </c>
+      <c r="AH11">
+        <v>13606.15</v>
+      </c>
+      <c r="AI11">
+        <v>14019.58</v>
+      </c>
+      <c r="AJ11">
+        <v>13305.58</v>
+      </c>
+      <c r="AK11">
+        <v>13528.43</v>
+      </c>
+      <c r="AL11">
+        <v>9432.82</v>
+      </c>
+      <c r="AM11">
+        <v>1336.02</v>
+      </c>
+      <c r="AN11">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>10833.47</v>
+      </c>
+      <c r="C12">
+        <v>9895.219999999999</v>
+      </c>
+      <c r="D12">
+        <v>10417.49</v>
+      </c>
+      <c r="E12">
+        <v>11777.74</v>
+      </c>
+      <c r="F12">
+        <v>12859.37</v>
+      </c>
+      <c r="G12">
+        <v>9913.639999999999</v>
+      </c>
+      <c r="H12">
+        <v>10473.82</v>
+      </c>
+      <c r="I12">
+        <v>10525.96</v>
+      </c>
+      <c r="J12">
+        <v>10420.21</v>
+      </c>
+      <c r="K12">
+        <v>11501.06</v>
+      </c>
+      <c r="L12">
+        <v>10379.85</v>
+      </c>
+      <c r="M12">
+        <v>11024.02</v>
+      </c>
+      <c r="N12">
+        <v>11008.68</v>
+      </c>
+      <c r="O12">
+        <v>10666.57</v>
+      </c>
+      <c r="P12">
+        <v>9936.99</v>
+      </c>
+      <c r="Q12">
+        <v>7010.4</v>
+      </c>
+      <c r="R12">
+        <v>7894.99</v>
+      </c>
+      <c r="S12">
+        <v>9541.52</v>
+      </c>
+      <c r="T12">
+        <v>10085.9</v>
+      </c>
+      <c r="U12">
+        <v>9350.790000000001</v>
+      </c>
+      <c r="V12">
+        <v>10563.28</v>
+      </c>
+      <c r="W12">
+        <v>12702.96</v>
+      </c>
+      <c r="X12">
+        <v>12251.83</v>
+      </c>
+      <c r="Y12">
+        <v>12541.39</v>
+      </c>
+      <c r="Z12">
+        <v>11457.21</v>
+      </c>
+      <c r="AA12">
+        <v>11379.67</v>
+      </c>
+      <c r="AB12">
+        <v>12879.36</v>
+      </c>
+      <c r="AC12">
+        <v>12653.32</v>
+      </c>
+      <c r="AD12">
+        <v>12517.81</v>
+      </c>
+      <c r="AE12">
+        <v>12475.96</v>
+      </c>
+      <c r="AF12">
+        <v>13281.83</v>
+      </c>
+      <c r="AG12">
+        <v>12699</v>
+      </c>
+      <c r="AH12">
+        <v>12754.34</v>
+      </c>
+      <c r="AI12">
+        <v>12274.06</v>
+      </c>
+      <c r="AJ12">
+        <v>9924.01</v>
+      </c>
+      <c r="AK12">
+        <v>9975.559999999999</v>
+      </c>
+      <c r="AL12">
+        <v>7188.18</v>
+      </c>
+      <c r="AM12">
+        <v>1510.82</v>
+      </c>
+      <c r="AN12">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13">
+        <v>10833.14</v>
+      </c>
+      <c r="C13">
+        <v>10740.02</v>
+      </c>
+      <c r="D13">
+        <v>11689.39</v>
+      </c>
+      <c r="E13">
+        <v>10899.21</v>
+      </c>
+      <c r="F13">
+        <v>12270.39</v>
+      </c>
+      <c r="G13">
+        <v>10965.03</v>
+      </c>
+      <c r="H13">
+        <v>10494.37</v>
+      </c>
+      <c r="I13">
+        <v>11013.81</v>
+      </c>
+      <c r="J13">
+        <v>11043.53</v>
+      </c>
+      <c r="K13">
+        <v>12379.91</v>
+      </c>
+      <c r="L13">
+        <v>10449.07</v>
+      </c>
+      <c r="M13">
+        <v>10056.07</v>
+      </c>
+      <c r="N13">
+        <v>10622.19</v>
+      </c>
+      <c r="O13">
+        <v>10094.43</v>
+      </c>
+      <c r="P13">
+        <v>9666.360000000001</v>
+      </c>
+      <c r="Q13">
+        <v>6845.95</v>
+      </c>
+      <c r="R13">
+        <v>9411.73</v>
+      </c>
+      <c r="S13">
+        <v>10376.36</v>
+      </c>
+      <c r="T13">
+        <v>10654.44</v>
+      </c>
+      <c r="U13">
+        <v>10278.5</v>
+      </c>
+      <c r="V13">
+        <v>10295.75</v>
+      </c>
+      <c r="W13">
+        <v>10760.29</v>
+      </c>
+      <c r="X13">
+        <v>9214.290000000001</v>
+      </c>
+      <c r="Y13">
+        <v>10052.01</v>
+      </c>
+      <c r="Z13">
+        <v>8773.040000000001</v>
+      </c>
+      <c r="AA13">
+        <v>9189.139999999999</v>
+      </c>
+      <c r="AB13">
+        <v>11419.38</v>
+      </c>
+      <c r="AC13">
+        <v>9916.09</v>
+      </c>
+      <c r="AD13">
+        <v>9666.58</v>
+      </c>
+      <c r="AE13">
+        <v>10452.11</v>
+      </c>
+      <c r="AF13">
+        <v>10255.33</v>
+      </c>
+      <c r="AG13">
+        <v>11678.51</v>
+      </c>
+      <c r="AH13">
+        <v>10573.8</v>
+      </c>
+      <c r="AI13">
+        <v>10668</v>
+      </c>
+      <c r="AJ13">
+        <v>8064.28</v>
+      </c>
+      <c r="AK13">
+        <v>9183.389999999999</v>
+      </c>
+      <c r="AL13">
+        <v>7963.57</v>
+      </c>
+      <c r="AM13">
+        <v>1338.94</v>
+      </c>
+      <c r="AN13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14">
+        <v>13112.26</v>
+      </c>
+      <c r="C14">
+        <v>12971.35</v>
+      </c>
+      <c r="D14">
+        <v>13712.95</v>
+      </c>
+      <c r="E14">
+        <v>14881.16</v>
+      </c>
+      <c r="F14">
+        <v>14660.27</v>
+      </c>
+      <c r="G14">
+        <v>13357.28</v>
+      </c>
+      <c r="H14">
+        <v>14096.94</v>
+      </c>
+      <c r="I14">
+        <v>14302.11</v>
+      </c>
+      <c r="J14">
+        <v>13250.86</v>
+      </c>
+      <c r="K14">
+        <v>14938.98</v>
+      </c>
+      <c r="L14">
+        <v>13876.92</v>
+      </c>
+      <c r="M14">
+        <v>13440.12</v>
+      </c>
+      <c r="N14">
+        <v>13720.25</v>
+      </c>
+      <c r="O14">
+        <v>13555.65</v>
+      </c>
+      <c r="P14">
+        <v>11643.93</v>
+      </c>
+      <c r="Q14">
+        <v>8741.77</v>
+      </c>
+      <c r="R14">
+        <v>11541.61</v>
+      </c>
+      <c r="S14">
+        <v>13611.11</v>
+      </c>
+      <c r="T14">
+        <v>14583</v>
+      </c>
+      <c r="U14">
+        <v>14586.89</v>
+      </c>
+      <c r="V14">
+        <v>14910.48</v>
+      </c>
+      <c r="W14">
+        <v>15930.82</v>
+      </c>
+      <c r="X14">
+        <v>14905.56</v>
+      </c>
+      <c r="Y14">
+        <v>15571.36</v>
+      </c>
+      <c r="Z14">
+        <v>13653.17</v>
+      </c>
+      <c r="AA14">
+        <v>13191.35</v>
+      </c>
+      <c r="AB14">
+        <v>14891.2</v>
+      </c>
+      <c r="AC14">
+        <v>15842.79</v>
+      </c>
+      <c r="AD14">
+        <v>14536.87</v>
+      </c>
+      <c r="AE14">
+        <v>15002.73</v>
+      </c>
+      <c r="AF14">
+        <v>14650.43</v>
+      </c>
+      <c r="AG14">
+        <v>14863.75</v>
+      </c>
+      <c r="AH14">
+        <v>14930.54</v>
+      </c>
+      <c r="AI14">
+        <v>15102.05</v>
+      </c>
+      <c r="AJ14">
+        <v>14860.2</v>
+      </c>
+      <c r="AK14">
+        <v>14256.54</v>
+      </c>
+      <c r="AL14">
+        <v>9470.18</v>
+      </c>
+      <c r="AM14">
+        <v>1569.9</v>
+      </c>
+      <c r="AN14">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15">
+        <v>10900.76</v>
+      </c>
+      <c r="C15">
+        <v>11268.55</v>
+      </c>
+      <c r="D15">
+        <v>11927.37</v>
+      </c>
+      <c r="E15">
+        <v>12955.41</v>
+      </c>
+      <c r="F15">
+        <v>12832.68</v>
+      </c>
+      <c r="G15">
+        <v>11025.37</v>
+      </c>
+      <c r="H15">
+        <v>13036.09</v>
+      </c>
+      <c r="I15">
+        <v>13508.84</v>
+      </c>
+      <c r="J15">
+        <v>11179.7</v>
+      </c>
+      <c r="K15">
+        <v>13584.05</v>
+      </c>
+      <c r="L15">
+        <v>12034.52</v>
+      </c>
+      <c r="M15">
+        <v>13051.88</v>
+      </c>
+      <c r="N15">
+        <v>13100.99</v>
+      </c>
+      <c r="O15">
+        <v>13267.73</v>
+      </c>
+      <c r="P15">
+        <v>11740.44</v>
+      </c>
+      <c r="Q15">
+        <v>8051.82</v>
+      </c>
+      <c r="R15">
+        <v>10470.93</v>
+      </c>
+      <c r="S15">
+        <v>11900.37</v>
+      </c>
+      <c r="T15">
+        <v>13406.17</v>
+      </c>
+      <c r="U15">
+        <v>12870.09</v>
+      </c>
+      <c r="V15">
+        <v>13126.39</v>
+      </c>
+      <c r="W15">
+        <v>13660.09</v>
+      </c>
+      <c r="X15">
+        <v>13252.46</v>
+      </c>
+      <c r="Y15">
+        <v>14123.83</v>
+      </c>
+      <c r="Z15">
+        <v>12225</v>
+      </c>
+      <c r="AA15">
+        <v>11385.62</v>
+      </c>
+      <c r="AB15">
+        <v>13797.49</v>
+      </c>
+      <c r="AC15">
+        <v>12639.52</v>
+      </c>
+      <c r="AD15">
+        <v>13171.24</v>
+      </c>
+      <c r="AE15">
+        <v>13388.52</v>
+      </c>
+      <c r="AF15">
+        <v>12212.41</v>
+      </c>
+      <c r="AG15">
+        <v>13563.71</v>
+      </c>
+      <c r="AH15">
+        <v>12497.03</v>
+      </c>
+      <c r="AI15">
+        <v>14071.41</v>
+      </c>
+      <c r="AJ15">
+        <v>10718.3</v>
+      </c>
+      <c r="AK15">
+        <v>11166.42</v>
+      </c>
+      <c r="AL15">
+        <v>9924.08</v>
+      </c>
+      <c r="AM15">
+        <v>1808.52</v>
+      </c>
+      <c r="AN15">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
+      <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16">
+        <v>10844.6</v>
+      </c>
+      <c r="C16">
+        <v>10681.12</v>
+      </c>
+      <c r="D16">
+        <v>11650.96</v>
+      </c>
+      <c r="E16">
+        <v>12354.01</v>
+      </c>
+      <c r="F16">
+        <v>11808.18</v>
+      </c>
+      <c r="G16">
+        <v>10376.08</v>
+      </c>
+      <c r="H16">
+        <v>12854.89</v>
+      </c>
+      <c r="I16">
+        <v>13385.07</v>
+      </c>
+      <c r="J16">
+        <v>12245.17</v>
+      </c>
+      <c r="K16">
+        <v>13497.29</v>
+      </c>
+      <c r="L16">
+        <v>12411.7</v>
+      </c>
+      <c r="M16">
+        <v>12076.51</v>
+      </c>
+      <c r="N16">
+        <v>13370.57</v>
+      </c>
+      <c r="O16">
+        <v>12722.42</v>
+      </c>
+      <c r="P16">
+        <v>11483.52</v>
+      </c>
+      <c r="Q16">
+        <v>9449.889999999999</v>
+      </c>
+      <c r="R16">
+        <v>10237.64</v>
+      </c>
+      <c r="S16">
+        <v>11130.5</v>
+      </c>
+      <c r="T16">
+        <v>12981.77</v>
+      </c>
+      <c r="U16">
+        <v>12765.26</v>
+      </c>
+      <c r="V16">
+        <v>12382.99</v>
+      </c>
+      <c r="W16">
+        <v>12932.99</v>
+      </c>
+      <c r="X16">
+        <v>12573.23</v>
+      </c>
+      <c r="Y16">
+        <v>13968.83</v>
+      </c>
+      <c r="Z16">
+        <v>12925.18</v>
+      </c>
+      <c r="AA16">
+        <v>11756.24</v>
+      </c>
+      <c r="AB16">
+        <v>13493.52</v>
+      </c>
+      <c r="AC16">
+        <v>12752.15</v>
+      </c>
+      <c r="AD16">
+        <v>12676.16</v>
+      </c>
+      <c r="AE16">
+        <v>12512.85</v>
+      </c>
+      <c r="AF16">
+        <v>13205.54</v>
+      </c>
+      <c r="AG16">
+        <v>13158.31</v>
+      </c>
+      <c r="AH16">
+        <v>12744.91</v>
+      </c>
+      <c r="AI16">
+        <v>12716.77</v>
+      </c>
+      <c r="AJ16">
+        <v>9839.290000000001</v>
+      </c>
+      <c r="AK16">
+        <v>10354.59</v>
+      </c>
+      <c r="AL16">
+        <v>8718.700000000001</v>
+      </c>
+      <c r="AM16">
+        <v>1438.83</v>
+      </c>
+      <c r="AN16">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40">
+      <c r="A17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <v>7925.28</v>
+      </c>
+      <c r="C17">
+        <v>7490.23</v>
+      </c>
+      <c r="D17">
+        <v>8206.219999999999</v>
+      </c>
+      <c r="E17">
+        <v>8519.9</v>
+      </c>
+      <c r="F17">
+        <v>8830.76</v>
+      </c>
+      <c r="G17">
+        <v>8251.860000000001</v>
+      </c>
+      <c r="H17">
+        <v>8307.42</v>
+      </c>
+      <c r="I17">
+        <v>9191.469999999999</v>
+      </c>
+      <c r="J17">
+        <v>9373.799999999999</v>
+      </c>
+      <c r="K17">
+        <v>10279.96</v>
+      </c>
+      <c r="L17">
+        <v>8378.48</v>
+      </c>
+      <c r="M17">
+        <v>9759.77</v>
+      </c>
+      <c r="N17">
+        <v>9765.620000000001</v>
+      </c>
+      <c r="O17">
+        <v>8378.01</v>
+      </c>
+      <c r="P17">
+        <v>7678.66</v>
+      </c>
+      <c r="Q17">
+        <v>5990.98</v>
+      </c>
+      <c r="R17">
+        <v>7503.97</v>
+      </c>
+      <c r="S17">
+        <v>9647.799999999999</v>
+      </c>
+      <c r="T17">
+        <v>8914.83</v>
+      </c>
+      <c r="U17">
+        <v>8895.42</v>
+      </c>
+      <c r="V17">
+        <v>9381.379999999999</v>
+      </c>
+      <c r="W17">
+        <v>10684.49</v>
+      </c>
+      <c r="X17">
+        <v>9566.75</v>
+      </c>
+      <c r="Y17">
+        <v>9882.5</v>
+      </c>
+      <c r="Z17">
+        <v>9512.65</v>
+      </c>
+      <c r="AA17">
+        <v>8660.15</v>
+      </c>
+      <c r="AB17">
+        <v>8400.110000000001</v>
+      </c>
+      <c r="AC17">
+        <v>9695.440000000001</v>
+      </c>
+      <c r="AD17">
+        <v>9270.99</v>
+      </c>
+      <c r="AE17">
+        <v>8866.5</v>
+      </c>
+      <c r="AF17">
+        <v>9544.290000000001</v>
+      </c>
+      <c r="AG17">
+        <v>8794.74</v>
+      </c>
+      <c r="AH17">
+        <v>9188.24</v>
+      </c>
+      <c r="AI17">
+        <v>10211.83</v>
+      </c>
+      <c r="AJ17">
+        <v>8250.75</v>
+      </c>
+      <c r="AK17">
+        <v>8847.450000000001</v>
+      </c>
+      <c r="AL17">
+        <v>8530.1</v>
+      </c>
+      <c r="AM17">
+        <v>1041.24</v>
+      </c>
+      <c r="AN17">
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>

--- a/mbrMoPvt_94.xlsx
+++ b/mbrMoPvt_94.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -130,28 +130,58 @@
     <t>m-2022-02</t>
   </si>
   <si>
+    <t>m-2022-03</t>
+  </si>
+  <si>
     <t>org_id</t>
   </si>
   <si>
-    <t>ADAUGEOPI</t>
-  </si>
-  <si>
-    <t>BLUEROCKDC</t>
-  </si>
-  <si>
-    <t>CANODCE</t>
-  </si>
-  <si>
-    <t>CITYBLOCKDCE</t>
-  </si>
-  <si>
-    <t>ILUMEDPI</t>
-  </si>
-  <si>
-    <t>INTERMNTUTDC</t>
-  </si>
-  <si>
-    <t>LATITUDEDC</t>
+    <t>A1052</t>
+  </si>
+  <si>
+    <t>A2024</t>
+  </si>
+  <si>
+    <t>A2251</t>
+  </si>
+  <si>
+    <t>A2575</t>
+  </si>
+  <si>
+    <t>A2841</t>
+  </si>
+  <si>
+    <t>A3229</t>
+  </si>
+  <si>
+    <t>A3320</t>
+  </si>
+  <si>
+    <t>A3327</t>
+  </si>
+  <si>
+    <t>A3367</t>
+  </si>
+  <si>
+    <t>A3632</t>
+  </si>
+  <si>
+    <t>A3667</t>
+  </si>
+  <si>
+    <t>A3669</t>
+  </si>
+  <si>
+    <t>A3822</t>
+  </si>
+  <si>
+    <t>A4585</t>
+  </si>
+  <si>
+    <t>A4709</t>
+  </si>
+  <si>
+    <t>A4768</t>
   </si>
 </sst>
 </file>
@@ -509,15 +539,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM8"/>
+  <dimension ref="A1:AN17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -633,838 +663,1942 @@
       <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:40">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>6149.91</v>
+        <v>9094.93</v>
       </c>
       <c r="C2">
-        <v>5823.38</v>
+        <v>9554.059999999999</v>
       </c>
       <c r="D2">
-        <v>6440.39</v>
+        <v>11445.7</v>
       </c>
       <c r="E2">
-        <v>7129.44</v>
+        <v>10733.81</v>
       </c>
       <c r="F2">
-        <v>6851.86</v>
+        <v>11513.88</v>
       </c>
       <c r="G2">
-        <v>6726.1</v>
+        <v>10355.06</v>
       </c>
       <c r="H2">
-        <v>6820.1</v>
+        <v>10561.49</v>
       </c>
       <c r="I2">
-        <v>7244.13</v>
+        <v>11732.48</v>
       </c>
       <c r="J2">
-        <v>7604.7</v>
+        <v>9547.85</v>
       </c>
       <c r="K2">
-        <v>7793.23</v>
+        <v>9187</v>
       </c>
       <c r="L2">
-        <v>7446.01</v>
+        <v>8820.639999999999</v>
       </c>
       <c r="M2">
-        <v>6705.18</v>
+        <v>8617.139999999999</v>
       </c>
       <c r="N2">
-        <v>6684.69</v>
+        <v>9356.09</v>
       </c>
       <c r="O2">
-        <v>6751.91</v>
+        <v>9637.200000000001</v>
       </c>
       <c r="P2">
-        <v>5638.49</v>
+        <v>8084.73</v>
       </c>
       <c r="Q2">
-        <v>4241.49</v>
+        <v>7347.64</v>
       </c>
       <c r="R2">
-        <v>5776.06</v>
+        <v>8074.43</v>
       </c>
       <c r="S2">
-        <v>7476.47</v>
+        <v>9531.559999999999</v>
       </c>
       <c r="T2">
-        <v>6988.45</v>
+        <v>9690.370000000001</v>
       </c>
       <c r="U2">
-        <v>7160.4</v>
+        <v>10515.51</v>
       </c>
       <c r="V2">
-        <v>7588.69</v>
+        <v>9676.27</v>
       </c>
       <c r="W2">
-        <v>8214.120000000001</v>
+        <v>10265.22</v>
       </c>
       <c r="X2">
-        <v>7875.93</v>
+        <v>9334.139999999999</v>
       </c>
       <c r="Y2">
-        <v>7157.93</v>
+        <v>10030.05</v>
       </c>
       <c r="Z2">
-        <v>7420.41</v>
+        <v>11287.14</v>
       </c>
       <c r="AA2">
-        <v>6925.56</v>
+        <v>9978.040000000001</v>
       </c>
       <c r="AB2">
-        <v>8949.469999999999</v>
+        <v>10684.61</v>
       </c>
       <c r="AC2">
-        <v>8880.09</v>
+        <v>10948.24</v>
       </c>
       <c r="AD2">
-        <v>9377</v>
+        <v>11089.41</v>
       </c>
       <c r="AE2">
-        <v>9837.07</v>
+        <v>11569.57</v>
       </c>
       <c r="AF2">
-        <v>8558.200000000001</v>
+        <v>10601.25</v>
       </c>
       <c r="AG2">
-        <v>9237.780000000001</v>
+        <v>11441.75</v>
       </c>
       <c r="AH2">
-        <v>9342.02</v>
+        <v>10706.16</v>
       </c>
       <c r="AI2">
-        <v>8847.83</v>
+        <v>10705.15</v>
       </c>
       <c r="AJ2">
-        <v>8781.73</v>
+        <v>10802.07</v>
       </c>
       <c r="AK2">
-        <v>7149.59</v>
+        <v>11267.75</v>
       </c>
       <c r="AL2">
-        <v>6793.2</v>
+        <v>5897.03</v>
       </c>
       <c r="AM2">
-        <v>1172.25</v>
+        <v>806.5599999999999</v>
+      </c>
+      <c r="AN2">
+        <v>1.55</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:40">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>7221.16</v>
+        <v>11900.9</v>
       </c>
       <c r="C3">
-        <v>7747.13</v>
+        <v>11282.3</v>
       </c>
       <c r="D3">
-        <v>8234.389999999999</v>
+        <v>12178.08</v>
       </c>
       <c r="E3">
-        <v>8577.24</v>
+        <v>12518.02</v>
       </c>
       <c r="F3">
-        <v>11153.8</v>
+        <v>12944.98</v>
       </c>
       <c r="G3">
-        <v>9233.459999999999</v>
+        <v>11723.53</v>
       </c>
       <c r="H3">
-        <v>8621.26</v>
+        <v>12054.74</v>
       </c>
       <c r="I3">
-        <v>7866.96</v>
+        <v>12095.03</v>
       </c>
       <c r="J3">
-        <v>6854.18</v>
+        <v>11596.24</v>
       </c>
       <c r="K3">
-        <v>11889.14</v>
+        <v>13441.38</v>
       </c>
       <c r="L3">
-        <v>10915.06</v>
+        <v>12185.02</v>
       </c>
       <c r="M3">
-        <v>10551.29</v>
+        <v>12117.96</v>
       </c>
       <c r="N3">
-        <v>9244.27</v>
+        <v>11845.06</v>
       </c>
       <c r="O3">
-        <v>8661.51</v>
+        <v>11492.94</v>
       </c>
       <c r="P3">
-        <v>6962.21</v>
+        <v>9779.09</v>
       </c>
       <c r="Q3">
-        <v>4474.31</v>
+        <v>7436.12</v>
       </c>
       <c r="R3">
-        <v>6970.48</v>
+        <v>8700.129999999999</v>
       </c>
       <c r="S3">
-        <v>7262.08</v>
+        <v>10523.77</v>
       </c>
       <c r="T3">
-        <v>8206.709999999999</v>
+        <v>11351.11</v>
       </c>
       <c r="U3">
-        <v>11467.56</v>
+        <v>11058</v>
       </c>
       <c r="V3">
-        <v>12212.68</v>
+        <v>11583.87</v>
       </c>
       <c r="W3">
-        <v>12909.06</v>
+        <v>12405.11</v>
       </c>
       <c r="X3">
-        <v>11233.65</v>
+        <v>11338.98</v>
       </c>
       <c r="Y3">
-        <v>13363.72</v>
+        <v>12005.9</v>
       </c>
       <c r="Z3">
-        <v>14944.42</v>
+        <v>10985.31</v>
       </c>
       <c r="AA3">
-        <v>13462.75</v>
+        <v>10355.52</v>
       </c>
       <c r="AB3">
-        <v>15272.57</v>
+        <v>12209.94</v>
       </c>
       <c r="AC3">
-        <v>13824.89</v>
+        <v>12303.71</v>
       </c>
       <c r="AD3">
-        <v>11084.28</v>
+        <v>11990.84</v>
       </c>
       <c r="AE3">
-        <v>12097.8</v>
+        <v>12304.91</v>
       </c>
       <c r="AF3">
-        <v>10872.66</v>
+        <v>11570.79</v>
       </c>
       <c r="AG3">
-        <v>13807.5</v>
+        <v>11665.87</v>
       </c>
       <c r="AH3">
-        <v>14390.17</v>
+        <v>12199.45</v>
       </c>
       <c r="AI3">
-        <v>15023.63</v>
+        <v>12596.09</v>
       </c>
       <c r="AJ3">
-        <v>13796.89</v>
+        <v>12101.45</v>
       </c>
       <c r="AK3">
-        <v>14167.45</v>
+        <v>11737.73</v>
       </c>
       <c r="AL3">
-        <v>12763.56</v>
+        <v>8560.959999999999</v>
       </c>
       <c r="AM3">
-        <v>1963.59</v>
+        <v>1964.47</v>
+      </c>
+      <c r="AN3">
+        <v>2.7</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:40">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>7671.69</v>
+        <v>10264.22</v>
       </c>
       <c r="C4">
-        <v>7664</v>
+        <v>10284.13</v>
       </c>
       <c r="D4">
-        <v>8178.21</v>
+        <v>11441.58</v>
       </c>
       <c r="E4">
-        <v>8465.27</v>
+        <v>10953.43</v>
       </c>
       <c r="F4">
-        <v>9091.969999999999</v>
+        <v>11524.64</v>
       </c>
       <c r="G4">
-        <v>7924.6</v>
+        <v>10696.47</v>
       </c>
       <c r="H4">
-        <v>8788.280000000001</v>
+        <v>10423.29</v>
       </c>
       <c r="I4">
-        <v>8639.41</v>
+        <v>10514.56</v>
       </c>
       <c r="J4">
-        <v>8090.8</v>
+        <v>10491.73</v>
       </c>
       <c r="K4">
-        <v>8987.459999999999</v>
+        <v>11445.08</v>
       </c>
       <c r="L4">
-        <v>8543.959999999999</v>
+        <v>10268.66</v>
       </c>
       <c r="M4">
-        <v>8504.91</v>
+        <v>10397.21</v>
       </c>
       <c r="N4">
-        <v>8587.559999999999</v>
+        <v>10369.04</v>
       </c>
       <c r="O4">
-        <v>8753.209999999999</v>
+        <v>10796.45</v>
       </c>
       <c r="P4">
-        <v>7522.26</v>
+        <v>9706.940000000001</v>
       </c>
       <c r="Q4">
-        <v>5260.57</v>
+        <v>7548.78</v>
       </c>
       <c r="R4">
-        <v>7329.11</v>
+        <v>8515.58</v>
       </c>
       <c r="S4">
-        <v>8716.75</v>
+        <v>9814.200000000001</v>
       </c>
       <c r="T4">
-        <v>8761.530000000001</v>
+        <v>10762.33</v>
       </c>
       <c r="U4">
-        <v>8475.23</v>
+        <v>10150.15</v>
       </c>
       <c r="V4">
-        <v>9228.879999999999</v>
+        <v>10635.08</v>
       </c>
       <c r="W4">
-        <v>9877.17</v>
+        <v>11039.12</v>
       </c>
       <c r="X4">
-        <v>9450.629999999999</v>
+        <v>10180.16</v>
       </c>
       <c r="Y4">
-        <v>10140.07</v>
+        <v>11332.57</v>
       </c>
       <c r="Z4">
-        <v>9238.57</v>
+        <v>9642.84</v>
       </c>
       <c r="AA4">
-        <v>9359.290000000001</v>
+        <v>9929.389999999999</v>
       </c>
       <c r="AB4">
-        <v>10915.75</v>
+        <v>11266.12</v>
       </c>
       <c r="AC4">
-        <v>11224.16</v>
+        <v>11265.46</v>
       </c>
       <c r="AD4">
-        <v>10821.24</v>
+        <v>10409.5</v>
       </c>
       <c r="AE4">
-        <v>11374.48</v>
+        <v>10972.15</v>
       </c>
       <c r="AF4">
-        <v>11129.96</v>
+        <v>11067.29</v>
       </c>
       <c r="AG4">
-        <v>11380.52</v>
+        <v>11071.55</v>
       </c>
       <c r="AH4">
-        <v>11225.8</v>
+        <v>10919.2</v>
       </c>
       <c r="AI4">
-        <v>12132.67</v>
+        <v>10757.14</v>
       </c>
       <c r="AJ4">
-        <v>12251.06</v>
+        <v>8558.26</v>
       </c>
       <c r="AK4">
-        <v>13047.23</v>
+        <v>8531.66</v>
       </c>
       <c r="AL4">
-        <v>10998.56</v>
+        <v>7856.42</v>
       </c>
       <c r="AM4">
-        <v>1548.52</v>
+        <v>1419.86</v>
+      </c>
+      <c r="AN4">
+        <v>1.91</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:40">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>6306.67</v>
+        <v>9973.379999999999</v>
       </c>
       <c r="C5">
-        <v>6425.46</v>
+        <v>9817.84</v>
       </c>
       <c r="D5">
-        <v>7513.16</v>
+        <v>10498.43</v>
       </c>
       <c r="E5">
-        <v>6677.87</v>
+        <v>10614.96</v>
       </c>
       <c r="F5">
-        <v>7360.6</v>
+        <v>10875.45</v>
       </c>
       <c r="G5">
-        <v>6997.76</v>
+        <v>9835.24</v>
       </c>
       <c r="H5">
-        <v>6964.79</v>
+        <v>10444.41</v>
       </c>
       <c r="I5">
-        <v>7021.88</v>
+        <v>10826.01</v>
       </c>
       <c r="J5">
-        <v>7464.32</v>
+        <v>9861.98</v>
       </c>
       <c r="K5">
-        <v>8034.71</v>
+        <v>11363.63</v>
       </c>
       <c r="L5">
-        <v>7481.01</v>
+        <v>8894.58</v>
       </c>
       <c r="M5">
-        <v>7220.63</v>
+        <v>9749.809999999999</v>
       </c>
       <c r="N5">
-        <v>5914.55</v>
+        <v>9747.08</v>
       </c>
       <c r="O5">
-        <v>7077.14</v>
+        <v>9760.700000000001</v>
       </c>
       <c r="P5">
-        <v>5971.21</v>
+        <v>8893.58</v>
       </c>
       <c r="Q5">
-        <v>5450.38</v>
+        <v>7190.82</v>
       </c>
       <c r="R5">
-        <v>7491.88</v>
+        <v>8957.02</v>
       </c>
       <c r="S5">
-        <v>7014.21</v>
+        <v>10335.37</v>
       </c>
       <c r="T5">
-        <v>7142.59</v>
+        <v>10644.47</v>
       </c>
       <c r="U5">
-        <v>6607.54</v>
+        <v>10385.11</v>
       </c>
       <c r="V5">
-        <v>8099.46</v>
+        <v>10821.72</v>
       </c>
       <c r="W5">
-        <v>8634.059999999999</v>
+        <v>11104.87</v>
       </c>
       <c r="X5">
-        <v>8179.51</v>
+        <v>9984.469999999999</v>
       </c>
       <c r="Y5">
-        <v>8197.809999999999</v>
+        <v>11308.81</v>
       </c>
       <c r="Z5">
-        <v>8338.93</v>
+        <v>10848.58</v>
       </c>
       <c r="AA5">
-        <v>8665.360000000001</v>
+        <v>10261.25</v>
       </c>
       <c r="AB5">
-        <v>9458.540000000001</v>
+        <v>11952.38</v>
       </c>
       <c r="AC5">
-        <v>8975.43</v>
+        <v>10970.89</v>
       </c>
       <c r="AD5">
-        <v>8217.049999999999</v>
+        <v>10757.07</v>
       </c>
       <c r="AE5">
-        <v>9139.639999999999</v>
+        <v>10874.25</v>
       </c>
       <c r="AF5">
-        <v>9753.559999999999</v>
+        <v>10920.73</v>
       </c>
       <c r="AG5">
-        <v>10439.01</v>
+        <v>11257.09</v>
       </c>
       <c r="AH5">
-        <v>10168.5</v>
+        <v>11260.02</v>
       </c>
       <c r="AI5">
-        <v>10905.04</v>
+        <v>11385.81</v>
       </c>
       <c r="AJ5">
-        <v>10176.97</v>
+        <v>10827.92</v>
       </c>
       <c r="AK5">
-        <v>10829.71</v>
+        <v>10584.59</v>
       </c>
       <c r="AL5">
-        <v>9353.6</v>
+        <v>6234.17</v>
       </c>
       <c r="AM5">
-        <v>1616.91</v>
+        <v>1231.39</v>
+      </c>
+      <c r="AN5">
+        <v>3.49</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:40">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>8837.780000000001</v>
+        <v>9618.85</v>
       </c>
       <c r="C6">
-        <v>8328.540000000001</v>
+        <v>9080.17</v>
       </c>
       <c r="D6">
-        <v>9778.700000000001</v>
+        <v>10339.45</v>
       </c>
       <c r="E6">
-        <v>10460.03</v>
+        <v>9888.780000000001</v>
       </c>
       <c r="F6">
-        <v>9508.629999999999</v>
+        <v>10322.79</v>
       </c>
       <c r="G6">
-        <v>10344.18</v>
+        <v>9183.17</v>
       </c>
       <c r="H6">
-        <v>10213.22</v>
+        <v>10245.94</v>
       </c>
       <c r="I6">
-        <v>9315.93</v>
+        <v>9962.790000000001</v>
       </c>
       <c r="J6">
-        <v>8085.17</v>
+        <v>9548.129999999999</v>
       </c>
       <c r="K6">
-        <v>12005.36</v>
+        <v>11600.15</v>
       </c>
       <c r="L6">
-        <v>9005.4</v>
+        <v>8195.700000000001</v>
       </c>
       <c r="M6">
-        <v>9624.040000000001</v>
+        <v>9001</v>
       </c>
       <c r="N6">
-        <v>9898.809999999999</v>
+        <v>9281.24</v>
       </c>
       <c r="O6">
-        <v>10062.66</v>
+        <v>9389.49</v>
       </c>
       <c r="P6">
-        <v>9698.24</v>
+        <v>9148.65</v>
       </c>
       <c r="Q6">
-        <v>6679.43</v>
+        <v>7108.26</v>
       </c>
       <c r="R6">
-        <v>8745.879999999999</v>
+        <v>8211.9</v>
       </c>
       <c r="S6">
-        <v>10145.89</v>
+        <v>9712.74</v>
       </c>
       <c r="T6">
-        <v>11274.67</v>
+        <v>10193.79</v>
       </c>
       <c r="U6">
-        <v>10879.19</v>
+        <v>11200.87</v>
       </c>
       <c r="V6">
-        <v>11163.03</v>
+        <v>10418.15</v>
       </c>
       <c r="W6">
-        <v>12130.95</v>
+        <v>10186.76</v>
       </c>
       <c r="X6">
-        <v>11595.28</v>
+        <v>9487.91</v>
       </c>
       <c r="Y6">
-        <v>12484.63</v>
+        <v>9820.110000000001</v>
       </c>
       <c r="Z6">
-        <v>10780.17</v>
+        <v>9514.139999999999</v>
       </c>
       <c r="AA6">
-        <v>13479.13</v>
+        <v>10516.12</v>
       </c>
       <c r="AB6">
-        <v>12740.4</v>
+        <v>11915.72</v>
       </c>
       <c r="AC6">
-        <v>12319.35</v>
+        <v>9819.83</v>
       </c>
       <c r="AD6">
-        <v>12273.07</v>
+        <v>9565.809999999999</v>
       </c>
       <c r="AE6">
-        <v>13657.32</v>
+        <v>9885.74</v>
       </c>
       <c r="AF6">
-        <v>14940.36</v>
+        <v>10371.94</v>
       </c>
       <c r="AG6">
-        <v>13251.32</v>
+        <v>9627.25</v>
       </c>
       <c r="AH6">
-        <v>12311.85</v>
-      </c>
-      <c r="AI6">
-        <v>12595.01</v>
-      </c>
-      <c r="AJ6">
-        <v>12023.06</v>
-      </c>
-      <c r="AK6">
-        <v>8125.39</v>
-      </c>
-      <c r="AL6">
-        <v>8591.43</v>
-      </c>
-      <c r="AM6">
-        <v>1630.9</v>
+        <v>9232.76</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:40">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>7005.34</v>
+        <v>9482.82</v>
       </c>
       <c r="C7">
-        <v>6916.46</v>
+        <v>9220.389999999999</v>
       </c>
       <c r="D7">
-        <v>7769.67</v>
+        <v>9982.32</v>
       </c>
       <c r="E7">
-        <v>7809.61</v>
+        <v>10795.02</v>
       </c>
       <c r="F7">
-        <v>8106.5</v>
+        <v>11106.64</v>
       </c>
       <c r="G7">
-        <v>7234.98</v>
+        <v>10093.94</v>
       </c>
       <c r="H7">
-        <v>7256.42</v>
+        <v>10315.29</v>
       </c>
       <c r="I7">
-        <v>7716.93</v>
+        <v>10929.27</v>
       </c>
       <c r="J7">
-        <v>7430.54</v>
+        <v>10313.21</v>
       </c>
       <c r="K7">
-        <v>8687.309999999999</v>
+        <v>10076.56</v>
       </c>
       <c r="L7">
-        <v>7510.38</v>
+        <v>9183.780000000001</v>
       </c>
       <c r="M7">
-        <v>7580.3</v>
+        <v>9436.530000000001</v>
       </c>
       <c r="N7">
-        <v>7186.77</v>
+        <v>9745.27</v>
       </c>
       <c r="O7">
-        <v>7266.85</v>
+        <v>9916.219999999999</v>
       </c>
       <c r="P7">
-        <v>6649.81</v>
+        <v>8845.01</v>
       </c>
       <c r="Q7">
-        <v>4719.41</v>
+        <v>6762.32</v>
       </c>
       <c r="R7">
-        <v>6136.06</v>
+        <v>8852.889999999999</v>
       </c>
       <c r="S7">
-        <v>7549.06</v>
+        <v>10355.21</v>
       </c>
       <c r="T7">
-        <v>8190.85</v>
+        <v>9874.09</v>
       </c>
       <c r="U7">
-        <v>8031.47</v>
+        <v>9961.719999999999</v>
       </c>
       <c r="V7">
-        <v>8511.969999999999</v>
+        <v>10357.55</v>
       </c>
       <c r="W7">
-        <v>8856.17</v>
+        <v>10969.84</v>
       </c>
       <c r="X7">
-        <v>8137.23</v>
+        <v>10048.74</v>
       </c>
       <c r="Y7">
-        <v>8657.09</v>
+        <v>11195.29</v>
       </c>
       <c r="Z7">
-        <v>7651.14</v>
+        <v>9295.34</v>
       </c>
       <c r="AA7">
-        <v>7672.87</v>
+        <v>9887.02</v>
       </c>
       <c r="AB7">
-        <v>9287.33</v>
+        <v>10839.86</v>
       </c>
       <c r="AC7">
-        <v>9345.709999999999</v>
+        <v>10669.55</v>
       </c>
       <c r="AD7">
-        <v>9249.4</v>
+        <v>10338.91</v>
       </c>
       <c r="AE7">
-        <v>9342.459999999999</v>
+        <v>10530.99</v>
       </c>
       <c r="AF7">
-        <v>9591.200000000001</v>
+        <v>9809.790000000001</v>
       </c>
       <c r="AG7">
-        <v>9868.27</v>
+        <v>10940.16</v>
       </c>
       <c r="AH7">
-        <v>9999.219999999999</v>
+        <v>10728.88</v>
       </c>
       <c r="AI7">
-        <v>10142.27</v>
+        <v>10471.39</v>
       </c>
       <c r="AJ7">
-        <v>9835.190000000001</v>
+        <v>8307.07</v>
       </c>
       <c r="AK7">
-        <v>9506.540000000001</v>
+        <v>7812.54</v>
       </c>
       <c r="AL7">
-        <v>7842.87</v>
+        <v>7331.53</v>
       </c>
       <c r="AM7">
-        <v>1353.68</v>
+        <v>1743.16</v>
+      </c>
+      <c r="AN7">
+        <v>2.55</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:40">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>6870.32</v>
+        <v>12509.52</v>
       </c>
       <c r="C8">
-        <v>6765.63</v>
+        <v>12592.77</v>
       </c>
       <c r="D8">
-        <v>6695.24</v>
+        <v>12984.5</v>
       </c>
       <c r="E8">
-        <v>7886.63</v>
+        <v>14494.11</v>
       </c>
       <c r="F8">
-        <v>8885.57</v>
+        <v>13962.19</v>
       </c>
       <c r="G8">
-        <v>7122.3</v>
+        <v>12507.28</v>
       </c>
       <c r="H8">
-        <v>7919.7</v>
+        <v>13017.52</v>
       </c>
       <c r="I8">
-        <v>8509.639999999999</v>
+        <v>12876.88</v>
       </c>
       <c r="J8">
-        <v>7121.62</v>
+        <v>12295.14</v>
       </c>
       <c r="K8">
-        <v>8164.06</v>
+        <v>13328.99</v>
       </c>
       <c r="L8">
-        <v>8075.48</v>
+        <v>12803.09</v>
       </c>
       <c r="M8">
-        <v>6484.92</v>
+        <v>13535.55</v>
       </c>
       <c r="N8">
-        <v>5856.5</v>
+        <v>13371.29</v>
       </c>
       <c r="O8">
-        <v>8460.93</v>
+        <v>12885.12</v>
       </c>
       <c r="P8">
-        <v>6883.08</v>
+        <v>12318.08</v>
       </c>
       <c r="Q8">
-        <v>5876.05</v>
+        <v>8868.049999999999</v>
       </c>
       <c r="R8">
-        <v>7720.53</v>
+        <v>11609.71</v>
       </c>
       <c r="S8">
-        <v>7050.53</v>
+        <v>13086.62</v>
       </c>
       <c r="T8">
-        <v>8412.040000000001</v>
+        <v>13674.02</v>
       </c>
       <c r="U8">
-        <v>9538.32</v>
+        <v>13603.59</v>
       </c>
       <c r="V8">
-        <v>9948.08</v>
+        <v>13382.33</v>
       </c>
       <c r="W8">
-        <v>9980.33</v>
+        <v>14188.33</v>
       </c>
       <c r="X8">
-        <v>8532.620000000001</v>
+        <v>14724.64</v>
       </c>
       <c r="Y8">
-        <v>8613.48</v>
+        <v>15364.09</v>
       </c>
       <c r="Z8">
-        <v>7982.39</v>
+        <v>12372.11</v>
       </c>
       <c r="AA8">
-        <v>6257.53</v>
+        <v>11432.7</v>
       </c>
       <c r="AB8">
-        <v>8288.09</v>
+        <v>13509.15</v>
       </c>
       <c r="AC8">
-        <v>9068.42</v>
+        <v>13641.46</v>
       </c>
       <c r="AD8">
-        <v>9319.65</v>
+        <v>13542.87</v>
       </c>
       <c r="AE8">
-        <v>8817.76</v>
+        <v>13220.07</v>
       </c>
       <c r="AF8">
-        <v>8900.639999999999</v>
+        <v>13773.21</v>
       </c>
       <c r="AG8">
-        <v>9182.780000000001</v>
+        <v>14055.48</v>
       </c>
       <c r="AH8">
-        <v>9454.35</v>
+        <v>13553.76</v>
       </c>
       <c r="AI8">
-        <v>9606.389999999999</v>
+        <v>12993.84</v>
       </c>
       <c r="AJ8">
-        <v>12329.84</v>
+        <v>12672.78</v>
       </c>
       <c r="AK8">
-        <v>10518</v>
+        <v>12752.22</v>
       </c>
       <c r="AL8">
-        <v>7749.71</v>
+        <v>7002.25</v>
       </c>
       <c r="AM8">
-        <v>1133.04</v>
+        <v>972.22</v>
+      </c>
+      <c r="AN8">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>14016.74</v>
+      </c>
+      <c r="C9">
+        <v>12631.65</v>
+      </c>
+      <c r="D9">
+        <v>14527.32</v>
+      </c>
+      <c r="E9">
+        <v>14108.57</v>
+      </c>
+      <c r="F9">
+        <v>15524.23</v>
+      </c>
+      <c r="G9">
+        <v>13282.77</v>
+      </c>
+      <c r="H9">
+        <v>16171.71</v>
+      </c>
+      <c r="I9">
+        <v>15196.28</v>
+      </c>
+      <c r="J9">
+        <v>14722.22</v>
+      </c>
+      <c r="K9">
+        <v>16869.72</v>
+      </c>
+      <c r="L9">
+        <v>15409.5</v>
+      </c>
+      <c r="M9">
+        <v>15724.42</v>
+      </c>
+      <c r="N9">
+        <v>15628.48</v>
+      </c>
+      <c r="O9">
+        <v>14813.13</v>
+      </c>
+      <c r="P9">
+        <v>13302.2</v>
+      </c>
+      <c r="Q9">
+        <v>10667.73</v>
+      </c>
+      <c r="R9">
+        <v>11388.32</v>
+      </c>
+      <c r="S9">
+        <v>13779.53</v>
+      </c>
+      <c r="T9">
+        <v>14886.1</v>
+      </c>
+      <c r="U9">
+        <v>14548.53</v>
+      </c>
+      <c r="V9">
+        <v>15441.15</v>
+      </c>
+      <c r="W9">
+        <v>16793.3</v>
+      </c>
+      <c r="X9">
+        <v>14914.25</v>
+      </c>
+      <c r="Y9">
+        <v>15617.13</v>
+      </c>
+      <c r="Z9">
+        <v>15434.27</v>
+      </c>
+      <c r="AA9">
+        <v>14628.66</v>
+      </c>
+      <c r="AB9">
+        <v>18200.12</v>
+      </c>
+      <c r="AC9">
+        <v>17628.47</v>
+      </c>
+      <c r="AD9">
+        <v>16544.58</v>
+      </c>
+      <c r="AE9">
+        <v>17482.64</v>
+      </c>
+      <c r="AF9">
+        <v>16942.47</v>
+      </c>
+      <c r="AG9">
+        <v>16220.69</v>
+      </c>
+      <c r="AH9">
+        <v>16920.26</v>
+      </c>
+      <c r="AI9">
+        <v>17437.77</v>
+      </c>
+      <c r="AJ9">
+        <v>17316.5</v>
+      </c>
+      <c r="AK9">
+        <v>16292.04</v>
+      </c>
+      <c r="AL9">
+        <v>8408.77</v>
+      </c>
+      <c r="AM9">
+        <v>1109.42</v>
+      </c>
+      <c r="AN9">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>13937.2</v>
+      </c>
+      <c r="C10">
+        <v>13818</v>
+      </c>
+      <c r="D10">
+        <v>14693.37</v>
+      </c>
+      <c r="E10">
+        <v>14749.31</v>
+      </c>
+      <c r="F10">
+        <v>14505.08</v>
+      </c>
+      <c r="G10">
+        <v>13375.47</v>
+      </c>
+      <c r="H10">
+        <v>14512.54</v>
+      </c>
+      <c r="I10">
+        <v>15043.75</v>
+      </c>
+      <c r="J10">
+        <v>14113.66</v>
+      </c>
+      <c r="K10">
+        <v>14821.91</v>
+      </c>
+      <c r="L10">
+        <v>14789.69</v>
+      </c>
+      <c r="M10">
+        <v>14283.31</v>
+      </c>
+      <c r="N10">
+        <v>15323.06</v>
+      </c>
+      <c r="O10">
+        <v>16082.24</v>
+      </c>
+      <c r="P10">
+        <v>15714.32</v>
+      </c>
+      <c r="Q10">
+        <v>10443.76</v>
+      </c>
+      <c r="R10">
+        <v>12757.18</v>
+      </c>
+      <c r="S10">
+        <v>12883.67</v>
+      </c>
+      <c r="T10">
+        <v>14541.06</v>
+      </c>
+      <c r="U10">
+        <v>15146.16</v>
+      </c>
+      <c r="V10">
+        <v>14864.41</v>
+      </c>
+      <c r="W10">
+        <v>15599.56</v>
+      </c>
+      <c r="X10">
+        <v>13112.24</v>
+      </c>
+      <c r="Y10">
+        <v>15459.52</v>
+      </c>
+      <c r="Z10">
+        <v>13321.43</v>
+      </c>
+      <c r="AA10">
+        <v>11667.19</v>
+      </c>
+      <c r="AB10">
+        <v>13817.04</v>
+      </c>
+      <c r="AC10">
+        <v>13701.98</v>
+      </c>
+      <c r="AD10">
+        <v>12874.86</v>
+      </c>
+      <c r="AE10">
+        <v>14430.23</v>
+      </c>
+      <c r="AF10">
+        <v>14376.44</v>
+      </c>
+      <c r="AG10">
+        <v>13572.28</v>
+      </c>
+      <c r="AH10">
+        <v>13596.02</v>
+      </c>
+      <c r="AI10">
+        <v>15004.11</v>
+      </c>
+      <c r="AJ10">
+        <v>12437.53</v>
+      </c>
+      <c r="AK10">
+        <v>12120.61</v>
+      </c>
+      <c r="AL10">
+        <v>9265.309999999999</v>
+      </c>
+      <c r="AM10">
+        <v>1209.41</v>
+      </c>
+      <c r="AN10">
+        <v>7.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <v>12984.78</v>
+      </c>
+      <c r="C11">
+        <v>12770.72</v>
+      </c>
+      <c r="D11">
+        <v>14401.24</v>
+      </c>
+      <c r="E11">
+        <v>14511.89</v>
+      </c>
+      <c r="F11">
+        <v>14484.27</v>
+      </c>
+      <c r="G11">
+        <v>12480.26</v>
+      </c>
+      <c r="H11">
+        <v>14173.72</v>
+      </c>
+      <c r="I11">
+        <v>14575.03</v>
+      </c>
+      <c r="J11">
+        <v>12888.44</v>
+      </c>
+      <c r="K11">
+        <v>15172.81</v>
+      </c>
+      <c r="L11">
+        <v>13499.07</v>
+      </c>
+      <c r="M11">
+        <v>13887.93</v>
+      </c>
+      <c r="N11">
+        <v>12964</v>
+      </c>
+      <c r="O11">
+        <v>12474.77</v>
+      </c>
+      <c r="P11">
+        <v>11791.52</v>
+      </c>
+      <c r="Q11">
+        <v>8901.76</v>
+      </c>
+      <c r="R11">
+        <v>10845.47</v>
+      </c>
+      <c r="S11">
+        <v>12627.28</v>
+      </c>
+      <c r="T11">
+        <v>13179.49</v>
+      </c>
+      <c r="U11">
+        <v>13137.64</v>
+      </c>
+      <c r="V11">
+        <v>13751.59</v>
+      </c>
+      <c r="W11">
+        <v>15258.06</v>
+      </c>
+      <c r="X11">
+        <v>12924.43</v>
+      </c>
+      <c r="Y11">
+        <v>13904.59</v>
+      </c>
+      <c r="Z11">
+        <v>12842.28</v>
+      </c>
+      <c r="AA11">
+        <v>12710.7</v>
+      </c>
+      <c r="AB11">
+        <v>15462.34</v>
+      </c>
+      <c r="AC11">
+        <v>15065.75</v>
+      </c>
+      <c r="AD11">
+        <v>13832.33</v>
+      </c>
+      <c r="AE11">
+        <v>14957.05</v>
+      </c>
+      <c r="AF11">
+        <v>14259.65</v>
+      </c>
+      <c r="AG11">
+        <v>14182.2</v>
+      </c>
+      <c r="AH11">
+        <v>13606.15</v>
+      </c>
+      <c r="AI11">
+        <v>14019.58</v>
+      </c>
+      <c r="AJ11">
+        <v>13305.58</v>
+      </c>
+      <c r="AK11">
+        <v>13528.43</v>
+      </c>
+      <c r="AL11">
+        <v>9432.82</v>
+      </c>
+      <c r="AM11">
+        <v>1336.02</v>
+      </c>
+      <c r="AN11">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>10833.47</v>
+      </c>
+      <c r="C12">
+        <v>9895.219999999999</v>
+      </c>
+      <c r="D12">
+        <v>10417.49</v>
+      </c>
+      <c r="E12">
+        <v>11777.74</v>
+      </c>
+      <c r="F12">
+        <v>12859.37</v>
+      </c>
+      <c r="G12">
+        <v>9913.639999999999</v>
+      </c>
+      <c r="H12">
+        <v>10473.82</v>
+      </c>
+      <c r="I12">
+        <v>10525.96</v>
+      </c>
+      <c r="J12">
+        <v>10420.21</v>
+      </c>
+      <c r="K12">
+        <v>11501.06</v>
+      </c>
+      <c r="L12">
+        <v>10379.85</v>
+      </c>
+      <c r="M12">
+        <v>11024.02</v>
+      </c>
+      <c r="N12">
+        <v>11008.68</v>
+      </c>
+      <c r="O12">
+        <v>10666.57</v>
+      </c>
+      <c r="P12">
+        <v>9936.99</v>
+      </c>
+      <c r="Q12">
+        <v>7010.4</v>
+      </c>
+      <c r="R12">
+        <v>7894.99</v>
+      </c>
+      <c r="S12">
+        <v>9541.52</v>
+      </c>
+      <c r="T12">
+        <v>10085.9</v>
+      </c>
+      <c r="U12">
+        <v>9350.790000000001</v>
+      </c>
+      <c r="V12">
+        <v>10563.28</v>
+      </c>
+      <c r="W12">
+        <v>12702.96</v>
+      </c>
+      <c r="X12">
+        <v>12251.83</v>
+      </c>
+      <c r="Y12">
+        <v>12541.39</v>
+      </c>
+      <c r="Z12">
+        <v>11457.21</v>
+      </c>
+      <c r="AA12">
+        <v>11379.67</v>
+      </c>
+      <c r="AB12">
+        <v>12879.36</v>
+      </c>
+      <c r="AC12">
+        <v>12653.32</v>
+      </c>
+      <c r="AD12">
+        <v>12517.81</v>
+      </c>
+      <c r="AE12">
+        <v>12475.96</v>
+      </c>
+      <c r="AF12">
+        <v>13281.83</v>
+      </c>
+      <c r="AG12">
+        <v>12699</v>
+      </c>
+      <c r="AH12">
+        <v>12754.34</v>
+      </c>
+      <c r="AI12">
+        <v>12274.06</v>
+      </c>
+      <c r="AJ12">
+        <v>9924.01</v>
+      </c>
+      <c r="AK12">
+        <v>9975.559999999999</v>
+      </c>
+      <c r="AL12">
+        <v>7188.18</v>
+      </c>
+      <c r="AM12">
+        <v>1510.82</v>
+      </c>
+      <c r="AN12">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13">
+        <v>10833.14</v>
+      </c>
+      <c r="C13">
+        <v>10740.02</v>
+      </c>
+      <c r="D13">
+        <v>11689.39</v>
+      </c>
+      <c r="E13">
+        <v>10899.21</v>
+      </c>
+      <c r="F13">
+        <v>12270.39</v>
+      </c>
+      <c r="G13">
+        <v>10965.03</v>
+      </c>
+      <c r="H13">
+        <v>10494.37</v>
+      </c>
+      <c r="I13">
+        <v>11013.81</v>
+      </c>
+      <c r="J13">
+        <v>11043.53</v>
+      </c>
+      <c r="K13">
+        <v>12379.91</v>
+      </c>
+      <c r="L13">
+        <v>10449.07</v>
+      </c>
+      <c r="M13">
+        <v>10056.07</v>
+      </c>
+      <c r="N13">
+        <v>10622.19</v>
+      </c>
+      <c r="O13">
+        <v>10094.43</v>
+      </c>
+      <c r="P13">
+        <v>9666.360000000001</v>
+      </c>
+      <c r="Q13">
+        <v>6845.95</v>
+      </c>
+      <c r="R13">
+        <v>9411.73</v>
+      </c>
+      <c r="S13">
+        <v>10376.36</v>
+      </c>
+      <c r="T13">
+        <v>10654.44</v>
+      </c>
+      <c r="U13">
+        <v>10278.5</v>
+      </c>
+      <c r="V13">
+        <v>10295.75</v>
+      </c>
+      <c r="W13">
+        <v>10760.29</v>
+      </c>
+      <c r="X13">
+        <v>9214.290000000001</v>
+      </c>
+      <c r="Y13">
+        <v>10052.01</v>
+      </c>
+      <c r="Z13">
+        <v>8773.040000000001</v>
+      </c>
+      <c r="AA13">
+        <v>9189.139999999999</v>
+      </c>
+      <c r="AB13">
+        <v>11419.38</v>
+      </c>
+      <c r="AC13">
+        <v>9916.09</v>
+      </c>
+      <c r="AD13">
+        <v>9666.58</v>
+      </c>
+      <c r="AE13">
+        <v>10452.11</v>
+      </c>
+      <c r="AF13">
+        <v>10255.33</v>
+      </c>
+      <c r="AG13">
+        <v>11678.51</v>
+      </c>
+      <c r="AH13">
+        <v>10573.8</v>
+      </c>
+      <c r="AI13">
+        <v>10668</v>
+      </c>
+      <c r="AJ13">
+        <v>8064.28</v>
+      </c>
+      <c r="AK13">
+        <v>9183.389999999999</v>
+      </c>
+      <c r="AL13">
+        <v>7963.57</v>
+      </c>
+      <c r="AM13">
+        <v>1338.94</v>
+      </c>
+      <c r="AN13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14">
+        <v>13112.26</v>
+      </c>
+      <c r="C14">
+        <v>12971.35</v>
+      </c>
+      <c r="D14">
+        <v>13712.95</v>
+      </c>
+      <c r="E14">
+        <v>14881.16</v>
+      </c>
+      <c r="F14">
+        <v>14660.27</v>
+      </c>
+      <c r="G14">
+        <v>13357.28</v>
+      </c>
+      <c r="H14">
+        <v>14096.94</v>
+      </c>
+      <c r="I14">
+        <v>14302.11</v>
+      </c>
+      <c r="J14">
+        <v>13250.86</v>
+      </c>
+      <c r="K14">
+        <v>14938.98</v>
+      </c>
+      <c r="L14">
+        <v>13876.92</v>
+      </c>
+      <c r="M14">
+        <v>13440.12</v>
+      </c>
+      <c r="N14">
+        <v>13720.25</v>
+      </c>
+      <c r="O14">
+        <v>13555.65</v>
+      </c>
+      <c r="P14">
+        <v>11643.93</v>
+      </c>
+      <c r="Q14">
+        <v>8741.77</v>
+      </c>
+      <c r="R14">
+        <v>11541.61</v>
+      </c>
+      <c r="S14">
+        <v>13611.11</v>
+      </c>
+      <c r="T14">
+        <v>14583</v>
+      </c>
+      <c r="U14">
+        <v>14586.89</v>
+      </c>
+      <c r="V14">
+        <v>14910.48</v>
+      </c>
+      <c r="W14">
+        <v>15930.82</v>
+      </c>
+      <c r="X14">
+        <v>14905.56</v>
+      </c>
+      <c r="Y14">
+        <v>15571.36</v>
+      </c>
+      <c r="Z14">
+        <v>13653.17</v>
+      </c>
+      <c r="AA14">
+        <v>13191.35</v>
+      </c>
+      <c r="AB14">
+        <v>14891.2</v>
+      </c>
+      <c r="AC14">
+        <v>15842.79</v>
+      </c>
+      <c r="AD14">
+        <v>14536.87</v>
+      </c>
+      <c r="AE14">
+        <v>15002.73</v>
+      </c>
+      <c r="AF14">
+        <v>14650.43</v>
+      </c>
+      <c r="AG14">
+        <v>14863.75</v>
+      </c>
+      <c r="AH14">
+        <v>14930.54</v>
+      </c>
+      <c r="AI14">
+        <v>15102.05</v>
+      </c>
+      <c r="AJ14">
+        <v>14860.2</v>
+      </c>
+      <c r="AK14">
+        <v>14256.54</v>
+      </c>
+      <c r="AL14">
+        <v>9470.18</v>
+      </c>
+      <c r="AM14">
+        <v>1569.9</v>
+      </c>
+      <c r="AN14">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15">
+        <v>10900.76</v>
+      </c>
+      <c r="C15">
+        <v>11268.55</v>
+      </c>
+      <c r="D15">
+        <v>11927.37</v>
+      </c>
+      <c r="E15">
+        <v>12955.41</v>
+      </c>
+      <c r="F15">
+        <v>12832.68</v>
+      </c>
+      <c r="G15">
+        <v>11025.37</v>
+      </c>
+      <c r="H15">
+        <v>13036.09</v>
+      </c>
+      <c r="I15">
+        <v>13508.84</v>
+      </c>
+      <c r="J15">
+        <v>11179.7</v>
+      </c>
+      <c r="K15">
+        <v>13584.05</v>
+      </c>
+      <c r="L15">
+        <v>12034.52</v>
+      </c>
+      <c r="M15">
+        <v>13051.88</v>
+      </c>
+      <c r="N15">
+        <v>13100.99</v>
+      </c>
+      <c r="O15">
+        <v>13267.73</v>
+      </c>
+      <c r="P15">
+        <v>11740.44</v>
+      </c>
+      <c r="Q15">
+        <v>8051.82</v>
+      </c>
+      <c r="R15">
+        <v>10470.93</v>
+      </c>
+      <c r="S15">
+        <v>11900.37</v>
+      </c>
+      <c r="T15">
+        <v>13406.17</v>
+      </c>
+      <c r="U15">
+        <v>12870.09</v>
+      </c>
+      <c r="V15">
+        <v>13126.39</v>
+      </c>
+      <c r="W15">
+        <v>13660.09</v>
+      </c>
+      <c r="X15">
+        <v>13252.46</v>
+      </c>
+      <c r="Y15">
+        <v>14123.83</v>
+      </c>
+      <c r="Z15">
+        <v>12225</v>
+      </c>
+      <c r="AA15">
+        <v>11385.62</v>
+      </c>
+      <c r="AB15">
+        <v>13797.49</v>
+      </c>
+      <c r="AC15">
+        <v>12639.52</v>
+      </c>
+      <c r="AD15">
+        <v>13171.24</v>
+      </c>
+      <c r="AE15">
+        <v>13388.52</v>
+      </c>
+      <c r="AF15">
+        <v>12212.41</v>
+      </c>
+      <c r="AG15">
+        <v>13563.71</v>
+      </c>
+      <c r="AH15">
+        <v>12497.03</v>
+      </c>
+      <c r="AI15">
+        <v>14071.41</v>
+      </c>
+      <c r="AJ15">
+        <v>10718.3</v>
+      </c>
+      <c r="AK15">
+        <v>11166.42</v>
+      </c>
+      <c r="AL15">
+        <v>9924.08</v>
+      </c>
+      <c r="AM15">
+        <v>1808.52</v>
+      </c>
+      <c r="AN15">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
+      <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16">
+        <v>10844.6</v>
+      </c>
+      <c r="C16">
+        <v>10681.12</v>
+      </c>
+      <c r="D16">
+        <v>11650.96</v>
+      </c>
+      <c r="E16">
+        <v>12354.01</v>
+      </c>
+      <c r="F16">
+        <v>11808.18</v>
+      </c>
+      <c r="G16">
+        <v>10376.08</v>
+      </c>
+      <c r="H16">
+        <v>12854.89</v>
+      </c>
+      <c r="I16">
+        <v>13385.07</v>
+      </c>
+      <c r="J16">
+        <v>12245.17</v>
+      </c>
+      <c r="K16">
+        <v>13497.29</v>
+      </c>
+      <c r="L16">
+        <v>12411.7</v>
+      </c>
+      <c r="M16">
+        <v>12076.51</v>
+      </c>
+      <c r="N16">
+        <v>13370.57</v>
+      </c>
+      <c r="O16">
+        <v>12722.42</v>
+      </c>
+      <c r="P16">
+        <v>11483.52</v>
+      </c>
+      <c r="Q16">
+        <v>9449.889999999999</v>
+      </c>
+      <c r="R16">
+        <v>10237.64</v>
+      </c>
+      <c r="S16">
+        <v>11130.5</v>
+      </c>
+      <c r="T16">
+        <v>12981.77</v>
+      </c>
+      <c r="U16">
+        <v>12765.26</v>
+      </c>
+      <c r="V16">
+        <v>12382.99</v>
+      </c>
+      <c r="W16">
+        <v>12932.99</v>
+      </c>
+      <c r="X16">
+        <v>12573.23</v>
+      </c>
+      <c r="Y16">
+        <v>13968.83</v>
+      </c>
+      <c r="Z16">
+        <v>12925.18</v>
+      </c>
+      <c r="AA16">
+        <v>11756.24</v>
+      </c>
+      <c r="AB16">
+        <v>13493.52</v>
+      </c>
+      <c r="AC16">
+        <v>12752.15</v>
+      </c>
+      <c r="AD16">
+        <v>12676.16</v>
+      </c>
+      <c r="AE16">
+        <v>12512.85</v>
+      </c>
+      <c r="AF16">
+        <v>13205.54</v>
+      </c>
+      <c r="AG16">
+        <v>13158.31</v>
+      </c>
+      <c r="AH16">
+        <v>12744.91</v>
+      </c>
+      <c r="AI16">
+        <v>12716.77</v>
+      </c>
+      <c r="AJ16">
+        <v>9839.290000000001</v>
+      </c>
+      <c r="AK16">
+        <v>10354.59</v>
+      </c>
+      <c r="AL16">
+        <v>8718.700000000001</v>
+      </c>
+      <c r="AM16">
+        <v>1438.83</v>
+      </c>
+      <c r="AN16">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40">
+      <c r="A17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <v>7925.28</v>
+      </c>
+      <c r="C17">
+        <v>7490.23</v>
+      </c>
+      <c r="D17">
+        <v>8206.219999999999</v>
+      </c>
+      <c r="E17">
+        <v>8519.9</v>
+      </c>
+      <c r="F17">
+        <v>8830.76</v>
+      </c>
+      <c r="G17">
+        <v>8251.860000000001</v>
+      </c>
+      <c r="H17">
+        <v>8307.42</v>
+      </c>
+      <c r="I17">
+        <v>9191.469999999999</v>
+      </c>
+      <c r="J17">
+        <v>9373.799999999999</v>
+      </c>
+      <c r="K17">
+        <v>10279.96</v>
+      </c>
+      <c r="L17">
+        <v>8378.48</v>
+      </c>
+      <c r="M17">
+        <v>9759.77</v>
+      </c>
+      <c r="N17">
+        <v>9765.620000000001</v>
+      </c>
+      <c r="O17">
+        <v>8378.01</v>
+      </c>
+      <c r="P17">
+        <v>7678.66</v>
+      </c>
+      <c r="Q17">
+        <v>5990.98</v>
+      </c>
+      <c r="R17">
+        <v>7503.97</v>
+      </c>
+      <c r="S17">
+        <v>9647.799999999999</v>
+      </c>
+      <c r="T17">
+        <v>8914.83</v>
+      </c>
+      <c r="U17">
+        <v>8895.42</v>
+      </c>
+      <c r="V17">
+        <v>9381.379999999999</v>
+      </c>
+      <c r="W17">
+        <v>10684.49</v>
+      </c>
+      <c r="X17">
+        <v>9566.75</v>
+      </c>
+      <c r="Y17">
+        <v>9882.5</v>
+      </c>
+      <c r="Z17">
+        <v>9512.65</v>
+      </c>
+      <c r="AA17">
+        <v>8660.15</v>
+      </c>
+      <c r="AB17">
+        <v>8400.110000000001</v>
+      </c>
+      <c r="AC17">
+        <v>9695.440000000001</v>
+      </c>
+      <c r="AD17">
+        <v>9270.99</v>
+      </c>
+      <c r="AE17">
+        <v>8866.5</v>
+      </c>
+      <c r="AF17">
+        <v>9544.290000000001</v>
+      </c>
+      <c r="AG17">
+        <v>8794.74</v>
+      </c>
+      <c r="AH17">
+        <v>9188.24</v>
+      </c>
+      <c r="AI17">
+        <v>10211.83</v>
+      </c>
+      <c r="AJ17">
+        <v>8250.75</v>
+      </c>
+      <c r="AK17">
+        <v>8847.450000000001</v>
+      </c>
+      <c r="AL17">
+        <v>8530.1</v>
+      </c>
+      <c r="AM17">
+        <v>1041.24</v>
+      </c>
+      <c r="AN17">
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>

--- a/mbrMoPvt_94.xlsx
+++ b/mbrMoPvt_94.xlsx
@@ -1258,6 +1258,24 @@
       <c r="AH6">
         <v>9232.76</v>
       </c>
+      <c r="AI6">
+        <v>10582.33</v>
+      </c>
+      <c r="AJ6">
+        <v>10307.6</v>
+      </c>
+      <c r="AK6">
+        <v>10108.31</v>
+      </c>
+      <c r="AL6">
+        <v>6448.88</v>
+      </c>
+      <c r="AM6">
+        <v>1310.44</v>
+      </c>
+      <c r="AN6">
+        <v>1.93</v>
+      </c>
     </row>
     <row r="7" spans="1:40">
       <c r="A7" s="1" t="s">

--- a/mbrMoPvt_94.xlsx
+++ b/mbrMoPvt_94.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>CITYBLOCKDCE</t>
+  </si>
+  <si>
+    <t>ELATIONDCE</t>
   </si>
   <si>
     <t>ILUMEDPI</t>
@@ -512,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN8"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1133,121 +1136,121 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>8837.780000000001</v>
+        <v>4809.96</v>
       </c>
       <c r="C6">
-        <v>8328.540000000001</v>
+        <v>4973.26</v>
       </c>
       <c r="D6">
-        <v>9778.700000000001</v>
+        <v>5366.1</v>
       </c>
       <c r="E6">
-        <v>10460.03</v>
+        <v>6393.15</v>
       </c>
       <c r="F6">
-        <v>9508.629999999999</v>
+        <v>6154.7</v>
       </c>
       <c r="G6">
-        <v>10344.18</v>
+        <v>6107.56</v>
       </c>
       <c r="H6">
-        <v>10213.22</v>
+        <v>5301.29</v>
       </c>
       <c r="I6">
-        <v>9315.93</v>
+        <v>6381.08</v>
       </c>
       <c r="J6">
-        <v>8085.17</v>
+        <v>5352.56</v>
       </c>
       <c r="K6">
-        <v>12005.36</v>
+        <v>6615.23</v>
       </c>
       <c r="L6">
-        <v>9005.4</v>
+        <v>5804.02</v>
       </c>
       <c r="M6">
-        <v>9624.040000000001</v>
+        <v>5610.2</v>
       </c>
       <c r="N6">
-        <v>9898.809999999999</v>
+        <v>6036.91</v>
       </c>
       <c r="O6">
-        <v>10062.66</v>
+        <v>6856.49</v>
       </c>
       <c r="P6">
-        <v>9698.24</v>
+        <v>5366.07</v>
       </c>
       <c r="Q6">
-        <v>6679.43</v>
+        <v>3724.63</v>
       </c>
       <c r="R6">
-        <v>8745.879999999999</v>
+        <v>4789.3</v>
       </c>
       <c r="S6">
-        <v>10145.89</v>
+        <v>5764.04</v>
       </c>
       <c r="T6">
-        <v>11274.67</v>
+        <v>5624.55</v>
       </c>
       <c r="U6">
-        <v>10879.19</v>
+        <v>5762.63</v>
       </c>
       <c r="V6">
-        <v>11163.03</v>
+        <v>6113.55</v>
       </c>
       <c r="W6">
-        <v>12130.95</v>
+        <v>6055.61</v>
       </c>
       <c r="X6">
-        <v>11595.28</v>
+        <v>5841.01</v>
       </c>
       <c r="Y6">
-        <v>12484.63</v>
+        <v>5948.41</v>
       </c>
       <c r="Z6">
-        <v>10771.52</v>
+        <v>6482.96</v>
       </c>
       <c r="AA6">
-        <v>13468.79</v>
+        <v>5789.34</v>
       </c>
       <c r="AB6">
-        <v>12730.4</v>
+        <v>7480.59</v>
       </c>
       <c r="AC6">
-        <v>13017.43</v>
+        <v>7352.61</v>
       </c>
       <c r="AD6">
-        <v>12524.75</v>
+        <v>6414.14</v>
       </c>
       <c r="AE6">
-        <v>13657.32</v>
+        <v>6873.87</v>
       </c>
       <c r="AF6">
-        <v>15686.92</v>
+        <v>7771.11</v>
       </c>
       <c r="AG6">
-        <v>13793.3</v>
+        <v>6538.25</v>
       </c>
       <c r="AH6">
-        <v>12327.01</v>
+        <v>8265.49</v>
       </c>
       <c r="AI6">
-        <v>12595.01</v>
+        <v>8142.19</v>
       </c>
       <c r="AJ6">
-        <v>12023.06</v>
+        <v>7252.56</v>
       </c>
       <c r="AK6">
-        <v>8125.39</v>
+        <v>6467.21</v>
       </c>
       <c r="AL6">
-        <v>8606.27</v>
+        <v>541.26</v>
       </c>
       <c r="AM6">
-        <v>1643.08</v>
+        <v>0.96</v>
       </c>
       <c r="AN6">
-        <v>4.8</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1255,121 +1258,121 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>7002.9</v>
+        <v>8837.780000000001</v>
       </c>
       <c r="C7">
-        <v>6908.78</v>
+        <v>8328.540000000001</v>
       </c>
       <c r="D7">
-        <v>7758.96</v>
+        <v>9778.700000000001</v>
       </c>
       <c r="E7">
-        <v>7790.68</v>
+        <v>10460.03</v>
       </c>
       <c r="F7">
-        <v>8097.89</v>
+        <v>9508.629999999999</v>
       </c>
       <c r="G7">
-        <v>7219.52</v>
+        <v>10344.18</v>
       </c>
       <c r="H7">
-        <v>7244.76</v>
+        <v>10213.22</v>
       </c>
       <c r="I7">
-        <v>7667.13</v>
+        <v>9315.93</v>
       </c>
       <c r="J7">
-        <v>7430.67</v>
+        <v>8085.17</v>
       </c>
       <c r="K7">
-        <v>8689.51</v>
+        <v>12005.36</v>
       </c>
       <c r="L7">
-        <v>7504.95</v>
+        <v>9005.4</v>
       </c>
       <c r="M7">
-        <v>7576.34</v>
+        <v>9624.040000000001</v>
       </c>
       <c r="N7">
-        <v>7172.83</v>
+        <v>9898.809999999999</v>
       </c>
       <c r="O7">
-        <v>7256.29</v>
+        <v>10062.66</v>
       </c>
       <c r="P7">
-        <v>6637.96</v>
+        <v>9698.24</v>
       </c>
       <c r="Q7">
-        <v>4706.08</v>
+        <v>6679.43</v>
       </c>
       <c r="R7">
-        <v>6126.3</v>
+        <v>8745.879999999999</v>
       </c>
       <c r="S7">
-        <v>7549.74</v>
+        <v>10145.89</v>
       </c>
       <c r="T7">
-        <v>8185.85</v>
+        <v>11274.67</v>
       </c>
       <c r="U7">
-        <v>8024.17</v>
+        <v>10879.19</v>
       </c>
       <c r="V7">
-        <v>8493.16</v>
+        <v>11163.03</v>
       </c>
       <c r="W7">
-        <v>8857.139999999999</v>
+        <v>12130.95</v>
       </c>
       <c r="X7">
-        <v>8126.34</v>
+        <v>11595.28</v>
       </c>
       <c r="Y7">
-        <v>8648.49</v>
+        <v>12484.63</v>
       </c>
       <c r="Z7">
-        <v>7643.87</v>
+        <v>10771.52</v>
       </c>
       <c r="AA7">
-        <v>7675.54</v>
+        <v>13468.79</v>
       </c>
       <c r="AB7">
-        <v>9262.690000000001</v>
+        <v>12730.4</v>
       </c>
       <c r="AC7">
-        <v>9312.540000000001</v>
+        <v>13017.43</v>
       </c>
       <c r="AD7">
-        <v>9240.200000000001</v>
+        <v>12524.75</v>
       </c>
       <c r="AE7">
-        <v>9342.26</v>
+        <v>13657.32</v>
       </c>
       <c r="AF7">
-        <v>9553.15</v>
+        <v>15686.92</v>
       </c>
       <c r="AG7">
-        <v>9843.879999999999</v>
+        <v>13793.3</v>
       </c>
       <c r="AH7">
-        <v>9979.58</v>
+        <v>12327.01</v>
       </c>
       <c r="AI7">
-        <v>10090.79</v>
+        <v>12595.01</v>
       </c>
       <c r="AJ7">
-        <v>9781.15</v>
+        <v>12023.06</v>
       </c>
       <c r="AK7">
-        <v>9434.9</v>
+        <v>8125.39</v>
       </c>
       <c r="AL7">
-        <v>7866.67</v>
+        <v>8606.27</v>
       </c>
       <c r="AM7">
-        <v>1364.62</v>
+        <v>1643.08</v>
       </c>
       <c r="AN7">
-        <v>4.02</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1377,120 +1380,242 @@
         <v>46</v>
       </c>
       <c r="B8">
+        <v>7002.9</v>
+      </c>
+      <c r="C8">
+        <v>6908.78</v>
+      </c>
+      <c r="D8">
+        <v>7758.96</v>
+      </c>
+      <c r="E8">
+        <v>7790.68</v>
+      </c>
+      <c r="F8">
+        <v>8097.89</v>
+      </c>
+      <c r="G8">
+        <v>7219.52</v>
+      </c>
+      <c r="H8">
+        <v>7244.76</v>
+      </c>
+      <c r="I8">
+        <v>7667.13</v>
+      </c>
+      <c r="J8">
+        <v>7430.67</v>
+      </c>
+      <c r="K8">
+        <v>8689.51</v>
+      </c>
+      <c r="L8">
+        <v>7504.95</v>
+      </c>
+      <c r="M8">
+        <v>7576.34</v>
+      </c>
+      <c r="N8">
+        <v>7172.83</v>
+      </c>
+      <c r="O8">
+        <v>7256.29</v>
+      </c>
+      <c r="P8">
+        <v>6637.96</v>
+      </c>
+      <c r="Q8">
+        <v>4706.08</v>
+      </c>
+      <c r="R8">
+        <v>6126.3</v>
+      </c>
+      <c r="S8">
+        <v>7549.74</v>
+      </c>
+      <c r="T8">
+        <v>8185.85</v>
+      </c>
+      <c r="U8">
+        <v>8024.17</v>
+      </c>
+      <c r="V8">
+        <v>8493.16</v>
+      </c>
+      <c r="W8">
+        <v>8857.139999999999</v>
+      </c>
+      <c r="X8">
+        <v>8126.34</v>
+      </c>
+      <c r="Y8">
+        <v>8648.49</v>
+      </c>
+      <c r="Z8">
+        <v>7643.87</v>
+      </c>
+      <c r="AA8">
+        <v>7675.54</v>
+      </c>
+      <c r="AB8">
+        <v>9262.690000000001</v>
+      </c>
+      <c r="AC8">
+        <v>9312.540000000001</v>
+      </c>
+      <c r="AD8">
+        <v>9240.200000000001</v>
+      </c>
+      <c r="AE8">
+        <v>9342.26</v>
+      </c>
+      <c r="AF8">
+        <v>9553.15</v>
+      </c>
+      <c r="AG8">
+        <v>9843.879999999999</v>
+      </c>
+      <c r="AH8">
+        <v>9979.58</v>
+      </c>
+      <c r="AI8">
+        <v>10090.79</v>
+      </c>
+      <c r="AJ8">
+        <v>9781.15</v>
+      </c>
+      <c r="AK8">
+        <v>9434.9</v>
+      </c>
+      <c r="AL8">
+        <v>7866.67</v>
+      </c>
+      <c r="AM8">
+        <v>1364.62</v>
+      </c>
+      <c r="AN8">
+        <v>4.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
         <v>6901.43</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>6796.06</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>6724.78</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>7920.91</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>8922.67</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>7150.03</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>7945.65</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>8544.9</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>7153.91</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>8201.4</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>8116.12</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>6516.08</v>
       </c>
-      <c r="N8">
+      <c r="N9">
         <v>5886.41</v>
       </c>
-      <c r="O8">
+      <c r="O9">
         <v>8503.35</v>
       </c>
-      <c r="P8">
+      <c r="P9">
         <v>6917.41</v>
       </c>
-      <c r="Q8">
+      <c r="Q9">
         <v>5905.53</v>
       </c>
-      <c r="R8">
+      <c r="R9">
         <v>7746.65</v>
       </c>
-      <c r="S8">
+      <c r="S9">
         <v>7081.8</v>
       </c>
-      <c r="T8">
+      <c r="T9">
         <v>8452.280000000001</v>
       </c>
-      <c r="U8">
+      <c r="U9">
         <v>9581.93</v>
       </c>
-      <c r="V8">
+      <c r="V9">
         <v>9995.34</v>
       </c>
-      <c r="W8">
+      <c r="W9">
         <v>10023.9</v>
       </c>
-      <c r="X8">
+      <c r="X9">
         <v>8565.889999999999</v>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <v>8650.9</v>
       </c>
-      <c r="Z8">
+      <c r="Z9">
         <v>8019.85</v>
       </c>
-      <c r="AA8">
+      <c r="AA9">
         <v>6287.18</v>
       </c>
-      <c r="AB8">
+      <c r="AB9">
         <v>8234.719999999999</v>
       </c>
-      <c r="AC8">
+      <c r="AC9">
         <v>9020.959999999999</v>
       </c>
-      <c r="AD8">
+      <c r="AD9">
         <v>9328.08</v>
       </c>
-      <c r="AE8">
+      <c r="AE9">
         <v>8856.049999999999</v>
       </c>
-      <c r="AF8">
+      <c r="AF9">
         <v>8935.52</v>
       </c>
-      <c r="AG8">
+      <c r="AG9">
         <v>9044.85</v>
       </c>
-      <c r="AH8">
+      <c r="AH9">
         <v>9078.700000000001</v>
       </c>
-      <c r="AI8">
+      <c r="AI9">
         <v>9639.280000000001</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ9">
         <v>12012.58</v>
       </c>
-      <c r="AK8">
+      <c r="AK9">
         <v>10492.72</v>
       </c>
-      <c r="AL8">
+      <c r="AL9">
         <v>7786.91</v>
       </c>
-      <c r="AM8">
+      <c r="AM9">
         <v>1142.1</v>
       </c>
-      <c r="AN8">
+      <c r="AN9">
         <v>1.59</v>
       </c>
     </row>

--- a/mbrMoPvt_94.xlsx
+++ b/mbrMoPvt_94.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -124,10 +124,40 @@
     <t>m-2021-12</t>
   </si>
   <si>
+    <t>m-2022-01</t>
+  </si>
+  <si>
+    <t>m-2022-02</t>
+  </si>
+  <si>
+    <t>m-2022-03</t>
+  </si>
+  <si>
     <t>org_id</t>
   </si>
   <si>
-    <t>CARELINEPI</t>
+    <t>ADAUGEOPI</t>
+  </si>
+  <si>
+    <t>BLUEROCKDC</t>
+  </si>
+  <si>
+    <t>CANODCE</t>
+  </si>
+  <si>
+    <t>CITYBLOCKDCE</t>
+  </si>
+  <si>
+    <t>ELATIONDCE</t>
+  </si>
+  <si>
+    <t>ILUMEDPI</t>
+  </si>
+  <si>
+    <t>INTERMNTUTDC</t>
+  </si>
+  <si>
+    <t>LATITUDEDC</t>
   </si>
 </sst>
 </file>
@@ -485,15 +515,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -603,118 +633,990 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:40">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>13974.01</v>
+        <v>6149.13</v>
       </c>
       <c r="C2">
-        <v>12885.68</v>
+        <v>5822.9</v>
       </c>
       <c r="D2">
-        <v>20246.49</v>
+        <v>6439.68</v>
       </c>
       <c r="E2">
-        <v>16977.93</v>
+        <v>7128.13</v>
       </c>
       <c r="F2">
-        <v>16433.94</v>
+        <v>6851.35</v>
       </c>
       <c r="G2">
-        <v>13145.61</v>
+        <v>6724.39</v>
       </c>
       <c r="H2">
-        <v>13415.21</v>
+        <v>6819.33</v>
       </c>
       <c r="I2">
-        <v>18184.07</v>
+        <v>7242.95</v>
       </c>
       <c r="J2">
-        <v>15791.27</v>
+        <v>7603.81</v>
       </c>
       <c r="K2">
-        <v>18751.39</v>
+        <v>7792.7</v>
       </c>
       <c r="L2">
-        <v>17629.34</v>
+        <v>7445.96</v>
       </c>
       <c r="M2">
-        <v>21417.37</v>
+        <v>6705.03</v>
       </c>
       <c r="N2">
-        <v>19211.32</v>
+        <v>6684.69</v>
       </c>
       <c r="O2">
-        <v>19875</v>
+        <v>6751.91</v>
       </c>
       <c r="P2">
-        <v>14804.69</v>
+        <v>5638.49</v>
       </c>
       <c r="Q2">
-        <v>13923.83</v>
+        <v>4241.49</v>
       </c>
       <c r="R2">
-        <v>16748.98</v>
+        <v>5776.06</v>
       </c>
       <c r="S2">
-        <v>18516.94</v>
+        <v>7476.47</v>
       </c>
       <c r="T2">
-        <v>19963.57</v>
+        <v>6988.45</v>
       </c>
       <c r="U2">
-        <v>22455.18</v>
+        <v>7160.4</v>
       </c>
       <c r="V2">
-        <v>23555.57</v>
+        <v>7588.69</v>
       </c>
       <c r="W2">
-        <v>23503.32</v>
+        <v>8212.629999999999</v>
       </c>
       <c r="X2">
-        <v>28318.61</v>
+        <v>7875.93</v>
       </c>
       <c r="Y2">
-        <v>25357.61</v>
+        <v>7156.49</v>
       </c>
       <c r="Z2">
-        <v>23317.48</v>
+        <v>7419.88</v>
       </c>
       <c r="AA2">
-        <v>18966.57</v>
+        <v>6923.66</v>
       </c>
       <c r="AB2">
-        <v>18807.58</v>
+        <v>8949.959999999999</v>
       </c>
       <c r="AC2">
-        <v>24088</v>
+        <v>9153.18</v>
       </c>
       <c r="AD2">
-        <v>21616.43</v>
+        <v>9439.84</v>
       </c>
       <c r="AE2">
-        <v>24286.8</v>
+        <v>9843.4</v>
       </c>
       <c r="AF2">
-        <v>24292.05</v>
+        <v>8836.190000000001</v>
       </c>
       <c r="AG2">
-        <v>23745.97</v>
+        <v>9478.799999999999</v>
       </c>
       <c r="AH2">
-        <v>22524.56</v>
+        <v>9355.16</v>
       </c>
       <c r="AI2">
-        <v>26713.86</v>
+        <v>8873.23</v>
       </c>
       <c r="AJ2">
-        <v>21800.8</v>
+        <v>9005.549999999999</v>
       </c>
       <c r="AK2">
-        <v>25399.75</v>
+        <v>8374.559999999999</v>
+      </c>
+      <c r="AL2">
+        <v>7552.83</v>
+      </c>
+      <c r="AM2">
+        <v>6720.95</v>
+      </c>
+      <c r="AN2">
+        <v>2724.87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>7240.04</v>
+      </c>
+      <c r="C3">
+        <v>7772.79</v>
+      </c>
+      <c r="D3">
+        <v>8262.92</v>
+      </c>
+      <c r="E3">
+        <v>8349.43</v>
+      </c>
+      <c r="F3">
+        <v>11142.03</v>
+      </c>
+      <c r="G3">
+        <v>9191.969999999999</v>
+      </c>
+      <c r="H3">
+        <v>8569.75</v>
+      </c>
+      <c r="I3">
+        <v>7750.62</v>
+      </c>
+      <c r="J3">
+        <v>6688.15</v>
+      </c>
+      <c r="K3">
+        <v>11852.85</v>
+      </c>
+      <c r="L3">
+        <v>10890.34</v>
+      </c>
+      <c r="M3">
+        <v>10490.98</v>
+      </c>
+      <c r="N3">
+        <v>9215.959999999999</v>
+      </c>
+      <c r="O3">
+        <v>8609.139999999999</v>
+      </c>
+      <c r="P3">
+        <v>6923.16</v>
+      </c>
+      <c r="Q3">
+        <v>4424.7</v>
+      </c>
+      <c r="R3">
+        <v>6933.9</v>
+      </c>
+      <c r="S3">
+        <v>7215.73</v>
+      </c>
+      <c r="T3">
+        <v>8172.78</v>
+      </c>
+      <c r="U3">
+        <v>11440.54</v>
+      </c>
+      <c r="V3">
+        <v>12191.66</v>
+      </c>
+      <c r="W3">
+        <v>12891.86</v>
+      </c>
+      <c r="X3">
+        <v>11216.81</v>
+      </c>
+      <c r="Y3">
+        <v>13351.88</v>
+      </c>
+      <c r="Z3">
+        <v>14942.41</v>
+      </c>
+      <c r="AA3">
+        <v>13451.18</v>
+      </c>
+      <c r="AB3">
+        <v>15261.86</v>
+      </c>
+      <c r="AC3">
+        <v>13306.47</v>
+      </c>
+      <c r="AD3">
+        <v>10900.55</v>
+      </c>
+      <c r="AE3">
+        <v>12025.13</v>
+      </c>
+      <c r="AF3">
+        <v>10784.9</v>
+      </c>
+      <c r="AG3">
+        <v>13761.61</v>
+      </c>
+      <c r="AH3">
+        <v>14394.41</v>
+      </c>
+      <c r="AI3">
+        <v>15064.24</v>
+      </c>
+      <c r="AJ3">
+        <v>13900</v>
+      </c>
+      <c r="AK3">
+        <v>14171.47</v>
+      </c>
+      <c r="AL3">
+        <v>14333.3</v>
+      </c>
+      <c r="AM3">
+        <v>12735.72</v>
+      </c>
+      <c r="AN3">
+        <v>4873.77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>7664.2</v>
+      </c>
+      <c r="C4">
+        <v>7669.42</v>
+      </c>
+      <c r="D4">
+        <v>8175.75</v>
+      </c>
+      <c r="E4">
+        <v>8414.879999999999</v>
+      </c>
+      <c r="F4">
+        <v>9079.059999999999</v>
+      </c>
+      <c r="G4">
+        <v>7919.38</v>
+      </c>
+      <c r="H4">
+        <v>8793</v>
+      </c>
+      <c r="I4">
+        <v>8632.07</v>
+      </c>
+      <c r="J4">
+        <v>8074.97</v>
+      </c>
+      <c r="K4">
+        <v>8963.200000000001</v>
+      </c>
+      <c r="L4">
+        <v>8545.040000000001</v>
+      </c>
+      <c r="M4">
+        <v>8476.139999999999</v>
+      </c>
+      <c r="N4">
+        <v>8587.59</v>
+      </c>
+      <c r="O4">
+        <v>8760.629999999999</v>
+      </c>
+      <c r="P4">
+        <v>7522.43</v>
+      </c>
+      <c r="Q4">
+        <v>5249.52</v>
+      </c>
+      <c r="R4">
+        <v>7327.78</v>
+      </c>
+      <c r="S4">
+        <v>8721.08</v>
+      </c>
+      <c r="T4">
+        <v>8759.940000000001</v>
+      </c>
+      <c r="U4">
+        <v>8471.93</v>
+      </c>
+      <c r="V4">
+        <v>9232.129999999999</v>
+      </c>
+      <c r="W4">
+        <v>9889.610000000001</v>
+      </c>
+      <c r="X4">
+        <v>9448.459999999999</v>
+      </c>
+      <c r="Y4">
+        <v>10120.43</v>
+      </c>
+      <c r="Z4">
+        <v>9215.129999999999</v>
+      </c>
+      <c r="AA4">
+        <v>9357.09</v>
+      </c>
+      <c r="AB4">
+        <v>10908.45</v>
+      </c>
+      <c r="AC4">
+        <v>11236.33</v>
+      </c>
+      <c r="AD4">
+        <v>10826.64</v>
+      </c>
+      <c r="AE4">
+        <v>11384.46</v>
+      </c>
+      <c r="AF4">
+        <v>11145.33</v>
+      </c>
+      <c r="AG4">
+        <v>11430.09</v>
+      </c>
+      <c r="AH4">
+        <v>11305.98</v>
+      </c>
+      <c r="AI4">
+        <v>12237</v>
+      </c>
+      <c r="AJ4">
+        <v>12522.39</v>
+      </c>
+      <c r="AK4">
+        <v>13713.9</v>
+      </c>
+      <c r="AL4">
+        <v>13221.3</v>
+      </c>
+      <c r="AM4">
+        <v>11275.99</v>
+      </c>
+      <c r="AN4">
+        <v>3874.62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>6358.61</v>
+      </c>
+      <c r="C5">
+        <v>6459.93</v>
+      </c>
+      <c r="D5">
+        <v>7550.88</v>
+      </c>
+      <c r="E5">
+        <v>6740.13</v>
+      </c>
+      <c r="F5">
+        <v>7368.7</v>
+      </c>
+      <c r="G5">
+        <v>7037.64</v>
+      </c>
+      <c r="H5">
+        <v>7003.93</v>
+      </c>
+      <c r="I5">
+        <v>7089.13</v>
+      </c>
+      <c r="J5">
+        <v>7542.93</v>
+      </c>
+      <c r="K5">
+        <v>8109.4</v>
+      </c>
+      <c r="L5">
+        <v>7551.86</v>
+      </c>
+      <c r="M5">
+        <v>7275.88</v>
+      </c>
+      <c r="N5">
+        <v>5876.48</v>
+      </c>
+      <c r="O5">
+        <v>7086.6</v>
+      </c>
+      <c r="P5">
+        <v>5998.67</v>
+      </c>
+      <c r="Q5">
+        <v>5509.47</v>
+      </c>
+      <c r="R5">
+        <v>7573.1</v>
+      </c>
+      <c r="S5">
+        <v>7068.99</v>
+      </c>
+      <c r="T5">
+        <v>7156.56</v>
+      </c>
+      <c r="U5">
+        <v>6613.5</v>
+      </c>
+      <c r="V5">
+        <v>8196.24</v>
+      </c>
+      <c r="W5">
+        <v>8714.23</v>
+      </c>
+      <c r="X5">
+        <v>8240.280000000001</v>
+      </c>
+      <c r="Y5">
+        <v>8243.030000000001</v>
+      </c>
+      <c r="Z5">
+        <v>8338.49</v>
+      </c>
+      <c r="AA5">
+        <v>8678.83</v>
+      </c>
+      <c r="AB5">
+        <v>9503.620000000001</v>
+      </c>
+      <c r="AC5">
+        <v>9072.870000000001</v>
+      </c>
+      <c r="AD5">
+        <v>8296.9</v>
+      </c>
+      <c r="AE5">
+        <v>9251.360000000001</v>
+      </c>
+      <c r="AF5">
+        <v>9878.91</v>
+      </c>
+      <c r="AG5">
+        <v>10546.53</v>
+      </c>
+      <c r="AH5">
+        <v>10414.68</v>
+      </c>
+      <c r="AI5">
+        <v>10995.72</v>
+      </c>
+      <c r="AJ5">
+        <v>10299.05</v>
+      </c>
+      <c r="AK5">
+        <v>10168.96</v>
+      </c>
+      <c r="AL5">
+        <v>10992.11</v>
+      </c>
+      <c r="AM5">
+        <v>9677.389999999999</v>
+      </c>
+      <c r="AN5">
+        <v>3224.27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>4809.96</v>
+      </c>
+      <c r="C6">
+        <v>4973.26</v>
+      </c>
+      <c r="D6">
+        <v>5366.1</v>
+      </c>
+      <c r="E6">
+        <v>6393.15</v>
+      </c>
+      <c r="F6">
+        <v>6154.7</v>
+      </c>
+      <c r="G6">
+        <v>6107.56</v>
+      </c>
+      <c r="H6">
+        <v>5301.29</v>
+      </c>
+      <c r="I6">
+        <v>6381.08</v>
+      </c>
+      <c r="J6">
+        <v>5352.56</v>
+      </c>
+      <c r="K6">
+        <v>6615.23</v>
+      </c>
+      <c r="L6">
+        <v>5804.02</v>
+      </c>
+      <c r="M6">
+        <v>5610.2</v>
+      </c>
+      <c r="N6">
+        <v>6036.91</v>
+      </c>
+      <c r="O6">
+        <v>6856.49</v>
+      </c>
+      <c r="P6">
+        <v>5366.07</v>
+      </c>
+      <c r="Q6">
+        <v>3724.63</v>
+      </c>
+      <c r="R6">
+        <v>4789.3</v>
+      </c>
+      <c r="S6">
+        <v>5764.04</v>
+      </c>
+      <c r="T6">
+        <v>5624.55</v>
+      </c>
+      <c r="U6">
+        <v>5762.63</v>
+      </c>
+      <c r="V6">
+        <v>6113.55</v>
+      </c>
+      <c r="W6">
+        <v>6055.61</v>
+      </c>
+      <c r="X6">
+        <v>5841.01</v>
+      </c>
+      <c r="Y6">
+        <v>5948.41</v>
+      </c>
+      <c r="Z6">
+        <v>6482.96</v>
+      </c>
+      <c r="AA6">
+        <v>5789.34</v>
+      </c>
+      <c r="AB6">
+        <v>7480.59</v>
+      </c>
+      <c r="AC6">
+        <v>7352.61</v>
+      </c>
+      <c r="AD6">
+        <v>6414.14</v>
+      </c>
+      <c r="AE6">
+        <v>6873.87</v>
+      </c>
+      <c r="AF6">
+        <v>7771.11</v>
+      </c>
+      <c r="AG6">
+        <v>6538.25</v>
+      </c>
+      <c r="AH6">
+        <v>8265.49</v>
+      </c>
+      <c r="AI6">
+        <v>8142.19</v>
+      </c>
+      <c r="AJ6">
+        <v>7252.56</v>
+      </c>
+      <c r="AK6">
+        <v>6467.21</v>
+      </c>
+      <c r="AL6">
+        <v>541.26</v>
+      </c>
+      <c r="AM6">
+        <v>0.96</v>
+      </c>
+      <c r="AN6">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <v>8837.780000000001</v>
+      </c>
+      <c r="C7">
+        <v>8328.540000000001</v>
+      </c>
+      <c r="D7">
+        <v>9778.700000000001</v>
+      </c>
+      <c r="E7">
+        <v>10460.03</v>
+      </c>
+      <c r="F7">
+        <v>9508.629999999999</v>
+      </c>
+      <c r="G7">
+        <v>10344.18</v>
+      </c>
+      <c r="H7">
+        <v>10213.22</v>
+      </c>
+      <c r="I7">
+        <v>9315.93</v>
+      </c>
+      <c r="J7">
+        <v>8085.17</v>
+      </c>
+      <c r="K7">
+        <v>12005.28</v>
+      </c>
+      <c r="L7">
+        <v>9004.879999999999</v>
+      </c>
+      <c r="M7">
+        <v>9624.040000000001</v>
+      </c>
+      <c r="N7">
+        <v>9898.809999999999</v>
+      </c>
+      <c r="O7">
+        <v>10062.66</v>
+      </c>
+      <c r="P7">
+        <v>9693.950000000001</v>
+      </c>
+      <c r="Q7">
+        <v>6679.43</v>
+      </c>
+      <c r="R7">
+        <v>8745.879999999999</v>
+      </c>
+      <c r="S7">
+        <v>10145.89</v>
+      </c>
+      <c r="T7">
+        <v>11274.67</v>
+      </c>
+      <c r="U7">
+        <v>10879.19</v>
+      </c>
+      <c r="V7">
+        <v>11163.03</v>
+      </c>
+      <c r="W7">
+        <v>12130.95</v>
+      </c>
+      <c r="X7">
+        <v>11595.28</v>
+      </c>
+      <c r="Y7">
+        <v>12484.63</v>
+      </c>
+      <c r="Z7">
+        <v>10771.52</v>
+      </c>
+      <c r="AA7">
+        <v>13467.52</v>
+      </c>
+      <c r="AB7">
+        <v>12733.17</v>
+      </c>
+      <c r="AC7">
+        <v>13019.99</v>
+      </c>
+      <c r="AD7">
+        <v>12527.3</v>
+      </c>
+      <c r="AE7">
+        <v>13660.05</v>
+      </c>
+      <c r="AF7">
+        <v>15688.45</v>
+      </c>
+      <c r="AG7">
+        <v>13798.43</v>
+      </c>
+      <c r="AH7">
+        <v>12407.19</v>
+      </c>
+      <c r="AI7">
+        <v>12641.85</v>
+      </c>
+      <c r="AJ7">
+        <v>12146.04</v>
+      </c>
+      <c r="AK7">
+        <v>8353.01</v>
+      </c>
+      <c r="AL7">
+        <v>10062.78</v>
+      </c>
+      <c r="AM7">
+        <v>9383.309999999999</v>
+      </c>
+      <c r="AN7">
+        <v>3491.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>6998.71</v>
+      </c>
+      <c r="C8">
+        <v>6905.11</v>
+      </c>
+      <c r="D8">
+        <v>7755.12</v>
+      </c>
+      <c r="E8">
+        <v>7786.05</v>
+      </c>
+      <c r="F8">
+        <v>8092.62</v>
+      </c>
+      <c r="G8">
+        <v>7214.71</v>
+      </c>
+      <c r="H8">
+        <v>7241.03</v>
+      </c>
+      <c r="I8">
+        <v>7663.21</v>
+      </c>
+      <c r="J8">
+        <v>7423.37</v>
+      </c>
+      <c r="K8">
+        <v>8687.040000000001</v>
+      </c>
+      <c r="L8">
+        <v>7503.95</v>
+      </c>
+      <c r="M8">
+        <v>7575.34</v>
+      </c>
+      <c r="N8">
+        <v>7171.6</v>
+      </c>
+      <c r="O8">
+        <v>7255.23</v>
+      </c>
+      <c r="P8">
+        <v>6636.96</v>
+      </c>
+      <c r="Q8">
+        <v>4705.53</v>
+      </c>
+      <c r="R8">
+        <v>6125.83</v>
+      </c>
+      <c r="S8">
+        <v>7548.75</v>
+      </c>
+      <c r="T8">
+        <v>8186.11</v>
+      </c>
+      <c r="U8">
+        <v>8026.32</v>
+      </c>
+      <c r="V8">
+        <v>8494.91</v>
+      </c>
+      <c r="W8">
+        <v>8865.75</v>
+      </c>
+      <c r="X8">
+        <v>8125.28</v>
+      </c>
+      <c r="Y8">
+        <v>8647.629999999999</v>
+      </c>
+      <c r="Z8">
+        <v>7642.68</v>
+      </c>
+      <c r="AA8">
+        <v>7673.72</v>
+      </c>
+      <c r="AB8">
+        <v>9272.48</v>
+      </c>
+      <c r="AC8">
+        <v>9317.620000000001</v>
+      </c>
+      <c r="AD8">
+        <v>9250.07</v>
+      </c>
+      <c r="AE8">
+        <v>9356.07</v>
+      </c>
+      <c r="AF8">
+        <v>9577</v>
+      </c>
+      <c r="AG8">
+        <v>9879.049999999999</v>
+      </c>
+      <c r="AH8">
+        <v>10152</v>
+      </c>
+      <c r="AI8">
+        <v>10284.42</v>
+      </c>
+      <c r="AJ8">
+        <v>10003.13</v>
+      </c>
+      <c r="AK8">
+        <v>9921.709999999999</v>
+      </c>
+      <c r="AL8">
+        <v>9181.629999999999</v>
+      </c>
+      <c r="AM8">
+        <v>8835.57</v>
+      </c>
+      <c r="AN8">
+        <v>2997.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>6890.49</v>
+      </c>
+      <c r="C9">
+        <v>6796.06</v>
+      </c>
+      <c r="D9">
+        <v>6724.21</v>
+      </c>
+      <c r="E9">
+        <v>7920.06</v>
+      </c>
+      <c r="F9">
+        <v>8922.129999999999</v>
+      </c>
+      <c r="G9">
+        <v>7149.49</v>
+      </c>
+      <c r="H9">
+        <v>7945.65</v>
+      </c>
+      <c r="I9">
+        <v>8543.540000000001</v>
+      </c>
+      <c r="J9">
+        <v>7152.57</v>
+      </c>
+      <c r="K9">
+        <v>8200.870000000001</v>
+      </c>
+      <c r="L9">
+        <v>8115.57</v>
+      </c>
+      <c r="M9">
+        <v>6515.83</v>
+      </c>
+      <c r="N9">
+        <v>5886.41</v>
+      </c>
+      <c r="O9">
+        <v>8503.35</v>
+      </c>
+      <c r="P9">
+        <v>6917.41</v>
+      </c>
+      <c r="Q9">
+        <v>5905.53</v>
+      </c>
+      <c r="R9">
+        <v>7746.65</v>
+      </c>
+      <c r="S9">
+        <v>7081.8</v>
+      </c>
+      <c r="T9">
+        <v>8452.280000000001</v>
+      </c>
+      <c r="U9">
+        <v>9581.93</v>
+      </c>
+      <c r="V9">
+        <v>9995.34</v>
+      </c>
+      <c r="W9">
+        <v>10023.9</v>
+      </c>
+      <c r="X9">
+        <v>8565.889999999999</v>
+      </c>
+      <c r="Y9">
+        <v>8650.9</v>
+      </c>
+      <c r="Z9">
+        <v>8019.85</v>
+      </c>
+      <c r="AA9">
+        <v>6288.15</v>
+      </c>
+      <c r="AB9">
+        <v>8246.83</v>
+      </c>
+      <c r="AC9">
+        <v>9023.35</v>
+      </c>
+      <c r="AD9">
+        <v>9331.17</v>
+      </c>
+      <c r="AE9">
+        <v>8858.76</v>
+      </c>
+      <c r="AF9">
+        <v>8940.129999999999</v>
+      </c>
+      <c r="AG9">
+        <v>9046.799999999999</v>
+      </c>
+      <c r="AH9">
+        <v>9084.35</v>
+      </c>
+      <c r="AI9">
+        <v>9651.440000000001</v>
+      </c>
+      <c r="AJ9">
+        <v>12061.49</v>
+      </c>
+      <c r="AK9">
+        <v>10410.94</v>
+      </c>
+      <c r="AL9">
+        <v>8883.200000000001</v>
+      </c>
+      <c r="AM9">
+        <v>8941.75</v>
+      </c>
+      <c r="AN9">
+        <v>3390.8</v>
       </c>
     </row>
   </sheetData>

--- a/mbrMoPvt_94.xlsx
+++ b/mbrMoPvt_94.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -133,31 +133,64 @@
     <t>m-2022-03</t>
   </si>
   <si>
+    <t>m-2022-04</t>
+  </si>
+  <si>
+    <t>m-2022-05</t>
+  </si>
+  <si>
+    <t>m-2022-06</t>
+  </si>
+  <si>
     <t>org_id</t>
   </si>
   <si>
-    <t>ADAUGEOPI</t>
-  </si>
-  <si>
-    <t>BLUEROCKDC</t>
-  </si>
-  <si>
-    <t>CANODCE</t>
-  </si>
-  <si>
-    <t>CITYBLOCKDCE</t>
-  </si>
-  <si>
-    <t>ELATIONDCE</t>
-  </si>
-  <si>
-    <t>ILUMEDPI</t>
-  </si>
-  <si>
-    <t>INTERMNTUTDC</t>
-  </si>
-  <si>
-    <t>LATITUDEDC</t>
+    <t>A1052</t>
+  </si>
+  <si>
+    <t>A2024</t>
+  </si>
+  <si>
+    <t>A2251</t>
+  </si>
+  <si>
+    <t>A2575</t>
+  </si>
+  <si>
+    <t>A2841</t>
+  </si>
+  <si>
+    <t>A3229</t>
+  </si>
+  <si>
+    <t>A3320</t>
+  </si>
+  <si>
+    <t>A3327</t>
+  </si>
+  <si>
+    <t>A3367</t>
+  </si>
+  <si>
+    <t>A3632</t>
+  </si>
+  <si>
+    <t>A3667</t>
+  </si>
+  <si>
+    <t>A3669</t>
+  </si>
+  <si>
+    <t>A3822</t>
+  </si>
+  <si>
+    <t>A4585</t>
+  </si>
+  <si>
+    <t>A4709</t>
+  </si>
+  <si>
+    <t>A4768</t>
   </si>
 </sst>
 </file>
@@ -515,15 +548,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN9"/>
+  <dimension ref="A1:AQ17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:43">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -642,981 +675,2110 @@
       <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:43">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B2">
-        <v>6149.13</v>
+        <v>9092.82</v>
       </c>
       <c r="C2">
-        <v>5822.9</v>
+        <v>9554.02</v>
       </c>
       <c r="D2">
-        <v>6439.68</v>
+        <v>11445.66</v>
       </c>
       <c r="E2">
-        <v>7128.13</v>
+        <v>10733.81</v>
       </c>
       <c r="F2">
-        <v>6851.35</v>
+        <v>11513.84</v>
       </c>
       <c r="G2">
-        <v>6724.39</v>
+        <v>10371.14</v>
       </c>
       <c r="H2">
-        <v>6819.33</v>
+        <v>10561.49</v>
       </c>
       <c r="I2">
-        <v>7242.95</v>
+        <v>11732.48</v>
       </c>
       <c r="J2">
-        <v>7603.81</v>
+        <v>9547.85</v>
       </c>
       <c r="K2">
-        <v>7792.7</v>
+        <v>9187</v>
       </c>
       <c r="L2">
-        <v>7445.96</v>
+        <v>8820.59</v>
       </c>
       <c r="M2">
-        <v>6705.03</v>
+        <v>8617.139999999999</v>
       </c>
       <c r="N2">
-        <v>6684.69</v>
+        <v>9356.09</v>
       </c>
       <c r="O2">
-        <v>6751.91</v>
+        <v>9637.200000000001</v>
       </c>
       <c r="P2">
-        <v>5638.49</v>
+        <v>8082.31</v>
       </c>
       <c r="Q2">
-        <v>4241.49</v>
+        <v>7347.64</v>
       </c>
       <c r="R2">
-        <v>5776.06</v>
+        <v>8074.43</v>
       </c>
       <c r="S2">
-        <v>7476.47</v>
+        <v>9531.559999999999</v>
       </c>
       <c r="T2">
-        <v>6988.45</v>
+        <v>9690.370000000001</v>
       </c>
       <c r="U2">
-        <v>7160.4</v>
+        <v>10515.56</v>
       </c>
       <c r="V2">
-        <v>7588.69</v>
+        <v>9676.110000000001</v>
       </c>
       <c r="W2">
-        <v>8212.629999999999</v>
+        <v>10265.22</v>
       </c>
       <c r="X2">
-        <v>7875.93</v>
+        <v>9327.389999999999</v>
       </c>
       <c r="Y2">
-        <v>7156.49</v>
+        <v>10029.66</v>
       </c>
       <c r="Z2">
-        <v>7419.88</v>
+        <v>11284.06</v>
       </c>
       <c r="AA2">
-        <v>6923.66</v>
+        <v>9978.610000000001</v>
       </c>
       <c r="AB2">
-        <v>8949.959999999999</v>
+        <v>10686.68</v>
       </c>
       <c r="AC2">
-        <v>9153.18</v>
+        <v>10950.7</v>
       </c>
       <c r="AD2">
-        <v>9439.84</v>
+        <v>11091.32</v>
       </c>
       <c r="AE2">
-        <v>9843.4</v>
+        <v>11595.51</v>
       </c>
       <c r="AF2">
-        <v>8836.190000000001</v>
+        <v>10628.22</v>
       </c>
       <c r="AG2">
-        <v>9478.799999999999</v>
+        <v>11453.02</v>
       </c>
       <c r="AH2">
-        <v>9355.16</v>
+        <v>10757.66</v>
       </c>
       <c r="AI2">
-        <v>8873.23</v>
+        <v>10728.24</v>
       </c>
       <c r="AJ2">
-        <v>9005.549999999999</v>
+        <v>10921.86</v>
       </c>
       <c r="AK2">
-        <v>8374.559999999999</v>
+        <v>11582.25</v>
       </c>
       <c r="AL2">
-        <v>7552.83</v>
+        <v>6743.25</v>
       </c>
       <c r="AM2">
-        <v>6720.95</v>
+        <v>6223.1</v>
       </c>
       <c r="AN2">
-        <v>2724.87</v>
+        <v>2485.47</v>
+      </c>
+      <c r="AO2">
+        <v>2.41</v>
+      </c>
+      <c r="AP2">
+        <v>1.76</v>
+      </c>
+      <c r="AQ2">
+        <v>0.68</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:43">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B3">
-        <v>7240.04</v>
+        <v>11901.05</v>
       </c>
       <c r="C3">
-        <v>7772.79</v>
+        <v>11282.17</v>
       </c>
       <c r="D3">
-        <v>8262.92</v>
+        <v>12177.35</v>
       </c>
       <c r="E3">
-        <v>8349.43</v>
+        <v>12517.42</v>
       </c>
       <c r="F3">
-        <v>11142.03</v>
+        <v>12944.49</v>
       </c>
       <c r="G3">
-        <v>9191.969999999999</v>
+        <v>11722.95</v>
       </c>
       <c r="H3">
-        <v>8569.75</v>
+        <v>12054.61</v>
       </c>
       <c r="I3">
-        <v>7750.62</v>
+        <v>12094.69</v>
       </c>
       <c r="J3">
-        <v>6688.15</v>
+        <v>11595.64</v>
       </c>
       <c r="K3">
-        <v>11852.85</v>
+        <v>13440.69</v>
       </c>
       <c r="L3">
-        <v>10890.34</v>
+        <v>12184.79</v>
       </c>
       <c r="M3">
-        <v>10490.98</v>
+        <v>12118</v>
       </c>
       <c r="N3">
-        <v>9215.959999999999</v>
+        <v>11845.71</v>
       </c>
       <c r="O3">
-        <v>8609.139999999999</v>
+        <v>11492.99</v>
       </c>
       <c r="P3">
-        <v>6923.16</v>
+        <v>9779.110000000001</v>
       </c>
       <c r="Q3">
-        <v>4424.7</v>
+        <v>7436.04</v>
       </c>
       <c r="R3">
-        <v>6933.9</v>
+        <v>8699.85</v>
       </c>
       <c r="S3">
-        <v>7215.73</v>
+        <v>10523.85</v>
       </c>
       <c r="T3">
-        <v>8172.78</v>
+        <v>11351.11</v>
       </c>
       <c r="U3">
-        <v>11440.54</v>
+        <v>11059.98</v>
       </c>
       <c r="V3">
-        <v>12191.66</v>
+        <v>11583.93</v>
       </c>
       <c r="W3">
-        <v>12891.86</v>
+        <v>12405.03</v>
       </c>
       <c r="X3">
-        <v>11216.81</v>
+        <v>11339.03</v>
       </c>
       <c r="Y3">
-        <v>13351.88</v>
+        <v>12008.19</v>
       </c>
       <c r="Z3">
-        <v>14942.41</v>
+        <v>10987.08</v>
       </c>
       <c r="AA3">
-        <v>13451.18</v>
+        <v>10358.07</v>
       </c>
       <c r="AB3">
-        <v>15261.86</v>
+        <v>12218.7</v>
       </c>
       <c r="AC3">
-        <v>13306.47</v>
+        <v>12307.9</v>
       </c>
       <c r="AD3">
-        <v>10900.55</v>
+        <v>12009.33</v>
       </c>
       <c r="AE3">
-        <v>12025.13</v>
+        <v>12328.77</v>
       </c>
       <c r="AF3">
-        <v>10784.9</v>
+        <v>11615.98</v>
       </c>
       <c r="AG3">
-        <v>13761.61</v>
+        <v>11704.7</v>
       </c>
       <c r="AH3">
-        <v>14394.41</v>
+        <v>12264.87</v>
       </c>
       <c r="AI3">
-        <v>15064.24</v>
+        <v>12696.57</v>
       </c>
       <c r="AJ3">
-        <v>13900</v>
+        <v>12294.88</v>
       </c>
       <c r="AK3">
-        <v>14171.47</v>
+        <v>12066.71</v>
       </c>
       <c r="AL3">
-        <v>14333.3</v>
+        <v>9646.540000000001</v>
       </c>
       <c r="AM3">
-        <v>12735.72</v>
+        <v>9525.24</v>
       </c>
       <c r="AN3">
-        <v>4873.77</v>
+        <v>3942.09</v>
+      </c>
+      <c r="AO3">
+        <v>3.78</v>
+      </c>
+      <c r="AP3">
+        <v>3.58</v>
+      </c>
+      <c r="AQ3">
+        <v>1.56</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:43">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B4">
-        <v>7664.2</v>
+        <v>10264.18</v>
       </c>
       <c r="C4">
-        <v>7669.42</v>
+        <v>10284.12</v>
       </c>
       <c r="D4">
-        <v>8175.75</v>
+        <v>11441.7</v>
       </c>
       <c r="E4">
-        <v>8414.879999999999</v>
+        <v>10953.32</v>
       </c>
       <c r="F4">
-        <v>9079.059999999999</v>
+        <v>11524.6</v>
       </c>
       <c r="G4">
-        <v>7919.38</v>
+        <v>10696.89</v>
       </c>
       <c r="H4">
-        <v>8793</v>
+        <v>10423.21</v>
       </c>
       <c r="I4">
-        <v>8632.07</v>
+        <v>10514.49</v>
       </c>
       <c r="J4">
-        <v>8074.97</v>
+        <v>10492.08</v>
       </c>
       <c r="K4">
-        <v>8963.200000000001</v>
+        <v>11445.49</v>
       </c>
       <c r="L4">
-        <v>8545.040000000001</v>
+        <v>10268.67</v>
       </c>
       <c r="M4">
-        <v>8476.139999999999</v>
+        <v>10397.29</v>
       </c>
       <c r="N4">
-        <v>8587.59</v>
+        <v>10369.06</v>
       </c>
       <c r="O4">
-        <v>8760.629999999999</v>
+        <v>10796.44</v>
       </c>
       <c r="P4">
-        <v>7522.43</v>
+        <v>9707.200000000001</v>
       </c>
       <c r="Q4">
-        <v>5249.52</v>
+        <v>7548.59</v>
       </c>
       <c r="R4">
-        <v>7327.78</v>
+        <v>8515</v>
       </c>
       <c r="S4">
-        <v>8721.08</v>
+        <v>9813.280000000001</v>
       </c>
       <c r="T4">
-        <v>8759.940000000001</v>
+        <v>10761.85</v>
       </c>
       <c r="U4">
-        <v>8471.93</v>
+        <v>10146.55</v>
       </c>
       <c r="V4">
-        <v>9232.129999999999</v>
+        <v>10660.1</v>
       </c>
       <c r="W4">
-        <v>9889.610000000001</v>
+        <v>11045.67</v>
       </c>
       <c r="X4">
-        <v>9448.459999999999</v>
+        <v>10188.96</v>
       </c>
       <c r="Y4">
-        <v>10120.43</v>
+        <v>11339.31</v>
       </c>
       <c r="Z4">
-        <v>9215.129999999999</v>
+        <v>9646.17</v>
       </c>
       <c r="AA4">
-        <v>9357.09</v>
+        <v>9928.9</v>
       </c>
       <c r="AB4">
-        <v>10908.45</v>
+        <v>11267.6</v>
       </c>
       <c r="AC4">
-        <v>11236.33</v>
+        <v>11273.02</v>
       </c>
       <c r="AD4">
-        <v>10826.64</v>
+        <v>10423.26</v>
       </c>
       <c r="AE4">
-        <v>11384.46</v>
+        <v>10983.06</v>
       </c>
       <c r="AF4">
-        <v>11145.33</v>
+        <v>11082.22</v>
       </c>
       <c r="AG4">
-        <v>11430.09</v>
+        <v>11091.3</v>
       </c>
       <c r="AH4">
-        <v>11305.98</v>
+        <v>10961.88</v>
       </c>
       <c r="AI4">
-        <v>12237</v>
+        <v>10844.13</v>
       </c>
       <c r="AJ4">
-        <v>12522.39</v>
+        <v>8682.639999999999</v>
       </c>
       <c r="AK4">
-        <v>13713.9</v>
+        <v>8840.190000000001</v>
       </c>
       <c r="AL4">
-        <v>13221.3</v>
+        <v>8803.309999999999</v>
       </c>
       <c r="AM4">
-        <v>11275.99</v>
+        <v>8386.42</v>
       </c>
       <c r="AN4">
-        <v>3874.62</v>
+        <v>3383.59</v>
+      </c>
+      <c r="AO4">
+        <v>1.98</v>
+      </c>
+      <c r="AP4">
+        <v>1.68</v>
+      </c>
+      <c r="AQ4">
+        <v>0.74</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:43">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B5">
-        <v>6358.61</v>
+        <v>9972.459999999999</v>
       </c>
       <c r="C5">
-        <v>6459.93</v>
+        <v>9817.040000000001</v>
       </c>
       <c r="D5">
-        <v>7550.88</v>
+        <v>10495.36</v>
       </c>
       <c r="E5">
-        <v>6740.13</v>
+        <v>10613.93</v>
       </c>
       <c r="F5">
-        <v>7368.7</v>
+        <v>10876.08</v>
       </c>
       <c r="G5">
-        <v>7037.64</v>
+        <v>9834.530000000001</v>
       </c>
       <c r="H5">
-        <v>7003.93</v>
+        <v>10443.47</v>
       </c>
       <c r="I5">
-        <v>7089.13</v>
+        <v>10825.7</v>
       </c>
       <c r="J5">
-        <v>7542.93</v>
+        <v>9861.030000000001</v>
       </c>
       <c r="K5">
-        <v>8109.4</v>
+        <v>11362.38</v>
       </c>
       <c r="L5">
-        <v>7551.86</v>
+        <v>8893.4</v>
       </c>
       <c r="M5">
-        <v>7275.88</v>
+        <v>9749.02</v>
       </c>
       <c r="N5">
-        <v>5876.48</v>
+        <v>9729.639999999999</v>
       </c>
       <c r="O5">
-        <v>7086.6</v>
+        <v>9760</v>
       </c>
       <c r="P5">
-        <v>5998.67</v>
+        <v>8892.5</v>
       </c>
       <c r="Q5">
-        <v>5509.47</v>
+        <v>7189.45</v>
       </c>
       <c r="R5">
-        <v>7573.1</v>
+        <v>8955.84</v>
       </c>
       <c r="S5">
-        <v>7068.99</v>
+        <v>10334.37</v>
       </c>
       <c r="T5">
-        <v>7156.56</v>
+        <v>10642.89</v>
       </c>
       <c r="U5">
-        <v>6613.5</v>
+        <v>10384.04</v>
       </c>
       <c r="V5">
-        <v>8196.24</v>
+        <v>10820.8</v>
       </c>
       <c r="W5">
-        <v>8714.23</v>
+        <v>11104.29</v>
       </c>
       <c r="X5">
-        <v>8240.280000000001</v>
+        <v>9984.620000000001</v>
       </c>
       <c r="Y5">
-        <v>8243.030000000001</v>
+        <v>11309.2</v>
       </c>
       <c r="Z5">
-        <v>8338.49</v>
+        <v>10843.55</v>
       </c>
       <c r="AA5">
-        <v>8678.83</v>
+        <v>10269.2</v>
       </c>
       <c r="AB5">
-        <v>9503.620000000001</v>
+        <v>11953.63</v>
       </c>
       <c r="AC5">
-        <v>9072.870000000001</v>
+        <v>10977.82</v>
       </c>
       <c r="AD5">
-        <v>8296.9</v>
+        <v>10755.88</v>
       </c>
       <c r="AE5">
-        <v>9251.360000000001</v>
+        <v>10876.81</v>
       </c>
       <c r="AF5">
-        <v>9878.91</v>
+        <v>10935.07</v>
       </c>
       <c r="AG5">
-        <v>10546.53</v>
+        <v>11272.21</v>
       </c>
       <c r="AH5">
-        <v>10414.68</v>
+        <v>11288.64</v>
       </c>
       <c r="AI5">
-        <v>10995.72</v>
+        <v>11416.49</v>
       </c>
       <c r="AJ5">
-        <v>10299.05</v>
+        <v>10908.24</v>
       </c>
       <c r="AK5">
-        <v>10168.96</v>
+        <v>10763.75</v>
       </c>
       <c r="AL5">
-        <v>10992.11</v>
+        <v>6952.35</v>
       </c>
       <c r="AM5">
-        <v>9677.389999999999</v>
+        <v>7057.54</v>
       </c>
       <c r="AN5">
-        <v>3224.27</v>
+        <v>2365.06</v>
+      </c>
+      <c r="AO5">
+        <v>2.15</v>
+      </c>
+      <c r="AP5">
+        <v>2.49</v>
+      </c>
+      <c r="AQ5">
+        <v>1.04</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:43">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B6">
-        <v>4809.96</v>
+        <v>9618.85</v>
       </c>
       <c r="C6">
-        <v>4973.26</v>
+        <v>9080.17</v>
       </c>
       <c r="D6">
-        <v>5366.1</v>
+        <v>10339.45</v>
       </c>
       <c r="E6">
-        <v>6393.15</v>
+        <v>9888.780000000001</v>
       </c>
       <c r="F6">
-        <v>6154.7</v>
+        <v>10322.79</v>
       </c>
       <c r="G6">
-        <v>6107.56</v>
+        <v>9182.440000000001</v>
       </c>
       <c r="H6">
-        <v>5301.29</v>
+        <v>10245.92</v>
       </c>
       <c r="I6">
-        <v>6381.08</v>
+        <v>9962.82</v>
       </c>
       <c r="J6">
-        <v>5352.56</v>
+        <v>9548.129999999999</v>
       </c>
       <c r="K6">
-        <v>6615.23</v>
+        <v>11600.13</v>
       </c>
       <c r="L6">
-        <v>5804.02</v>
+        <v>8187.84</v>
       </c>
       <c r="M6">
-        <v>5610.2</v>
+        <v>9001</v>
       </c>
       <c r="N6">
-        <v>6036.91</v>
+        <v>9281.18</v>
       </c>
       <c r="O6">
-        <v>6856.49</v>
+        <v>9389.530000000001</v>
       </c>
       <c r="P6">
-        <v>5366.07</v>
+        <v>9148.65</v>
       </c>
       <c r="Q6">
-        <v>3724.63</v>
+        <v>7108.26</v>
       </c>
       <c r="R6">
-        <v>4789.3</v>
+        <v>8211.9</v>
       </c>
       <c r="S6">
-        <v>5764.04</v>
+        <v>9702.67</v>
       </c>
       <c r="T6">
-        <v>5624.55</v>
+        <v>10188.58</v>
       </c>
       <c r="U6">
-        <v>5762.63</v>
+        <v>11201.03</v>
       </c>
       <c r="V6">
-        <v>6113.55</v>
+        <v>10418.15</v>
       </c>
       <c r="W6">
-        <v>6055.61</v>
+        <v>10189.16</v>
       </c>
       <c r="X6">
-        <v>5841.01</v>
+        <v>9487.91</v>
       </c>
       <c r="Y6">
-        <v>5948.41</v>
+        <v>9820.110000000001</v>
       </c>
       <c r="Z6">
-        <v>6482.96</v>
+        <v>9513.68</v>
       </c>
       <c r="AA6">
-        <v>5789.34</v>
+        <v>10517.18</v>
       </c>
       <c r="AB6">
-        <v>7480.59</v>
+        <v>11928.59</v>
       </c>
       <c r="AC6">
-        <v>7352.61</v>
+        <v>9830.709999999999</v>
       </c>
       <c r="AD6">
-        <v>6414.14</v>
+        <v>9582.040000000001</v>
       </c>
       <c r="AE6">
-        <v>6873.87</v>
+        <v>9904.709999999999</v>
       </c>
       <c r="AF6">
-        <v>7771.11</v>
+        <v>10385.84</v>
       </c>
       <c r="AG6">
-        <v>6538.25</v>
+        <v>9648.370000000001</v>
       </c>
       <c r="AH6">
-        <v>8265.49</v>
+        <v>9328.389999999999</v>
       </c>
       <c r="AI6">
-        <v>8142.19</v>
+        <v>10693.66</v>
       </c>
       <c r="AJ6">
-        <v>7252.56</v>
+        <v>10429.29</v>
       </c>
       <c r="AK6">
-        <v>6467.21</v>
+        <v>10257.08</v>
       </c>
       <c r="AL6">
-        <v>541.26</v>
+        <v>7245.44</v>
       </c>
       <c r="AM6">
-        <v>0.96</v>
+        <v>7170.65</v>
       </c>
       <c r="AN6">
-        <v>0.35</v>
+        <v>2682.37</v>
+      </c>
+      <c r="AO6">
+        <v>1.88</v>
+      </c>
+      <c r="AP6">
+        <v>1.7</v>
+      </c>
+      <c r="AQ6">
+        <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:43">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B7">
-        <v>8837.780000000001</v>
+        <v>9483.299999999999</v>
       </c>
       <c r="C7">
-        <v>8328.540000000001</v>
+        <v>9220.25</v>
       </c>
       <c r="D7">
-        <v>9778.700000000001</v>
+        <v>9980.440000000001</v>
       </c>
       <c r="E7">
-        <v>10460.03</v>
+        <v>10794.77</v>
       </c>
       <c r="F7">
-        <v>9508.629999999999</v>
+        <v>11106.48</v>
       </c>
       <c r="G7">
-        <v>10344.18</v>
+        <v>10088.71</v>
       </c>
       <c r="H7">
-        <v>10213.22</v>
+        <v>10315.42</v>
       </c>
       <c r="I7">
-        <v>9315.93</v>
+        <v>10932.5</v>
       </c>
       <c r="J7">
-        <v>8085.17</v>
+        <v>10313.12</v>
       </c>
       <c r="K7">
-        <v>12005.28</v>
+        <v>10078</v>
       </c>
       <c r="L7">
-        <v>9004.879999999999</v>
+        <v>9182.23</v>
       </c>
       <c r="M7">
-        <v>9624.040000000001</v>
+        <v>9438.27</v>
       </c>
       <c r="N7">
-        <v>9898.809999999999</v>
+        <v>9746.440000000001</v>
       </c>
       <c r="O7">
-        <v>10062.66</v>
+        <v>9916.129999999999</v>
       </c>
       <c r="P7">
-        <v>9693.950000000001</v>
+        <v>8846.950000000001</v>
       </c>
       <c r="Q7">
-        <v>6679.43</v>
+        <v>6762.32</v>
       </c>
       <c r="R7">
-        <v>8745.879999999999</v>
+        <v>8852.700000000001</v>
       </c>
       <c r="S7">
-        <v>10145.89</v>
+        <v>10355.37</v>
       </c>
       <c r="T7">
-        <v>11274.67</v>
+        <v>9870.49</v>
       </c>
       <c r="U7">
-        <v>10879.19</v>
+        <v>9958.25</v>
       </c>
       <c r="V7">
-        <v>11163.03</v>
+        <v>10357.14</v>
       </c>
       <c r="W7">
-        <v>12130.95</v>
+        <v>10966.49</v>
       </c>
       <c r="X7">
-        <v>11595.28</v>
+        <v>10045.61</v>
       </c>
       <c r="Y7">
-        <v>12484.63</v>
+        <v>11196.56</v>
       </c>
       <c r="Z7">
-        <v>10771.52</v>
+        <v>9294.059999999999</v>
       </c>
       <c r="AA7">
-        <v>13467.52</v>
+        <v>9889.389999999999</v>
       </c>
       <c r="AB7">
-        <v>12733.17</v>
+        <v>10844.82</v>
       </c>
       <c r="AC7">
-        <v>13019.99</v>
+        <v>10682.82</v>
       </c>
       <c r="AD7">
-        <v>12527.3</v>
+        <v>10354.56</v>
       </c>
       <c r="AE7">
-        <v>13660.05</v>
+        <v>10545.62</v>
       </c>
       <c r="AF7">
-        <v>15688.45</v>
+        <v>9818.98</v>
       </c>
       <c r="AG7">
-        <v>13798.43</v>
+        <v>10958.42</v>
       </c>
       <c r="AH7">
-        <v>12407.19</v>
+        <v>10761.09</v>
       </c>
       <c r="AI7">
-        <v>12641.85</v>
+        <v>10525.37</v>
       </c>
       <c r="AJ7">
-        <v>12146.04</v>
+        <v>8408.16</v>
       </c>
       <c r="AK7">
-        <v>8353.01</v>
+        <v>8044.49</v>
       </c>
       <c r="AL7">
-        <v>10062.78</v>
+        <v>8136.5</v>
       </c>
       <c r="AM7">
-        <v>9383.309999999999</v>
+        <v>7786.69</v>
       </c>
       <c r="AN7">
-        <v>3491.48</v>
+        <v>3406.23</v>
+      </c>
+      <c r="AO7">
+        <v>3.01</v>
+      </c>
+      <c r="AP7">
+        <v>2.81</v>
+      </c>
+      <c r="AQ7">
+        <v>1.01</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:43">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B8">
-        <v>6998.71</v>
+        <v>12493.29</v>
       </c>
       <c r="C8">
-        <v>6905.11</v>
+        <v>12566.19</v>
       </c>
       <c r="D8">
-        <v>7755.12</v>
+        <v>12984.5</v>
       </c>
       <c r="E8">
-        <v>7786.05</v>
+        <v>14491.69</v>
       </c>
       <c r="F8">
-        <v>8092.62</v>
+        <v>13962.19</v>
       </c>
       <c r="G8">
-        <v>7214.71</v>
+        <v>12507.21</v>
       </c>
       <c r="H8">
-        <v>7241.03</v>
+        <v>13016.98</v>
       </c>
       <c r="I8">
-        <v>7663.21</v>
+        <v>12875.6</v>
       </c>
       <c r="J8">
-        <v>7423.37</v>
+        <v>12294.87</v>
       </c>
       <c r="K8">
-        <v>8687.040000000001</v>
+        <v>13329.04</v>
       </c>
       <c r="L8">
-        <v>7503.95</v>
+        <v>12803.09</v>
       </c>
       <c r="M8">
-        <v>7575.34</v>
+        <v>13535.56</v>
       </c>
       <c r="N8">
-        <v>7171.6</v>
+        <v>13371.29</v>
       </c>
       <c r="O8">
-        <v>7255.23</v>
+        <v>12885.12</v>
       </c>
       <c r="P8">
-        <v>6636.96</v>
+        <v>12318.08</v>
       </c>
       <c r="Q8">
-        <v>4705.53</v>
+        <v>8868.049999999999</v>
       </c>
       <c r="R8">
-        <v>6125.83</v>
+        <v>11609.71</v>
       </c>
       <c r="S8">
-        <v>7548.75</v>
+        <v>13085.09</v>
       </c>
       <c r="T8">
-        <v>8186.11</v>
+        <v>13672.39</v>
       </c>
       <c r="U8">
-        <v>8026.32</v>
+        <v>13603.01</v>
       </c>
       <c r="V8">
-        <v>8494.91</v>
+        <v>13381.7</v>
       </c>
       <c r="W8">
-        <v>8865.75</v>
+        <v>14188.51</v>
       </c>
       <c r="X8">
-        <v>8125.28</v>
+        <v>14723.85</v>
       </c>
       <c r="Y8">
-        <v>8647.629999999999</v>
+        <v>15363.72</v>
       </c>
       <c r="Z8">
-        <v>7642.68</v>
+        <v>12390.85</v>
       </c>
       <c r="AA8">
-        <v>7673.72</v>
+        <v>11432.26</v>
       </c>
       <c r="AB8">
-        <v>9272.48</v>
+        <v>13514.36</v>
       </c>
       <c r="AC8">
-        <v>9317.620000000001</v>
+        <v>13644.23</v>
       </c>
       <c r="AD8">
-        <v>9250.07</v>
+        <v>13551.01</v>
       </c>
       <c r="AE8">
-        <v>9356.07</v>
+        <v>13208.87</v>
       </c>
       <c r="AF8">
-        <v>9577</v>
+        <v>13788.05</v>
       </c>
       <c r="AG8">
-        <v>9879.049999999999</v>
+        <v>14075.42</v>
       </c>
       <c r="AH8">
-        <v>10152</v>
+        <v>13588.79</v>
       </c>
       <c r="AI8">
-        <v>10284.42</v>
+        <v>13063.95</v>
       </c>
       <c r="AJ8">
-        <v>10003.13</v>
+        <v>13001.25</v>
       </c>
       <c r="AK8">
-        <v>9921.709999999999</v>
+        <v>13151.97</v>
       </c>
       <c r="AL8">
-        <v>9181.629999999999</v>
+        <v>8258.780000000001</v>
       </c>
       <c r="AM8">
-        <v>8835.57</v>
+        <v>6846.23</v>
       </c>
       <c r="AN8">
-        <v>2997.85</v>
+        <v>2245.43</v>
+      </c>
+      <c r="AO8">
+        <v>2.69</v>
+      </c>
+      <c r="AP8">
+        <v>1.97</v>
+      </c>
+      <c r="AQ8">
+        <v>0.89</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:43">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B9">
-        <v>6890.49</v>
+        <v>14016.74</v>
       </c>
       <c r="C9">
-        <v>6796.06</v>
+        <v>12631.65</v>
       </c>
       <c r="D9">
-        <v>6724.21</v>
+        <v>14525.89</v>
       </c>
       <c r="E9">
-        <v>7920.06</v>
+        <v>14108.57</v>
       </c>
       <c r="F9">
-        <v>8922.129999999999</v>
+        <v>15524.23</v>
       </c>
       <c r="G9">
-        <v>7149.49</v>
+        <v>13282.77</v>
       </c>
       <c r="H9">
-        <v>7945.65</v>
+        <v>16173.92</v>
       </c>
       <c r="I9">
-        <v>8543.540000000001</v>
+        <v>15197.52</v>
       </c>
       <c r="J9">
-        <v>7152.57</v>
+        <v>14721.38</v>
       </c>
       <c r="K9">
-        <v>8200.870000000001</v>
+        <v>16868.92</v>
       </c>
       <c r="L9">
-        <v>8115.57</v>
+        <v>15408.79</v>
       </c>
       <c r="M9">
-        <v>6515.83</v>
+        <v>15723.94</v>
       </c>
       <c r="N9">
-        <v>5886.41</v>
+        <v>15624.41</v>
       </c>
       <c r="O9">
-        <v>8503.35</v>
+        <v>14814.3</v>
       </c>
       <c r="P9">
-        <v>6917.41</v>
+        <v>13302.8</v>
       </c>
       <c r="Q9">
-        <v>5905.53</v>
+        <v>10667.73</v>
       </c>
       <c r="R9">
-        <v>7746.65</v>
+        <v>11388.28</v>
       </c>
       <c r="S9">
-        <v>7081.8</v>
+        <v>13779.86</v>
       </c>
       <c r="T9">
-        <v>8452.280000000001</v>
+        <v>14889.01</v>
       </c>
       <c r="U9">
-        <v>9581.93</v>
+        <v>14548.48</v>
       </c>
       <c r="V9">
-        <v>9995.34</v>
+        <v>15450.31</v>
       </c>
       <c r="W9">
-        <v>10023.9</v>
+        <v>16794.84</v>
       </c>
       <c r="X9">
-        <v>8565.889999999999</v>
+        <v>14914.49</v>
       </c>
       <c r="Y9">
-        <v>8650.9</v>
+        <v>15616.18</v>
       </c>
       <c r="Z9">
-        <v>8019.85</v>
+        <v>15434</v>
       </c>
       <c r="AA9">
-        <v>6288.15</v>
+        <v>14633.76</v>
       </c>
       <c r="AB9">
-        <v>8246.83</v>
+        <v>18219.26</v>
       </c>
       <c r="AC9">
-        <v>9023.35</v>
+        <v>17653.4</v>
       </c>
       <c r="AD9">
-        <v>9331.17</v>
+        <v>16573.06</v>
       </c>
       <c r="AE9">
-        <v>8858.76</v>
+        <v>17516.24</v>
       </c>
       <c r="AF9">
-        <v>8940.129999999999</v>
+        <v>16990.95</v>
       </c>
       <c r="AG9">
-        <v>9046.799999999999</v>
+        <v>16264.84</v>
       </c>
       <c r="AH9">
-        <v>9084.35</v>
+        <v>17000.95</v>
       </c>
       <c r="AI9">
-        <v>9651.440000000001</v>
+        <v>17568.07</v>
       </c>
       <c r="AJ9">
-        <v>12061.49</v>
+        <v>17532.96</v>
       </c>
       <c r="AK9">
-        <v>10410.94</v>
+        <v>16811.7</v>
       </c>
       <c r="AL9">
-        <v>8883.200000000001</v>
+        <v>9871.290000000001</v>
       </c>
       <c r="AM9">
-        <v>8941.75</v>
+        <v>8995.219999999999</v>
       </c>
       <c r="AN9">
-        <v>3390.8</v>
+        <v>3302.7</v>
+      </c>
+      <c r="AO9">
+        <v>1.71</v>
+      </c>
+      <c r="AP9">
+        <v>0.8</v>
+      </c>
+      <c r="AQ9">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43">
+      <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <v>13937.2</v>
+      </c>
+      <c r="C10">
+        <v>13818</v>
+      </c>
+      <c r="D10">
+        <v>14693.39</v>
+      </c>
+      <c r="E10">
+        <v>14749.23</v>
+      </c>
+      <c r="F10">
+        <v>14505.03</v>
+      </c>
+      <c r="G10">
+        <v>13375.34</v>
+      </c>
+      <c r="H10">
+        <v>14512.45</v>
+      </c>
+      <c r="I10">
+        <v>15043.71</v>
+      </c>
+      <c r="J10">
+        <v>14113.57</v>
+      </c>
+      <c r="K10">
+        <v>14821.87</v>
+      </c>
+      <c r="L10">
+        <v>14789.69</v>
+      </c>
+      <c r="M10">
+        <v>14283.31</v>
+      </c>
+      <c r="N10">
+        <v>15323.06</v>
+      </c>
+      <c r="O10">
+        <v>16082.24</v>
+      </c>
+      <c r="P10">
+        <v>15714.32</v>
+      </c>
+      <c r="Q10">
+        <v>10401.38</v>
+      </c>
+      <c r="R10">
+        <v>12757.18</v>
+      </c>
+      <c r="S10">
+        <v>12883.67</v>
+      </c>
+      <c r="T10">
+        <v>14541.06</v>
+      </c>
+      <c r="U10">
+        <v>15146.16</v>
+      </c>
+      <c r="V10">
+        <v>14897.12</v>
+      </c>
+      <c r="W10">
+        <v>15601.11</v>
+      </c>
+      <c r="X10">
+        <v>13111.36</v>
+      </c>
+      <c r="Y10">
+        <v>15457.94</v>
+      </c>
+      <c r="Z10">
+        <v>13321.43</v>
+      </c>
+      <c r="AA10">
+        <v>11672.86</v>
+      </c>
+      <c r="AB10">
+        <v>13834.35</v>
+      </c>
+      <c r="AC10">
+        <v>13737.65</v>
+      </c>
+      <c r="AD10">
+        <v>12895.09</v>
+      </c>
+      <c r="AE10">
+        <v>14458.29</v>
+      </c>
+      <c r="AF10">
+        <v>14398.94</v>
+      </c>
+      <c r="AG10">
+        <v>13615.99</v>
+      </c>
+      <c r="AH10">
+        <v>13676.91</v>
+      </c>
+      <c r="AI10">
+        <v>15498.01</v>
+      </c>
+      <c r="AJ10">
+        <v>12741.08</v>
+      </c>
+      <c r="AK10">
+        <v>12559.4</v>
+      </c>
+      <c r="AL10">
+        <v>10821.23</v>
+      </c>
+      <c r="AM10">
+        <v>9307.49</v>
+      </c>
+      <c r="AN10">
+        <v>3539.18</v>
+      </c>
+      <c r="AO10">
+        <v>7.27</v>
+      </c>
+      <c r="AP10">
+        <v>1.25</v>
+      </c>
+      <c r="AQ10">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43">
+      <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11">
+        <v>12983.72</v>
+      </c>
+      <c r="C11">
+        <v>12769.95</v>
+      </c>
+      <c r="D11">
+        <v>14399.76</v>
+      </c>
+      <c r="E11">
+        <v>14511.06</v>
+      </c>
+      <c r="F11">
+        <v>14483.52</v>
+      </c>
+      <c r="G11">
+        <v>12479.58</v>
+      </c>
+      <c r="H11">
+        <v>14172.42</v>
+      </c>
+      <c r="I11">
+        <v>14574.17</v>
+      </c>
+      <c r="J11">
+        <v>12887.1</v>
+      </c>
+      <c r="K11">
+        <v>15171.26</v>
+      </c>
+      <c r="L11">
+        <v>13497.28</v>
+      </c>
+      <c r="M11">
+        <v>13886.1</v>
+      </c>
+      <c r="N11">
+        <v>12963.48</v>
+      </c>
+      <c r="O11">
+        <v>12474.64</v>
+      </c>
+      <c r="P11">
+        <v>11791.11</v>
+      </c>
+      <c r="Q11">
+        <v>8901.360000000001</v>
+      </c>
+      <c r="R11">
+        <v>10845.03</v>
+      </c>
+      <c r="S11">
+        <v>12627.33</v>
+      </c>
+      <c r="T11">
+        <v>13178.37</v>
+      </c>
+      <c r="U11">
+        <v>13147.76</v>
+      </c>
+      <c r="V11">
+        <v>13751.59</v>
+      </c>
+      <c r="W11">
+        <v>15258.36</v>
+      </c>
+      <c r="X11">
+        <v>12926</v>
+      </c>
+      <c r="Y11">
+        <v>13902.41</v>
+      </c>
+      <c r="Z11">
+        <v>12842.12</v>
+      </c>
+      <c r="AA11">
+        <v>12710.92</v>
+      </c>
+      <c r="AB11">
+        <v>15469.95</v>
+      </c>
+      <c r="AC11">
+        <v>15074.14</v>
+      </c>
+      <c r="AD11">
+        <v>13836.64</v>
+      </c>
+      <c r="AE11">
+        <v>14924.43</v>
+      </c>
+      <c r="AF11">
+        <v>14271.21</v>
+      </c>
+      <c r="AG11">
+        <v>14206.32</v>
+      </c>
+      <c r="AH11">
+        <v>13636.73</v>
+      </c>
+      <c r="AI11">
+        <v>14104.83</v>
+      </c>
+      <c r="AJ11">
+        <v>13405.62</v>
+      </c>
+      <c r="AK11">
+        <v>13949</v>
+      </c>
+      <c r="AL11">
+        <v>10422.59</v>
+      </c>
+      <c r="AM11">
+        <v>9562.299999999999</v>
+      </c>
+      <c r="AN11">
+        <v>3714.18</v>
+      </c>
+      <c r="AO11">
+        <v>3.06</v>
+      </c>
+      <c r="AP11">
+        <v>3.15</v>
+      </c>
+      <c r="AQ11">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>10833.47</v>
+      </c>
+      <c r="C12">
+        <v>9895.51</v>
+      </c>
+      <c r="D12">
+        <v>10416.29</v>
+      </c>
+      <c r="E12">
+        <v>11777.74</v>
+      </c>
+      <c r="F12">
+        <v>12844.24</v>
+      </c>
+      <c r="G12">
+        <v>9913.639999999999</v>
+      </c>
+      <c r="H12">
+        <v>10473.82</v>
+      </c>
+      <c r="I12">
+        <v>10510.85</v>
+      </c>
+      <c r="J12">
+        <v>10405.09</v>
+      </c>
+      <c r="K12">
+        <v>11484.31</v>
+      </c>
+      <c r="L12">
+        <v>10357.02</v>
+      </c>
+      <c r="M12">
+        <v>11007.28</v>
+      </c>
+      <c r="N12">
+        <v>10987.18</v>
+      </c>
+      <c r="O12">
+        <v>10649.68</v>
+      </c>
+      <c r="P12">
+        <v>9921.639999999999</v>
+      </c>
+      <c r="Q12">
+        <v>6994.36</v>
+      </c>
+      <c r="R12">
+        <v>7878.61</v>
+      </c>
+      <c r="S12">
+        <v>9569.09</v>
+      </c>
+      <c r="T12">
+        <v>10114.1</v>
+      </c>
+      <c r="U12">
+        <v>9379.719999999999</v>
+      </c>
+      <c r="V12">
+        <v>10592.26</v>
+      </c>
+      <c r="W12">
+        <v>12733.18</v>
+      </c>
+      <c r="X12">
+        <v>12265.18</v>
+      </c>
+      <c r="Y12">
+        <v>12570.6</v>
+      </c>
+      <c r="Z12">
+        <v>11458.21</v>
+      </c>
+      <c r="AA12">
+        <v>11379.46</v>
+      </c>
+      <c r="AB12">
+        <v>12883.37</v>
+      </c>
+      <c r="AC12">
+        <v>12664.32</v>
+      </c>
+      <c r="AD12">
+        <v>12527.85</v>
+      </c>
+      <c r="AE12">
+        <v>12499.37</v>
+      </c>
+      <c r="AF12">
+        <v>13172.8</v>
+      </c>
+      <c r="AG12">
+        <v>12719.95</v>
+      </c>
+      <c r="AH12">
+        <v>12803.06</v>
+      </c>
+      <c r="AI12">
+        <v>12340.24</v>
+      </c>
+      <c r="AJ12">
+        <v>10058.75</v>
+      </c>
+      <c r="AK12">
+        <v>10211.62</v>
+      </c>
+      <c r="AL12">
+        <v>8045.92</v>
+      </c>
+      <c r="AM12">
+        <v>8590.15</v>
+      </c>
+      <c r="AN12">
+        <v>3845.51</v>
+      </c>
+      <c r="AO12">
+        <v>1.5</v>
+      </c>
+      <c r="AP12">
+        <v>0.91</v>
+      </c>
+      <c r="AQ12">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13">
+        <v>10833.14</v>
+      </c>
+      <c r="C13">
+        <v>10739.94</v>
+      </c>
+      <c r="D13">
+        <v>11689.39</v>
+      </c>
+      <c r="E13">
+        <v>10898.91</v>
+      </c>
+      <c r="F13">
+        <v>12270.39</v>
+      </c>
+      <c r="G13">
+        <v>10965.01</v>
+      </c>
+      <c r="H13">
+        <v>10494.34</v>
+      </c>
+      <c r="I13">
+        <v>11013.75</v>
+      </c>
+      <c r="J13">
+        <v>11043.44</v>
+      </c>
+      <c r="K13">
+        <v>12379.91</v>
+      </c>
+      <c r="L13">
+        <v>10449.07</v>
+      </c>
+      <c r="M13">
+        <v>10056.07</v>
+      </c>
+      <c r="N13">
+        <v>10622.23</v>
+      </c>
+      <c r="O13">
+        <v>10094.22</v>
+      </c>
+      <c r="P13">
+        <v>9666.360000000001</v>
+      </c>
+      <c r="Q13">
+        <v>6845.95</v>
+      </c>
+      <c r="R13">
+        <v>9410.43</v>
+      </c>
+      <c r="S13">
+        <v>10376.49</v>
+      </c>
+      <c r="T13">
+        <v>10653.03</v>
+      </c>
+      <c r="U13">
+        <v>10278.5</v>
+      </c>
+      <c r="V13">
+        <v>10292.99</v>
+      </c>
+      <c r="W13">
+        <v>10758.88</v>
+      </c>
+      <c r="X13">
+        <v>9214.290000000001</v>
+      </c>
+      <c r="Y13">
+        <v>10052.03</v>
+      </c>
+      <c r="Z13">
+        <v>8773</v>
+      </c>
+      <c r="AA13">
+        <v>9189.91</v>
+      </c>
+      <c r="AB13">
+        <v>11412.69</v>
+      </c>
+      <c r="AC13">
+        <v>9942.4</v>
+      </c>
+      <c r="AD13">
+        <v>9670.76</v>
+      </c>
+      <c r="AE13">
+        <v>10469.67</v>
+      </c>
+      <c r="AF13">
+        <v>10263.77</v>
+      </c>
+      <c r="AG13">
+        <v>11689.71</v>
+      </c>
+      <c r="AH13">
+        <v>10601.15</v>
+      </c>
+      <c r="AI13">
+        <v>10727.58</v>
+      </c>
+      <c r="AJ13">
+        <v>8189.2</v>
+      </c>
+      <c r="AK13">
+        <v>9416.08</v>
+      </c>
+      <c r="AL13">
+        <v>8859.389999999999</v>
+      </c>
+      <c r="AM13">
+        <v>7620.86</v>
+      </c>
+      <c r="AN13">
+        <v>3152.01</v>
+      </c>
+      <c r="AO13">
+        <v>1.03</v>
+      </c>
+      <c r="AP13">
+        <v>1.17</v>
+      </c>
+      <c r="AQ13">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14">
+        <v>13111.63</v>
+      </c>
+      <c r="C14">
+        <v>12971.35</v>
+      </c>
+      <c r="D14">
+        <v>13711.69</v>
+      </c>
+      <c r="E14">
+        <v>14880.65</v>
+      </c>
+      <c r="F14">
+        <v>14660.15</v>
+      </c>
+      <c r="G14">
+        <v>13357.07</v>
+      </c>
+      <c r="H14">
+        <v>14096.9</v>
+      </c>
+      <c r="I14">
+        <v>14302.11</v>
+      </c>
+      <c r="J14">
+        <v>13250.86</v>
+      </c>
+      <c r="K14">
+        <v>14938.97</v>
+      </c>
+      <c r="L14">
+        <v>13876.9</v>
+      </c>
+      <c r="M14">
+        <v>13440.11</v>
+      </c>
+      <c r="N14">
+        <v>13720.25</v>
+      </c>
+      <c r="O14">
+        <v>13555.36</v>
+      </c>
+      <c r="P14">
+        <v>11643.93</v>
+      </c>
+      <c r="Q14">
+        <v>8741.77</v>
+      </c>
+      <c r="R14">
+        <v>11547.92</v>
+      </c>
+      <c r="S14">
+        <v>13610.55</v>
+      </c>
+      <c r="T14">
+        <v>14582.01</v>
+      </c>
+      <c r="U14">
+        <v>14586.83</v>
+      </c>
+      <c r="V14">
+        <v>14910.44</v>
+      </c>
+      <c r="W14">
+        <v>15931.14</v>
+      </c>
+      <c r="X14">
+        <v>14910.08</v>
+      </c>
+      <c r="Y14">
+        <v>15571.21</v>
+      </c>
+      <c r="Z14">
+        <v>13653.39</v>
+      </c>
+      <c r="AA14">
+        <v>13196.5</v>
+      </c>
+      <c r="AB14">
+        <v>14910.11</v>
+      </c>
+      <c r="AC14">
+        <v>15858.42</v>
+      </c>
+      <c r="AD14">
+        <v>14561.94</v>
+      </c>
+      <c r="AE14">
+        <v>15030.24</v>
+      </c>
+      <c r="AF14">
+        <v>14733.68</v>
+      </c>
+      <c r="AG14">
+        <v>14919.83</v>
+      </c>
+      <c r="AH14">
+        <v>15014.5</v>
+      </c>
+      <c r="AI14">
+        <v>15237.37</v>
+      </c>
+      <c r="AJ14">
+        <v>15080.18</v>
+      </c>
+      <c r="AK14">
+        <v>14796.14</v>
+      </c>
+      <c r="AL14">
+        <v>11242.6</v>
+      </c>
+      <c r="AM14">
+        <v>10428.55</v>
+      </c>
+      <c r="AN14">
+        <v>3575.91</v>
+      </c>
+      <c r="AO14">
+        <v>4.86</v>
+      </c>
+      <c r="AP14">
+        <v>4.23</v>
+      </c>
+      <c r="AQ14">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43">
+      <c r="A15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15">
+        <v>10905.27</v>
+      </c>
+      <c r="C15">
+        <v>11271.61</v>
+      </c>
+      <c r="D15">
+        <v>11934.17</v>
+      </c>
+      <c r="E15">
+        <v>12957.95</v>
+      </c>
+      <c r="F15">
+        <v>12833.63</v>
+      </c>
+      <c r="G15">
+        <v>11033.3</v>
+      </c>
+      <c r="H15">
+        <v>13039.05</v>
+      </c>
+      <c r="I15">
+        <v>13508.84</v>
+      </c>
+      <c r="J15">
+        <v>11179.7</v>
+      </c>
+      <c r="K15">
+        <v>13582.78</v>
+      </c>
+      <c r="L15">
+        <v>12037.32</v>
+      </c>
+      <c r="M15">
+        <v>13051.88</v>
+      </c>
+      <c r="N15">
+        <v>13100.99</v>
+      </c>
+      <c r="O15">
+        <v>13267.73</v>
+      </c>
+      <c r="P15">
+        <v>11740.03</v>
+      </c>
+      <c r="Q15">
+        <v>8051.71</v>
+      </c>
+      <c r="R15">
+        <v>10470.93</v>
+      </c>
+      <c r="S15">
+        <v>11899.86</v>
+      </c>
+      <c r="T15">
+        <v>13406.17</v>
+      </c>
+      <c r="U15">
+        <v>12869.98</v>
+      </c>
+      <c r="V15">
+        <v>13126.39</v>
+      </c>
+      <c r="W15">
+        <v>13660.89</v>
+      </c>
+      <c r="X15">
+        <v>13251.66</v>
+      </c>
+      <c r="Y15">
+        <v>14122.84</v>
+      </c>
+      <c r="Z15">
+        <v>12225</v>
+      </c>
+      <c r="AA15">
+        <v>11386.22</v>
+      </c>
+      <c r="AB15">
+        <v>13802.87</v>
+      </c>
+      <c r="AC15">
+        <v>12655.76</v>
+      </c>
+      <c r="AD15">
+        <v>13144.6</v>
+      </c>
+      <c r="AE15">
+        <v>13395.56</v>
+      </c>
+      <c r="AF15">
+        <v>12226.01</v>
+      </c>
+      <c r="AG15">
+        <v>13590.64</v>
+      </c>
+      <c r="AH15">
+        <v>12594.09</v>
+      </c>
+      <c r="AI15">
+        <v>14186.14</v>
+      </c>
+      <c r="AJ15">
+        <v>10872.82</v>
+      </c>
+      <c r="AK15">
+        <v>11816.46</v>
+      </c>
+      <c r="AL15">
+        <v>11385.77</v>
+      </c>
+      <c r="AM15">
+        <v>10820.05</v>
+      </c>
+      <c r="AN15">
+        <v>5039.44</v>
+      </c>
+      <c r="AO15">
+        <v>1.74</v>
+      </c>
+      <c r="AP15">
+        <v>1.58</v>
+      </c>
+      <c r="AQ15">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43">
+      <c r="A16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16">
+        <v>10844.79</v>
+      </c>
+      <c r="C16">
+        <v>10681.3</v>
+      </c>
+      <c r="D16">
+        <v>11651.09</v>
+      </c>
+      <c r="E16">
+        <v>12354.35</v>
+      </c>
+      <c r="F16">
+        <v>11808.49</v>
+      </c>
+      <c r="G16">
+        <v>10376.16</v>
+      </c>
+      <c r="H16">
+        <v>12854.87</v>
+      </c>
+      <c r="I16">
+        <v>13385.03</v>
+      </c>
+      <c r="J16">
+        <v>12245.18</v>
+      </c>
+      <c r="K16">
+        <v>13497.27</v>
+      </c>
+      <c r="L16">
+        <v>12411.7</v>
+      </c>
+      <c r="M16">
+        <v>12076.51</v>
+      </c>
+      <c r="N16">
+        <v>13370.58</v>
+      </c>
+      <c r="O16">
+        <v>12722.37</v>
+      </c>
+      <c r="P16">
+        <v>11482.88</v>
+      </c>
+      <c r="Q16">
+        <v>9449.82</v>
+      </c>
+      <c r="R16">
+        <v>10236.42</v>
+      </c>
+      <c r="S16">
+        <v>11130.46</v>
+      </c>
+      <c r="T16">
+        <v>12981.27</v>
+      </c>
+      <c r="U16">
+        <v>12766.56</v>
+      </c>
+      <c r="V16">
+        <v>12381.9</v>
+      </c>
+      <c r="W16">
+        <v>12932.24</v>
+      </c>
+      <c r="X16">
+        <v>12573.23</v>
+      </c>
+      <c r="Y16">
+        <v>13968.68</v>
+      </c>
+      <c r="Z16">
+        <v>12924.82</v>
+      </c>
+      <c r="AA16">
+        <v>11756.91</v>
+      </c>
+      <c r="AB16">
+        <v>13500.84</v>
+      </c>
+      <c r="AC16">
+        <v>12759.81</v>
+      </c>
+      <c r="AD16">
+        <v>12685.91</v>
+      </c>
+      <c r="AE16">
+        <v>12532.8</v>
+      </c>
+      <c r="AF16">
+        <v>13211.12</v>
+      </c>
+      <c r="AG16">
+        <v>13191.78</v>
+      </c>
+      <c r="AH16">
+        <v>12822.06</v>
+      </c>
+      <c r="AI16">
+        <v>12769.46</v>
+      </c>
+      <c r="AJ16">
+        <v>9987.57</v>
+      </c>
+      <c r="AK16">
+        <v>10720.54</v>
+      </c>
+      <c r="AL16">
+        <v>10367.89</v>
+      </c>
+      <c r="AM16">
+        <v>10355.58</v>
+      </c>
+      <c r="AN16">
+        <v>3705.19</v>
+      </c>
+      <c r="AO16">
+        <v>2.67</v>
+      </c>
+      <c r="AP16">
+        <v>1.86</v>
+      </c>
+      <c r="AQ16">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43">
+      <c r="A17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17">
+        <v>7925.23</v>
+      </c>
+      <c r="C17">
+        <v>7490.03</v>
+      </c>
+      <c r="D17">
+        <v>8206.07</v>
+      </c>
+      <c r="E17">
+        <v>8518.65</v>
+      </c>
+      <c r="F17">
+        <v>8828.610000000001</v>
+      </c>
+      <c r="G17">
+        <v>8250.26</v>
+      </c>
+      <c r="H17">
+        <v>8304.82</v>
+      </c>
+      <c r="I17">
+        <v>9188.969999999999</v>
+      </c>
+      <c r="J17">
+        <v>9371.799999999999</v>
+      </c>
+      <c r="K17">
+        <v>10277.71</v>
+      </c>
+      <c r="L17">
+        <v>8376.73</v>
+      </c>
+      <c r="M17">
+        <v>9757.860000000001</v>
+      </c>
+      <c r="N17">
+        <v>9765.620000000001</v>
+      </c>
+      <c r="O17">
+        <v>8378.01</v>
+      </c>
+      <c r="P17">
+        <v>7678.66</v>
+      </c>
+      <c r="Q17">
+        <v>5990.83</v>
+      </c>
+      <c r="R17">
+        <v>7503.97</v>
+      </c>
+      <c r="S17">
+        <v>9647.799999999999</v>
+      </c>
+      <c r="T17">
+        <v>8912.73</v>
+      </c>
+      <c r="U17">
+        <v>8895.42</v>
+      </c>
+      <c r="V17">
+        <v>9381.379999999999</v>
+      </c>
+      <c r="W17">
+        <v>10684.33</v>
+      </c>
+      <c r="X17">
+        <v>9566.309999999999</v>
+      </c>
+      <c r="Y17">
+        <v>9882.67</v>
+      </c>
+      <c r="Z17">
+        <v>9508.360000000001</v>
+      </c>
+      <c r="AA17">
+        <v>8644.91</v>
+      </c>
+      <c r="AB17">
+        <v>8387.719999999999</v>
+      </c>
+      <c r="AC17">
+        <v>9719.76</v>
+      </c>
+      <c r="AD17">
+        <v>9275.58</v>
+      </c>
+      <c r="AE17">
+        <v>8871.959999999999</v>
+      </c>
+      <c r="AF17">
+        <v>9555.799999999999</v>
+      </c>
+      <c r="AG17">
+        <v>8812.82</v>
+      </c>
+      <c r="AH17">
+        <v>9216.16</v>
+      </c>
+      <c r="AI17">
+        <v>10227.52</v>
+      </c>
+      <c r="AJ17">
+        <v>8347.24</v>
+      </c>
+      <c r="AK17">
+        <v>9002.610000000001</v>
+      </c>
+      <c r="AL17">
+        <v>9490.450000000001</v>
+      </c>
+      <c r="AM17">
+        <v>7775.22</v>
+      </c>
+      <c r="AN17">
+        <v>2905.9</v>
+      </c>
+      <c r="AO17">
+        <v>3.75</v>
+      </c>
+      <c r="AP17">
+        <v>1.94</v>
+      </c>
+      <c r="AQ17">
+        <v>2.02</v>
       </c>
     </row>
   </sheetData>

--- a/mbrMoPvt_94.xlsx
+++ b/mbrMoPvt_94.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -124,10 +124,43 @@
     <t>m-2021-12</t>
   </si>
   <si>
+    <t>m-2022-01</t>
+  </si>
+  <si>
+    <t>m-2022-02</t>
+  </si>
+  <si>
+    <t>m-2022-03</t>
+  </si>
+  <si>
+    <t>m-2022-04</t>
+  </si>
+  <si>
     <t>org_id</t>
   </si>
   <si>
-    <t>CARELINEPI</t>
+    <t>ADAUGEOPI</t>
+  </si>
+  <si>
+    <t>BLUEROCKDC</t>
+  </si>
+  <si>
+    <t>CANODCE</t>
+  </si>
+  <si>
+    <t>CITYBLOCKDCE</t>
+  </si>
+  <si>
+    <t>ELATIONDCE</t>
+  </si>
+  <si>
+    <t>ILUMEDPI</t>
+  </si>
+  <si>
+    <t>INTERMNTUTDC</t>
+  </si>
+  <si>
+    <t>LATITUDEDC</t>
   </si>
 </sst>
 </file>
@@ -485,15 +518,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -603,118 +636,1014 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:41">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>13974.01</v>
+        <v>6149.13</v>
       </c>
       <c r="C2">
-        <v>12885.68</v>
+        <v>5822.9</v>
       </c>
       <c r="D2">
-        <v>20246.49</v>
+        <v>6439.68</v>
       </c>
       <c r="E2">
-        <v>16977.93</v>
+        <v>7125.16</v>
       </c>
       <c r="F2">
-        <v>16433.94</v>
+        <v>6851.35</v>
       </c>
       <c r="G2">
-        <v>13145.61</v>
+        <v>6724.39</v>
       </c>
       <c r="H2">
-        <v>13415.21</v>
+        <v>6812.96</v>
       </c>
       <c r="I2">
-        <v>18184.07</v>
+        <v>7242.95</v>
       </c>
       <c r="J2">
-        <v>15791.27</v>
+        <v>7603.81</v>
       </c>
       <c r="K2">
-        <v>18751.39</v>
+        <v>7792.7</v>
       </c>
       <c r="L2">
-        <v>17629.34</v>
+        <v>7443.04</v>
       </c>
       <c r="M2">
-        <v>21417.37</v>
+        <v>6705.03</v>
       </c>
       <c r="N2">
-        <v>19211.32</v>
+        <v>6684.69</v>
       </c>
       <c r="O2">
-        <v>19875</v>
+        <v>6751.91</v>
       </c>
       <c r="P2">
-        <v>14804.69</v>
+        <v>5638.49</v>
       </c>
       <c r="Q2">
-        <v>13923.83</v>
+        <v>4241.49</v>
       </c>
       <c r="R2">
-        <v>16748.98</v>
+        <v>5776.06</v>
       </c>
       <c r="S2">
-        <v>18516.94</v>
+        <v>7476.47</v>
       </c>
       <c r="T2">
-        <v>19963.57</v>
+        <v>6988.45</v>
       </c>
       <c r="U2">
-        <v>22455.18</v>
+        <v>7160.4</v>
       </c>
       <c r="V2">
-        <v>23555.57</v>
+        <v>7588.56</v>
       </c>
       <c r="W2">
-        <v>23503.32</v>
+        <v>8213.26</v>
       </c>
       <c r="X2">
-        <v>28318.61</v>
+        <v>7876.35</v>
       </c>
       <c r="Y2">
-        <v>25357.61</v>
+        <v>7156.49</v>
       </c>
       <c r="Z2">
-        <v>23317.48</v>
+        <v>7420.25</v>
       </c>
       <c r="AA2">
-        <v>18966.57</v>
+        <v>6924.07</v>
       </c>
       <c r="AB2">
-        <v>18807.58</v>
+        <v>8949.969999999999</v>
       </c>
       <c r="AC2">
-        <v>24088</v>
+        <v>9158.42</v>
       </c>
       <c r="AD2">
-        <v>21616.43</v>
+        <v>9441.469999999999</v>
       </c>
       <c r="AE2">
-        <v>24286.8</v>
+        <v>9843.719999999999</v>
       </c>
       <c r="AF2">
-        <v>24292.05</v>
+        <v>8839.290000000001</v>
       </c>
       <c r="AG2">
-        <v>23745.97</v>
+        <v>9488.83</v>
       </c>
       <c r="AH2">
-        <v>22524.56</v>
+        <v>9356.809999999999</v>
       </c>
       <c r="AI2">
-        <v>26713.86</v>
+        <v>8881.379999999999</v>
       </c>
       <c r="AJ2">
-        <v>21800.8</v>
+        <v>9019.49</v>
       </c>
       <c r="AK2">
-        <v>25399.75</v>
+        <v>8396.34</v>
+      </c>
+      <c r="AL2">
+        <v>7820.27</v>
+      </c>
+      <c r="AM2">
+        <v>7551.9</v>
+      </c>
+      <c r="AN2">
+        <v>8378.5</v>
+      </c>
+      <c r="AO2">
+        <v>1505.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>7303.35</v>
+      </c>
+      <c r="C3">
+        <v>7844.75</v>
+      </c>
+      <c r="D3">
+        <v>8147.34</v>
+      </c>
+      <c r="E3">
+        <v>8213.85</v>
+      </c>
+      <c r="F3">
+        <v>11100.91</v>
+      </c>
+      <c r="G3">
+        <v>9223.41</v>
+      </c>
+      <c r="H3">
+        <v>8642.41</v>
+      </c>
+      <c r="I3">
+        <v>7812.17</v>
+      </c>
+      <c r="J3">
+        <v>6725.24</v>
+      </c>
+      <c r="K3">
+        <v>11948.53</v>
+      </c>
+      <c r="L3">
+        <v>10989.08</v>
+      </c>
+      <c r="M3">
+        <v>10583.73</v>
+      </c>
+      <c r="N3">
+        <v>9290.25</v>
+      </c>
+      <c r="O3">
+        <v>8667.99</v>
+      </c>
+      <c r="P3">
+        <v>6817.42</v>
+      </c>
+      <c r="Q3">
+        <v>4449.24</v>
+      </c>
+      <c r="R3">
+        <v>6980.07</v>
+      </c>
+      <c r="S3">
+        <v>7279.09</v>
+      </c>
+      <c r="T3">
+        <v>8234.27</v>
+      </c>
+      <c r="U3">
+        <v>11524.63</v>
+      </c>
+      <c r="V3">
+        <v>12280.53</v>
+      </c>
+      <c r="W3">
+        <v>12981.03</v>
+      </c>
+      <c r="X3">
+        <v>11307.01</v>
+      </c>
+      <c r="Y3">
+        <v>13459.7</v>
+      </c>
+      <c r="Z3">
+        <v>15066.7</v>
+      </c>
+      <c r="AA3">
+        <v>13581.38</v>
+      </c>
+      <c r="AB3">
+        <v>15372.07</v>
+      </c>
+      <c r="AC3">
+        <v>13353.07</v>
+      </c>
+      <c r="AD3">
+        <v>10699.03</v>
+      </c>
+      <c r="AE3">
+        <v>12031.74</v>
+      </c>
+      <c r="AF3">
+        <v>10748.57</v>
+      </c>
+      <c r="AG3">
+        <v>13821.48</v>
+      </c>
+      <c r="AH3">
+        <v>14620.33</v>
+      </c>
+      <c r="AI3">
+        <v>15190.7</v>
+      </c>
+      <c r="AJ3">
+        <v>14002.95</v>
+      </c>
+      <c r="AK3">
+        <v>14485.8</v>
+      </c>
+      <c r="AL3">
+        <v>14628.4</v>
+      </c>
+      <c r="AM3">
+        <v>13489.58</v>
+      </c>
+      <c r="AN3">
+        <v>15743.52</v>
+      </c>
+      <c r="AO3">
+        <v>3062.71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>7712.75</v>
+      </c>
+      <c r="C4">
+        <v>7706.79</v>
+      </c>
+      <c r="D4">
+        <v>8236.48</v>
+      </c>
+      <c r="E4">
+        <v>8472.030000000001</v>
+      </c>
+      <c r="F4">
+        <v>9105.110000000001</v>
+      </c>
+      <c r="G4">
+        <v>7946.33</v>
+      </c>
+      <c r="H4">
+        <v>8841.43</v>
+      </c>
+      <c r="I4">
+        <v>8690.690000000001</v>
+      </c>
+      <c r="J4">
+        <v>8126.59</v>
+      </c>
+      <c r="K4">
+        <v>9033.469999999999</v>
+      </c>
+      <c r="L4">
+        <v>8603.530000000001</v>
+      </c>
+      <c r="M4">
+        <v>8536.35</v>
+      </c>
+      <c r="N4">
+        <v>8650.48</v>
+      </c>
+      <c r="O4">
+        <v>8819.51</v>
+      </c>
+      <c r="P4">
+        <v>7584.23</v>
+      </c>
+      <c r="Q4">
+        <v>5293.11</v>
+      </c>
+      <c r="R4">
+        <v>7382.27</v>
+      </c>
+      <c r="S4">
+        <v>8785.629999999999</v>
+      </c>
+      <c r="T4">
+        <v>8826.48</v>
+      </c>
+      <c r="U4">
+        <v>8530.049999999999</v>
+      </c>
+      <c r="V4">
+        <v>9274.6</v>
+      </c>
+      <c r="W4">
+        <v>9959.51</v>
+      </c>
+      <c r="X4">
+        <v>9512.030000000001</v>
+      </c>
+      <c r="Y4">
+        <v>10170</v>
+      </c>
+      <c r="Z4">
+        <v>9270.84</v>
+      </c>
+      <c r="AA4">
+        <v>9434.610000000001</v>
+      </c>
+      <c r="AB4">
+        <v>10983.86</v>
+      </c>
+      <c r="AC4">
+        <v>11356.89</v>
+      </c>
+      <c r="AD4">
+        <v>10939.88</v>
+      </c>
+      <c r="AE4">
+        <v>11485.93</v>
+      </c>
+      <c r="AF4">
+        <v>11258.97</v>
+      </c>
+      <c r="AG4">
+        <v>11525.7</v>
+      </c>
+      <c r="AH4">
+        <v>11420.85</v>
+      </c>
+      <c r="AI4">
+        <v>12402.27</v>
+      </c>
+      <c r="AJ4">
+        <v>12664.25</v>
+      </c>
+      <c r="AK4">
+        <v>14001.11</v>
+      </c>
+      <c r="AL4">
+        <v>13829.03</v>
+      </c>
+      <c r="AM4">
+        <v>12597.79</v>
+      </c>
+      <c r="AN4">
+        <v>12948.64</v>
+      </c>
+      <c r="AO4">
+        <v>2441.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>6381.4</v>
+      </c>
+      <c r="C5">
+        <v>6487.55</v>
+      </c>
+      <c r="D5">
+        <v>7568.59</v>
+      </c>
+      <c r="E5">
+        <v>6707.8</v>
+      </c>
+      <c r="F5">
+        <v>7340.13</v>
+      </c>
+      <c r="G5">
+        <v>7075.57</v>
+      </c>
+      <c r="H5">
+        <v>7021.54</v>
+      </c>
+      <c r="I5">
+        <v>6965.15</v>
+      </c>
+      <c r="J5">
+        <v>7580.34</v>
+      </c>
+      <c r="K5">
+        <v>8150.39</v>
+      </c>
+      <c r="L5">
+        <v>7577.15</v>
+      </c>
+      <c r="M5">
+        <v>7244.05</v>
+      </c>
+      <c r="N5">
+        <v>5872.07</v>
+      </c>
+      <c r="O5">
+        <v>7108.88</v>
+      </c>
+      <c r="P5">
+        <v>5868.83</v>
+      </c>
+      <c r="Q5">
+        <v>5540.31</v>
+      </c>
+      <c r="R5">
+        <v>7619.16</v>
+      </c>
+      <c r="S5">
+        <v>7097.89</v>
+      </c>
+      <c r="T5">
+        <v>7176.65</v>
+      </c>
+      <c r="U5">
+        <v>6532.64</v>
+      </c>
+      <c r="V5">
+        <v>8183.32</v>
+      </c>
+      <c r="W5">
+        <v>8755.870000000001</v>
+      </c>
+      <c r="X5">
+        <v>8301.6</v>
+      </c>
+      <c r="Y5">
+        <v>8302.83</v>
+      </c>
+      <c r="Z5">
+        <v>8395.389999999999</v>
+      </c>
+      <c r="AA5">
+        <v>8676.24</v>
+      </c>
+      <c r="AB5">
+        <v>9570.809999999999</v>
+      </c>
+      <c r="AC5">
+        <v>9144.629999999999</v>
+      </c>
+      <c r="AD5">
+        <v>8366.08</v>
+      </c>
+      <c r="AE5">
+        <v>9325.17</v>
+      </c>
+      <c r="AF5">
+        <v>9977.65</v>
+      </c>
+      <c r="AG5">
+        <v>10658</v>
+      </c>
+      <c r="AH5">
+        <v>10608.18</v>
+      </c>
+      <c r="AI5">
+        <v>11550.09</v>
+      </c>
+      <c r="AJ5">
+        <v>10490.75</v>
+      </c>
+      <c r="AK5">
+        <v>10238.1</v>
+      </c>
+      <c r="AL5">
+        <v>11917.11</v>
+      </c>
+      <c r="AM5">
+        <v>10489.76</v>
+      </c>
+      <c r="AN5">
+        <v>11189.26</v>
+      </c>
+      <c r="AO5">
+        <v>2138.93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <v>4809.96</v>
+      </c>
+      <c r="C6">
+        <v>4973.26</v>
+      </c>
+      <c r="D6">
+        <v>5366.1</v>
+      </c>
+      <c r="E6">
+        <v>6393.15</v>
+      </c>
+      <c r="F6">
+        <v>6154.7</v>
+      </c>
+      <c r="G6">
+        <v>6107.56</v>
+      </c>
+      <c r="H6">
+        <v>5301.29</v>
+      </c>
+      <c r="I6">
+        <v>6381.08</v>
+      </c>
+      <c r="J6">
+        <v>5352.56</v>
+      </c>
+      <c r="K6">
+        <v>6615.23</v>
+      </c>
+      <c r="L6">
+        <v>5804.02</v>
+      </c>
+      <c r="M6">
+        <v>5610.2</v>
+      </c>
+      <c r="N6">
+        <v>6036.91</v>
+      </c>
+      <c r="O6">
+        <v>6856.49</v>
+      </c>
+      <c r="P6">
+        <v>5366.07</v>
+      </c>
+      <c r="Q6">
+        <v>3724.63</v>
+      </c>
+      <c r="R6">
+        <v>4789.3</v>
+      </c>
+      <c r="S6">
+        <v>5764.04</v>
+      </c>
+      <c r="T6">
+        <v>5624.55</v>
+      </c>
+      <c r="U6">
+        <v>5762.63</v>
+      </c>
+      <c r="V6">
+        <v>6113.55</v>
+      </c>
+      <c r="W6">
+        <v>6055.61</v>
+      </c>
+      <c r="X6">
+        <v>5841.01</v>
+      </c>
+      <c r="Y6">
+        <v>5948.41</v>
+      </c>
+      <c r="Z6">
+        <v>6482.96</v>
+      </c>
+      <c r="AA6">
+        <v>5789.34</v>
+      </c>
+      <c r="AB6">
+        <v>7480.59</v>
+      </c>
+      <c r="AC6">
+        <v>7352.61</v>
+      </c>
+      <c r="AD6">
+        <v>6414.14</v>
+      </c>
+      <c r="AE6">
+        <v>6873.87</v>
+      </c>
+      <c r="AF6">
+        <v>7771.11</v>
+      </c>
+      <c r="AG6">
+        <v>6538.25</v>
+      </c>
+      <c r="AH6">
+        <v>8265.49</v>
+      </c>
+      <c r="AI6">
+        <v>8142.19</v>
+      </c>
+      <c r="AJ6">
+        <v>7252.56</v>
+      </c>
+      <c r="AK6">
+        <v>6467.21</v>
+      </c>
+      <c r="AL6">
+        <v>541.26</v>
+      </c>
+      <c r="AM6">
+        <v>0.96</v>
+      </c>
+      <c r="AN6">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>8830.35</v>
+      </c>
+      <c r="C7">
+        <v>8328.540000000001</v>
+      </c>
+      <c r="D7">
+        <v>9778.35</v>
+      </c>
+      <c r="E7">
+        <v>10460.03</v>
+      </c>
+      <c r="F7">
+        <v>9508.629999999999</v>
+      </c>
+      <c r="G7">
+        <v>10344.18</v>
+      </c>
+      <c r="H7">
+        <v>10213.22</v>
+      </c>
+      <c r="I7">
+        <v>9315.93</v>
+      </c>
+      <c r="J7">
+        <v>8085.17</v>
+      </c>
+      <c r="K7">
+        <v>12005.28</v>
+      </c>
+      <c r="L7">
+        <v>9004.879999999999</v>
+      </c>
+      <c r="M7">
+        <v>9624.040000000001</v>
+      </c>
+      <c r="N7">
+        <v>9898.809999999999</v>
+      </c>
+      <c r="O7">
+        <v>10062.66</v>
+      </c>
+      <c r="P7">
+        <v>9693.950000000001</v>
+      </c>
+      <c r="Q7">
+        <v>6679.43</v>
+      </c>
+      <c r="R7">
+        <v>8745.879999999999</v>
+      </c>
+      <c r="S7">
+        <v>10145.89</v>
+      </c>
+      <c r="T7">
+        <v>11274.67</v>
+      </c>
+      <c r="U7">
+        <v>10879.19</v>
+      </c>
+      <c r="V7">
+        <v>11163.03</v>
+      </c>
+      <c r="W7">
+        <v>12130.95</v>
+      </c>
+      <c r="X7">
+        <v>11595.28</v>
+      </c>
+      <c r="Y7">
+        <v>12478.99</v>
+      </c>
+      <c r="Z7">
+        <v>10765.7</v>
+      </c>
+      <c r="AA7">
+        <v>13466.75</v>
+      </c>
+      <c r="AB7">
+        <v>12739.28</v>
+      </c>
+      <c r="AC7">
+        <v>13021.58</v>
+      </c>
+      <c r="AD7">
+        <v>12523.74</v>
+      </c>
+      <c r="AE7">
+        <v>13671.84</v>
+      </c>
+      <c r="AF7">
+        <v>15689.57</v>
+      </c>
+      <c r="AG7">
+        <v>13804.26</v>
+      </c>
+      <c r="AH7">
+        <v>12416.58</v>
+      </c>
+      <c r="AI7">
+        <v>12686.19</v>
+      </c>
+      <c r="AJ7">
+        <v>12167.36</v>
+      </c>
+      <c r="AK7">
+        <v>8375.15</v>
+      </c>
+      <c r="AL7">
+        <v>10401.1</v>
+      </c>
+      <c r="AM7">
+        <v>10136.08</v>
+      </c>
+      <c r="AN7">
+        <v>11121.98</v>
+      </c>
+      <c r="AO7">
+        <v>2308.79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>7101.82</v>
+      </c>
+      <c r="C8">
+        <v>6998</v>
+      </c>
+      <c r="D8">
+        <v>7868.06</v>
+      </c>
+      <c r="E8">
+        <v>7906.48</v>
+      </c>
+      <c r="F8">
+        <v>8217.790000000001</v>
+      </c>
+      <c r="G8">
+        <v>7326.87</v>
+      </c>
+      <c r="H8">
+        <v>7358.36</v>
+      </c>
+      <c r="I8">
+        <v>7788.47</v>
+      </c>
+      <c r="J8">
+        <v>7546.57</v>
+      </c>
+      <c r="K8">
+        <v>8822.99</v>
+      </c>
+      <c r="L8">
+        <v>7624.17</v>
+      </c>
+      <c r="M8">
+        <v>7702.89</v>
+      </c>
+      <c r="N8">
+        <v>7289.52</v>
+      </c>
+      <c r="O8">
+        <v>7379.76</v>
+      </c>
+      <c r="P8">
+        <v>6736.17</v>
+      </c>
+      <c r="Q8">
+        <v>4776.95</v>
+      </c>
+      <c r="R8">
+        <v>6239.64</v>
+      </c>
+      <c r="S8">
+        <v>7681.39</v>
+      </c>
+      <c r="T8">
+        <v>8321.76</v>
+      </c>
+      <c r="U8">
+        <v>8150.21</v>
+      </c>
+      <c r="V8">
+        <v>8636.219999999999</v>
+      </c>
+      <c r="W8">
+        <v>9024.370000000001</v>
+      </c>
+      <c r="X8">
+        <v>8260.9</v>
+      </c>
+      <c r="Y8">
+        <v>8780.75</v>
+      </c>
+      <c r="Z8">
+        <v>7772.8</v>
+      </c>
+      <c r="AA8">
+        <v>7806.38</v>
+      </c>
+      <c r="AB8">
+        <v>9429.940000000001</v>
+      </c>
+      <c r="AC8">
+        <v>9498.51</v>
+      </c>
+      <c r="AD8">
+        <v>9434.809999999999</v>
+      </c>
+      <c r="AE8">
+        <v>9569.82</v>
+      </c>
+      <c r="AF8">
+        <v>9766.940000000001</v>
+      </c>
+      <c r="AG8">
+        <v>10073.86</v>
+      </c>
+      <c r="AH8">
+        <v>10355.69</v>
+      </c>
+      <c r="AI8">
+        <v>10536.77</v>
+      </c>
+      <c r="AJ8">
+        <v>10311.14</v>
+      </c>
+      <c r="AK8">
+        <v>10454.42</v>
+      </c>
+      <c r="AL8">
+        <v>9685.41</v>
+      </c>
+      <c r="AM8">
+        <v>9557.49</v>
+      </c>
+      <c r="AN8">
+        <v>9797.370000000001</v>
+      </c>
+      <c r="AO8">
+        <v>1838.67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>6990.54</v>
+      </c>
+      <c r="C9">
+        <v>6902.93</v>
+      </c>
+      <c r="D9">
+        <v>6829.93</v>
+      </c>
+      <c r="E9">
+        <v>8042.36</v>
+      </c>
+      <c r="F9">
+        <v>9056.370000000001</v>
+      </c>
+      <c r="G9">
+        <v>7257.29</v>
+      </c>
+      <c r="H9">
+        <v>8068.25</v>
+      </c>
+      <c r="I9">
+        <v>8671.83</v>
+      </c>
+      <c r="J9">
+        <v>7267.66</v>
+      </c>
+      <c r="K9">
+        <v>8329.549999999999</v>
+      </c>
+      <c r="L9">
+        <v>8245.059999999999</v>
+      </c>
+      <c r="M9">
+        <v>6612.3</v>
+      </c>
+      <c r="N9">
+        <v>5972.55</v>
+      </c>
+      <c r="O9">
+        <v>8622.879999999999</v>
+      </c>
+      <c r="P9">
+        <v>7020.88</v>
+      </c>
+      <c r="Q9">
+        <v>5994.61</v>
+      </c>
+      <c r="R9">
+        <v>7860.99</v>
+      </c>
+      <c r="S9">
+        <v>7181.08</v>
+      </c>
+      <c r="T9">
+        <v>8579.129999999999</v>
+      </c>
+      <c r="U9">
+        <v>9721.43</v>
+      </c>
+      <c r="V9">
+        <v>10146.89</v>
+      </c>
+      <c r="W9">
+        <v>10166.29</v>
+      </c>
+      <c r="X9">
+        <v>8689.34</v>
+      </c>
+      <c r="Y9">
+        <v>8786.73</v>
+      </c>
+      <c r="Z9">
+        <v>8128</v>
+      </c>
+      <c r="AA9">
+        <v>6383.62</v>
+      </c>
+      <c r="AB9">
+        <v>8374.84</v>
+      </c>
+      <c r="AC9">
+        <v>9154.969999999999</v>
+      </c>
+      <c r="AD9">
+        <v>9479.540000000001</v>
+      </c>
+      <c r="AE9">
+        <v>9023.65</v>
+      </c>
+      <c r="AF9">
+        <v>9082.459999999999</v>
+      </c>
+      <c r="AG9">
+        <v>9210.66</v>
+      </c>
+      <c r="AH9">
+        <v>9235.299999999999</v>
+      </c>
+      <c r="AI9">
+        <v>9804.139999999999</v>
+      </c>
+      <c r="AJ9">
+        <v>12335.62</v>
+      </c>
+      <c r="AK9">
+        <v>10651.42</v>
+      </c>
+      <c r="AL9">
+        <v>9264.870000000001</v>
+      </c>
+      <c r="AM9">
+        <v>9751.799999999999</v>
+      </c>
+      <c r="AN9">
+        <v>10209.64</v>
+      </c>
+      <c r="AO9">
+        <v>2661.31</v>
       </c>
     </row>
   </sheetData>

--- a/mbrMoPvt_94.xlsx
+++ b/mbrMoPvt_94.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>m-2022-03</t>
-  </si>
-  <si>
-    <t>m-2022-04</t>
   </si>
   <si>
     <t>org_id</t>
@@ -518,15 +515,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -645,13 +642,10 @@
       <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:40">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>6149.13</v>
@@ -663,7 +657,7 @@
         <v>6439.68</v>
       </c>
       <c r="E2">
-        <v>7125.16</v>
+        <v>7128.13</v>
       </c>
       <c r="F2">
         <v>6851.35</v>
@@ -672,7 +666,7 @@
         <v>6724.39</v>
       </c>
       <c r="H2">
-        <v>6812.96</v>
+        <v>6819.33</v>
       </c>
       <c r="I2">
         <v>7242.95</v>
@@ -684,7 +678,7 @@
         <v>7792.7</v>
       </c>
       <c r="L2">
-        <v>7443.04</v>
+        <v>7445.96</v>
       </c>
       <c r="M2">
         <v>6705.03</v>
@@ -714,444 +708,432 @@
         <v>7160.4</v>
       </c>
       <c r="V2">
-        <v>7588.56</v>
+        <v>7588.69</v>
       </c>
       <c r="W2">
-        <v>8213.26</v>
+        <v>8212.629999999999</v>
       </c>
       <c r="X2">
-        <v>7876.35</v>
+        <v>7875.93</v>
       </c>
       <c r="Y2">
         <v>7156.49</v>
       </c>
       <c r="Z2">
-        <v>7420.25</v>
+        <v>7419.88</v>
       </c>
       <c r="AA2">
-        <v>6924.07</v>
+        <v>6923.66</v>
       </c>
       <c r="AB2">
-        <v>8949.969999999999</v>
+        <v>8949.959999999999</v>
       </c>
       <c r="AC2">
-        <v>9158.42</v>
+        <v>9153.18</v>
       </c>
       <c r="AD2">
-        <v>9441.469999999999</v>
+        <v>9439.84</v>
       </c>
       <c r="AE2">
-        <v>9843.719999999999</v>
+        <v>9843.4</v>
       </c>
       <c r="AF2">
-        <v>8839.290000000001</v>
+        <v>8836.190000000001</v>
       </c>
       <c r="AG2">
-        <v>9488.83</v>
+        <v>9478.799999999999</v>
       </c>
       <c r="AH2">
-        <v>9356.809999999999</v>
+        <v>9355.16</v>
       </c>
       <c r="AI2">
-        <v>8881.379999999999</v>
+        <v>8873.23</v>
       </c>
       <c r="AJ2">
-        <v>9019.49</v>
+        <v>9005.549999999999</v>
       </c>
       <c r="AK2">
-        <v>8396.34</v>
+        <v>8374.559999999999</v>
       </c>
       <c r="AL2">
-        <v>7820.27</v>
+        <v>7552.83</v>
       </c>
       <c r="AM2">
-        <v>7551.9</v>
+        <v>6720.95</v>
       </c>
       <c r="AN2">
-        <v>8378.5</v>
-      </c>
-      <c r="AO2">
-        <v>1505.6</v>
+        <v>2724.87</v>
       </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:40">
       <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>7240.04</v>
+      </c>
+      <c r="C3">
+        <v>7772.79</v>
+      </c>
+      <c r="D3">
+        <v>8262.92</v>
+      </c>
+      <c r="E3">
+        <v>8349.43</v>
+      </c>
+      <c r="F3">
+        <v>11142.03</v>
+      </c>
+      <c r="G3">
+        <v>9191.969999999999</v>
+      </c>
+      <c r="H3">
+        <v>8569.75</v>
+      </c>
+      <c r="I3">
+        <v>7750.62</v>
+      </c>
+      <c r="J3">
+        <v>6688.15</v>
+      </c>
+      <c r="K3">
+        <v>11852.85</v>
+      </c>
+      <c r="L3">
+        <v>10890.34</v>
+      </c>
+      <c r="M3">
+        <v>10490.98</v>
+      </c>
+      <c r="N3">
+        <v>9215.959999999999</v>
+      </c>
+      <c r="O3">
+        <v>8609.139999999999</v>
+      </c>
+      <c r="P3">
+        <v>6923.16</v>
+      </c>
+      <c r="Q3">
+        <v>4424.7</v>
+      </c>
+      <c r="R3">
+        <v>6933.9</v>
+      </c>
+      <c r="S3">
+        <v>7215.73</v>
+      </c>
+      <c r="T3">
+        <v>8172.78</v>
+      </c>
+      <c r="U3">
+        <v>11440.54</v>
+      </c>
+      <c r="V3">
+        <v>12191.66</v>
+      </c>
+      <c r="W3">
+        <v>12891.86</v>
+      </c>
+      <c r="X3">
+        <v>11216.81</v>
+      </c>
+      <c r="Y3">
+        <v>13351.88</v>
+      </c>
+      <c r="Z3">
+        <v>14942.41</v>
+      </c>
+      <c r="AA3">
+        <v>13451.18</v>
+      </c>
+      <c r="AB3">
+        <v>15261.86</v>
+      </c>
+      <c r="AC3">
+        <v>13306.47</v>
+      </c>
+      <c r="AD3">
+        <v>10900.55</v>
+      </c>
+      <c r="AE3">
+        <v>12025.13</v>
+      </c>
+      <c r="AF3">
+        <v>10784.9</v>
+      </c>
+      <c r="AG3">
+        <v>13761.61</v>
+      </c>
+      <c r="AH3">
+        <v>14394.41</v>
+      </c>
+      <c r="AI3">
+        <v>15064.24</v>
+      </c>
+      <c r="AJ3">
+        <v>13900</v>
+      </c>
+      <c r="AK3">
+        <v>14171.47</v>
+      </c>
+      <c r="AL3">
+        <v>14333.3</v>
+      </c>
+      <c r="AM3">
+        <v>12735.72</v>
+      </c>
+      <c r="AN3">
+        <v>4873.77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40">
+      <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B3">
-        <v>7303.35</v>
-      </c>
-      <c r="C3">
-        <v>7844.75</v>
-      </c>
-      <c r="D3">
-        <v>8147.34</v>
-      </c>
-      <c r="E3">
-        <v>8213.85</v>
-      </c>
-      <c r="F3">
-        <v>11100.91</v>
-      </c>
-      <c r="G3">
-        <v>9223.41</v>
-      </c>
-      <c r="H3">
-        <v>8642.41</v>
-      </c>
-      <c r="I3">
-        <v>7812.17</v>
-      </c>
-      <c r="J3">
-        <v>6725.24</v>
-      </c>
-      <c r="K3">
-        <v>11948.53</v>
-      </c>
-      <c r="L3">
-        <v>10989.08</v>
-      </c>
-      <c r="M3">
-        <v>10583.73</v>
-      </c>
-      <c r="N3">
-        <v>9290.25</v>
-      </c>
-      <c r="O3">
-        <v>8667.99</v>
-      </c>
-      <c r="P3">
-        <v>6817.42</v>
-      </c>
-      <c r="Q3">
-        <v>4449.24</v>
-      </c>
-      <c r="R3">
-        <v>6980.07</v>
-      </c>
-      <c r="S3">
-        <v>7279.09</v>
-      </c>
-      <c r="T3">
-        <v>8234.27</v>
-      </c>
-      <c r="U3">
-        <v>11524.63</v>
-      </c>
-      <c r="V3">
-        <v>12280.53</v>
-      </c>
-      <c r="W3">
-        <v>12981.03</v>
-      </c>
-      <c r="X3">
-        <v>11307.01</v>
-      </c>
-      <c r="Y3">
-        <v>13459.7</v>
-      </c>
-      <c r="Z3">
-        <v>15066.7</v>
-      </c>
-      <c r="AA3">
-        <v>13581.38</v>
-      </c>
-      <c r="AB3">
-        <v>15372.07</v>
-      </c>
-      <c r="AC3">
-        <v>13353.07</v>
-      </c>
-      <c r="AD3">
-        <v>10699.03</v>
-      </c>
-      <c r="AE3">
-        <v>12031.74</v>
-      </c>
-      <c r="AF3">
-        <v>10748.57</v>
-      </c>
-      <c r="AG3">
-        <v>13821.48</v>
-      </c>
-      <c r="AH3">
-        <v>14620.33</v>
-      </c>
-      <c r="AI3">
-        <v>15190.7</v>
-      </c>
-      <c r="AJ3">
-        <v>14002.95</v>
-      </c>
-      <c r="AK3">
-        <v>14485.8</v>
-      </c>
-      <c r="AL3">
-        <v>14628.4</v>
-      </c>
-      <c r="AM3">
-        <v>13489.58</v>
-      </c>
-      <c r="AN3">
-        <v>15743.52</v>
-      </c>
-      <c r="AO3">
-        <v>3062.71</v>
+      <c r="B4">
+        <v>7664.2</v>
+      </c>
+      <c r="C4">
+        <v>7669.42</v>
+      </c>
+      <c r="D4">
+        <v>8175.75</v>
+      </c>
+      <c r="E4">
+        <v>8414.879999999999</v>
+      </c>
+      <c r="F4">
+        <v>9079.059999999999</v>
+      </c>
+      <c r="G4">
+        <v>7919.38</v>
+      </c>
+      <c r="H4">
+        <v>8793</v>
+      </c>
+      <c r="I4">
+        <v>8632.07</v>
+      </c>
+      <c r="J4">
+        <v>8074.97</v>
+      </c>
+      <c r="K4">
+        <v>8963.200000000001</v>
+      </c>
+      <c r="L4">
+        <v>8545.040000000001</v>
+      </c>
+      <c r="M4">
+        <v>8476.139999999999</v>
+      </c>
+      <c r="N4">
+        <v>8587.59</v>
+      </c>
+      <c r="O4">
+        <v>8760.629999999999</v>
+      </c>
+      <c r="P4">
+        <v>7522.43</v>
+      </c>
+      <c r="Q4">
+        <v>5249.52</v>
+      </c>
+      <c r="R4">
+        <v>7327.78</v>
+      </c>
+      <c r="S4">
+        <v>8721.08</v>
+      </c>
+      <c r="T4">
+        <v>8759.940000000001</v>
+      </c>
+      <c r="U4">
+        <v>8471.93</v>
+      </c>
+      <c r="V4">
+        <v>9232.129999999999</v>
+      </c>
+      <c r="W4">
+        <v>9889.610000000001</v>
+      </c>
+      <c r="X4">
+        <v>9448.459999999999</v>
+      </c>
+      <c r="Y4">
+        <v>10120.43</v>
+      </c>
+      <c r="Z4">
+        <v>9215.129999999999</v>
+      </c>
+      <c r="AA4">
+        <v>9357.09</v>
+      </c>
+      <c r="AB4">
+        <v>10908.45</v>
+      </c>
+      <c r="AC4">
+        <v>11236.33</v>
+      </c>
+      <c r="AD4">
+        <v>10826.64</v>
+      </c>
+      <c r="AE4">
+        <v>11384.46</v>
+      </c>
+      <c r="AF4">
+        <v>11145.33</v>
+      </c>
+      <c r="AG4">
+        <v>11430.09</v>
+      </c>
+      <c r="AH4">
+        <v>11305.98</v>
+      </c>
+      <c r="AI4">
+        <v>12237</v>
+      </c>
+      <c r="AJ4">
+        <v>12522.39</v>
+      </c>
+      <c r="AK4">
+        <v>13713.9</v>
+      </c>
+      <c r="AL4">
+        <v>13221.3</v>
+      </c>
+      <c r="AM4">
+        <v>11275.99</v>
+      </c>
+      <c r="AN4">
+        <v>3874.62</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:40">
+      <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B4">
-        <v>7712.75</v>
-      </c>
-      <c r="C4">
-        <v>7706.79</v>
-      </c>
-      <c r="D4">
-        <v>8236.48</v>
-      </c>
-      <c r="E4">
-        <v>8472.030000000001</v>
-      </c>
-      <c r="F4">
-        <v>9105.110000000001</v>
-      </c>
-      <c r="G4">
-        <v>7946.33</v>
-      </c>
-      <c r="H4">
-        <v>8841.43</v>
-      </c>
-      <c r="I4">
-        <v>8690.690000000001</v>
-      </c>
-      <c r="J4">
-        <v>8126.59</v>
-      </c>
-      <c r="K4">
-        <v>9033.469999999999</v>
-      </c>
-      <c r="L4">
-        <v>8603.530000000001</v>
-      </c>
-      <c r="M4">
-        <v>8536.35</v>
-      </c>
-      <c r="N4">
-        <v>8650.48</v>
-      </c>
-      <c r="O4">
-        <v>8819.51</v>
-      </c>
-      <c r="P4">
-        <v>7584.23</v>
-      </c>
-      <c r="Q4">
-        <v>5293.11</v>
-      </c>
-      <c r="R4">
-        <v>7382.27</v>
-      </c>
-      <c r="S4">
-        <v>8785.629999999999</v>
-      </c>
-      <c r="T4">
-        <v>8826.48</v>
-      </c>
-      <c r="U4">
-        <v>8530.049999999999</v>
-      </c>
-      <c r="V4">
-        <v>9274.6</v>
-      </c>
-      <c r="W4">
-        <v>9959.51</v>
-      </c>
-      <c r="X4">
-        <v>9512.030000000001</v>
-      </c>
-      <c r="Y4">
-        <v>10170</v>
-      </c>
-      <c r="Z4">
-        <v>9270.84</v>
-      </c>
-      <c r="AA4">
-        <v>9434.610000000001</v>
-      </c>
-      <c r="AB4">
-        <v>10983.86</v>
-      </c>
-      <c r="AC4">
-        <v>11356.89</v>
-      </c>
-      <c r="AD4">
-        <v>10939.88</v>
-      </c>
-      <c r="AE4">
-        <v>11485.93</v>
-      </c>
-      <c r="AF4">
-        <v>11258.97</v>
-      </c>
-      <c r="AG4">
-        <v>11525.7</v>
-      </c>
-      <c r="AH4">
-        <v>11420.85</v>
-      </c>
-      <c r="AI4">
-        <v>12402.27</v>
-      </c>
-      <c r="AJ4">
-        <v>12664.25</v>
-      </c>
-      <c r="AK4">
-        <v>14001.11</v>
-      </c>
-      <c r="AL4">
-        <v>13829.03</v>
-      </c>
-      <c r="AM4">
-        <v>12597.79</v>
-      </c>
-      <c r="AN4">
-        <v>12948.64</v>
-      </c>
-      <c r="AO4">
-        <v>2441.01</v>
+      <c r="B5">
+        <v>6358.61</v>
+      </c>
+      <c r="C5">
+        <v>6459.93</v>
+      </c>
+      <c r="D5">
+        <v>7550.88</v>
+      </c>
+      <c r="E5">
+        <v>6740.13</v>
+      </c>
+      <c r="F5">
+        <v>7368.7</v>
+      </c>
+      <c r="G5">
+        <v>7037.64</v>
+      </c>
+      <c r="H5">
+        <v>7003.93</v>
+      </c>
+      <c r="I5">
+        <v>7089.13</v>
+      </c>
+      <c r="J5">
+        <v>7542.93</v>
+      </c>
+      <c r="K5">
+        <v>8109.4</v>
+      </c>
+      <c r="L5">
+        <v>7551.86</v>
+      </c>
+      <c r="M5">
+        <v>7275.88</v>
+      </c>
+      <c r="N5">
+        <v>5876.48</v>
+      </c>
+      <c r="O5">
+        <v>7086.6</v>
+      </c>
+      <c r="P5">
+        <v>5998.67</v>
+      </c>
+      <c r="Q5">
+        <v>5509.47</v>
+      </c>
+      <c r="R5">
+        <v>7573.1</v>
+      </c>
+      <c r="S5">
+        <v>7068.99</v>
+      </c>
+      <c r="T5">
+        <v>7156.56</v>
+      </c>
+      <c r="U5">
+        <v>6613.5</v>
+      </c>
+      <c r="V5">
+        <v>8196.24</v>
+      </c>
+      <c r="W5">
+        <v>8714.23</v>
+      </c>
+      <c r="X5">
+        <v>8240.280000000001</v>
+      </c>
+      <c r="Y5">
+        <v>8243.030000000001</v>
+      </c>
+      <c r="Z5">
+        <v>8338.49</v>
+      </c>
+      <c r="AA5">
+        <v>8678.83</v>
+      </c>
+      <c r="AB5">
+        <v>9503.620000000001</v>
+      </c>
+      <c r="AC5">
+        <v>9072.870000000001</v>
+      </c>
+      <c r="AD5">
+        <v>8296.9</v>
+      </c>
+      <c r="AE5">
+        <v>9251.360000000001</v>
+      </c>
+      <c r="AF5">
+        <v>9878.91</v>
+      </c>
+      <c r="AG5">
+        <v>10546.53</v>
+      </c>
+      <c r="AH5">
+        <v>10414.68</v>
+      </c>
+      <c r="AI5">
+        <v>10995.72</v>
+      </c>
+      <c r="AJ5">
+        <v>10299.05</v>
+      </c>
+      <c r="AK5">
+        <v>10168.96</v>
+      </c>
+      <c r="AL5">
+        <v>10992.11</v>
+      </c>
+      <c r="AM5">
+        <v>9677.389999999999</v>
+      </c>
+      <c r="AN5">
+        <v>3224.27</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:40">
+      <c r="A6" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B5">
-        <v>6381.4</v>
-      </c>
-      <c r="C5">
-        <v>6487.55</v>
-      </c>
-      <c r="D5">
-        <v>7568.59</v>
-      </c>
-      <c r="E5">
-        <v>6707.8</v>
-      </c>
-      <c r="F5">
-        <v>7340.13</v>
-      </c>
-      <c r="G5">
-        <v>7075.57</v>
-      </c>
-      <c r="H5">
-        <v>7021.54</v>
-      </c>
-      <c r="I5">
-        <v>6965.15</v>
-      </c>
-      <c r="J5">
-        <v>7580.34</v>
-      </c>
-      <c r="K5">
-        <v>8150.39</v>
-      </c>
-      <c r="L5">
-        <v>7577.15</v>
-      </c>
-      <c r="M5">
-        <v>7244.05</v>
-      </c>
-      <c r="N5">
-        <v>5872.07</v>
-      </c>
-      <c r="O5">
-        <v>7108.88</v>
-      </c>
-      <c r="P5">
-        <v>5868.83</v>
-      </c>
-      <c r="Q5">
-        <v>5540.31</v>
-      </c>
-      <c r="R5">
-        <v>7619.16</v>
-      </c>
-      <c r="S5">
-        <v>7097.89</v>
-      </c>
-      <c r="T5">
-        <v>7176.65</v>
-      </c>
-      <c r="U5">
-        <v>6532.64</v>
-      </c>
-      <c r="V5">
-        <v>8183.32</v>
-      </c>
-      <c r="W5">
-        <v>8755.870000000001</v>
-      </c>
-      <c r="X5">
-        <v>8301.6</v>
-      </c>
-      <c r="Y5">
-        <v>8302.83</v>
-      </c>
-      <c r="Z5">
-        <v>8395.389999999999</v>
-      </c>
-      <c r="AA5">
-        <v>8676.24</v>
-      </c>
-      <c r="AB5">
-        <v>9570.809999999999</v>
-      </c>
-      <c r="AC5">
-        <v>9144.629999999999</v>
-      </c>
-      <c r="AD5">
-        <v>8366.08</v>
-      </c>
-      <c r="AE5">
-        <v>9325.17</v>
-      </c>
-      <c r="AF5">
-        <v>9977.65</v>
-      </c>
-      <c r="AG5">
-        <v>10658</v>
-      </c>
-      <c r="AH5">
-        <v>10608.18</v>
-      </c>
-      <c r="AI5">
-        <v>11550.09</v>
-      </c>
-      <c r="AJ5">
-        <v>10490.75</v>
-      </c>
-      <c r="AK5">
-        <v>10238.1</v>
-      </c>
-      <c r="AL5">
-        <v>11917.11</v>
-      </c>
-      <c r="AM5">
-        <v>10489.76</v>
-      </c>
-      <c r="AN5">
-        <v>11189.26</v>
-      </c>
-      <c r="AO5">
-        <v>2138.93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41">
-      <c r="A6" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="B6">
         <v>4809.96</v>
@@ -1271,18 +1253,18 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:40">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>8830.35</v>
+        <v>8837.780000000001</v>
       </c>
       <c r="C7">
         <v>8328.540000000001</v>
       </c>
       <c r="D7">
-        <v>9778.35</v>
+        <v>9778.700000000001</v>
       </c>
       <c r="E7">
         <v>10460.03</v>
@@ -1345,305 +1327,296 @@
         <v>11595.28</v>
       </c>
       <c r="Y7">
-        <v>12478.99</v>
+        <v>12484.63</v>
       </c>
       <c r="Z7">
-        <v>10765.7</v>
+        <v>10771.52</v>
       </c>
       <c r="AA7">
-        <v>13466.75</v>
+        <v>13467.52</v>
       </c>
       <c r="AB7">
-        <v>12739.28</v>
+        <v>12733.17</v>
       </c>
       <c r="AC7">
-        <v>13021.58</v>
+        <v>13019.99</v>
       </c>
       <c r="AD7">
-        <v>12523.74</v>
+        <v>12527.3</v>
       </c>
       <c r="AE7">
-        <v>13671.84</v>
+        <v>13660.05</v>
       </c>
       <c r="AF7">
-        <v>15689.57</v>
+        <v>15688.45</v>
       </c>
       <c r="AG7">
-        <v>13804.26</v>
+        <v>13798.43</v>
       </c>
       <c r="AH7">
-        <v>12416.58</v>
+        <v>12407.19</v>
       </c>
       <c r="AI7">
-        <v>12686.19</v>
+        <v>12641.85</v>
       </c>
       <c r="AJ7">
-        <v>12167.36</v>
+        <v>12146.04</v>
       </c>
       <c r="AK7">
-        <v>8375.15</v>
+        <v>8353.01</v>
       </c>
       <c r="AL7">
-        <v>10401.1</v>
+        <v>10062.78</v>
       </c>
       <c r="AM7">
-        <v>10136.08</v>
+        <v>9383.309999999999</v>
       </c>
       <c r="AN7">
-        <v>11121.98</v>
-      </c>
-      <c r="AO7">
-        <v>2308.79</v>
+        <v>3491.48</v>
       </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:40">
       <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>6998.71</v>
+      </c>
+      <c r="C8">
+        <v>6905.11</v>
+      </c>
+      <c r="D8">
+        <v>7755.12</v>
+      </c>
+      <c r="E8">
+        <v>7786.05</v>
+      </c>
+      <c r="F8">
+        <v>8092.62</v>
+      </c>
+      <c r="G8">
+        <v>7214.71</v>
+      </c>
+      <c r="H8">
+        <v>7241.03</v>
+      </c>
+      <c r="I8">
+        <v>7663.21</v>
+      </c>
+      <c r="J8">
+        <v>7423.37</v>
+      </c>
+      <c r="K8">
+        <v>8687.040000000001</v>
+      </c>
+      <c r="L8">
+        <v>7503.95</v>
+      </c>
+      <c r="M8">
+        <v>7575.34</v>
+      </c>
+      <c r="N8">
+        <v>7171.6</v>
+      </c>
+      <c r="O8">
+        <v>7255.23</v>
+      </c>
+      <c r="P8">
+        <v>6636.96</v>
+      </c>
+      <c r="Q8">
+        <v>4705.53</v>
+      </c>
+      <c r="R8">
+        <v>6125.83</v>
+      </c>
+      <c r="S8">
+        <v>7548.75</v>
+      </c>
+      <c r="T8">
+        <v>8186.11</v>
+      </c>
+      <c r="U8">
+        <v>8026.32</v>
+      </c>
+      <c r="V8">
+        <v>8494.91</v>
+      </c>
+      <c r="W8">
+        <v>8865.75</v>
+      </c>
+      <c r="X8">
+        <v>8125.28</v>
+      </c>
+      <c r="Y8">
+        <v>8647.629999999999</v>
+      </c>
+      <c r="Z8">
+        <v>7642.68</v>
+      </c>
+      <c r="AA8">
+        <v>7673.72</v>
+      </c>
+      <c r="AB8">
+        <v>9272.48</v>
+      </c>
+      <c r="AC8">
+        <v>9317.620000000001</v>
+      </c>
+      <c r="AD8">
+        <v>9250.07</v>
+      </c>
+      <c r="AE8">
+        <v>9356.07</v>
+      </c>
+      <c r="AF8">
+        <v>9577</v>
+      </c>
+      <c r="AG8">
+        <v>9879.049999999999</v>
+      </c>
+      <c r="AH8">
+        <v>10152</v>
+      </c>
+      <c r="AI8">
+        <v>10284.42</v>
+      </c>
+      <c r="AJ8">
+        <v>10003.13</v>
+      </c>
+      <c r="AK8">
+        <v>9921.709999999999</v>
+      </c>
+      <c r="AL8">
+        <v>9181.629999999999</v>
+      </c>
+      <c r="AM8">
+        <v>8835.57</v>
+      </c>
+      <c r="AN8">
+        <v>2997.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B8">
-        <v>7101.82</v>
-      </c>
-      <c r="C8">
-        <v>6998</v>
-      </c>
-      <c r="D8">
-        <v>7868.06</v>
-      </c>
-      <c r="E8">
-        <v>7906.48</v>
-      </c>
-      <c r="F8">
-        <v>8217.790000000001</v>
-      </c>
-      <c r="G8">
-        <v>7326.87</v>
-      </c>
-      <c r="H8">
-        <v>7358.36</v>
-      </c>
-      <c r="I8">
-        <v>7788.47</v>
-      </c>
-      <c r="J8">
-        <v>7546.57</v>
-      </c>
-      <c r="K8">
-        <v>8822.99</v>
-      </c>
-      <c r="L8">
-        <v>7624.17</v>
-      </c>
-      <c r="M8">
-        <v>7702.89</v>
-      </c>
-      <c r="N8">
-        <v>7289.52</v>
-      </c>
-      <c r="O8">
-        <v>7379.76</v>
-      </c>
-      <c r="P8">
-        <v>6736.17</v>
-      </c>
-      <c r="Q8">
-        <v>4776.95</v>
-      </c>
-      <c r="R8">
-        <v>6239.64</v>
-      </c>
-      <c r="S8">
-        <v>7681.39</v>
-      </c>
-      <c r="T8">
-        <v>8321.76</v>
-      </c>
-      <c r="U8">
-        <v>8150.21</v>
-      </c>
-      <c r="V8">
-        <v>8636.219999999999</v>
-      </c>
-      <c r="W8">
-        <v>9024.370000000001</v>
-      </c>
-      <c r="X8">
-        <v>8260.9</v>
-      </c>
-      <c r="Y8">
-        <v>8780.75</v>
-      </c>
-      <c r="Z8">
-        <v>7772.8</v>
-      </c>
-      <c r="AA8">
-        <v>7806.38</v>
-      </c>
-      <c r="AB8">
-        <v>9429.940000000001</v>
-      </c>
-      <c r="AC8">
-        <v>9498.51</v>
-      </c>
-      <c r="AD8">
-        <v>9434.809999999999</v>
-      </c>
-      <c r="AE8">
-        <v>9569.82</v>
-      </c>
-      <c r="AF8">
-        <v>9766.940000000001</v>
-      </c>
-      <c r="AG8">
-        <v>10073.86</v>
-      </c>
-      <c r="AH8">
-        <v>10355.69</v>
-      </c>
-      <c r="AI8">
-        <v>10536.77</v>
-      </c>
-      <c r="AJ8">
-        <v>10311.14</v>
-      </c>
-      <c r="AK8">
-        <v>10454.42</v>
-      </c>
-      <c r="AL8">
-        <v>9685.41</v>
-      </c>
-      <c r="AM8">
-        <v>9557.49</v>
-      </c>
-      <c r="AN8">
-        <v>9797.370000000001</v>
-      </c>
-      <c r="AO8">
-        <v>1838.67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41">
-      <c r="A9" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="B9">
-        <v>6990.54</v>
+        <v>6890.49</v>
       </c>
       <c r="C9">
-        <v>6902.93</v>
+        <v>6796.06</v>
       </c>
       <c r="D9">
-        <v>6829.93</v>
+        <v>6724.21</v>
       </c>
       <c r="E9">
-        <v>8042.36</v>
+        <v>7920.06</v>
       </c>
       <c r="F9">
-        <v>9056.370000000001</v>
+        <v>8922.129999999999</v>
       </c>
       <c r="G9">
-        <v>7257.29</v>
+        <v>7149.49</v>
       </c>
       <c r="H9">
-        <v>8068.25</v>
+        <v>7945.65</v>
       </c>
       <c r="I9">
-        <v>8671.83</v>
+        <v>8543.540000000001</v>
       </c>
       <c r="J9">
-        <v>7267.66</v>
+        <v>7152.57</v>
       </c>
       <c r="K9">
-        <v>8329.549999999999</v>
+        <v>8200.870000000001</v>
       </c>
       <c r="L9">
-        <v>8245.059999999999</v>
+        <v>8115.57</v>
       </c>
       <c r="M9">
-        <v>6612.3</v>
+        <v>6515.83</v>
       </c>
       <c r="N9">
-        <v>5972.55</v>
+        <v>5886.41</v>
       </c>
       <c r="O9">
-        <v>8622.879999999999</v>
+        <v>8503.35</v>
       </c>
       <c r="P9">
-        <v>7020.88</v>
+        <v>6917.41</v>
       </c>
       <c r="Q9">
-        <v>5994.61</v>
+        <v>5905.53</v>
       </c>
       <c r="R9">
-        <v>7860.99</v>
+        <v>7746.65</v>
       </c>
       <c r="S9">
-        <v>7181.08</v>
+        <v>7081.8</v>
       </c>
       <c r="T9">
-        <v>8579.129999999999</v>
+        <v>8452.280000000001</v>
       </c>
       <c r="U9">
-        <v>9721.43</v>
+        <v>9581.93</v>
       </c>
       <c r="V9">
-        <v>10146.89</v>
+        <v>9995.34</v>
       </c>
       <c r="W9">
-        <v>10166.29</v>
+        <v>10023.9</v>
       </c>
       <c r="X9">
-        <v>8689.34</v>
+        <v>8565.889999999999</v>
       </c>
       <c r="Y9">
-        <v>8786.73</v>
+        <v>8650.9</v>
       </c>
       <c r="Z9">
-        <v>8128</v>
+        <v>8019.85</v>
       </c>
       <c r="AA9">
-        <v>6383.62</v>
+        <v>6288.15</v>
       </c>
       <c r="AB9">
-        <v>8374.84</v>
+        <v>8246.83</v>
       </c>
       <c r="AC9">
-        <v>9154.969999999999</v>
+        <v>9023.35</v>
       </c>
       <c r="AD9">
-        <v>9479.540000000001</v>
+        <v>9331.17</v>
       </c>
       <c r="AE9">
-        <v>9023.65</v>
+        <v>8858.76</v>
       </c>
       <c r="AF9">
-        <v>9082.459999999999</v>
+        <v>8940.129999999999</v>
       </c>
       <c r="AG9">
-        <v>9210.66</v>
+        <v>9046.799999999999</v>
       </c>
       <c r="AH9">
-        <v>9235.299999999999</v>
+        <v>9084.35</v>
       </c>
       <c r="AI9">
-        <v>9804.139999999999</v>
+        <v>9651.440000000001</v>
       </c>
       <c r="AJ9">
-        <v>12335.62</v>
+        <v>12061.49</v>
       </c>
       <c r="AK9">
-        <v>10651.42</v>
+        <v>10410.94</v>
       </c>
       <c r="AL9">
-        <v>9264.870000000001</v>
+        <v>8883.200000000001</v>
       </c>
       <c r="AM9">
-        <v>9751.799999999999</v>
+        <v>8941.75</v>
       </c>
       <c r="AN9">
-        <v>10209.64</v>
-      </c>
-      <c r="AO9">
-        <v>2661.31</v>
+        <v>3390.8</v>
       </c>
     </row>
   </sheetData>

--- a/mbrMoPvt_94.xlsx
+++ b/mbrMoPvt_94.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -136,13 +136,31 @@
     <t>m-2022-04</t>
   </si>
   <si>
-    <t>m-2022-05</t>
-  </si>
-  <si>
     <t>org_id</t>
   </si>
   <si>
-    <t>CARELINEPI</t>
+    <t>ADAUGEOPI</t>
+  </si>
+  <si>
+    <t>BLUEROCKDC</t>
+  </si>
+  <si>
+    <t>CANODCE</t>
+  </si>
+  <si>
+    <t>CITYBLOCKDCE</t>
+  </si>
+  <si>
+    <t>ELATIONDCE</t>
+  </si>
+  <si>
+    <t>ILUMEDPI</t>
+  </si>
+  <si>
+    <t>INTERMNTUTDC</t>
+  </si>
+  <si>
+    <t>LATITUDEDC</t>
   </si>
 </sst>
 </file>
@@ -500,15 +518,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP2"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -630,136 +648,1005 @@
       <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:41">
       <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>6149.13</v>
+      </c>
+      <c r="C2">
+        <v>5822.9</v>
+      </c>
+      <c r="D2">
+        <v>6439.68</v>
+      </c>
+      <c r="E2">
+        <v>7125.16</v>
+      </c>
+      <c r="F2">
+        <v>6851.35</v>
+      </c>
+      <c r="G2">
+        <v>6724.39</v>
+      </c>
+      <c r="H2">
+        <v>6812.96</v>
+      </c>
+      <c r="I2">
+        <v>7242.95</v>
+      </c>
+      <c r="J2">
+        <v>7603.81</v>
+      </c>
+      <c r="K2">
+        <v>7792.7</v>
+      </c>
+      <c r="L2">
+        <v>7443.04</v>
+      </c>
+      <c r="M2">
+        <v>6705.03</v>
+      </c>
+      <c r="N2">
+        <v>6684.69</v>
+      </c>
+      <c r="O2">
+        <v>6751.91</v>
+      </c>
+      <c r="P2">
+        <v>5638.49</v>
+      </c>
+      <c r="Q2">
+        <v>4241.49</v>
+      </c>
+      <c r="R2">
+        <v>5776.06</v>
+      </c>
+      <c r="S2">
+        <v>7476.47</v>
+      </c>
+      <c r="T2">
+        <v>6988.45</v>
+      </c>
+      <c r="U2">
+        <v>7160.4</v>
+      </c>
+      <c r="V2">
+        <v>7588.56</v>
+      </c>
+      <c r="W2">
+        <v>8213.26</v>
+      </c>
+      <c r="X2">
+        <v>7876.35</v>
+      </c>
+      <c r="Y2">
+        <v>7156.49</v>
+      </c>
+      <c r="Z2">
+        <v>7420.25</v>
+      </c>
+      <c r="AA2">
+        <v>6924.07</v>
+      </c>
+      <c r="AB2">
+        <v>8949.969999999999</v>
+      </c>
+      <c r="AC2">
+        <v>9158.42</v>
+      </c>
+      <c r="AD2">
+        <v>9441.469999999999</v>
+      </c>
+      <c r="AE2">
+        <v>9843.719999999999</v>
+      </c>
+      <c r="AF2">
+        <v>8839.290000000001</v>
+      </c>
+      <c r="AG2">
+        <v>9488.83</v>
+      </c>
+      <c r="AH2">
+        <v>9356.809999999999</v>
+      </c>
+      <c r="AI2">
+        <v>8881.379999999999</v>
+      </c>
+      <c r="AJ2">
+        <v>9019.49</v>
+      </c>
+      <c r="AK2">
+        <v>8396.34</v>
+      </c>
+      <c r="AL2">
+        <v>7820.27</v>
+      </c>
+      <c r="AM2">
+        <v>7551.9</v>
+      </c>
+      <c r="AN2">
+        <v>8378.5</v>
+      </c>
+      <c r="AO2">
+        <v>1505.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B2">
-        <v>13974.01</v>
-      </c>
-      <c r="C2">
-        <v>12885.68</v>
-      </c>
-      <c r="D2">
-        <v>20246.49</v>
-      </c>
-      <c r="E2">
-        <v>16975.63</v>
-      </c>
-      <c r="F2">
-        <v>16453.02</v>
-      </c>
-      <c r="G2">
-        <v>13145.22</v>
-      </c>
-      <c r="H2">
-        <v>13417.89</v>
-      </c>
-      <c r="I2">
-        <v>18181.17</v>
-      </c>
-      <c r="J2">
-        <v>15795.37</v>
-      </c>
-      <c r="K2">
-        <v>18753</v>
-      </c>
-      <c r="L2">
-        <v>17650.35</v>
-      </c>
-      <c r="M2">
-        <v>21418.47</v>
-      </c>
-      <c r="N2">
-        <v>19211.32</v>
-      </c>
-      <c r="O2">
-        <v>19875</v>
-      </c>
-      <c r="P2">
-        <v>14804.69</v>
-      </c>
-      <c r="Q2">
-        <v>13923.83</v>
-      </c>
-      <c r="R2">
-        <v>16748.98</v>
-      </c>
-      <c r="S2">
-        <v>18516.94</v>
-      </c>
-      <c r="T2">
-        <v>19963.57</v>
-      </c>
-      <c r="U2">
-        <v>22455.18</v>
-      </c>
-      <c r="V2">
-        <v>23555.57</v>
-      </c>
-      <c r="W2">
-        <v>23503.32</v>
-      </c>
-      <c r="X2">
-        <v>28318.61</v>
-      </c>
-      <c r="Y2">
-        <v>25357.61</v>
-      </c>
-      <c r="Z2">
-        <v>23318.47</v>
-      </c>
-      <c r="AA2">
-        <v>18967.65</v>
-      </c>
-      <c r="AB2">
-        <v>18817.61</v>
-      </c>
-      <c r="AC2">
-        <v>24103.5</v>
-      </c>
-      <c r="AD2">
-        <v>21633.59</v>
-      </c>
-      <c r="AE2">
-        <v>24299.32</v>
-      </c>
-      <c r="AF2">
-        <v>24377.61</v>
-      </c>
-      <c r="AG2">
-        <v>23985.31</v>
-      </c>
-      <c r="AH2">
-        <v>23000.49</v>
-      </c>
-      <c r="AI2">
-        <v>27271.79</v>
-      </c>
-      <c r="AJ2">
-        <v>22599.89</v>
-      </c>
-      <c r="AK2">
-        <v>27010.04</v>
-      </c>
-      <c r="AL2">
-        <v>22678.27</v>
-      </c>
-      <c r="AM2">
-        <v>20622.16</v>
-      </c>
-      <c r="AN2">
-        <v>22396.24</v>
-      </c>
-      <c r="AO2">
-        <v>2721.37</v>
-      </c>
-      <c r="AP2">
-        <v>12.76</v>
+      <c r="B3">
+        <v>7303.35</v>
+      </c>
+      <c r="C3">
+        <v>7844.75</v>
+      </c>
+      <c r="D3">
+        <v>8147.34</v>
+      </c>
+      <c r="E3">
+        <v>8213.85</v>
+      </c>
+      <c r="F3">
+        <v>11100.91</v>
+      </c>
+      <c r="G3">
+        <v>9223.41</v>
+      </c>
+      <c r="H3">
+        <v>8642.41</v>
+      </c>
+      <c r="I3">
+        <v>7812.17</v>
+      </c>
+      <c r="J3">
+        <v>6725.24</v>
+      </c>
+      <c r="K3">
+        <v>11948.53</v>
+      </c>
+      <c r="L3">
+        <v>10989.08</v>
+      </c>
+      <c r="M3">
+        <v>10583.73</v>
+      </c>
+      <c r="N3">
+        <v>9290.25</v>
+      </c>
+      <c r="O3">
+        <v>8667.99</v>
+      </c>
+      <c r="P3">
+        <v>6817.42</v>
+      </c>
+      <c r="Q3">
+        <v>4449.24</v>
+      </c>
+      <c r="R3">
+        <v>6980.07</v>
+      </c>
+      <c r="S3">
+        <v>7279.09</v>
+      </c>
+      <c r="T3">
+        <v>8234.27</v>
+      </c>
+      <c r="U3">
+        <v>11524.63</v>
+      </c>
+      <c r="V3">
+        <v>12280.53</v>
+      </c>
+      <c r="W3">
+        <v>12981.03</v>
+      </c>
+      <c r="X3">
+        <v>11307.01</v>
+      </c>
+      <c r="Y3">
+        <v>13459.7</v>
+      </c>
+      <c r="Z3">
+        <v>15066.7</v>
+      </c>
+      <c r="AA3">
+        <v>13581.38</v>
+      </c>
+      <c r="AB3">
+        <v>15372.07</v>
+      </c>
+      <c r="AC3">
+        <v>13353.07</v>
+      </c>
+      <c r="AD3">
+        <v>10699.03</v>
+      </c>
+      <c r="AE3">
+        <v>12031.74</v>
+      </c>
+      <c r="AF3">
+        <v>10748.57</v>
+      </c>
+      <c r="AG3">
+        <v>13821.48</v>
+      </c>
+      <c r="AH3">
+        <v>14620.33</v>
+      </c>
+      <c r="AI3">
+        <v>15190.7</v>
+      </c>
+      <c r="AJ3">
+        <v>14002.95</v>
+      </c>
+      <c r="AK3">
+        <v>14485.8</v>
+      </c>
+      <c r="AL3">
+        <v>14628.4</v>
+      </c>
+      <c r="AM3">
+        <v>13489.58</v>
+      </c>
+      <c r="AN3">
+        <v>15743.52</v>
+      </c>
+      <c r="AO3">
+        <v>3062.71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>7712.75</v>
+      </c>
+      <c r="C4">
+        <v>7706.79</v>
+      </c>
+      <c r="D4">
+        <v>8236.48</v>
+      </c>
+      <c r="E4">
+        <v>8472.030000000001</v>
+      </c>
+      <c r="F4">
+        <v>9105.110000000001</v>
+      </c>
+      <c r="G4">
+        <v>7946.33</v>
+      </c>
+      <c r="H4">
+        <v>8841.43</v>
+      </c>
+      <c r="I4">
+        <v>8690.690000000001</v>
+      </c>
+      <c r="J4">
+        <v>8126.59</v>
+      </c>
+      <c r="K4">
+        <v>9033.469999999999</v>
+      </c>
+      <c r="L4">
+        <v>8603.530000000001</v>
+      </c>
+      <c r="M4">
+        <v>8536.35</v>
+      </c>
+      <c r="N4">
+        <v>8650.48</v>
+      </c>
+      <c r="O4">
+        <v>8819.51</v>
+      </c>
+      <c r="P4">
+        <v>7584.23</v>
+      </c>
+      <c r="Q4">
+        <v>5293.11</v>
+      </c>
+      <c r="R4">
+        <v>7382.27</v>
+      </c>
+      <c r="S4">
+        <v>8785.629999999999</v>
+      </c>
+      <c r="T4">
+        <v>8826.48</v>
+      </c>
+      <c r="U4">
+        <v>8530.049999999999</v>
+      </c>
+      <c r="V4">
+        <v>9274.6</v>
+      </c>
+      <c r="W4">
+        <v>9959.51</v>
+      </c>
+      <c r="X4">
+        <v>9512.030000000001</v>
+      </c>
+      <c r="Y4">
+        <v>10170</v>
+      </c>
+      <c r="Z4">
+        <v>9270.84</v>
+      </c>
+      <c r="AA4">
+        <v>9434.610000000001</v>
+      </c>
+      <c r="AB4">
+        <v>10983.86</v>
+      </c>
+      <c r="AC4">
+        <v>11356.89</v>
+      </c>
+      <c r="AD4">
+        <v>10939.88</v>
+      </c>
+      <c r="AE4">
+        <v>11485.93</v>
+      </c>
+      <c r="AF4">
+        <v>11258.97</v>
+      </c>
+      <c r="AG4">
+        <v>11525.7</v>
+      </c>
+      <c r="AH4">
+        <v>11420.85</v>
+      </c>
+      <c r="AI4">
+        <v>12402.27</v>
+      </c>
+      <c r="AJ4">
+        <v>12664.25</v>
+      </c>
+      <c r="AK4">
+        <v>14001.11</v>
+      </c>
+      <c r="AL4">
+        <v>13829.03</v>
+      </c>
+      <c r="AM4">
+        <v>12597.79</v>
+      </c>
+      <c r="AN4">
+        <v>12948.64</v>
+      </c>
+      <c r="AO4">
+        <v>2441.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>6381.4</v>
+      </c>
+      <c r="C5">
+        <v>6487.55</v>
+      </c>
+      <c r="D5">
+        <v>7568.59</v>
+      </c>
+      <c r="E5">
+        <v>6707.8</v>
+      </c>
+      <c r="F5">
+        <v>7340.13</v>
+      </c>
+      <c r="G5">
+        <v>7075.57</v>
+      </c>
+      <c r="H5">
+        <v>7021.54</v>
+      </c>
+      <c r="I5">
+        <v>6965.15</v>
+      </c>
+      <c r="J5">
+        <v>7580.34</v>
+      </c>
+      <c r="K5">
+        <v>8150.39</v>
+      </c>
+      <c r="L5">
+        <v>7577.15</v>
+      </c>
+      <c r="M5">
+        <v>7244.05</v>
+      </c>
+      <c r="N5">
+        <v>5872.07</v>
+      </c>
+      <c r="O5">
+        <v>7108.88</v>
+      </c>
+      <c r="P5">
+        <v>5868.83</v>
+      </c>
+      <c r="Q5">
+        <v>5540.31</v>
+      </c>
+      <c r="R5">
+        <v>7619.16</v>
+      </c>
+      <c r="S5">
+        <v>7097.89</v>
+      </c>
+      <c r="T5">
+        <v>7176.65</v>
+      </c>
+      <c r="U5">
+        <v>6532.64</v>
+      </c>
+      <c r="V5">
+        <v>8183.32</v>
+      </c>
+      <c r="W5">
+        <v>8755.870000000001</v>
+      </c>
+      <c r="X5">
+        <v>8301.6</v>
+      </c>
+      <c r="Y5">
+        <v>8302.83</v>
+      </c>
+      <c r="Z5">
+        <v>8395.389999999999</v>
+      </c>
+      <c r="AA5">
+        <v>8676.24</v>
+      </c>
+      <c r="AB5">
+        <v>9570.809999999999</v>
+      </c>
+      <c r="AC5">
+        <v>9144.629999999999</v>
+      </c>
+      <c r="AD5">
+        <v>8366.08</v>
+      </c>
+      <c r="AE5">
+        <v>9325.17</v>
+      </c>
+      <c r="AF5">
+        <v>9977.65</v>
+      </c>
+      <c r="AG5">
+        <v>10658</v>
+      </c>
+      <c r="AH5">
+        <v>10608.18</v>
+      </c>
+      <c r="AI5">
+        <v>11550.09</v>
+      </c>
+      <c r="AJ5">
+        <v>10490.75</v>
+      </c>
+      <c r="AK5">
+        <v>10238.1</v>
+      </c>
+      <c r="AL5">
+        <v>11917.11</v>
+      </c>
+      <c r="AM5">
+        <v>10489.76</v>
+      </c>
+      <c r="AN5">
+        <v>11189.26</v>
+      </c>
+      <c r="AO5">
+        <v>2138.93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <v>4984.19</v>
+      </c>
+      <c r="C6">
+        <v>5136.92</v>
+      </c>
+      <c r="D6">
+        <v>5562.22</v>
+      </c>
+      <c r="E6">
+        <v>6619.68</v>
+      </c>
+      <c r="F6">
+        <v>6385.33</v>
+      </c>
+      <c r="G6">
+        <v>6271.76</v>
+      </c>
+      <c r="H6">
+        <v>5467.47</v>
+      </c>
+      <c r="I6">
+        <v>6605.09</v>
+      </c>
+      <c r="J6">
+        <v>5534.16</v>
+      </c>
+      <c r="K6">
+        <v>6842.39</v>
+      </c>
+      <c r="L6">
+        <v>6016.84</v>
+      </c>
+      <c r="M6">
+        <v>5811.99</v>
+      </c>
+      <c r="N6">
+        <v>5983.27</v>
+      </c>
+      <c r="O6">
+        <v>7081.29</v>
+      </c>
+      <c r="P6">
+        <v>5564.8</v>
+      </c>
+      <c r="Q6">
+        <v>3888.94</v>
+      </c>
+      <c r="R6">
+        <v>4914.27</v>
+      </c>
+      <c r="S6">
+        <v>5992.73</v>
+      </c>
+      <c r="T6">
+        <v>5845.28</v>
+      </c>
+      <c r="U6">
+        <v>5992.96</v>
+      </c>
+      <c r="V6">
+        <v>6400.39</v>
+      </c>
+      <c r="W6">
+        <v>6306.12</v>
+      </c>
+      <c r="X6">
+        <v>6016.43</v>
+      </c>
+      <c r="Y6">
+        <v>6161.93</v>
+      </c>
+      <c r="Z6">
+        <v>6638.47</v>
+      </c>
+      <c r="AA6">
+        <v>6027.92</v>
+      </c>
+      <c r="AB6">
+        <v>7799.25</v>
+      </c>
+      <c r="AC6">
+        <v>7643.9</v>
+      </c>
+      <c r="AD6">
+        <v>6686.12</v>
+      </c>
+      <c r="AE6">
+        <v>7190.08</v>
+      </c>
+      <c r="AF6">
+        <v>8153.05</v>
+      </c>
+      <c r="AG6">
+        <v>6878.83</v>
+      </c>
+      <c r="AH6">
+        <v>8885.83</v>
+      </c>
+      <c r="AI6">
+        <v>8638.790000000001</v>
+      </c>
+      <c r="AJ6">
+        <v>8256.35</v>
+      </c>
+      <c r="AK6">
+        <v>8207.51</v>
+      </c>
+      <c r="AL6">
+        <v>8350.129999999999</v>
+      </c>
+      <c r="AM6">
+        <v>8436.290000000001</v>
+      </c>
+      <c r="AN6">
+        <v>7511.06</v>
+      </c>
+      <c r="AO6">
+        <v>1888.84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>8830.35</v>
+      </c>
+      <c r="C7">
+        <v>8328.540000000001</v>
+      </c>
+      <c r="D7">
+        <v>9778.35</v>
+      </c>
+      <c r="E7">
+        <v>10460.03</v>
+      </c>
+      <c r="F7">
+        <v>9508.629999999999</v>
+      </c>
+      <c r="G7">
+        <v>10344.18</v>
+      </c>
+      <c r="H7">
+        <v>10213.22</v>
+      </c>
+      <c r="I7">
+        <v>9315.93</v>
+      </c>
+      <c r="J7">
+        <v>8085.17</v>
+      </c>
+      <c r="K7">
+        <v>12005.28</v>
+      </c>
+      <c r="L7">
+        <v>9004.879999999999</v>
+      </c>
+      <c r="M7">
+        <v>9624.040000000001</v>
+      </c>
+      <c r="N7">
+        <v>9898.809999999999</v>
+      </c>
+      <c r="O7">
+        <v>10062.66</v>
+      </c>
+      <c r="P7">
+        <v>9693.950000000001</v>
+      </c>
+      <c r="Q7">
+        <v>6679.43</v>
+      </c>
+      <c r="R7">
+        <v>8745.879999999999</v>
+      </c>
+      <c r="S7">
+        <v>10145.89</v>
+      </c>
+      <c r="T7">
+        <v>11274.67</v>
+      </c>
+      <c r="U7">
+        <v>10879.19</v>
+      </c>
+      <c r="V7">
+        <v>11163.03</v>
+      </c>
+      <c r="W7">
+        <v>12130.95</v>
+      </c>
+      <c r="X7">
+        <v>11595.28</v>
+      </c>
+      <c r="Y7">
+        <v>12478.99</v>
+      </c>
+      <c r="Z7">
+        <v>10765.7</v>
+      </c>
+      <c r="AA7">
+        <v>13466.75</v>
+      </c>
+      <c r="AB7">
+        <v>12739.28</v>
+      </c>
+      <c r="AC7">
+        <v>13021.58</v>
+      </c>
+      <c r="AD7">
+        <v>12523.74</v>
+      </c>
+      <c r="AE7">
+        <v>13671.84</v>
+      </c>
+      <c r="AF7">
+        <v>15689.57</v>
+      </c>
+      <c r="AG7">
+        <v>13804.26</v>
+      </c>
+      <c r="AH7">
+        <v>12416.58</v>
+      </c>
+      <c r="AI7">
+        <v>12686.19</v>
+      </c>
+      <c r="AJ7">
+        <v>12167.36</v>
+      </c>
+      <c r="AK7">
+        <v>8375.15</v>
+      </c>
+      <c r="AL7">
+        <v>10401.1</v>
+      </c>
+      <c r="AM7">
+        <v>10136.08</v>
+      </c>
+      <c r="AN7">
+        <v>11121.98</v>
+      </c>
+      <c r="AO7">
+        <v>2308.79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>7101.82</v>
+      </c>
+      <c r="C8">
+        <v>6998</v>
+      </c>
+      <c r="D8">
+        <v>7868.06</v>
+      </c>
+      <c r="E8">
+        <v>7906.48</v>
+      </c>
+      <c r="F8">
+        <v>8217.790000000001</v>
+      </c>
+      <c r="G8">
+        <v>7326.87</v>
+      </c>
+      <c r="H8">
+        <v>7358.36</v>
+      </c>
+      <c r="I8">
+        <v>7788.47</v>
+      </c>
+      <c r="J8">
+        <v>7546.57</v>
+      </c>
+      <c r="K8">
+        <v>8822.99</v>
+      </c>
+      <c r="L8">
+        <v>7624.17</v>
+      </c>
+      <c r="M8">
+        <v>7702.89</v>
+      </c>
+      <c r="N8">
+        <v>7289.52</v>
+      </c>
+      <c r="O8">
+        <v>7379.76</v>
+      </c>
+      <c r="P8">
+        <v>6736.17</v>
+      </c>
+      <c r="Q8">
+        <v>4776.95</v>
+      </c>
+      <c r="R8">
+        <v>6239.64</v>
+      </c>
+      <c r="S8">
+        <v>7681.39</v>
+      </c>
+      <c r="T8">
+        <v>8321.76</v>
+      </c>
+      <c r="U8">
+        <v>8150.21</v>
+      </c>
+      <c r="V8">
+        <v>8636.219999999999</v>
+      </c>
+      <c r="W8">
+        <v>9024.370000000001</v>
+      </c>
+      <c r="X8">
+        <v>8260.9</v>
+      </c>
+      <c r="Y8">
+        <v>8780.75</v>
+      </c>
+      <c r="Z8">
+        <v>7772.8</v>
+      </c>
+      <c r="AA8">
+        <v>7806.38</v>
+      </c>
+      <c r="AB8">
+        <v>9429.940000000001</v>
+      </c>
+      <c r="AC8">
+        <v>9498.51</v>
+      </c>
+      <c r="AD8">
+        <v>9434.809999999999</v>
+      </c>
+      <c r="AE8">
+        <v>9569.82</v>
+      </c>
+      <c r="AF8">
+        <v>9766.940000000001</v>
+      </c>
+      <c r="AG8">
+        <v>10073.86</v>
+      </c>
+      <c r="AH8">
+        <v>10355.69</v>
+      </c>
+      <c r="AI8">
+        <v>10536.77</v>
+      </c>
+      <c r="AJ8">
+        <v>10311.14</v>
+      </c>
+      <c r="AK8">
+        <v>10454.42</v>
+      </c>
+      <c r="AL8">
+        <v>9685.41</v>
+      </c>
+      <c r="AM8">
+        <v>9557.49</v>
+      </c>
+      <c r="AN8">
+        <v>9797.370000000001</v>
+      </c>
+      <c r="AO8">
+        <v>1838.67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>6990.54</v>
+      </c>
+      <c r="C9">
+        <v>6902.93</v>
+      </c>
+      <c r="D9">
+        <v>6829.93</v>
+      </c>
+      <c r="E9">
+        <v>8042.36</v>
+      </c>
+      <c r="F9">
+        <v>9056.370000000001</v>
+      </c>
+      <c r="G9">
+        <v>7257.29</v>
+      </c>
+      <c r="H9">
+        <v>8068.25</v>
+      </c>
+      <c r="I9">
+        <v>8671.83</v>
+      </c>
+      <c r="J9">
+        <v>7267.66</v>
+      </c>
+      <c r="K9">
+        <v>8329.549999999999</v>
+      </c>
+      <c r="L9">
+        <v>8245.059999999999</v>
+      </c>
+      <c r="M9">
+        <v>6612.3</v>
+      </c>
+      <c r="N9">
+        <v>5972.55</v>
+      </c>
+      <c r="O9">
+        <v>8622.879999999999</v>
+      </c>
+      <c r="P9">
+        <v>7020.88</v>
+      </c>
+      <c r="Q9">
+        <v>5994.61</v>
+      </c>
+      <c r="R9">
+        <v>7860.99</v>
+      </c>
+      <c r="S9">
+        <v>7181.08</v>
+      </c>
+      <c r="T9">
+        <v>8579.129999999999</v>
+      </c>
+      <c r="U9">
+        <v>9721.43</v>
+      </c>
+      <c r="V9">
+        <v>10146.89</v>
+      </c>
+      <c r="W9">
+        <v>10166.29</v>
+      </c>
+      <c r="X9">
+        <v>8689.34</v>
+      </c>
+      <c r="Y9">
+        <v>8786.73</v>
+      </c>
+      <c r="Z9">
+        <v>8128</v>
+      </c>
+      <c r="AA9">
+        <v>6383.62</v>
+      </c>
+      <c r="AB9">
+        <v>8374.84</v>
+      </c>
+      <c r="AC9">
+        <v>9154.969999999999</v>
+      </c>
+      <c r="AD9">
+        <v>9479.540000000001</v>
+      </c>
+      <c r="AE9">
+        <v>9023.65</v>
+      </c>
+      <c r="AF9">
+        <v>9082.459999999999</v>
+      </c>
+      <c r="AG9">
+        <v>9210.66</v>
+      </c>
+      <c r="AH9">
+        <v>9235.299999999999</v>
+      </c>
+      <c r="AI9">
+        <v>9804.139999999999</v>
+      </c>
+      <c r="AJ9">
+        <v>12335.62</v>
+      </c>
+      <c r="AK9">
+        <v>10651.42</v>
+      </c>
+      <c r="AL9">
+        <v>9264.870000000001</v>
+      </c>
+      <c r="AM9">
+        <v>9751.799999999999</v>
+      </c>
+      <c r="AN9">
+        <v>10209.64</v>
+      </c>
+      <c r="AO9">
+        <v>2661.31</v>
       </c>
     </row>
   </sheetData>

--- a/mbrMoPvt_94.xlsx
+++ b/mbrMoPvt_94.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -136,31 +136,61 @@
     <t>m-2022-04</t>
   </si>
   <si>
+    <t>m-2022-05</t>
+  </si>
+  <si>
+    <t>m-2022-06</t>
+  </si>
+  <si>
     <t>org_id</t>
   </si>
   <si>
-    <t>ADAUGEOPI</t>
-  </si>
-  <si>
-    <t>BLUEROCKDC</t>
-  </si>
-  <si>
-    <t>CANODCE</t>
-  </si>
-  <si>
-    <t>CITYBLOCKDCE</t>
-  </si>
-  <si>
-    <t>ELATIONDCE</t>
-  </si>
-  <si>
-    <t>ILUMEDPI</t>
-  </si>
-  <si>
-    <t>INTERMNTUTDC</t>
-  </si>
-  <si>
-    <t>LATITUDEDC</t>
+    <t>A1052</t>
+  </si>
+  <si>
+    <t>A2024</t>
+  </si>
+  <si>
+    <t>A2251</t>
+  </si>
+  <si>
+    <t>A2575</t>
+  </si>
+  <si>
+    <t>A2841</t>
+  </si>
+  <si>
+    <t>A3229</t>
+  </si>
+  <si>
+    <t>A3320</t>
+  </si>
+  <si>
+    <t>A3327</t>
+  </si>
+  <si>
+    <t>A3367</t>
+  </si>
+  <si>
+    <t>A3632</t>
+  </si>
+  <si>
+    <t>A3667</t>
+  </si>
+  <si>
+    <t>A3669</t>
+  </si>
+  <si>
+    <t>A3822</t>
+  </si>
+  <si>
+    <t>A4585</t>
+  </si>
+  <si>
+    <t>A4709</t>
+  </si>
+  <si>
+    <t>A4768</t>
   </si>
 </sst>
 </file>
@@ -518,15 +548,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AQ17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:43">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -648,1005 +678,2107 @@
       <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:43">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2">
-        <v>6149.13</v>
+        <v>9092.82</v>
       </c>
       <c r="C2">
-        <v>5822.9</v>
+        <v>9554.02</v>
       </c>
       <c r="D2">
-        <v>6439.68</v>
+        <v>11445.66</v>
       </c>
       <c r="E2">
-        <v>7125.16</v>
+        <v>10733.81</v>
       </c>
       <c r="F2">
-        <v>6851.35</v>
+        <v>11513.84</v>
       </c>
       <c r="G2">
-        <v>6724.39</v>
+        <v>10371.14</v>
       </c>
       <c r="H2">
-        <v>6812.96</v>
+        <v>10561.49</v>
       </c>
       <c r="I2">
-        <v>7242.95</v>
+        <v>11732.48</v>
       </c>
       <c r="J2">
-        <v>7603.81</v>
+        <v>9547.52</v>
       </c>
       <c r="K2">
-        <v>7792.7</v>
+        <v>9187</v>
       </c>
       <c r="L2">
-        <v>7443.04</v>
+        <v>8820.59</v>
       </c>
       <c r="M2">
-        <v>6705.03</v>
+        <v>8617.139999999999</v>
       </c>
       <c r="N2">
-        <v>6684.69</v>
+        <v>9356.389999999999</v>
       </c>
       <c r="O2">
-        <v>6751.91</v>
+        <v>9637.200000000001</v>
       </c>
       <c r="P2">
-        <v>5638.49</v>
+        <v>8082.31</v>
       </c>
       <c r="Q2">
-        <v>4241.49</v>
+        <v>7347.64</v>
       </c>
       <c r="R2">
-        <v>5776.06</v>
+        <v>8074.43</v>
       </c>
       <c r="S2">
-        <v>7476.47</v>
+        <v>9531.549999999999</v>
       </c>
       <c r="T2">
-        <v>6988.45</v>
+        <v>9690.370000000001</v>
       </c>
       <c r="U2">
-        <v>7160.4</v>
+        <v>10513.65</v>
       </c>
       <c r="V2">
-        <v>7588.56</v>
+        <v>9676.110000000001</v>
       </c>
       <c r="W2">
-        <v>8213.26</v>
+        <v>10265.22</v>
       </c>
       <c r="X2">
-        <v>7876.35</v>
+        <v>9277.82</v>
       </c>
       <c r="Y2">
-        <v>7156.49</v>
+        <v>10029.66</v>
       </c>
       <c r="Z2">
-        <v>7420.25</v>
+        <v>11284.04</v>
       </c>
       <c r="AA2">
-        <v>6924.07</v>
+        <v>9978.610000000001</v>
       </c>
       <c r="AB2">
-        <v>8949.969999999999</v>
+        <v>10689.74</v>
       </c>
       <c r="AC2">
-        <v>9158.42</v>
+        <v>10964.03</v>
       </c>
       <c r="AD2">
-        <v>9441.469999999999</v>
+        <v>11092.52</v>
       </c>
       <c r="AE2">
-        <v>9843.719999999999</v>
+        <v>11600.32</v>
       </c>
       <c r="AF2">
-        <v>8839.290000000001</v>
+        <v>10649.73</v>
       </c>
       <c r="AG2">
-        <v>9488.83</v>
+        <v>11450.35</v>
       </c>
       <c r="AH2">
-        <v>9356.809999999999</v>
+        <v>10775.37</v>
       </c>
       <c r="AI2">
-        <v>8881.379999999999</v>
+        <v>10745.53</v>
       </c>
       <c r="AJ2">
-        <v>9019.49</v>
+        <v>10955.43</v>
       </c>
       <c r="AK2">
-        <v>8396.34</v>
+        <v>11641.48</v>
       </c>
       <c r="AL2">
-        <v>7820.27</v>
+        <v>9580.57</v>
       </c>
       <c r="AM2">
-        <v>7551.9</v>
+        <v>9634.540000000001</v>
       </c>
       <c r="AN2">
-        <v>8378.5</v>
+        <v>10643.26</v>
       </c>
       <c r="AO2">
-        <v>1505.6</v>
+        <v>1909.06</v>
+      </c>
+      <c r="AP2">
+        <v>5.28</v>
+      </c>
+      <c r="AQ2">
+        <v>1.66</v>
       </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:43">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B3">
-        <v>7303.35</v>
+        <v>11900.98</v>
       </c>
       <c r="C3">
-        <v>7844.75</v>
+        <v>11282.14</v>
       </c>
       <c r="D3">
-        <v>8147.34</v>
+        <v>12177.29</v>
       </c>
       <c r="E3">
-        <v>8213.85</v>
+        <v>12517.13</v>
       </c>
       <c r="F3">
-        <v>11100.91</v>
+        <v>12944.83</v>
       </c>
       <c r="G3">
-        <v>9223.41</v>
+        <v>11722.85</v>
       </c>
       <c r="H3">
-        <v>8642.41</v>
+        <v>12054.52</v>
       </c>
       <c r="I3">
-        <v>7812.17</v>
+        <v>12094.52</v>
       </c>
       <c r="J3">
-        <v>6725.24</v>
+        <v>11595.52</v>
       </c>
       <c r="K3">
-        <v>11948.53</v>
+        <v>13440.73</v>
       </c>
       <c r="L3">
-        <v>10989.08</v>
+        <v>12185.06</v>
       </c>
       <c r="M3">
-        <v>10583.73</v>
+        <v>12122.07</v>
       </c>
       <c r="N3">
-        <v>9290.25</v>
+        <v>11845.72</v>
       </c>
       <c r="O3">
-        <v>8667.99</v>
+        <v>11493.04</v>
       </c>
       <c r="P3">
-        <v>6817.42</v>
+        <v>9778.83</v>
       </c>
       <c r="Q3">
-        <v>4449.24</v>
+        <v>7436.08</v>
       </c>
       <c r="R3">
-        <v>6980.07</v>
+        <v>8699.17</v>
       </c>
       <c r="S3">
-        <v>7279.09</v>
+        <v>10523.82</v>
       </c>
       <c r="T3">
-        <v>8234.27</v>
+        <v>11353.67</v>
       </c>
       <c r="U3">
-        <v>11524.63</v>
+        <v>11059.94</v>
       </c>
       <c r="V3">
-        <v>12280.53</v>
+        <v>11583.83</v>
       </c>
       <c r="W3">
-        <v>12981.03</v>
+        <v>12404.9</v>
       </c>
       <c r="X3">
-        <v>11307.01</v>
+        <v>11342.25</v>
       </c>
       <c r="Y3">
-        <v>13459.7</v>
+        <v>12012.65</v>
       </c>
       <c r="Z3">
-        <v>15066.7</v>
+        <v>10987.33</v>
       </c>
       <c r="AA3">
-        <v>13581.38</v>
+        <v>10358.86</v>
       </c>
       <c r="AB3">
-        <v>15372.07</v>
+        <v>12223.16</v>
       </c>
       <c r="AC3">
-        <v>13353.07</v>
+        <v>12330.64</v>
       </c>
       <c r="AD3">
-        <v>10699.03</v>
+        <v>12012.38</v>
       </c>
       <c r="AE3">
-        <v>12031.74</v>
+        <v>12343.98</v>
       </c>
       <c r="AF3">
-        <v>10748.57</v>
+        <v>11631.25</v>
       </c>
       <c r="AG3">
-        <v>13821.48</v>
+        <v>11727.31</v>
       </c>
       <c r="AH3">
-        <v>14620.33</v>
+        <v>12292.09</v>
       </c>
       <c r="AI3">
-        <v>15190.7</v>
+        <v>12740.93</v>
       </c>
       <c r="AJ3">
-        <v>14002.95</v>
+        <v>12342.8</v>
       </c>
       <c r="AK3">
-        <v>14485.8</v>
+        <v>12185.34</v>
       </c>
       <c r="AL3">
-        <v>14628.4</v>
+        <v>10741.02</v>
       </c>
       <c r="AM3">
-        <v>13489.58</v>
+        <v>11077.87</v>
       </c>
       <c r="AN3">
-        <v>15743.52</v>
+        <v>11655.8</v>
       </c>
       <c r="AO3">
-        <v>3062.71</v>
+        <v>2590.76</v>
+      </c>
+      <c r="AP3">
+        <v>5.05</v>
+      </c>
+      <c r="AQ3">
+        <v>3.75</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:43">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4">
-        <v>7712.75</v>
+        <v>10264.04</v>
       </c>
       <c r="C4">
-        <v>7706.79</v>
+        <v>10282.45</v>
       </c>
       <c r="D4">
-        <v>8236.48</v>
+        <v>11441.44</v>
       </c>
       <c r="E4">
-        <v>8472.030000000001</v>
+        <v>10952.85</v>
       </c>
       <c r="F4">
-        <v>9105.110000000001</v>
+        <v>11524.37</v>
       </c>
       <c r="G4">
-        <v>7946.33</v>
+        <v>10696.76</v>
       </c>
       <c r="H4">
-        <v>8841.43</v>
+        <v>10422.17</v>
       </c>
       <c r="I4">
-        <v>8690.690000000001</v>
+        <v>10504.95</v>
       </c>
       <c r="J4">
-        <v>8126.59</v>
+        <v>10492.2</v>
       </c>
       <c r="K4">
-        <v>9033.469999999999</v>
+        <v>11445.44</v>
       </c>
       <c r="L4">
-        <v>8603.530000000001</v>
+        <v>10268.67</v>
       </c>
       <c r="M4">
-        <v>8536.35</v>
+        <v>10397.33</v>
       </c>
       <c r="N4">
-        <v>8650.48</v>
+        <v>10369.2</v>
       </c>
       <c r="O4">
-        <v>8819.51</v>
+        <v>10795.76</v>
       </c>
       <c r="P4">
-        <v>7584.23</v>
+        <v>9707.200000000001</v>
       </c>
       <c r="Q4">
-        <v>5293.11</v>
+        <v>7551.21</v>
       </c>
       <c r="R4">
-        <v>7382.27</v>
+        <v>8519.5</v>
       </c>
       <c r="S4">
-        <v>8785.629999999999</v>
+        <v>9812.690000000001</v>
       </c>
       <c r="T4">
-        <v>8826.48</v>
+        <v>10760.9</v>
       </c>
       <c r="U4">
-        <v>8530.049999999999</v>
+        <v>10145.68</v>
       </c>
       <c r="V4">
-        <v>9274.6</v>
+        <v>10661.37</v>
       </c>
       <c r="W4">
-        <v>9959.51</v>
+        <v>11053.39</v>
       </c>
       <c r="X4">
-        <v>9512.030000000001</v>
+        <v>10186.3</v>
       </c>
       <c r="Y4">
-        <v>10170</v>
+        <v>11337.61</v>
       </c>
       <c r="Z4">
-        <v>9270.84</v>
+        <v>9644.809999999999</v>
       </c>
       <c r="AA4">
-        <v>9434.610000000001</v>
+        <v>9929.99</v>
       </c>
       <c r="AB4">
-        <v>10983.86</v>
+        <v>11265.45</v>
       </c>
       <c r="AC4">
-        <v>11356.89</v>
+        <v>11275.46</v>
       </c>
       <c r="AD4">
-        <v>10939.88</v>
+        <v>10431</v>
       </c>
       <c r="AE4">
-        <v>11485.93</v>
+        <v>10989.13</v>
       </c>
       <c r="AF4">
-        <v>11258.97</v>
+        <v>11063.71</v>
       </c>
       <c r="AG4">
-        <v>11525.7</v>
+        <v>11099.13</v>
       </c>
       <c r="AH4">
-        <v>11420.85</v>
+        <v>10981.48</v>
       </c>
       <c r="AI4">
-        <v>12402.27</v>
+        <v>10885.29</v>
       </c>
       <c r="AJ4">
-        <v>12664.25</v>
+        <v>8776.68</v>
       </c>
       <c r="AK4">
-        <v>14001.11</v>
+        <v>8932.219999999999</v>
       </c>
       <c r="AL4">
-        <v>13829.03</v>
+        <v>9310.33</v>
       </c>
       <c r="AM4">
-        <v>12597.79</v>
+        <v>9450.870000000001</v>
       </c>
       <c r="AN4">
-        <v>12948.64</v>
+        <v>10179.48</v>
       </c>
       <c r="AO4">
-        <v>2441.01</v>
+        <v>2269.86</v>
+      </c>
+      <c r="AP4">
+        <v>3.15</v>
+      </c>
+      <c r="AQ4">
+        <v>2.1</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:43">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B5">
-        <v>6381.4</v>
+        <v>9974.08</v>
       </c>
       <c r="C5">
-        <v>6487.55</v>
+        <v>9817.040000000001</v>
       </c>
       <c r="D5">
-        <v>7568.59</v>
+        <v>10495.34</v>
       </c>
       <c r="E5">
-        <v>6707.8</v>
+        <v>10613.93</v>
       </c>
       <c r="F5">
-        <v>7340.13</v>
+        <v>10876.08</v>
       </c>
       <c r="G5">
-        <v>7075.57</v>
+        <v>9834.530000000001</v>
       </c>
       <c r="H5">
-        <v>7021.54</v>
+        <v>10443.47</v>
       </c>
       <c r="I5">
-        <v>6965.15</v>
+        <v>10825.7</v>
       </c>
       <c r="J5">
-        <v>7580.34</v>
+        <v>9861.030000000001</v>
       </c>
       <c r="K5">
-        <v>8150.39</v>
+        <v>11362.21</v>
       </c>
       <c r="L5">
-        <v>7577.15</v>
+        <v>8893.4</v>
       </c>
       <c r="M5">
-        <v>7244.05</v>
+        <v>9748.950000000001</v>
       </c>
       <c r="N5">
-        <v>5872.07</v>
+        <v>9746.129999999999</v>
       </c>
       <c r="O5">
-        <v>7108.88</v>
+        <v>9760.01</v>
       </c>
       <c r="P5">
-        <v>5868.83</v>
+        <v>8892.299999999999</v>
       </c>
       <c r="Q5">
-        <v>5540.31</v>
+        <v>7189.44</v>
       </c>
       <c r="R5">
-        <v>7619.16</v>
+        <v>8955.389999999999</v>
       </c>
       <c r="S5">
-        <v>7097.89</v>
+        <v>10323.32</v>
       </c>
       <c r="T5">
-        <v>7176.65</v>
+        <v>10642.93</v>
       </c>
       <c r="U5">
-        <v>6532.64</v>
+        <v>10384.03</v>
       </c>
       <c r="V5">
-        <v>8183.32</v>
+        <v>10820.8</v>
       </c>
       <c r="W5">
-        <v>8755.870000000001</v>
+        <v>11103.95</v>
       </c>
       <c r="X5">
-        <v>8301.6</v>
+        <v>9979.35</v>
       </c>
       <c r="Y5">
-        <v>8302.83</v>
+        <v>11309.17</v>
       </c>
       <c r="Z5">
-        <v>8395.389999999999</v>
+        <v>10843.38</v>
       </c>
       <c r="AA5">
-        <v>8676.24</v>
+        <v>10269</v>
       </c>
       <c r="AB5">
-        <v>9570.809999999999</v>
+        <v>11959.15</v>
       </c>
       <c r="AC5">
-        <v>9144.629999999999</v>
+        <v>10979.09</v>
       </c>
       <c r="AD5">
-        <v>8366.08</v>
+        <v>10770.52</v>
       </c>
       <c r="AE5">
-        <v>9325.17</v>
+        <v>10903.39</v>
       </c>
       <c r="AF5">
-        <v>9977.65</v>
+        <v>10938.55</v>
       </c>
       <c r="AG5">
-        <v>10658</v>
+        <v>11279.01</v>
       </c>
       <c r="AH5">
-        <v>10608.18</v>
+        <v>11293.38</v>
       </c>
       <c r="AI5">
-        <v>11550.09</v>
+        <v>11445.64</v>
       </c>
       <c r="AJ5">
-        <v>10490.75</v>
+        <v>10941.22</v>
       </c>
       <c r="AK5">
-        <v>10238.1</v>
+        <v>10822.39</v>
       </c>
       <c r="AL5">
-        <v>11917.11</v>
+        <v>9496.360000000001</v>
       </c>
       <c r="AM5">
-        <v>10489.76</v>
+        <v>9835.5</v>
       </c>
       <c r="AN5">
-        <v>11189.26</v>
+        <v>10385.32</v>
       </c>
       <c r="AO5">
-        <v>2138.93</v>
+        <v>2266.44</v>
+      </c>
+      <c r="AP5">
+        <v>4.08</v>
+      </c>
+      <c r="AQ5">
+        <v>3.06</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:43">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B6">
-        <v>4984.19</v>
+        <v>9618.35</v>
       </c>
       <c r="C6">
-        <v>5136.92</v>
+        <v>9079.57</v>
       </c>
       <c r="D6">
-        <v>5562.22</v>
+        <v>10338.84</v>
       </c>
       <c r="E6">
-        <v>6619.68</v>
+        <v>9888.17</v>
       </c>
       <c r="F6">
-        <v>6385.33</v>
+        <v>10322.16</v>
       </c>
       <c r="G6">
-        <v>6271.76</v>
+        <v>9182.440000000001</v>
       </c>
       <c r="H6">
-        <v>5467.47</v>
+        <v>10245.92</v>
       </c>
       <c r="I6">
-        <v>6605.09</v>
+        <v>9962.82</v>
       </c>
       <c r="J6">
-        <v>5534.16</v>
+        <v>9548.129999999999</v>
       </c>
       <c r="K6">
-        <v>6842.39</v>
+        <v>11600.13</v>
       </c>
       <c r="L6">
-        <v>6016.84</v>
+        <v>8187.84</v>
       </c>
       <c r="M6">
-        <v>5811.99</v>
+        <v>9001</v>
       </c>
       <c r="N6">
-        <v>5983.27</v>
+        <v>9281.18</v>
       </c>
       <c r="O6">
-        <v>7081.29</v>
+        <v>9389.530000000001</v>
       </c>
       <c r="P6">
-        <v>5564.8</v>
+        <v>9148.65</v>
       </c>
       <c r="Q6">
-        <v>3888.94</v>
+        <v>7108.26</v>
       </c>
       <c r="R6">
-        <v>4914.27</v>
+        <v>8211.9</v>
       </c>
       <c r="S6">
-        <v>5992.73</v>
+        <v>9702.049999999999</v>
       </c>
       <c r="T6">
-        <v>5845.28</v>
+        <v>10188.58</v>
       </c>
       <c r="U6">
-        <v>5992.96</v>
+        <v>11201.03</v>
       </c>
       <c r="V6">
-        <v>6400.39</v>
+        <v>10418.15</v>
       </c>
       <c r="W6">
-        <v>6306.12</v>
+        <v>10189.16</v>
       </c>
       <c r="X6">
-        <v>6016.43</v>
+        <v>9487.91</v>
       </c>
       <c r="Y6">
-        <v>6161.93</v>
+        <v>9818.65</v>
       </c>
       <c r="Z6">
-        <v>6638.47</v>
+        <v>9513.68</v>
       </c>
       <c r="AA6">
-        <v>6027.92</v>
+        <v>10518.97</v>
       </c>
       <c r="AB6">
-        <v>7799.25</v>
+        <v>11927.88</v>
       </c>
       <c r="AC6">
-        <v>7643.9</v>
+        <v>9829.98</v>
       </c>
       <c r="AD6">
-        <v>6686.12</v>
+        <v>9585.030000000001</v>
       </c>
       <c r="AE6">
-        <v>7190.08</v>
+        <v>9905.91</v>
       </c>
       <c r="AF6">
-        <v>8153.05</v>
+        <v>10407.3</v>
       </c>
       <c r="AG6">
-        <v>6878.83</v>
+        <v>9659.18</v>
       </c>
       <c r="AH6">
-        <v>8885.83</v>
+        <v>9345.66</v>
       </c>
       <c r="AI6">
-        <v>8638.790000000001</v>
+        <v>10725.31</v>
       </c>
       <c r="AJ6">
-        <v>8256.35</v>
+        <v>10536.48</v>
       </c>
       <c r="AK6">
-        <v>8207.51</v>
+        <v>10331.44</v>
       </c>
       <c r="AL6">
-        <v>8350.129999999999</v>
+        <v>10664.71</v>
       </c>
       <c r="AM6">
-        <v>8436.290000000001</v>
+        <v>10875.36</v>
       </c>
       <c r="AN6">
-        <v>7511.06</v>
+        <v>11335.67</v>
       </c>
       <c r="AO6">
-        <v>1888.84</v>
+        <v>2127.06</v>
+      </c>
+      <c r="AP6">
+        <v>3.25</v>
+      </c>
+      <c r="AQ6">
+        <v>2.74</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:43">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B7">
-        <v>8830.35</v>
+        <v>9478.67</v>
       </c>
       <c r="C7">
-        <v>8328.540000000001</v>
+        <v>9220.25</v>
       </c>
       <c r="D7">
-        <v>9778.35</v>
+        <v>9979.370000000001</v>
       </c>
       <c r="E7">
-        <v>10460.03</v>
+        <v>10794.53</v>
       </c>
       <c r="F7">
-        <v>9508.629999999999</v>
+        <v>11105.94</v>
       </c>
       <c r="G7">
-        <v>10344.18</v>
+        <v>10088.36</v>
       </c>
       <c r="H7">
-        <v>10213.22</v>
+        <v>10314.84</v>
       </c>
       <c r="I7">
-        <v>9315.93</v>
+        <v>10926.78</v>
       </c>
       <c r="J7">
-        <v>8085.17</v>
+        <v>10312.97</v>
       </c>
       <c r="K7">
-        <v>12005.28</v>
+        <v>10079.05</v>
       </c>
       <c r="L7">
-        <v>9004.879999999999</v>
+        <v>9181.950000000001</v>
       </c>
       <c r="M7">
-        <v>9624.040000000001</v>
+        <v>9439.16</v>
       </c>
       <c r="N7">
-        <v>9898.809999999999</v>
+        <v>9745.950000000001</v>
       </c>
       <c r="O7">
-        <v>10062.66</v>
+        <v>9920.360000000001</v>
       </c>
       <c r="P7">
-        <v>9693.950000000001</v>
+        <v>8846.780000000001</v>
       </c>
       <c r="Q7">
-        <v>6679.43</v>
+        <v>6762.35</v>
       </c>
       <c r="R7">
-        <v>8745.879999999999</v>
+        <v>8852.790000000001</v>
       </c>
       <c r="S7">
-        <v>10145.89</v>
+        <v>10354.4</v>
       </c>
       <c r="T7">
-        <v>11274.67</v>
+        <v>9874.280000000001</v>
       </c>
       <c r="U7">
-        <v>10879.19</v>
+        <v>9961.190000000001</v>
       </c>
       <c r="V7">
-        <v>11163.03</v>
+        <v>10356.73</v>
       </c>
       <c r="W7">
-        <v>12130.95</v>
+        <v>10972.69</v>
       </c>
       <c r="X7">
-        <v>11595.28</v>
+        <v>10048.69</v>
       </c>
       <c r="Y7">
-        <v>12478.99</v>
+        <v>11196.24</v>
       </c>
       <c r="Z7">
-        <v>10765.7</v>
+        <v>9294.120000000001</v>
       </c>
       <c r="AA7">
-        <v>13466.75</v>
+        <v>9889.41</v>
       </c>
       <c r="AB7">
-        <v>12739.28</v>
+        <v>10847.9</v>
       </c>
       <c r="AC7">
-        <v>13021.58</v>
+        <v>10684.84</v>
       </c>
       <c r="AD7">
-        <v>12523.74</v>
+        <v>10358.79</v>
       </c>
       <c r="AE7">
-        <v>13671.84</v>
+        <v>10553.92</v>
       </c>
       <c r="AF7">
-        <v>15689.57</v>
+        <v>9836.700000000001</v>
       </c>
       <c r="AG7">
-        <v>13804.26</v>
+        <v>10973.44</v>
       </c>
       <c r="AH7">
-        <v>12416.58</v>
+        <v>10768.12</v>
       </c>
       <c r="AI7">
-        <v>12686.19</v>
+        <v>10543.01</v>
       </c>
       <c r="AJ7">
-        <v>12167.36</v>
+        <v>8443.23</v>
       </c>
       <c r="AK7">
-        <v>8375.15</v>
+        <v>8076.2</v>
       </c>
       <c r="AL7">
-        <v>10401.1</v>
+        <v>9398.93</v>
       </c>
       <c r="AM7">
-        <v>10136.08</v>
+        <v>9621.74</v>
       </c>
       <c r="AN7">
-        <v>11121.98</v>
+        <v>10216</v>
       </c>
       <c r="AO7">
-        <v>2308.79</v>
+        <v>2746.36</v>
+      </c>
+      <c r="AP7">
+        <v>4.17</v>
+      </c>
+      <c r="AQ7">
+        <v>2.53</v>
       </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:43">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B8">
-        <v>7101.82</v>
+        <v>12493.29</v>
       </c>
       <c r="C8">
-        <v>6998</v>
+        <v>12566.19</v>
       </c>
       <c r="D8">
-        <v>7868.06</v>
+        <v>12984.5</v>
       </c>
       <c r="E8">
-        <v>7906.48</v>
+        <v>14491.28</v>
       </c>
       <c r="F8">
-        <v>8217.790000000001</v>
+        <v>13962.14</v>
       </c>
       <c r="G8">
-        <v>7326.87</v>
+        <v>12507.13</v>
       </c>
       <c r="H8">
-        <v>7358.36</v>
+        <v>13016.98</v>
       </c>
       <c r="I8">
-        <v>7788.47</v>
+        <v>12875.6</v>
       </c>
       <c r="J8">
-        <v>7546.57</v>
+        <v>12294.87</v>
       </c>
       <c r="K8">
-        <v>8822.99</v>
+        <v>13329.04</v>
       </c>
       <c r="L8">
-        <v>7624.17</v>
+        <v>12803.09</v>
       </c>
       <c r="M8">
-        <v>7702.89</v>
+        <v>13535.56</v>
       </c>
       <c r="N8">
-        <v>7289.52</v>
+        <v>13371.29</v>
       </c>
       <c r="O8">
-        <v>7379.76</v>
+        <v>12884.79</v>
       </c>
       <c r="P8">
-        <v>6736.17</v>
+        <v>12317.88</v>
       </c>
       <c r="Q8">
-        <v>4776.95</v>
+        <v>8868.049999999999</v>
       </c>
       <c r="R8">
-        <v>6239.64</v>
+        <v>11609.71</v>
       </c>
       <c r="S8">
-        <v>7681.39</v>
+        <v>13081.8</v>
       </c>
       <c r="T8">
-        <v>8321.76</v>
+        <v>13672.48</v>
       </c>
       <c r="U8">
-        <v>8150.21</v>
+        <v>13602.62</v>
       </c>
       <c r="V8">
-        <v>8636.219999999999</v>
+        <v>13381.29</v>
       </c>
       <c r="W8">
-        <v>9024.370000000001</v>
+        <v>14188.12</v>
       </c>
       <c r="X8">
-        <v>8260.9</v>
+        <v>14723.67</v>
       </c>
       <c r="Y8">
-        <v>8780.75</v>
+        <v>15363.78</v>
       </c>
       <c r="Z8">
-        <v>7772.8</v>
+        <v>12390.87</v>
       </c>
       <c r="AA8">
-        <v>7806.38</v>
+        <v>11432.76</v>
       </c>
       <c r="AB8">
-        <v>9429.940000000001</v>
+        <v>13523.53</v>
       </c>
       <c r="AC8">
-        <v>9498.51</v>
+        <v>13650.88</v>
       </c>
       <c r="AD8">
-        <v>9434.809999999999</v>
+        <v>13553.52</v>
       </c>
       <c r="AE8">
-        <v>9569.82</v>
+        <v>13217.77</v>
       </c>
       <c r="AF8">
-        <v>9766.940000000001</v>
+        <v>13803.69</v>
       </c>
       <c r="AG8">
-        <v>10073.86</v>
+        <v>14100.69</v>
       </c>
       <c r="AH8">
-        <v>10355.69</v>
+        <v>13580.64</v>
       </c>
       <c r="AI8">
-        <v>10536.77</v>
+        <v>13075.22</v>
       </c>
       <c r="AJ8">
-        <v>10311.14</v>
+        <v>13048.88</v>
       </c>
       <c r="AK8">
-        <v>10454.42</v>
+        <v>13286.8</v>
       </c>
       <c r="AL8">
-        <v>9685.41</v>
+        <v>13832.66</v>
       </c>
       <c r="AM8">
-        <v>9557.49</v>
+        <v>12332.3</v>
       </c>
       <c r="AN8">
-        <v>9797.370000000001</v>
+        <v>12377.86</v>
       </c>
       <c r="AO8">
-        <v>1838.67</v>
+        <v>1838.81</v>
+      </c>
+      <c r="AP8">
+        <v>6.65</v>
+      </c>
+      <c r="AQ8">
+        <v>2.95</v>
       </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:43">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B9">
-        <v>6990.54</v>
+        <v>14016.74</v>
       </c>
       <c r="C9">
-        <v>6902.93</v>
+        <v>12631.65</v>
       </c>
       <c r="D9">
-        <v>6829.93</v>
+        <v>14525.89</v>
       </c>
       <c r="E9">
-        <v>8042.36</v>
+        <v>14108.57</v>
       </c>
       <c r="F9">
-        <v>9056.370000000001</v>
+        <v>15524.23</v>
       </c>
       <c r="G9">
-        <v>7257.29</v>
+        <v>13282.77</v>
       </c>
       <c r="H9">
-        <v>8068.25</v>
+        <v>16169.82</v>
       </c>
       <c r="I9">
-        <v>8671.83</v>
+        <v>15198.14</v>
       </c>
       <c r="J9">
-        <v>7267.66</v>
+        <v>14719.21</v>
       </c>
       <c r="K9">
-        <v>8329.549999999999</v>
+        <v>16870.93</v>
       </c>
       <c r="L9">
-        <v>8245.059999999999</v>
+        <v>15409.84</v>
       </c>
       <c r="M9">
-        <v>6612.3</v>
+        <v>15724.95</v>
       </c>
       <c r="N9">
-        <v>5972.55</v>
+        <v>15625.91</v>
       </c>
       <c r="O9">
-        <v>8622.879999999999</v>
+        <v>14809.15</v>
       </c>
       <c r="P9">
-        <v>7020.88</v>
+        <v>13304.14</v>
       </c>
       <c r="Q9">
-        <v>5994.61</v>
+        <v>10667.75</v>
       </c>
       <c r="R9">
-        <v>7860.99</v>
+        <v>11390.99</v>
       </c>
       <c r="S9">
-        <v>7181.08</v>
+        <v>13780.22</v>
       </c>
       <c r="T9">
-        <v>8579.129999999999</v>
+        <v>14888.8</v>
       </c>
       <c r="U9">
-        <v>9721.43</v>
+        <v>14548.97</v>
       </c>
       <c r="V9">
-        <v>10146.89</v>
+        <v>15449.72</v>
       </c>
       <c r="W9">
-        <v>10166.29</v>
+        <v>16799.33</v>
       </c>
       <c r="X9">
-        <v>8689.34</v>
+        <v>14915.03</v>
       </c>
       <c r="Y9">
-        <v>8786.73</v>
+        <v>15617.54</v>
       </c>
       <c r="Z9">
-        <v>8128</v>
+        <v>15433.62</v>
       </c>
       <c r="AA9">
-        <v>6383.62</v>
+        <v>14635.1</v>
       </c>
       <c r="AB9">
-        <v>8374.84</v>
+        <v>18221.56</v>
       </c>
       <c r="AC9">
-        <v>9154.969999999999</v>
+        <v>17659.18</v>
       </c>
       <c r="AD9">
-        <v>9479.540000000001</v>
+        <v>16579.15</v>
       </c>
       <c r="AE9">
-        <v>9023.65</v>
+        <v>17526.24</v>
       </c>
       <c r="AF9">
-        <v>9082.459999999999</v>
+        <v>16993.4</v>
       </c>
       <c r="AG9">
-        <v>9210.66</v>
+        <v>16277.91</v>
       </c>
       <c r="AH9">
-        <v>9235.299999999999</v>
+        <v>17016.61</v>
       </c>
       <c r="AI9">
-        <v>9804.139999999999</v>
+        <v>17602.45</v>
       </c>
       <c r="AJ9">
-        <v>12335.62</v>
+        <v>17556.03</v>
       </c>
       <c r="AK9">
-        <v>10651.42</v>
+        <v>16915.33</v>
       </c>
       <c r="AL9">
-        <v>9264.870000000001</v>
+        <v>16252.34</v>
       </c>
       <c r="AM9">
-        <v>9751.799999999999</v>
+        <v>15452.37</v>
       </c>
       <c r="AN9">
-        <v>10209.64</v>
+        <v>16960.4</v>
       </c>
       <c r="AO9">
-        <v>2661.31</v>
+        <v>3344.72</v>
+      </c>
+      <c r="AP9">
+        <v>3.16</v>
+      </c>
+      <c r="AQ9">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43">
+      <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <v>13927.8</v>
+      </c>
+      <c r="C10">
+        <v>13797.07</v>
+      </c>
+      <c r="D10">
+        <v>14676.97</v>
+      </c>
+      <c r="E10">
+        <v>14737.75</v>
+      </c>
+      <c r="F10">
+        <v>14488.79</v>
+      </c>
+      <c r="G10">
+        <v>13362.4</v>
+      </c>
+      <c r="H10">
+        <v>14496.57</v>
+      </c>
+      <c r="I10">
+        <v>15010.58</v>
+      </c>
+      <c r="J10">
+        <v>14100.83</v>
+      </c>
+      <c r="K10">
+        <v>14828.53</v>
+      </c>
+      <c r="L10">
+        <v>14788.3</v>
+      </c>
+      <c r="M10">
+        <v>14283.31</v>
+      </c>
+      <c r="N10">
+        <v>15323.1</v>
+      </c>
+      <c r="O10">
+        <v>16081.82</v>
+      </c>
+      <c r="P10">
+        <v>15714.38</v>
+      </c>
+      <c r="Q10">
+        <v>10401.38</v>
+      </c>
+      <c r="R10">
+        <v>12757.18</v>
+      </c>
+      <c r="S10">
+        <v>12883.67</v>
+      </c>
+      <c r="T10">
+        <v>14542.44</v>
+      </c>
+      <c r="U10">
+        <v>15146.16</v>
+      </c>
+      <c r="V10">
+        <v>14903.64</v>
+      </c>
+      <c r="W10">
+        <v>15599.5</v>
+      </c>
+      <c r="X10">
+        <v>13114.7</v>
+      </c>
+      <c r="Y10">
+        <v>15459.32</v>
+      </c>
+      <c r="Z10">
+        <v>13321.43</v>
+      </c>
+      <c r="AA10">
+        <v>11700.07</v>
+      </c>
+      <c r="AB10">
+        <v>13852.1</v>
+      </c>
+      <c r="AC10">
+        <v>13826.23</v>
+      </c>
+      <c r="AD10">
+        <v>12953.84</v>
+      </c>
+      <c r="AE10">
+        <v>14558.03</v>
+      </c>
+      <c r="AF10">
+        <v>14458.09</v>
+      </c>
+      <c r="AG10">
+        <v>13700.73</v>
+      </c>
+      <c r="AH10">
+        <v>13749.88</v>
+      </c>
+      <c r="AI10">
+        <v>15559.44</v>
+      </c>
+      <c r="AJ10">
+        <v>12841.89</v>
+      </c>
+      <c r="AK10">
+        <v>12750.97</v>
+      </c>
+      <c r="AL10">
+        <v>12081.49</v>
+      </c>
+      <c r="AM10">
+        <v>11137.06</v>
+      </c>
+      <c r="AN10">
+        <v>11580.45</v>
+      </c>
+      <c r="AO10">
+        <v>1960.86</v>
+      </c>
+      <c r="AP10">
+        <v>5.17</v>
+      </c>
+      <c r="AQ10">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43">
+      <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11">
+        <v>12983.63</v>
+      </c>
+      <c r="C11">
+        <v>12769.95</v>
+      </c>
+      <c r="D11">
+        <v>14399.7</v>
+      </c>
+      <c r="E11">
+        <v>14510.82</v>
+      </c>
+      <c r="F11">
+        <v>14483.17</v>
+      </c>
+      <c r="G11">
+        <v>12478.86</v>
+      </c>
+      <c r="H11">
+        <v>14171.6</v>
+      </c>
+      <c r="I11">
+        <v>14573.71</v>
+      </c>
+      <c r="J11">
+        <v>12886.64</v>
+      </c>
+      <c r="K11">
+        <v>15170.52</v>
+      </c>
+      <c r="L11">
+        <v>13496.88</v>
+      </c>
+      <c r="M11">
+        <v>13884.52</v>
+      </c>
+      <c r="N11">
+        <v>12963.15</v>
+      </c>
+      <c r="O11">
+        <v>12474.66</v>
+      </c>
+      <c r="P11">
+        <v>11791.11</v>
+      </c>
+      <c r="Q11">
+        <v>8901.07</v>
+      </c>
+      <c r="R11">
+        <v>10845.03</v>
+      </c>
+      <c r="S11">
+        <v>12627.33</v>
+      </c>
+      <c r="T11">
+        <v>13178.37</v>
+      </c>
+      <c r="U11">
+        <v>13147.52</v>
+      </c>
+      <c r="V11">
+        <v>13751.51</v>
+      </c>
+      <c r="W11">
+        <v>15256.73</v>
+      </c>
+      <c r="X11">
+        <v>12925.73</v>
+      </c>
+      <c r="Y11">
+        <v>13896.83</v>
+      </c>
+      <c r="Z11">
+        <v>12825.3</v>
+      </c>
+      <c r="AA11">
+        <v>12705.67</v>
+      </c>
+      <c r="AB11">
+        <v>15470.83</v>
+      </c>
+      <c r="AC11">
+        <v>15075.29</v>
+      </c>
+      <c r="AD11">
+        <v>13865.38</v>
+      </c>
+      <c r="AE11">
+        <v>14929.92</v>
+      </c>
+      <c r="AF11">
+        <v>14298.15</v>
+      </c>
+      <c r="AG11">
+        <v>14212.76</v>
+      </c>
+      <c r="AH11">
+        <v>13658.83</v>
+      </c>
+      <c r="AI11">
+        <v>14123.2</v>
+      </c>
+      <c r="AJ11">
+        <v>13438.33</v>
+      </c>
+      <c r="AK11">
+        <v>13985.77</v>
+      </c>
+      <c r="AL11">
+        <v>12230.05</v>
+      </c>
+      <c r="AM11">
+        <v>11514.98</v>
+      </c>
+      <c r="AN11">
+        <v>13108.73</v>
+      </c>
+      <c r="AO11">
+        <v>2101.69</v>
+      </c>
+      <c r="AP11">
+        <v>4.42</v>
+      </c>
+      <c r="AQ11">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>10833.47</v>
+      </c>
+      <c r="C12">
+        <v>9895.51</v>
+      </c>
+      <c r="D12">
+        <v>10416.29</v>
+      </c>
+      <c r="E12">
+        <v>11777.74</v>
+      </c>
+      <c r="F12">
+        <v>12844.24</v>
+      </c>
+      <c r="G12">
+        <v>9913.610000000001</v>
+      </c>
+      <c r="H12">
+        <v>10473.82</v>
+      </c>
+      <c r="I12">
+        <v>10510.85</v>
+      </c>
+      <c r="J12">
+        <v>10405.09</v>
+      </c>
+      <c r="K12">
+        <v>11484.31</v>
+      </c>
+      <c r="L12">
+        <v>10357.18</v>
+      </c>
+      <c r="M12">
+        <v>11007.28</v>
+      </c>
+      <c r="N12">
+        <v>10987.18</v>
+      </c>
+      <c r="O12">
+        <v>10649.68</v>
+      </c>
+      <c r="P12">
+        <v>9921.639999999999</v>
+      </c>
+      <c r="Q12">
+        <v>6994.36</v>
+      </c>
+      <c r="R12">
+        <v>7906.19</v>
+      </c>
+      <c r="S12">
+        <v>9596.67</v>
+      </c>
+      <c r="T12">
+        <v>10114.1</v>
+      </c>
+      <c r="U12">
+        <v>9379.719999999999</v>
+      </c>
+      <c r="V12">
+        <v>10592.26</v>
+      </c>
+      <c r="W12">
+        <v>12733.18</v>
+      </c>
+      <c r="X12">
+        <v>12265.18</v>
+      </c>
+      <c r="Y12">
+        <v>12570.44</v>
+      </c>
+      <c r="Z12">
+        <v>11450.37</v>
+      </c>
+      <c r="AA12">
+        <v>11381.96</v>
+      </c>
+      <c r="AB12">
+        <v>12883.76</v>
+      </c>
+      <c r="AC12">
+        <v>12668.51</v>
+      </c>
+      <c r="AD12">
+        <v>12531.29</v>
+      </c>
+      <c r="AE12">
+        <v>12505.16</v>
+      </c>
+      <c r="AF12">
+        <v>13166.17</v>
+      </c>
+      <c r="AG12">
+        <v>12749.1</v>
+      </c>
+      <c r="AH12">
+        <v>12837.87</v>
+      </c>
+      <c r="AI12">
+        <v>12375.97</v>
+      </c>
+      <c r="AJ12">
+        <v>10126.55</v>
+      </c>
+      <c r="AK12">
+        <v>10382.83</v>
+      </c>
+      <c r="AL12">
+        <v>9869.700000000001</v>
+      </c>
+      <c r="AM12">
+        <v>10002.14</v>
+      </c>
+      <c r="AN12">
+        <v>12580.64</v>
+      </c>
+      <c r="AO12">
+        <v>2587.02</v>
+      </c>
+      <c r="AP12">
+        <v>2.3</v>
+      </c>
+      <c r="AQ12">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13">
+        <v>10833.14</v>
+      </c>
+      <c r="C13">
+        <v>10739.94</v>
+      </c>
+      <c r="D13">
+        <v>11689.39</v>
+      </c>
+      <c r="E13">
+        <v>10898.91</v>
+      </c>
+      <c r="F13">
+        <v>12270.35</v>
+      </c>
+      <c r="G13">
+        <v>10962.76</v>
+      </c>
+      <c r="H13">
+        <v>10494.27</v>
+      </c>
+      <c r="I13">
+        <v>11009.64</v>
+      </c>
+      <c r="J13">
+        <v>11033</v>
+      </c>
+      <c r="K13">
+        <v>12369.36</v>
+      </c>
+      <c r="L13">
+        <v>10438.53</v>
+      </c>
+      <c r="M13">
+        <v>10045.63</v>
+      </c>
+      <c r="N13">
+        <v>10622.23</v>
+      </c>
+      <c r="O13">
+        <v>10094.22</v>
+      </c>
+      <c r="P13">
+        <v>9666.360000000001</v>
+      </c>
+      <c r="Q13">
+        <v>6845.95</v>
+      </c>
+      <c r="R13">
+        <v>9409.120000000001</v>
+      </c>
+      <c r="S13">
+        <v>10376.49</v>
+      </c>
+      <c r="T13">
+        <v>10651.56</v>
+      </c>
+      <c r="U13">
+        <v>10277.15</v>
+      </c>
+      <c r="V13">
+        <v>10292</v>
+      </c>
+      <c r="W13">
+        <v>10758.88</v>
+      </c>
+      <c r="X13">
+        <v>9214.280000000001</v>
+      </c>
+      <c r="Y13">
+        <v>10051.66</v>
+      </c>
+      <c r="Z13">
+        <v>8772.73</v>
+      </c>
+      <c r="AA13">
+        <v>9189.809999999999</v>
+      </c>
+      <c r="AB13">
+        <v>11412.42</v>
+      </c>
+      <c r="AC13">
+        <v>9947.389999999999</v>
+      </c>
+      <c r="AD13">
+        <v>9675.59</v>
+      </c>
+      <c r="AE13">
+        <v>10479.14</v>
+      </c>
+      <c r="AF13">
+        <v>10274.08</v>
+      </c>
+      <c r="AG13">
+        <v>11701.98</v>
+      </c>
+      <c r="AH13">
+        <v>10623.25</v>
+      </c>
+      <c r="AI13">
+        <v>10952.8</v>
+      </c>
+      <c r="AJ13">
+        <v>8234.110000000001</v>
+      </c>
+      <c r="AK13">
+        <v>9516.120000000001</v>
+      </c>
+      <c r="AL13">
+        <v>9738.16</v>
+      </c>
+      <c r="AM13">
+        <v>9017.57</v>
+      </c>
+      <c r="AN13">
+        <v>10476.73</v>
+      </c>
+      <c r="AO13">
+        <v>1790.32</v>
+      </c>
+      <c r="AP13">
+        <v>1.61</v>
+      </c>
+      <c r="AQ13">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14">
+        <v>13111.63</v>
+      </c>
+      <c r="C14">
+        <v>12971.35</v>
+      </c>
+      <c r="D14">
+        <v>13711.69</v>
+      </c>
+      <c r="E14">
+        <v>14880.76</v>
+      </c>
+      <c r="F14">
+        <v>14660.15</v>
+      </c>
+      <c r="G14">
+        <v>13357.07</v>
+      </c>
+      <c r="H14">
+        <v>14096.9</v>
+      </c>
+      <c r="I14">
+        <v>14302.11</v>
+      </c>
+      <c r="J14">
+        <v>13250.85</v>
+      </c>
+      <c r="K14">
+        <v>14938.97</v>
+      </c>
+      <c r="L14">
+        <v>13876.85</v>
+      </c>
+      <c r="M14">
+        <v>13440.11</v>
+      </c>
+      <c r="N14">
+        <v>13720.25</v>
+      </c>
+      <c r="O14">
+        <v>13555.36</v>
+      </c>
+      <c r="P14">
+        <v>11644.05</v>
+      </c>
+      <c r="Q14">
+        <v>8723.969999999999</v>
+      </c>
+      <c r="R14">
+        <v>11547.92</v>
+      </c>
+      <c r="S14">
+        <v>13610.37</v>
+      </c>
+      <c r="T14">
+        <v>14582.01</v>
+      </c>
+      <c r="U14">
+        <v>14586.59</v>
+      </c>
+      <c r="V14">
+        <v>14910.46</v>
+      </c>
+      <c r="W14">
+        <v>15930.77</v>
+      </c>
+      <c r="X14">
+        <v>14910.08</v>
+      </c>
+      <c r="Y14">
+        <v>15571.21</v>
+      </c>
+      <c r="Z14">
+        <v>13653.37</v>
+      </c>
+      <c r="AA14">
+        <v>13197.34</v>
+      </c>
+      <c r="AB14">
+        <v>14911.81</v>
+      </c>
+      <c r="AC14">
+        <v>15890.3</v>
+      </c>
+      <c r="AD14">
+        <v>14585.78</v>
+      </c>
+      <c r="AE14">
+        <v>15056.73</v>
+      </c>
+      <c r="AF14">
+        <v>14767.54</v>
+      </c>
+      <c r="AG14">
+        <v>14945.8</v>
+      </c>
+      <c r="AH14">
+        <v>15045.48</v>
+      </c>
+      <c r="AI14">
+        <v>15254.94</v>
+      </c>
+      <c r="AJ14">
+        <v>15128.22</v>
+      </c>
+      <c r="AK14">
+        <v>14912.26</v>
+      </c>
+      <c r="AL14">
+        <v>12667.05</v>
+      </c>
+      <c r="AM14">
+        <v>12598.82</v>
+      </c>
+      <c r="AN14">
+        <v>12266.52</v>
+      </c>
+      <c r="AO14">
+        <v>2699.46</v>
+      </c>
+      <c r="AP14">
+        <v>5.96</v>
+      </c>
+      <c r="AQ14">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43">
+      <c r="A15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15">
+        <v>10905.27</v>
+      </c>
+      <c r="C15">
+        <v>11271.52</v>
+      </c>
+      <c r="D15">
+        <v>11934.17</v>
+      </c>
+      <c r="E15">
+        <v>12957.95</v>
+      </c>
+      <c r="F15">
+        <v>12833.63</v>
+      </c>
+      <c r="G15">
+        <v>11033.3</v>
+      </c>
+      <c r="H15">
+        <v>13037.52</v>
+      </c>
+      <c r="I15">
+        <v>13508.84</v>
+      </c>
+      <c r="J15">
+        <v>11179.7</v>
+      </c>
+      <c r="K15">
+        <v>13582.78</v>
+      </c>
+      <c r="L15">
+        <v>12037.32</v>
+      </c>
+      <c r="M15">
+        <v>13051.88</v>
+      </c>
+      <c r="N15">
+        <v>13101.03</v>
+      </c>
+      <c r="O15">
+        <v>13267.73</v>
+      </c>
+      <c r="P15">
+        <v>11740</v>
+      </c>
+      <c r="Q15">
+        <v>8051.71</v>
+      </c>
+      <c r="R15">
+        <v>10470.93</v>
+      </c>
+      <c r="S15">
+        <v>11900.33</v>
+      </c>
+      <c r="T15">
+        <v>13406.17</v>
+      </c>
+      <c r="U15">
+        <v>12869.98</v>
+      </c>
+      <c r="V15">
+        <v>13125.72</v>
+      </c>
+      <c r="W15">
+        <v>13660.89</v>
+      </c>
+      <c r="X15">
+        <v>13251.66</v>
+      </c>
+      <c r="Y15">
+        <v>14122.87</v>
+      </c>
+      <c r="Z15">
+        <v>12224.83</v>
+      </c>
+      <c r="AA15">
+        <v>11388.92</v>
+      </c>
+      <c r="AB15">
+        <v>13809.67</v>
+      </c>
+      <c r="AC15">
+        <v>12664.3</v>
+      </c>
+      <c r="AD15">
+        <v>13157.39</v>
+      </c>
+      <c r="AE15">
+        <v>13399.45</v>
+      </c>
+      <c r="AF15">
+        <v>12231.68</v>
+      </c>
+      <c r="AG15">
+        <v>13602.04</v>
+      </c>
+      <c r="AH15">
+        <v>12625.8</v>
+      </c>
+      <c r="AI15">
+        <v>14225.9</v>
+      </c>
+      <c r="AJ15">
+        <v>10981.58</v>
+      </c>
+      <c r="AK15">
+        <v>11973.61</v>
+      </c>
+      <c r="AL15">
+        <v>12724.73</v>
+      </c>
+      <c r="AM15">
+        <v>12366.32</v>
+      </c>
+      <c r="AN15">
+        <v>13316.4</v>
+      </c>
+      <c r="AO15">
+        <v>2394.15</v>
+      </c>
+      <c r="AP15">
+        <v>3.94</v>
+      </c>
+      <c r="AQ15">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43">
+      <c r="A16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16">
+        <v>10844.79</v>
+      </c>
+      <c r="C16">
+        <v>10681.3</v>
+      </c>
+      <c r="D16">
+        <v>11651.09</v>
+      </c>
+      <c r="E16">
+        <v>12354.35</v>
+      </c>
+      <c r="F16">
+        <v>11808.34</v>
+      </c>
+      <c r="G16">
+        <v>10376.16</v>
+      </c>
+      <c r="H16">
+        <v>12854.83</v>
+      </c>
+      <c r="I16">
+        <v>13384.94</v>
+      </c>
+      <c r="J16">
+        <v>12245.08</v>
+      </c>
+      <c r="K16">
+        <v>13497.27</v>
+      </c>
+      <c r="L16">
+        <v>12411.46</v>
+      </c>
+      <c r="M16">
+        <v>12076.08</v>
+      </c>
+      <c r="N16">
+        <v>13370.53</v>
+      </c>
+      <c r="O16">
+        <v>12721.58</v>
+      </c>
+      <c r="P16">
+        <v>11482.88</v>
+      </c>
+      <c r="Q16">
+        <v>9447.629999999999</v>
+      </c>
+      <c r="R16">
+        <v>10236.36</v>
+      </c>
+      <c r="S16">
+        <v>11130.46</v>
+      </c>
+      <c r="T16">
+        <v>12981.21</v>
+      </c>
+      <c r="U16">
+        <v>12762.86</v>
+      </c>
+      <c r="V16">
+        <v>12381.95</v>
+      </c>
+      <c r="W16">
+        <v>12932.21</v>
+      </c>
+      <c r="X16">
+        <v>12572.15</v>
+      </c>
+      <c r="Y16">
+        <v>13968.74</v>
+      </c>
+      <c r="Z16">
+        <v>12923.82</v>
+      </c>
+      <c r="AA16">
+        <v>11756.9</v>
+      </c>
+      <c r="AB16">
+        <v>13501.07</v>
+      </c>
+      <c r="AC16">
+        <v>12783.56</v>
+      </c>
+      <c r="AD16">
+        <v>12696.86</v>
+      </c>
+      <c r="AE16">
+        <v>12557.69</v>
+      </c>
+      <c r="AF16">
+        <v>13235.41</v>
+      </c>
+      <c r="AG16">
+        <v>13206.25</v>
+      </c>
+      <c r="AH16">
+        <v>12866.2</v>
+      </c>
+      <c r="AI16">
+        <v>12814.82</v>
+      </c>
+      <c r="AJ16">
+        <v>10041.79</v>
+      </c>
+      <c r="AK16">
+        <v>10852.27</v>
+      </c>
+      <c r="AL16">
+        <v>11275.58</v>
+      </c>
+      <c r="AM16">
+        <v>11912.73</v>
+      </c>
+      <c r="AN16">
+        <v>12180.7</v>
+      </c>
+      <c r="AO16">
+        <v>2304.42</v>
+      </c>
+      <c r="AP16">
+        <v>2.92</v>
+      </c>
+      <c r="AQ16">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43">
+      <c r="A17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17">
+        <v>7925.23</v>
+      </c>
+      <c r="C17">
+        <v>7490.03</v>
+      </c>
+      <c r="D17">
+        <v>8206.07</v>
+      </c>
+      <c r="E17">
+        <v>8518.65</v>
+      </c>
+      <c r="F17">
+        <v>8815.51</v>
+      </c>
+      <c r="G17">
+        <v>8250.26</v>
+      </c>
+      <c r="H17">
+        <v>8304.82</v>
+      </c>
+      <c r="I17">
+        <v>9188.969999999999</v>
+      </c>
+      <c r="J17">
+        <v>9371.799999999999</v>
+      </c>
+      <c r="K17">
+        <v>10280.37</v>
+      </c>
+      <c r="L17">
+        <v>8376.73</v>
+      </c>
+      <c r="M17">
+        <v>9757.809999999999</v>
+      </c>
+      <c r="N17">
+        <v>9765.620000000001</v>
+      </c>
+      <c r="O17">
+        <v>8378.01</v>
+      </c>
+      <c r="P17">
+        <v>7678.66</v>
+      </c>
+      <c r="Q17">
+        <v>5990.83</v>
+      </c>
+      <c r="R17">
+        <v>7503.97</v>
+      </c>
+      <c r="S17">
+        <v>9647.799999999999</v>
+      </c>
+      <c r="T17">
+        <v>8912.73</v>
+      </c>
+      <c r="U17">
+        <v>8895.42</v>
+      </c>
+      <c r="V17">
+        <v>9381.379999999999</v>
+      </c>
+      <c r="W17">
+        <v>10684.33</v>
+      </c>
+      <c r="X17">
+        <v>9566.309999999999</v>
+      </c>
+      <c r="Y17">
+        <v>9882.67</v>
+      </c>
+      <c r="Z17">
+        <v>9508.360000000001</v>
+      </c>
+      <c r="AA17">
+        <v>8644.940000000001</v>
+      </c>
+      <c r="AB17">
+        <v>8394.08</v>
+      </c>
+      <c r="AC17">
+        <v>9721.309999999999</v>
+      </c>
+      <c r="AD17">
+        <v>9284.690000000001</v>
+      </c>
+      <c r="AE17">
+        <v>8873.879999999999</v>
+      </c>
+      <c r="AF17">
+        <v>9536.93</v>
+      </c>
+      <c r="AG17">
+        <v>8816.33</v>
+      </c>
+      <c r="AH17">
+        <v>9224.309999999999</v>
+      </c>
+      <c r="AI17">
+        <v>10238.12</v>
+      </c>
+      <c r="AJ17">
+        <v>8354.57</v>
+      </c>
+      <c r="AK17">
+        <v>9044.58</v>
+      </c>
+      <c r="AL17">
+        <v>9668.43</v>
+      </c>
+      <c r="AM17">
+        <v>7518.97</v>
+      </c>
+      <c r="AN17">
+        <v>8225.969999999999</v>
+      </c>
+      <c r="AO17">
+        <v>1858.18</v>
+      </c>
+      <c r="AP17">
+        <v>4.55</v>
+      </c>
+      <c r="AQ17">
+        <v>4.36</v>
       </c>
     </row>
   </sheetData>

--- a/mbrMoPvt_94.xlsx
+++ b/mbrMoPvt_94.xlsx
@@ -1992,7 +1992,7 @@
         <v>4.42</v>
       </c>
       <c r="AQ11">
-        <v>4.43</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="12" spans="1:43">

--- a/mbrMoPvt_94.xlsx
+++ b/mbrMoPvt_94.xlsx
@@ -1992,7 +1992,7 @@
         <v>4.42</v>
       </c>
       <c r="AQ11">
-        <v>4.4</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="12" spans="1:43">

--- a/mbrMoPvt_94.xlsx
+++ b/mbrMoPvt_94.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>m-2022-05</t>
+  </si>
+  <si>
+    <t>m-2022-06</t>
   </si>
   <si>
     <t>org_id</t>
@@ -500,15 +503,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP2"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:43">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -633,10 +636,13 @@
       <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:43">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>13974.01</v>
@@ -675,7 +681,7 @@
         <v>21418.47</v>
       </c>
       <c r="N2">
-        <v>19211.32</v>
+        <v>19210.38</v>
       </c>
       <c r="O2">
         <v>19875</v>
@@ -720,46 +726,49 @@
         <v>18817.61</v>
       </c>
       <c r="AC2">
-        <v>24103.5</v>
+        <v>24105.34</v>
       </c>
       <c r="AD2">
-        <v>21633.59</v>
+        <v>21638.37</v>
       </c>
       <c r="AE2">
-        <v>24299.32</v>
+        <v>24308.67</v>
       </c>
       <c r="AF2">
-        <v>24377.61</v>
+        <v>24389.87</v>
       </c>
       <c r="AG2">
-        <v>23985.31</v>
+        <v>24016.31</v>
       </c>
       <c r="AH2">
-        <v>23000.49</v>
+        <v>23088.49</v>
       </c>
       <c r="AI2">
-        <v>27271.79</v>
+        <v>27477.94</v>
       </c>
       <c r="AJ2">
-        <v>22599.89</v>
+        <v>22728.77</v>
       </c>
       <c r="AK2">
-        <v>27010.04</v>
+        <v>27203.8</v>
       </c>
       <c r="AL2">
-        <v>22678.27</v>
+        <v>23036.22</v>
       </c>
       <c r="AM2">
-        <v>20622.16</v>
+        <v>21564.75</v>
       </c>
       <c r="AN2">
-        <v>22396.24</v>
+        <v>23753.75</v>
       </c>
       <c r="AO2">
-        <v>2721.37</v>
+        <v>20802.86</v>
       </c>
       <c r="AP2">
-        <v>12.76</v>
+        <v>5210.5</v>
+      </c>
+      <c r="AQ2">
+        <v>16.54</v>
       </c>
     </row>
   </sheetData>

--- a/mbrMoPvt_94.xlsx
+++ b/mbrMoPvt_94.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -139,13 +139,31 @@
     <t>m-2022-05</t>
   </si>
   <si>
-    <t>m-2022-06</t>
-  </si>
-  <si>
     <t>org_id</t>
   </si>
   <si>
-    <t>CARELINEPI</t>
+    <t>ADAUGEOPI</t>
+  </si>
+  <si>
+    <t>BLUEROCKDC</t>
+  </si>
+  <si>
+    <t>CANODCE</t>
+  </si>
+  <si>
+    <t>CITYBLOCKDCE</t>
+  </si>
+  <si>
+    <t>ELATIONDCE</t>
+  </si>
+  <si>
+    <t>ILUMEDPI</t>
+  </si>
+  <si>
+    <t>INTERMNTUTDC</t>
+  </si>
+  <si>
+    <t>LATITUDEDC</t>
   </si>
 </sst>
 </file>
@@ -503,15 +521,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ2"/>
+  <dimension ref="A1:AP9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -636,139 +654,1026 @@
       <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:42">
       <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>6149.13</v>
+      </c>
+      <c r="C2">
+        <v>5822.9</v>
+      </c>
+      <c r="D2">
+        <v>6439.68</v>
+      </c>
+      <c r="E2">
+        <v>7125.16</v>
+      </c>
+      <c r="F2">
+        <v>6851.35</v>
+      </c>
+      <c r="G2">
+        <v>6724.39</v>
+      </c>
+      <c r="H2">
+        <v>6812.96</v>
+      </c>
+      <c r="I2">
+        <v>7260.9</v>
+      </c>
+      <c r="J2">
+        <v>7603.81</v>
+      </c>
+      <c r="K2">
+        <v>7792.43</v>
+      </c>
+      <c r="L2">
+        <v>7442.77</v>
+      </c>
+      <c r="M2">
+        <v>6705.03</v>
+      </c>
+      <c r="N2">
+        <v>6704.3</v>
+      </c>
+      <c r="O2">
+        <v>6751.91</v>
+      </c>
+      <c r="P2">
+        <v>5637.99</v>
+      </c>
+      <c r="Q2">
+        <v>4241.49</v>
+      </c>
+      <c r="R2">
+        <v>5776.06</v>
+      </c>
+      <c r="S2">
+        <v>7474.54</v>
+      </c>
+      <c r="T2">
+        <v>6988.45</v>
+      </c>
+      <c r="U2">
+        <v>7160.4</v>
+      </c>
+      <c r="V2">
+        <v>7588.05</v>
+      </c>
+      <c r="W2">
+        <v>8213.26</v>
+      </c>
+      <c r="X2">
+        <v>7876.22</v>
+      </c>
+      <c r="Y2">
+        <v>7156.49</v>
+      </c>
+      <c r="Z2">
+        <v>7420.25</v>
+      </c>
+      <c r="AA2">
+        <v>6924.07</v>
+      </c>
+      <c r="AB2">
+        <v>8949.969999999999</v>
+      </c>
+      <c r="AC2">
+        <v>9158.719999999999</v>
+      </c>
+      <c r="AD2">
+        <v>9442.52</v>
+      </c>
+      <c r="AE2">
+        <v>9852.049999999999</v>
+      </c>
+      <c r="AF2">
+        <v>8841.84</v>
+      </c>
+      <c r="AG2">
+        <v>9491.120000000001</v>
+      </c>
+      <c r="AH2">
+        <v>9355.969999999999</v>
+      </c>
+      <c r="AI2">
+        <v>8885.610000000001</v>
+      </c>
+      <c r="AJ2">
+        <v>9043.49</v>
+      </c>
+      <c r="AK2">
+        <v>8431.709999999999</v>
+      </c>
+      <c r="AL2">
+        <v>7939.91</v>
+      </c>
+      <c r="AM2">
+        <v>7764.2</v>
+      </c>
+      <c r="AN2">
+        <v>9133.799999999999</v>
+      </c>
+      <c r="AO2">
+        <v>8162.71</v>
+      </c>
+      <c r="AP2">
+        <v>3328.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42">
+      <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B2">
-        <v>13974.01</v>
-      </c>
-      <c r="C2">
-        <v>12885.68</v>
-      </c>
-      <c r="D2">
-        <v>20246.49</v>
-      </c>
-      <c r="E2">
-        <v>16975.63</v>
-      </c>
-      <c r="F2">
-        <v>16453.02</v>
-      </c>
-      <c r="G2">
-        <v>13145.22</v>
-      </c>
-      <c r="H2">
-        <v>13417.89</v>
-      </c>
-      <c r="I2">
-        <v>18181.17</v>
-      </c>
-      <c r="J2">
-        <v>15795.37</v>
-      </c>
-      <c r="K2">
-        <v>18753</v>
-      </c>
-      <c r="L2">
-        <v>17650.35</v>
-      </c>
-      <c r="M2">
-        <v>21418.47</v>
-      </c>
-      <c r="N2">
-        <v>19210.38</v>
-      </c>
-      <c r="O2">
-        <v>19875</v>
-      </c>
-      <c r="P2">
-        <v>14804.69</v>
-      </c>
-      <c r="Q2">
-        <v>13923.83</v>
-      </c>
-      <c r="R2">
-        <v>16748.98</v>
-      </c>
-      <c r="S2">
-        <v>18516.94</v>
-      </c>
-      <c r="T2">
-        <v>19963.57</v>
-      </c>
-      <c r="U2">
-        <v>22455.18</v>
-      </c>
-      <c r="V2">
-        <v>23555.57</v>
-      </c>
-      <c r="W2">
-        <v>23503.32</v>
-      </c>
-      <c r="X2">
-        <v>28318.61</v>
-      </c>
-      <c r="Y2">
-        <v>25357.61</v>
-      </c>
-      <c r="Z2">
-        <v>23318.47</v>
-      </c>
-      <c r="AA2">
-        <v>18967.65</v>
-      </c>
-      <c r="AB2">
-        <v>18817.61</v>
-      </c>
-      <c r="AC2">
-        <v>24105.34</v>
-      </c>
-      <c r="AD2">
-        <v>21638.37</v>
-      </c>
-      <c r="AE2">
-        <v>24308.67</v>
-      </c>
-      <c r="AF2">
-        <v>24389.87</v>
-      </c>
-      <c r="AG2">
-        <v>24016.31</v>
-      </c>
-      <c r="AH2">
-        <v>23088.49</v>
-      </c>
-      <c r="AI2">
-        <v>27477.94</v>
-      </c>
-      <c r="AJ2">
-        <v>22728.77</v>
-      </c>
-      <c r="AK2">
-        <v>27203.8</v>
-      </c>
-      <c r="AL2">
-        <v>23036.22</v>
-      </c>
-      <c r="AM2">
-        <v>21564.75</v>
-      </c>
-      <c r="AN2">
-        <v>23753.75</v>
-      </c>
-      <c r="AO2">
-        <v>20802.86</v>
-      </c>
-      <c r="AP2">
-        <v>5210.5</v>
-      </c>
-      <c r="AQ2">
-        <v>16.54</v>
+      <c r="B3">
+        <v>7303.35</v>
+      </c>
+      <c r="C3">
+        <v>7844.75</v>
+      </c>
+      <c r="D3">
+        <v>8147.34</v>
+      </c>
+      <c r="E3">
+        <v>8222.74</v>
+      </c>
+      <c r="F3">
+        <v>11112.86</v>
+      </c>
+      <c r="G3">
+        <v>9233.24</v>
+      </c>
+      <c r="H3">
+        <v>8651.52</v>
+      </c>
+      <c r="I3">
+        <v>7820.27</v>
+      </c>
+      <c r="J3">
+        <v>6732.18</v>
+      </c>
+      <c r="K3">
+        <v>11960.81</v>
+      </c>
+      <c r="L3">
+        <v>10992.77</v>
+      </c>
+      <c r="M3">
+        <v>10590.7</v>
+      </c>
+      <c r="N3">
+        <v>9299.549999999999</v>
+      </c>
+      <c r="O3">
+        <v>8676.59</v>
+      </c>
+      <c r="P3">
+        <v>6824.11</v>
+      </c>
+      <c r="Q3">
+        <v>4453.59</v>
+      </c>
+      <c r="R3">
+        <v>6986.85</v>
+      </c>
+      <c r="S3">
+        <v>7286.11</v>
+      </c>
+      <c r="T3">
+        <v>8242.18</v>
+      </c>
+      <c r="U3">
+        <v>11535.59</v>
+      </c>
+      <c r="V3">
+        <v>12292.14</v>
+      </c>
+      <c r="W3">
+        <v>12993.26</v>
+      </c>
+      <c r="X3">
+        <v>11317.62</v>
+      </c>
+      <c r="Y3">
+        <v>13462.84</v>
+      </c>
+      <c r="Z3">
+        <v>15080.63</v>
+      </c>
+      <c r="AA3">
+        <v>13593.85</v>
+      </c>
+      <c r="AB3">
+        <v>15386.06</v>
+      </c>
+      <c r="AC3">
+        <v>13364.81</v>
+      </c>
+      <c r="AD3">
+        <v>10710.28</v>
+      </c>
+      <c r="AE3">
+        <v>12051.26</v>
+      </c>
+      <c r="AF3">
+        <v>10762.27</v>
+      </c>
+      <c r="AG3">
+        <v>13952.72</v>
+      </c>
+      <c r="AH3">
+        <v>14703.8</v>
+      </c>
+      <c r="AI3">
+        <v>15224.24</v>
+      </c>
+      <c r="AJ3">
+        <v>14066.86</v>
+      </c>
+      <c r="AK3">
+        <v>14600.29</v>
+      </c>
+      <c r="AL3">
+        <v>15193.93</v>
+      </c>
+      <c r="AM3">
+        <v>13772.55</v>
+      </c>
+      <c r="AN3">
+        <v>16637.22</v>
+      </c>
+      <c r="AO3">
+        <v>9625.99</v>
+      </c>
+      <c r="AP3">
+        <v>3605.92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>7712.23</v>
+      </c>
+      <c r="C4">
+        <v>7705.38</v>
+      </c>
+      <c r="D4">
+        <v>8236.190000000001</v>
+      </c>
+      <c r="E4">
+        <v>8471.639999999999</v>
+      </c>
+      <c r="F4">
+        <v>9092.950000000001</v>
+      </c>
+      <c r="G4">
+        <v>7945.56</v>
+      </c>
+      <c r="H4">
+        <v>8840.360000000001</v>
+      </c>
+      <c r="I4">
+        <v>8689.52</v>
+      </c>
+      <c r="J4">
+        <v>8125.41</v>
+      </c>
+      <c r="K4">
+        <v>9031.75</v>
+      </c>
+      <c r="L4">
+        <v>8603.16</v>
+      </c>
+      <c r="M4">
+        <v>8535.280000000001</v>
+      </c>
+      <c r="N4">
+        <v>8647.92</v>
+      </c>
+      <c r="O4">
+        <v>8818.860000000001</v>
+      </c>
+      <c r="P4">
+        <v>7582.94</v>
+      </c>
+      <c r="Q4">
+        <v>5292.21</v>
+      </c>
+      <c r="R4">
+        <v>7379.03</v>
+      </c>
+      <c r="S4">
+        <v>8782.219999999999</v>
+      </c>
+      <c r="T4">
+        <v>8826.709999999999</v>
+      </c>
+      <c r="U4">
+        <v>8529.91</v>
+      </c>
+      <c r="V4">
+        <v>9269.860000000001</v>
+      </c>
+      <c r="W4">
+        <v>9956.860000000001</v>
+      </c>
+      <c r="X4">
+        <v>9513.18</v>
+      </c>
+      <c r="Y4">
+        <v>10168.51</v>
+      </c>
+      <c r="Z4">
+        <v>9273.1</v>
+      </c>
+      <c r="AA4">
+        <v>9436.17</v>
+      </c>
+      <c r="AB4">
+        <v>10970.5</v>
+      </c>
+      <c r="AC4">
+        <v>11366.87</v>
+      </c>
+      <c r="AD4">
+        <v>10943.47</v>
+      </c>
+      <c r="AE4">
+        <v>11499.88</v>
+      </c>
+      <c r="AF4">
+        <v>11283.34</v>
+      </c>
+      <c r="AG4">
+        <v>11541.75</v>
+      </c>
+      <c r="AH4">
+        <v>11437.34</v>
+      </c>
+      <c r="AI4">
+        <v>12426.69</v>
+      </c>
+      <c r="AJ4">
+        <v>12699.4</v>
+      </c>
+      <c r="AK4">
+        <v>14089.05</v>
+      </c>
+      <c r="AL4">
+        <v>14131.17</v>
+      </c>
+      <c r="AM4">
+        <v>13410.09</v>
+      </c>
+      <c r="AN4">
+        <v>14845.34</v>
+      </c>
+      <c r="AO4">
+        <v>11906.87</v>
+      </c>
+      <c r="AP4">
+        <v>4704.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>6377.44</v>
+      </c>
+      <c r="C5">
+        <v>6483.93</v>
+      </c>
+      <c r="D5">
+        <v>7564.38</v>
+      </c>
+      <c r="E5">
+        <v>6707.72</v>
+      </c>
+      <c r="F5">
+        <v>7336.02</v>
+      </c>
+      <c r="G5">
+        <v>7075.46</v>
+      </c>
+      <c r="H5">
+        <v>7022.21</v>
+      </c>
+      <c r="I5">
+        <v>6964.65</v>
+      </c>
+      <c r="J5">
+        <v>7581.56</v>
+      </c>
+      <c r="K5">
+        <v>8152.14</v>
+      </c>
+      <c r="L5">
+        <v>7578.78</v>
+      </c>
+      <c r="M5">
+        <v>7243.23</v>
+      </c>
+      <c r="N5">
+        <v>5870.55</v>
+      </c>
+      <c r="O5">
+        <v>7110.41</v>
+      </c>
+      <c r="P5">
+        <v>5870.4</v>
+      </c>
+      <c r="Q5">
+        <v>5541.67</v>
+      </c>
+      <c r="R5">
+        <v>7619.64</v>
+      </c>
+      <c r="S5">
+        <v>7098.99</v>
+      </c>
+      <c r="T5">
+        <v>7178.47</v>
+      </c>
+      <c r="U5">
+        <v>6533.7</v>
+      </c>
+      <c r="V5">
+        <v>8184.82</v>
+      </c>
+      <c r="W5">
+        <v>8744.74</v>
+      </c>
+      <c r="X5">
+        <v>8301.16</v>
+      </c>
+      <c r="Y5">
+        <v>8302.02</v>
+      </c>
+      <c r="Z5">
+        <v>8392.23</v>
+      </c>
+      <c r="AA5">
+        <v>8676.59</v>
+      </c>
+      <c r="AB5">
+        <v>9572.709999999999</v>
+      </c>
+      <c r="AC5">
+        <v>9150.17</v>
+      </c>
+      <c r="AD5">
+        <v>8374.889999999999</v>
+      </c>
+      <c r="AE5">
+        <v>9335.74</v>
+      </c>
+      <c r="AF5">
+        <v>9986.120000000001</v>
+      </c>
+      <c r="AG5">
+        <v>10665.6</v>
+      </c>
+      <c r="AH5">
+        <v>10662.34</v>
+      </c>
+      <c r="AI5">
+        <v>11543.8</v>
+      </c>
+      <c r="AJ5">
+        <v>10770.67</v>
+      </c>
+      <c r="AK5">
+        <v>10723.32</v>
+      </c>
+      <c r="AL5">
+        <v>12080.39</v>
+      </c>
+      <c r="AM5">
+        <v>11085.47</v>
+      </c>
+      <c r="AN5">
+        <v>12215.29</v>
+      </c>
+      <c r="AO5">
+        <v>9747.549999999999</v>
+      </c>
+      <c r="AP5">
+        <v>3792.71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6">
+        <v>4984.19</v>
+      </c>
+      <c r="C6">
+        <v>5136.92</v>
+      </c>
+      <c r="D6">
+        <v>5562.22</v>
+      </c>
+      <c r="E6">
+        <v>6619.68</v>
+      </c>
+      <c r="F6">
+        <v>6385.33</v>
+      </c>
+      <c r="G6">
+        <v>6271.76</v>
+      </c>
+      <c r="H6">
+        <v>5467.47</v>
+      </c>
+      <c r="I6">
+        <v>6605.09</v>
+      </c>
+      <c r="J6">
+        <v>5534.16</v>
+      </c>
+      <c r="K6">
+        <v>6842.39</v>
+      </c>
+      <c r="L6">
+        <v>6016.84</v>
+      </c>
+      <c r="M6">
+        <v>5811.99</v>
+      </c>
+      <c r="N6">
+        <v>5983.27</v>
+      </c>
+      <c r="O6">
+        <v>7081.29</v>
+      </c>
+      <c r="P6">
+        <v>5564.8</v>
+      </c>
+      <c r="Q6">
+        <v>3888.94</v>
+      </c>
+      <c r="R6">
+        <v>4914.27</v>
+      </c>
+      <c r="S6">
+        <v>5992.73</v>
+      </c>
+      <c r="T6">
+        <v>5845.28</v>
+      </c>
+      <c r="U6">
+        <v>5992.96</v>
+      </c>
+      <c r="V6">
+        <v>6400.39</v>
+      </c>
+      <c r="W6">
+        <v>6306.12</v>
+      </c>
+      <c r="X6">
+        <v>6016.43</v>
+      </c>
+      <c r="Y6">
+        <v>6161.93</v>
+      </c>
+      <c r="Z6">
+        <v>6638.47</v>
+      </c>
+      <c r="AA6">
+        <v>6027.92</v>
+      </c>
+      <c r="AB6">
+        <v>7799.25</v>
+      </c>
+      <c r="AC6">
+        <v>7643.9</v>
+      </c>
+      <c r="AD6">
+        <v>6686.12</v>
+      </c>
+      <c r="AE6">
+        <v>7190.08</v>
+      </c>
+      <c r="AF6">
+        <v>8153.05</v>
+      </c>
+      <c r="AG6">
+        <v>6878.83</v>
+      </c>
+      <c r="AH6">
+        <v>8885.83</v>
+      </c>
+      <c r="AI6">
+        <v>8638.790000000001</v>
+      </c>
+      <c r="AJ6">
+        <v>8256.35</v>
+      </c>
+      <c r="AK6">
+        <v>8207.51</v>
+      </c>
+      <c r="AL6">
+        <v>8350.129999999999</v>
+      </c>
+      <c r="AM6">
+        <v>8436.290000000001</v>
+      </c>
+      <c r="AN6">
+        <v>7511.06</v>
+      </c>
+      <c r="AO6">
+        <v>1888.84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>8830.35</v>
+      </c>
+      <c r="C7">
+        <v>8328.540000000001</v>
+      </c>
+      <c r="D7">
+        <v>9778.35</v>
+      </c>
+      <c r="E7">
+        <v>10460.03</v>
+      </c>
+      <c r="F7">
+        <v>9508.629999999999</v>
+      </c>
+      <c r="G7">
+        <v>10344.18</v>
+      </c>
+      <c r="H7">
+        <v>10213.22</v>
+      </c>
+      <c r="I7">
+        <v>9315.93</v>
+      </c>
+      <c r="J7">
+        <v>8085.17</v>
+      </c>
+      <c r="K7">
+        <v>12005.28</v>
+      </c>
+      <c r="L7">
+        <v>9004.879999999999</v>
+      </c>
+      <c r="M7">
+        <v>9624.040000000001</v>
+      </c>
+      <c r="N7">
+        <v>9898.18</v>
+      </c>
+      <c r="O7">
+        <v>10061.45</v>
+      </c>
+      <c r="P7">
+        <v>9692.469999999999</v>
+      </c>
+      <c r="Q7">
+        <v>6678.81</v>
+      </c>
+      <c r="R7">
+        <v>8744.709999999999</v>
+      </c>
+      <c r="S7">
+        <v>10145.57</v>
+      </c>
+      <c r="T7">
+        <v>11274.13</v>
+      </c>
+      <c r="U7">
+        <v>10878.92</v>
+      </c>
+      <c r="V7">
+        <v>11162.88</v>
+      </c>
+      <c r="W7">
+        <v>12130.67</v>
+      </c>
+      <c r="X7">
+        <v>11595.11</v>
+      </c>
+      <c r="Y7">
+        <v>12477.98</v>
+      </c>
+      <c r="Z7">
+        <v>10765.59</v>
+      </c>
+      <c r="AA7">
+        <v>13473.91</v>
+      </c>
+      <c r="AB7">
+        <v>12738.89</v>
+      </c>
+      <c r="AC7">
+        <v>13021.26</v>
+      </c>
+      <c r="AD7">
+        <v>12524.24</v>
+      </c>
+      <c r="AE7">
+        <v>13674.06</v>
+      </c>
+      <c r="AF7">
+        <v>15691.62</v>
+      </c>
+      <c r="AG7">
+        <v>13806.87</v>
+      </c>
+      <c r="AH7">
+        <v>12418.33</v>
+      </c>
+      <c r="AI7">
+        <v>12719.54</v>
+      </c>
+      <c r="AJ7">
+        <v>12184.87</v>
+      </c>
+      <c r="AK7">
+        <v>8420.01</v>
+      </c>
+      <c r="AL7">
+        <v>10548.51</v>
+      </c>
+      <c r="AM7">
+        <v>10518.46</v>
+      </c>
+      <c r="AN7">
+        <v>12133.1</v>
+      </c>
+      <c r="AO7">
+        <v>10960.64</v>
+      </c>
+      <c r="AP7">
+        <v>4371.53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8">
+        <v>7102.29</v>
+      </c>
+      <c r="C8">
+        <v>6998.65</v>
+      </c>
+      <c r="D8">
+        <v>7867.56</v>
+      </c>
+      <c r="E8">
+        <v>7906.88</v>
+      </c>
+      <c r="F8">
+        <v>8217.190000000001</v>
+      </c>
+      <c r="G8">
+        <v>7327.53</v>
+      </c>
+      <c r="H8">
+        <v>7359.96</v>
+      </c>
+      <c r="I8">
+        <v>7787.9</v>
+      </c>
+      <c r="J8">
+        <v>7547.14</v>
+      </c>
+      <c r="K8">
+        <v>8823.299999999999</v>
+      </c>
+      <c r="L8">
+        <v>7623.81</v>
+      </c>
+      <c r="M8">
+        <v>7702.99</v>
+      </c>
+      <c r="N8">
+        <v>7289.61</v>
+      </c>
+      <c r="O8">
+        <v>7379.1</v>
+      </c>
+      <c r="P8">
+        <v>6734.49</v>
+      </c>
+      <c r="Q8">
+        <v>4777.13</v>
+      </c>
+      <c r="R8">
+        <v>6238.21</v>
+      </c>
+      <c r="S8">
+        <v>7695</v>
+      </c>
+      <c r="T8">
+        <v>8332.610000000001</v>
+      </c>
+      <c r="U8">
+        <v>8152.63</v>
+      </c>
+      <c r="V8">
+        <v>8637.93</v>
+      </c>
+      <c r="W8">
+        <v>9029.889999999999</v>
+      </c>
+      <c r="X8">
+        <v>8269.6</v>
+      </c>
+      <c r="Y8">
+        <v>8797.76</v>
+      </c>
+      <c r="Z8">
+        <v>7775.66</v>
+      </c>
+      <c r="AA8">
+        <v>7807.26</v>
+      </c>
+      <c r="AB8">
+        <v>9427.639999999999</v>
+      </c>
+      <c r="AC8">
+        <v>9494.290000000001</v>
+      </c>
+      <c r="AD8">
+        <v>9436.77</v>
+      </c>
+      <c r="AE8">
+        <v>9576.280000000001</v>
+      </c>
+      <c r="AF8">
+        <v>9788.370000000001</v>
+      </c>
+      <c r="AG8">
+        <v>10093.96</v>
+      </c>
+      <c r="AH8">
+        <v>10376.72</v>
+      </c>
+      <c r="AI8">
+        <v>10569.63</v>
+      </c>
+      <c r="AJ8">
+        <v>10360.81</v>
+      </c>
+      <c r="AK8">
+        <v>10528.51</v>
+      </c>
+      <c r="AL8">
+        <v>9816.35</v>
+      </c>
+      <c r="AM8">
+        <v>9867.200000000001</v>
+      </c>
+      <c r="AN8">
+        <v>10732.76</v>
+      </c>
+      <c r="AO8">
+        <v>9261.790000000001</v>
+      </c>
+      <c r="AP8">
+        <v>3381.17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42">
+      <c r="A9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9">
+        <v>6990.54</v>
+      </c>
+      <c r="C9">
+        <v>6902.93</v>
+      </c>
+      <c r="D9">
+        <v>6829.93</v>
+      </c>
+      <c r="E9">
+        <v>8042.36</v>
+      </c>
+      <c r="F9">
+        <v>9056.370000000001</v>
+      </c>
+      <c r="G9">
+        <v>7257.29</v>
+      </c>
+      <c r="H9">
+        <v>8068.25</v>
+      </c>
+      <c r="I9">
+        <v>8671.83</v>
+      </c>
+      <c r="J9">
+        <v>7267.66</v>
+      </c>
+      <c r="K9">
+        <v>8329.549999999999</v>
+      </c>
+      <c r="L9">
+        <v>8245.059999999999</v>
+      </c>
+      <c r="M9">
+        <v>6612.3</v>
+      </c>
+      <c r="N9">
+        <v>5972.55</v>
+      </c>
+      <c r="O9">
+        <v>8622.879999999999</v>
+      </c>
+      <c r="P9">
+        <v>7020.88</v>
+      </c>
+      <c r="Q9">
+        <v>5994.61</v>
+      </c>
+      <c r="R9">
+        <v>7860.99</v>
+      </c>
+      <c r="S9">
+        <v>7181.08</v>
+      </c>
+      <c r="T9">
+        <v>8579.129999999999</v>
+      </c>
+      <c r="U9">
+        <v>9721.43</v>
+      </c>
+      <c r="V9">
+        <v>10146.89</v>
+      </c>
+      <c r="W9">
+        <v>10166.29</v>
+      </c>
+      <c r="X9">
+        <v>8684.559999999999</v>
+      </c>
+      <c r="Y9">
+        <v>8786.73</v>
+      </c>
+      <c r="Z9">
+        <v>8128</v>
+      </c>
+      <c r="AA9">
+        <v>6383.62</v>
+      </c>
+      <c r="AB9">
+        <v>8374.84</v>
+      </c>
+      <c r="AC9">
+        <v>9154.969999999999</v>
+      </c>
+      <c r="AD9">
+        <v>9481.09</v>
+      </c>
+      <c r="AE9">
+        <v>9024.610000000001</v>
+      </c>
+      <c r="AF9">
+        <v>9083.77</v>
+      </c>
+      <c r="AG9">
+        <v>9210.549999999999</v>
+      </c>
+      <c r="AH9">
+        <v>9238.299999999999</v>
+      </c>
+      <c r="AI9">
+        <v>9810.469999999999</v>
+      </c>
+      <c r="AJ9">
+        <v>12373.77</v>
+      </c>
+      <c r="AK9">
+        <v>10709.54</v>
+      </c>
+      <c r="AL9">
+        <v>9345.65</v>
+      </c>
+      <c r="AM9">
+        <v>9862.620000000001</v>
+      </c>
+      <c r="AN9">
+        <v>11070.77</v>
+      </c>
+      <c r="AO9">
+        <v>10511.04</v>
+      </c>
+      <c r="AP9">
+        <v>2880.78</v>
       </c>
     </row>
   </sheetData>

--- a/mbrMoPvt_94.xlsx
+++ b/mbrMoPvt_94.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -139,31 +139,58 @@
     <t>m-2022-05</t>
   </si>
   <si>
+    <t>m-2022-06</t>
+  </si>
+  <si>
     <t>org_id</t>
   </si>
   <si>
-    <t>ADAUGEOPI</t>
-  </si>
-  <si>
-    <t>BLUEROCKDC</t>
-  </si>
-  <si>
-    <t>CANODCE</t>
-  </si>
-  <si>
-    <t>CITYBLOCKDCE</t>
-  </si>
-  <si>
-    <t>ELATIONDCE</t>
-  </si>
-  <si>
-    <t>ILUMEDPI</t>
-  </si>
-  <si>
-    <t>INTERMNTUTDC</t>
-  </si>
-  <si>
-    <t>LATITUDEDC</t>
+    <t>A1052</t>
+  </si>
+  <si>
+    <t>A2024</t>
+  </si>
+  <si>
+    <t>A2251</t>
+  </si>
+  <si>
+    <t>A2575</t>
+  </si>
+  <si>
+    <t>A2841</t>
+  </si>
+  <si>
+    <t>A3229</t>
+  </si>
+  <si>
+    <t>A3320</t>
+  </si>
+  <si>
+    <t>A3327</t>
+  </si>
+  <si>
+    <t>A3367</t>
+  </si>
+  <si>
+    <t>A3632</t>
+  </si>
+  <si>
+    <t>A3667</t>
+  </si>
+  <si>
+    <t>A3669</t>
+  </si>
+  <si>
+    <t>A3822</t>
+  </si>
+  <si>
+    <t>A4585</t>
+  </si>
+  <si>
+    <t>A4709</t>
+  </si>
+  <si>
+    <t>A4768</t>
   </si>
 </sst>
 </file>
@@ -521,15 +548,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP9"/>
+  <dimension ref="A1:AQ17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:43">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -654,1026 +681,2104 @@
       <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:43">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2">
-        <v>6149.13</v>
+        <v>9092.82</v>
       </c>
       <c r="C2">
-        <v>5822.9</v>
+        <v>9554.02</v>
       </c>
       <c r="D2">
-        <v>6439.68</v>
+        <v>11445.66</v>
       </c>
       <c r="E2">
-        <v>7125.16</v>
+        <v>10733.81</v>
       </c>
       <c r="F2">
-        <v>6851.35</v>
+        <v>11513.84</v>
       </c>
       <c r="G2">
-        <v>6724.39</v>
+        <v>10371.14</v>
       </c>
       <c r="H2">
-        <v>6812.96</v>
+        <v>10561.49</v>
       </c>
       <c r="I2">
-        <v>7260.9</v>
+        <v>11732.48</v>
       </c>
       <c r="J2">
-        <v>7603.81</v>
+        <v>9547.52</v>
       </c>
       <c r="K2">
-        <v>7792.43</v>
+        <v>9187</v>
       </c>
       <c r="L2">
-        <v>7442.77</v>
+        <v>8820.59</v>
       </c>
       <c r="M2">
-        <v>6705.03</v>
+        <v>8616.43</v>
       </c>
       <c r="N2">
-        <v>6704.3</v>
+        <v>9356.389999999999</v>
       </c>
       <c r="O2">
-        <v>6751.91</v>
+        <v>9636.84</v>
       </c>
       <c r="P2">
-        <v>5637.99</v>
+        <v>8080.8</v>
       </c>
       <c r="Q2">
-        <v>4241.49</v>
+        <v>7347.64</v>
       </c>
       <c r="R2">
-        <v>5776.06</v>
+        <v>8074.43</v>
       </c>
       <c r="S2">
-        <v>7474.54</v>
+        <v>9531.549999999999</v>
       </c>
       <c r="T2">
-        <v>6988.45</v>
+        <v>9689.6</v>
       </c>
       <c r="U2">
-        <v>7160.4</v>
+        <v>10513.61</v>
       </c>
       <c r="V2">
-        <v>7588.05</v>
+        <v>9676.110000000001</v>
       </c>
       <c r="W2">
-        <v>8213.26</v>
+        <v>10265.18</v>
       </c>
       <c r="X2">
-        <v>7876.22</v>
+        <v>9277.73</v>
       </c>
       <c r="Y2">
-        <v>7156.49</v>
+        <v>10029.66</v>
       </c>
       <c r="Z2">
-        <v>7420.25</v>
+        <v>11283.99</v>
       </c>
       <c r="AA2">
-        <v>6924.07</v>
+        <v>9978.35</v>
       </c>
       <c r="AB2">
-        <v>8949.969999999999</v>
+        <v>10689.45</v>
       </c>
       <c r="AC2">
-        <v>9158.719999999999</v>
+        <v>10962.49</v>
       </c>
       <c r="AD2">
-        <v>9442.52</v>
+        <v>11094.88</v>
       </c>
       <c r="AE2">
-        <v>9852.049999999999</v>
+        <v>11602.84</v>
       </c>
       <c r="AF2">
-        <v>8841.84</v>
+        <v>10658.33</v>
       </c>
       <c r="AG2">
-        <v>9491.120000000001</v>
+        <v>11454.39</v>
       </c>
       <c r="AH2">
-        <v>9355.969999999999</v>
+        <v>10796.49</v>
       </c>
       <c r="AI2">
-        <v>8885.610000000001</v>
+        <v>10762.91</v>
       </c>
       <c r="AJ2">
-        <v>9043.49</v>
+        <v>10968.54</v>
       </c>
       <c r="AK2">
-        <v>8431.709999999999</v>
+        <v>11665.09</v>
       </c>
       <c r="AL2">
-        <v>7939.91</v>
+        <v>9735.389999999999</v>
       </c>
       <c r="AM2">
-        <v>7764.2</v>
+        <v>10038.02</v>
       </c>
       <c r="AN2">
-        <v>9133.799999999999</v>
+        <v>11850.8</v>
       </c>
       <c r="AO2">
-        <v>8162.71</v>
+        <v>9536.57</v>
       </c>
       <c r="AP2">
-        <v>3328.1</v>
+        <v>3265.85</v>
+      </c>
+      <c r="AQ2">
+        <v>5.03</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:43">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3">
-        <v>7303.35</v>
+        <v>11900.78</v>
       </c>
       <c r="C3">
-        <v>7844.75</v>
+        <v>11281.99</v>
       </c>
       <c r="D3">
-        <v>8147.34</v>
+        <v>12176.95</v>
       </c>
       <c r="E3">
-        <v>8222.74</v>
+        <v>12517.04</v>
       </c>
       <c r="F3">
-        <v>11112.86</v>
+        <v>12944.89</v>
       </c>
       <c r="G3">
-        <v>9233.24</v>
+        <v>11722.78</v>
       </c>
       <c r="H3">
-        <v>8651.52</v>
+        <v>12054.52</v>
       </c>
       <c r="I3">
-        <v>7820.27</v>
+        <v>12094.93</v>
       </c>
       <c r="J3">
-        <v>6732.18</v>
+        <v>11595.27</v>
       </c>
       <c r="K3">
-        <v>11960.81</v>
+        <v>13439.04</v>
       </c>
       <c r="L3">
-        <v>10992.77</v>
+        <v>12183.01</v>
       </c>
       <c r="M3">
-        <v>10590.7</v>
+        <v>12119.85</v>
       </c>
       <c r="N3">
-        <v>9299.549999999999</v>
+        <v>11844.33</v>
       </c>
       <c r="O3">
-        <v>8676.59</v>
+        <v>11491.42</v>
       </c>
       <c r="P3">
-        <v>6824.11</v>
+        <v>9777.66</v>
       </c>
       <c r="Q3">
-        <v>4453.59</v>
+        <v>7435.15</v>
       </c>
       <c r="R3">
-        <v>6986.85</v>
+        <v>8698.780000000001</v>
       </c>
       <c r="S3">
-        <v>7286.11</v>
+        <v>10523.64</v>
       </c>
       <c r="T3">
-        <v>8242.18</v>
+        <v>11354.11</v>
       </c>
       <c r="U3">
-        <v>11535.59</v>
+        <v>11062.24</v>
       </c>
       <c r="V3">
-        <v>12292.14</v>
+        <v>11585.81</v>
       </c>
       <c r="W3">
-        <v>12993.26</v>
+        <v>12404.86</v>
       </c>
       <c r="X3">
-        <v>11317.62</v>
+        <v>11339.88</v>
       </c>
       <c r="Y3">
-        <v>13462.84</v>
+        <v>12012.66</v>
       </c>
       <c r="Z3">
-        <v>15080.63</v>
+        <v>10991.08</v>
       </c>
       <c r="AA3">
-        <v>13593.85</v>
+        <v>10360.5</v>
       </c>
       <c r="AB3">
-        <v>15386.06</v>
+        <v>12225.83</v>
       </c>
       <c r="AC3">
-        <v>13364.81</v>
+        <v>12327.61</v>
       </c>
       <c r="AD3">
-        <v>10710.28</v>
+        <v>12018.9</v>
       </c>
       <c r="AE3">
-        <v>12051.26</v>
+        <v>12353.69</v>
       </c>
       <c r="AF3">
-        <v>10762.27</v>
+        <v>11643.61</v>
       </c>
       <c r="AG3">
-        <v>13952.72</v>
+        <v>11749.45</v>
       </c>
       <c r="AH3">
-        <v>14703.8</v>
+        <v>12312.33</v>
       </c>
       <c r="AI3">
-        <v>15224.24</v>
+        <v>12765.08</v>
       </c>
       <c r="AJ3">
-        <v>14066.86</v>
+        <v>12364.64</v>
       </c>
       <c r="AK3">
-        <v>14600.29</v>
+        <v>12242.4</v>
       </c>
       <c r="AL3">
-        <v>15193.93</v>
+        <v>10854.44</v>
       </c>
       <c r="AM3">
-        <v>13772.55</v>
+        <v>11245.57</v>
       </c>
       <c r="AN3">
-        <v>16637.22</v>
+        <v>12724.22</v>
       </c>
       <c r="AO3">
-        <v>9625.99</v>
+        <v>11077.2</v>
       </c>
       <c r="AP3">
-        <v>3605.92</v>
+        <v>4867.36</v>
+      </c>
+      <c r="AQ3">
+        <v>4.4</v>
       </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:43">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4">
-        <v>7712.23</v>
+        <v>10264.01</v>
       </c>
       <c r="C4">
-        <v>7705.38</v>
+        <v>10282.36</v>
       </c>
       <c r="D4">
-        <v>8236.190000000001</v>
+        <v>11441.4</v>
       </c>
       <c r="E4">
-        <v>8471.639999999999</v>
+        <v>10952.78</v>
       </c>
       <c r="F4">
-        <v>9092.950000000001</v>
+        <v>11524.35</v>
       </c>
       <c r="G4">
-        <v>7945.56</v>
+        <v>10696.75</v>
       </c>
       <c r="H4">
-        <v>8840.360000000001</v>
+        <v>10422.14</v>
       </c>
       <c r="I4">
-        <v>8689.52</v>
+        <v>10504.53</v>
       </c>
       <c r="J4">
-        <v>8125.41</v>
+        <v>10492.2</v>
       </c>
       <c r="K4">
-        <v>9031.75</v>
+        <v>11444.65</v>
       </c>
       <c r="L4">
-        <v>8603.16</v>
+        <v>10268.41</v>
       </c>
       <c r="M4">
-        <v>8535.280000000001</v>
+        <v>10396.99</v>
       </c>
       <c r="N4">
-        <v>8647.92</v>
+        <v>10368.52</v>
       </c>
       <c r="O4">
-        <v>8818.860000000001</v>
+        <v>10795.26</v>
       </c>
       <c r="P4">
-        <v>7582.94</v>
+        <v>9707.23</v>
       </c>
       <c r="Q4">
-        <v>5292.21</v>
+        <v>7550.91</v>
       </c>
       <c r="R4">
-        <v>7379.03</v>
+        <v>8510.73</v>
       </c>
       <c r="S4">
-        <v>8782.219999999999</v>
+        <v>9812.4</v>
       </c>
       <c r="T4">
-        <v>8826.709999999999</v>
+        <v>10760.52</v>
       </c>
       <c r="U4">
-        <v>8529.91</v>
+        <v>10141.87</v>
       </c>
       <c r="V4">
-        <v>9269.860000000001</v>
+        <v>10661.26</v>
       </c>
       <c r="W4">
-        <v>9956.860000000001</v>
+        <v>11053.48</v>
       </c>
       <c r="X4">
-        <v>9513.18</v>
+        <v>10178.73</v>
       </c>
       <c r="Y4">
-        <v>10168.51</v>
+        <v>11335.17</v>
       </c>
       <c r="Z4">
-        <v>9273.1</v>
+        <v>9645.07</v>
       </c>
       <c r="AA4">
-        <v>9436.17</v>
+        <v>9929.040000000001</v>
       </c>
       <c r="AB4">
-        <v>10970.5</v>
+        <v>11276.41</v>
       </c>
       <c r="AC4">
-        <v>11366.87</v>
+        <v>11275.17</v>
       </c>
       <c r="AD4">
-        <v>10943.47</v>
+        <v>10431.35</v>
       </c>
       <c r="AE4">
-        <v>11499.88</v>
+        <v>10994.58</v>
       </c>
       <c r="AF4">
-        <v>11283.34</v>
+        <v>11084.91</v>
       </c>
       <c r="AG4">
-        <v>11541.75</v>
+        <v>11114.06</v>
       </c>
       <c r="AH4">
-        <v>11437.34</v>
+        <v>10996.67</v>
       </c>
       <c r="AI4">
-        <v>12426.69</v>
+        <v>10905.25</v>
       </c>
       <c r="AJ4">
-        <v>12699.4</v>
+        <v>8946.74</v>
       </c>
       <c r="AK4">
-        <v>14089.05</v>
+        <v>8983.07</v>
       </c>
       <c r="AL4">
-        <v>14131.17</v>
+        <v>9447.24</v>
       </c>
       <c r="AM4">
-        <v>13410.09</v>
+        <v>9644.540000000001</v>
       </c>
       <c r="AN4">
-        <v>14845.34</v>
+        <v>11194.65</v>
       </c>
       <c r="AO4">
-        <v>11906.87</v>
+        <v>9543.91</v>
       </c>
       <c r="AP4">
-        <v>4704.36</v>
+        <v>4045.67</v>
+      </c>
+      <c r="AQ4">
+        <v>3.46</v>
       </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:43">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5">
-        <v>6377.44</v>
+        <v>9974.08</v>
       </c>
       <c r="C5">
-        <v>6483.93</v>
+        <v>9817.040000000001</v>
       </c>
       <c r="D5">
-        <v>7564.38</v>
+        <v>10495.34</v>
       </c>
       <c r="E5">
-        <v>6707.72</v>
+        <v>10613.85</v>
       </c>
       <c r="F5">
-        <v>7336.02</v>
+        <v>10875.82</v>
       </c>
       <c r="G5">
-        <v>7075.46</v>
+        <v>9834.530000000001</v>
       </c>
       <c r="H5">
-        <v>7022.21</v>
+        <v>10443.41</v>
       </c>
       <c r="I5">
-        <v>6964.65</v>
+        <v>10825.7</v>
       </c>
       <c r="J5">
-        <v>7581.56</v>
+        <v>9861.030000000001</v>
       </c>
       <c r="K5">
-        <v>8152.14</v>
+        <v>11361.9</v>
       </c>
       <c r="L5">
-        <v>7578.78</v>
+        <v>8892.92</v>
       </c>
       <c r="M5">
-        <v>7243.23</v>
+        <v>9748.379999999999</v>
       </c>
       <c r="N5">
-        <v>5870.55</v>
+        <v>9745.6</v>
       </c>
       <c r="O5">
-        <v>7110.41</v>
+        <v>9759.77</v>
       </c>
       <c r="P5">
-        <v>5870.4</v>
+        <v>8892</v>
       </c>
       <c r="Q5">
-        <v>5541.67</v>
+        <v>7189.38</v>
       </c>
       <c r="R5">
-        <v>7619.64</v>
+        <v>8955.290000000001</v>
       </c>
       <c r="S5">
-        <v>7098.99</v>
+        <v>10322.51</v>
       </c>
       <c r="T5">
-        <v>7178.47</v>
+        <v>10643.15</v>
       </c>
       <c r="U5">
-        <v>6533.7</v>
+        <v>10383.47</v>
       </c>
       <c r="V5">
-        <v>8184.82</v>
+        <v>10820.52</v>
       </c>
       <c r="W5">
-        <v>8744.74</v>
+        <v>11103.95</v>
       </c>
       <c r="X5">
-        <v>8301.16</v>
+        <v>9979.190000000001</v>
       </c>
       <c r="Y5">
-        <v>8302.02</v>
+        <v>11309.6</v>
       </c>
       <c r="Z5">
-        <v>8392.23</v>
+        <v>10843.38</v>
       </c>
       <c r="AA5">
-        <v>8676.59</v>
+        <v>10269.3</v>
       </c>
       <c r="AB5">
-        <v>9572.709999999999</v>
+        <v>11959.83</v>
       </c>
       <c r="AC5">
-        <v>9150.17</v>
+        <v>10979.28</v>
       </c>
       <c r="AD5">
-        <v>8374.889999999999</v>
+        <v>10778.97</v>
       </c>
       <c r="AE5">
-        <v>9335.74</v>
+        <v>10905.47</v>
       </c>
       <c r="AF5">
-        <v>9986.120000000001</v>
+        <v>10939.85</v>
       </c>
       <c r="AG5">
-        <v>10665.6</v>
+        <v>11292.76</v>
       </c>
       <c r="AH5">
-        <v>10662.34</v>
+        <v>11312.55</v>
       </c>
       <c r="AI5">
-        <v>11543.8</v>
+        <v>11450.88</v>
       </c>
       <c r="AJ5">
-        <v>10770.67</v>
+        <v>10957.4</v>
       </c>
       <c r="AK5">
-        <v>10723.32</v>
+        <v>10873.35</v>
       </c>
       <c r="AL5">
-        <v>12080.39</v>
+        <v>9600.059999999999</v>
       </c>
       <c r="AM5">
-        <v>11085.47</v>
+        <v>9989.59</v>
       </c>
       <c r="AN5">
-        <v>12215.29</v>
+        <v>11141.17</v>
       </c>
       <c r="AO5">
-        <v>9747.549999999999</v>
+        <v>9802.4</v>
       </c>
       <c r="AP5">
-        <v>3792.71</v>
+        <v>3755.73</v>
+      </c>
+      <c r="AQ5">
+        <v>4.31</v>
       </c>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:43">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6">
-        <v>4984.19</v>
+        <v>9618.35</v>
       </c>
       <c r="C6">
-        <v>5136.92</v>
+        <v>9079.27</v>
       </c>
       <c r="D6">
-        <v>5562.22</v>
+        <v>10338.54</v>
       </c>
       <c r="E6">
-        <v>6619.68</v>
+        <v>9887.870000000001</v>
       </c>
       <c r="F6">
-        <v>6385.33</v>
+        <v>10322.16</v>
       </c>
       <c r="G6">
-        <v>6271.76</v>
+        <v>9182.440000000001</v>
       </c>
       <c r="H6">
-        <v>5467.47</v>
+        <v>10245.92</v>
       </c>
       <c r="I6">
-        <v>6605.09</v>
+        <v>9962.82</v>
       </c>
       <c r="J6">
-        <v>5534.16</v>
+        <v>9548.129999999999</v>
       </c>
       <c r="K6">
-        <v>6842.39</v>
+        <v>11600.13</v>
       </c>
       <c r="L6">
-        <v>6016.84</v>
+        <v>8187.72</v>
       </c>
       <c r="M6">
-        <v>5811.99</v>
+        <v>9000.870000000001</v>
       </c>
       <c r="N6">
-        <v>5983.27</v>
+        <v>9281.07</v>
       </c>
       <c r="O6">
-        <v>7081.29</v>
+        <v>9389.530000000001</v>
       </c>
       <c r="P6">
-        <v>5564.8</v>
+        <v>9148.34</v>
       </c>
       <c r="Q6">
-        <v>3888.94</v>
+        <v>7107.62</v>
       </c>
       <c r="R6">
-        <v>4914.27</v>
+        <v>8211.66</v>
       </c>
       <c r="S6">
-        <v>5992.73</v>
+        <v>9701.360000000001</v>
       </c>
       <c r="T6">
-        <v>5845.28</v>
+        <v>10187.98</v>
       </c>
       <c r="U6">
-        <v>5992.96</v>
+        <v>11200.61</v>
       </c>
       <c r="V6">
-        <v>6400.39</v>
+        <v>10418.76</v>
       </c>
       <c r="W6">
-        <v>6306.12</v>
+        <v>10188.68</v>
       </c>
       <c r="X6">
-        <v>6016.43</v>
+        <v>9487.4</v>
       </c>
       <c r="Y6">
-        <v>6161.93</v>
+        <v>9818.219999999999</v>
       </c>
       <c r="Z6">
-        <v>6638.47</v>
+        <v>9512.84</v>
       </c>
       <c r="AA6">
-        <v>6027.92</v>
+        <v>10518.34</v>
       </c>
       <c r="AB6">
-        <v>7799.25</v>
+        <v>11927.61</v>
       </c>
       <c r="AC6">
-        <v>7643.9</v>
+        <v>9831.639999999999</v>
       </c>
       <c r="AD6">
-        <v>6686.12</v>
+        <v>9595.16</v>
       </c>
       <c r="AE6">
-        <v>7190.08</v>
+        <v>9902.6</v>
       </c>
       <c r="AF6">
-        <v>8153.05</v>
+        <v>10417.66</v>
       </c>
       <c r="AG6">
-        <v>6878.83</v>
+        <v>9664.549999999999</v>
       </c>
       <c r="AH6">
-        <v>8885.83</v>
+        <v>9348.57</v>
       </c>
       <c r="AI6">
-        <v>8638.790000000001</v>
+        <v>10732.24</v>
       </c>
       <c r="AJ6">
-        <v>8256.35</v>
+        <v>10555.18</v>
       </c>
       <c r="AK6">
-        <v>8207.51</v>
+        <v>10389.94</v>
       </c>
       <c r="AL6">
-        <v>8350.129999999999</v>
+        <v>10731.45</v>
       </c>
       <c r="AM6">
-        <v>8436.290000000001</v>
+        <v>11019.05</v>
       </c>
       <c r="AN6">
-        <v>7511.06</v>
+        <v>12121.66</v>
       </c>
       <c r="AO6">
-        <v>1888.84</v>
+        <v>9803.42</v>
+      </c>
+      <c r="AP6">
+        <v>3945.55</v>
+      </c>
+      <c r="AQ6">
+        <v>3.78</v>
       </c>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:43">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7">
-        <v>8830.35</v>
+        <v>9477.5</v>
       </c>
       <c r="C7">
-        <v>8328.540000000001</v>
+        <v>9220.73</v>
       </c>
       <c r="D7">
-        <v>9778.35</v>
+        <v>9978.83</v>
       </c>
       <c r="E7">
-        <v>10460.03</v>
+        <v>10794.04</v>
       </c>
       <c r="F7">
-        <v>9508.629999999999</v>
+        <v>11105.71</v>
       </c>
       <c r="G7">
-        <v>10344.18</v>
+        <v>10088.61</v>
       </c>
       <c r="H7">
-        <v>10213.22</v>
+        <v>10314.18</v>
       </c>
       <c r="I7">
-        <v>9315.93</v>
+        <v>10931.39</v>
       </c>
       <c r="J7">
-        <v>8085.17</v>
+        <v>10312.47</v>
       </c>
       <c r="K7">
-        <v>12005.28</v>
+        <v>10078.23</v>
       </c>
       <c r="L7">
-        <v>9004.879999999999</v>
+        <v>9180.82</v>
       </c>
       <c r="M7">
-        <v>9624.040000000001</v>
+        <v>9439.280000000001</v>
       </c>
       <c r="N7">
-        <v>9898.18</v>
+        <v>9744.08</v>
       </c>
       <c r="O7">
-        <v>10061.45</v>
+        <v>9917.059999999999</v>
       </c>
       <c r="P7">
-        <v>9692.469999999999</v>
+        <v>8844.07</v>
       </c>
       <c r="Q7">
-        <v>6678.81</v>
+        <v>6761.96</v>
       </c>
       <c r="R7">
-        <v>8744.709999999999</v>
+        <v>8852.5</v>
       </c>
       <c r="S7">
-        <v>10145.57</v>
+        <v>10354.55</v>
       </c>
       <c r="T7">
-        <v>11274.13</v>
+        <v>9874.200000000001</v>
       </c>
       <c r="U7">
-        <v>10878.92</v>
+        <v>9960.85</v>
       </c>
       <c r="V7">
-        <v>11162.88</v>
+        <v>10356.48</v>
       </c>
       <c r="W7">
-        <v>12130.67</v>
+        <v>10972.72</v>
       </c>
       <c r="X7">
-        <v>11595.11</v>
+        <v>10049.54</v>
       </c>
       <c r="Y7">
-        <v>12477.98</v>
+        <v>11196.14</v>
       </c>
       <c r="Z7">
-        <v>10765.59</v>
+        <v>9294.290000000001</v>
       </c>
       <c r="AA7">
-        <v>13473.91</v>
+        <v>9896.540000000001</v>
       </c>
       <c r="AB7">
-        <v>12738.89</v>
+        <v>10848.72</v>
       </c>
       <c r="AC7">
-        <v>13021.26</v>
+        <v>10684.29</v>
       </c>
       <c r="AD7">
-        <v>12524.24</v>
+        <v>10369.51</v>
       </c>
       <c r="AE7">
-        <v>13674.06</v>
+        <v>10557.66</v>
       </c>
       <c r="AF7">
-        <v>15691.62</v>
+        <v>9845.190000000001</v>
       </c>
       <c r="AG7">
-        <v>13806.87</v>
+        <v>10986.57</v>
       </c>
       <c r="AH7">
-        <v>12418.33</v>
+        <v>10781.92</v>
       </c>
       <c r="AI7">
-        <v>12719.54</v>
+        <v>10572.44</v>
       </c>
       <c r="AJ7">
-        <v>12184.87</v>
+        <v>8484.040000000001</v>
       </c>
       <c r="AK7">
-        <v>8420.01</v>
+        <v>8126.55</v>
       </c>
       <c r="AL7">
-        <v>10548.51</v>
+        <v>9457.309999999999</v>
       </c>
       <c r="AM7">
-        <v>10518.46</v>
+        <v>9811.5</v>
       </c>
       <c r="AN7">
-        <v>12133.1</v>
+        <v>10854.92</v>
       </c>
       <c r="AO7">
-        <v>10960.64</v>
+        <v>9788.17</v>
       </c>
       <c r="AP7">
-        <v>4371.53</v>
+        <v>4184.21</v>
+      </c>
+      <c r="AQ7">
+        <v>4.05</v>
       </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:43">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8">
-        <v>7102.29</v>
+        <v>12493.34</v>
       </c>
       <c r="C8">
-        <v>6998.65</v>
+        <v>12565.9</v>
       </c>
       <c r="D8">
-        <v>7867.56</v>
+        <v>12984.39</v>
       </c>
       <c r="E8">
-        <v>7906.88</v>
+        <v>14491.04</v>
       </c>
       <c r="F8">
-        <v>8217.190000000001</v>
+        <v>13961.88</v>
       </c>
       <c r="G8">
-        <v>7327.53</v>
+        <v>12506.87</v>
       </c>
       <c r="H8">
-        <v>7359.96</v>
+        <v>13016.87</v>
       </c>
       <c r="I8">
-        <v>7787.9</v>
+        <v>12875.49</v>
       </c>
       <c r="J8">
-        <v>7547.14</v>
+        <v>12294.66</v>
       </c>
       <c r="K8">
-        <v>8823.299999999999</v>
+        <v>13328.17</v>
       </c>
       <c r="L8">
-        <v>7623.81</v>
+        <v>12802.87</v>
       </c>
       <c r="M8">
-        <v>7702.99</v>
+        <v>13535.32</v>
       </c>
       <c r="N8">
-        <v>7289.61</v>
+        <v>13370.93</v>
       </c>
       <c r="O8">
-        <v>7379.1</v>
+        <v>12884.61</v>
       </c>
       <c r="P8">
-        <v>6734.49</v>
+        <v>12317.83</v>
       </c>
       <c r="Q8">
-        <v>4777.13</v>
+        <v>8868.040000000001</v>
       </c>
       <c r="R8">
-        <v>6238.21</v>
+        <v>11609.71</v>
       </c>
       <c r="S8">
-        <v>7695</v>
+        <v>13080.4</v>
       </c>
       <c r="T8">
-        <v>8332.610000000001</v>
+        <v>13671.74</v>
       </c>
       <c r="U8">
-        <v>8152.63</v>
+        <v>13602.23</v>
       </c>
       <c r="V8">
-        <v>8637.93</v>
+        <v>13381.29</v>
       </c>
       <c r="W8">
-        <v>9029.889999999999</v>
+        <v>14188.5</v>
       </c>
       <c r="X8">
-        <v>8269.6</v>
+        <v>14723.96</v>
       </c>
       <c r="Y8">
-        <v>8797.76</v>
+        <v>15364.2</v>
       </c>
       <c r="Z8">
-        <v>7775.66</v>
+        <v>12390.69</v>
       </c>
       <c r="AA8">
-        <v>7807.26</v>
+        <v>11447.22</v>
       </c>
       <c r="AB8">
-        <v>9427.639999999999</v>
+        <v>13525.35</v>
       </c>
       <c r="AC8">
-        <v>9494.290000000001</v>
+        <v>13651.33</v>
       </c>
       <c r="AD8">
-        <v>9436.77</v>
+        <v>13555.88</v>
       </c>
       <c r="AE8">
-        <v>9576.280000000001</v>
+        <v>13241.1</v>
       </c>
       <c r="AF8">
-        <v>9788.370000000001</v>
+        <v>13808.79</v>
       </c>
       <c r="AG8">
-        <v>10093.96</v>
+        <v>14112.58</v>
       </c>
       <c r="AH8">
-        <v>10376.72</v>
+        <v>13609.06</v>
       </c>
       <c r="AI8">
-        <v>10569.63</v>
+        <v>13090.16</v>
       </c>
       <c r="AJ8">
-        <v>10360.81</v>
+        <v>13098.01</v>
       </c>
       <c r="AK8">
-        <v>10528.51</v>
+        <v>13319.44</v>
       </c>
       <c r="AL8">
-        <v>9816.35</v>
+        <v>13963.65</v>
       </c>
       <c r="AM8">
-        <v>9867.200000000001</v>
+        <v>12745.39</v>
       </c>
       <c r="AN8">
-        <v>10732.76</v>
+        <v>13739.56</v>
       </c>
       <c r="AO8">
-        <v>9261.790000000001</v>
+        <v>11411.45</v>
       </c>
       <c r="AP8">
-        <v>3381.17</v>
+        <v>3996.21</v>
+      </c>
+      <c r="AQ8">
+        <v>5.45</v>
       </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:43">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9">
-        <v>6990.54</v>
+        <v>14016.74</v>
       </c>
       <c r="C9">
-        <v>6902.93</v>
+        <v>12631.65</v>
       </c>
       <c r="D9">
-        <v>6829.93</v>
+        <v>14525.89</v>
       </c>
       <c r="E9">
-        <v>8042.36</v>
+        <v>14108.57</v>
       </c>
       <c r="F9">
-        <v>9056.370000000001</v>
+        <v>15524.23</v>
       </c>
       <c r="G9">
-        <v>7257.29</v>
+        <v>13282.77</v>
       </c>
       <c r="H9">
-        <v>8068.25</v>
+        <v>16169.94</v>
       </c>
       <c r="I9">
-        <v>8671.83</v>
+        <v>15197.24</v>
       </c>
       <c r="J9">
-        <v>7267.66</v>
+        <v>14718.95</v>
       </c>
       <c r="K9">
-        <v>8329.549999999999</v>
+        <v>16870.51</v>
       </c>
       <c r="L9">
-        <v>8245.059999999999</v>
+        <v>15409.55</v>
       </c>
       <c r="M9">
-        <v>6612.3</v>
+        <v>15724.51</v>
       </c>
       <c r="N9">
-        <v>5972.55</v>
+        <v>15625.77</v>
       </c>
       <c r="O9">
-        <v>8622.879999999999</v>
+        <v>14808.27</v>
       </c>
       <c r="P9">
-        <v>7020.88</v>
+        <v>13303.99</v>
       </c>
       <c r="Q9">
-        <v>5994.61</v>
+        <v>10667.57</v>
       </c>
       <c r="R9">
-        <v>7860.99</v>
+        <v>11391.1</v>
       </c>
       <c r="S9">
-        <v>7181.08</v>
+        <v>13779.97</v>
       </c>
       <c r="T9">
-        <v>8579.129999999999</v>
+        <v>14886.93</v>
       </c>
       <c r="U9">
-        <v>9721.43</v>
+        <v>14548.69</v>
       </c>
       <c r="V9">
-        <v>10146.89</v>
+        <v>15449.33</v>
       </c>
       <c r="W9">
-        <v>10166.29</v>
+        <v>16800.55</v>
       </c>
       <c r="X9">
-        <v>8684.559999999999</v>
+        <v>14918.09</v>
       </c>
       <c r="Y9">
-        <v>8786.73</v>
+        <v>15618.41</v>
       </c>
       <c r="Z9">
-        <v>8128</v>
+        <v>15431.4</v>
       </c>
       <c r="AA9">
-        <v>6383.62</v>
+        <v>14634.69</v>
       </c>
       <c r="AB9">
-        <v>8374.84</v>
+        <v>18221.28</v>
       </c>
       <c r="AC9">
-        <v>9154.969999999999</v>
+        <v>17669.26</v>
       </c>
       <c r="AD9">
-        <v>9481.09</v>
+        <v>16576.72</v>
       </c>
       <c r="AE9">
-        <v>9024.610000000001</v>
+        <v>17527.8</v>
       </c>
       <c r="AF9">
-        <v>9083.77</v>
+        <v>16997.87</v>
       </c>
       <c r="AG9">
-        <v>9210.549999999999</v>
+        <v>16275.58</v>
       </c>
       <c r="AH9">
-        <v>9238.299999999999</v>
+        <v>17024.69</v>
       </c>
       <c r="AI9">
-        <v>9810.469999999999</v>
+        <v>17630.72</v>
       </c>
       <c r="AJ9">
-        <v>12373.77</v>
+        <v>17596.87</v>
       </c>
       <c r="AK9">
-        <v>10709.54</v>
+        <v>16965.87</v>
       </c>
       <c r="AL9">
-        <v>9345.65</v>
+        <v>16494.05</v>
       </c>
       <c r="AM9">
-        <v>9862.620000000001</v>
+        <v>15810.56</v>
       </c>
       <c r="AN9">
-        <v>11070.77</v>
+        <v>18761.43</v>
       </c>
       <c r="AO9">
-        <v>10511.04</v>
+        <v>15191.91</v>
       </c>
       <c r="AP9">
-        <v>2880.78</v>
+        <v>5710.11</v>
+      </c>
+      <c r="AQ9">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43">
+      <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <v>13927.8</v>
+      </c>
+      <c r="C10">
+        <v>13797.65</v>
+      </c>
+      <c r="D10">
+        <v>14676.97</v>
+      </c>
+      <c r="E10">
+        <v>14737.75</v>
+      </c>
+      <c r="F10">
+        <v>14488.79</v>
+      </c>
+      <c r="G10">
+        <v>13362.4</v>
+      </c>
+      <c r="H10">
+        <v>14496.57</v>
+      </c>
+      <c r="I10">
+        <v>15011.86</v>
+      </c>
+      <c r="J10">
+        <v>14100.77</v>
+      </c>
+      <c r="K10">
+        <v>14828.53</v>
+      </c>
+      <c r="L10">
+        <v>14788.3</v>
+      </c>
+      <c r="M10">
+        <v>14283.31</v>
+      </c>
+      <c r="N10">
+        <v>15323.1</v>
+      </c>
+      <c r="O10">
+        <v>16082.21</v>
+      </c>
+      <c r="P10">
+        <v>15714.38</v>
+      </c>
+      <c r="Q10">
+        <v>10401.38</v>
+      </c>
+      <c r="R10">
+        <v>12757.18</v>
+      </c>
+      <c r="S10">
+        <v>12880.43</v>
+      </c>
+      <c r="T10">
+        <v>14536.33</v>
+      </c>
+      <c r="U10">
+        <v>15144.92</v>
+      </c>
+      <c r="V10">
+        <v>14904.18</v>
+      </c>
+      <c r="W10">
+        <v>15599.05</v>
+      </c>
+      <c r="X10">
+        <v>13114.08</v>
+      </c>
+      <c r="Y10">
+        <v>15459.34</v>
+      </c>
+      <c r="Z10">
+        <v>13320.25</v>
+      </c>
+      <c r="AA10">
+        <v>11707.5</v>
+      </c>
+      <c r="AB10">
+        <v>13860.04</v>
+      </c>
+      <c r="AC10">
+        <v>13838.71</v>
+      </c>
+      <c r="AD10">
+        <v>12972.78</v>
+      </c>
+      <c r="AE10">
+        <v>14582.64</v>
+      </c>
+      <c r="AF10">
+        <v>14489.57</v>
+      </c>
+      <c r="AG10">
+        <v>13738.5</v>
+      </c>
+      <c r="AH10">
+        <v>13782.82</v>
+      </c>
+      <c r="AI10">
+        <v>15597.13</v>
+      </c>
+      <c r="AJ10">
+        <v>12883.65</v>
+      </c>
+      <c r="AK10">
+        <v>12837.93</v>
+      </c>
+      <c r="AL10">
+        <v>12361.09</v>
+      </c>
+      <c r="AM10">
+        <v>11612</v>
+      </c>
+      <c r="AN10">
+        <v>12729.15</v>
+      </c>
+      <c r="AO10">
+        <v>12040.03</v>
+      </c>
+      <c r="AP10">
+        <v>3678.34</v>
+      </c>
+      <c r="AQ10">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43">
+      <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11">
+        <v>12983.63</v>
+      </c>
+      <c r="C11">
+        <v>12768.55</v>
+      </c>
+      <c r="D11">
+        <v>14399.35</v>
+      </c>
+      <c r="E11">
+        <v>14510.11</v>
+      </c>
+      <c r="F11">
+        <v>14482.11</v>
+      </c>
+      <c r="G11">
+        <v>12476.45</v>
+      </c>
+      <c r="H11">
+        <v>14171.67</v>
+      </c>
+      <c r="I11">
+        <v>14573.8</v>
+      </c>
+      <c r="J11">
+        <v>12886.31</v>
+      </c>
+      <c r="K11">
+        <v>15169.78</v>
+      </c>
+      <c r="L11">
+        <v>13500.05</v>
+      </c>
+      <c r="M11">
+        <v>13883.51</v>
+      </c>
+      <c r="N11">
+        <v>12962.76</v>
+      </c>
+      <c r="O11">
+        <v>12474.01</v>
+      </c>
+      <c r="P11">
+        <v>11790.54</v>
+      </c>
+      <c r="Q11">
+        <v>8900.6</v>
+      </c>
+      <c r="R11">
+        <v>10844.95</v>
+      </c>
+      <c r="S11">
+        <v>12626.91</v>
+      </c>
+      <c r="T11">
+        <v>13177.92</v>
+      </c>
+      <c r="U11">
+        <v>13145.63</v>
+      </c>
+      <c r="V11">
+        <v>13752.02</v>
+      </c>
+      <c r="W11">
+        <v>15252.09</v>
+      </c>
+      <c r="X11">
+        <v>12922.23</v>
+      </c>
+      <c r="Y11">
+        <v>13890.55</v>
+      </c>
+      <c r="Z11">
+        <v>12823.81</v>
+      </c>
+      <c r="AA11">
+        <v>12686.45</v>
+      </c>
+      <c r="AB11">
+        <v>15469.36</v>
+      </c>
+      <c r="AC11">
+        <v>15075.6</v>
+      </c>
+      <c r="AD11">
+        <v>13865.82</v>
+      </c>
+      <c r="AE11">
+        <v>14948.92</v>
+      </c>
+      <c r="AF11">
+        <v>14312.09</v>
+      </c>
+      <c r="AG11">
+        <v>14228.64</v>
+      </c>
+      <c r="AH11">
+        <v>13664.16</v>
+      </c>
+      <c r="AI11">
+        <v>14140.13</v>
+      </c>
+      <c r="AJ11">
+        <v>13493.38</v>
+      </c>
+      <c r="AK11">
+        <v>14087.76</v>
+      </c>
+      <c r="AL11">
+        <v>12317.95</v>
+      </c>
+      <c r="AM11">
+        <v>11755</v>
+      </c>
+      <c r="AN11">
+        <v>14066.71</v>
+      </c>
+      <c r="AO11">
+        <v>12516.44</v>
+      </c>
+      <c r="AP11">
+        <v>4660.97</v>
+      </c>
+      <c r="AQ11">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>10833.47</v>
+      </c>
+      <c r="C12">
+        <v>9895.07</v>
+      </c>
+      <c r="D12">
+        <v>10415.48</v>
+      </c>
+      <c r="E12">
+        <v>11777.74</v>
+      </c>
+      <c r="F12">
+        <v>12844.24</v>
+      </c>
+      <c r="G12">
+        <v>9913.610000000001</v>
+      </c>
+      <c r="H12">
+        <v>10473.82</v>
+      </c>
+      <c r="I12">
+        <v>10510.85</v>
+      </c>
+      <c r="J12">
+        <v>10405.09</v>
+      </c>
+      <c r="K12">
+        <v>11484.8</v>
+      </c>
+      <c r="L12">
+        <v>10357.54</v>
+      </c>
+      <c r="M12">
+        <v>10996.8</v>
+      </c>
+      <c r="N12">
+        <v>10986.96</v>
+      </c>
+      <c r="O12">
+        <v>10649.68</v>
+      </c>
+      <c r="P12">
+        <v>9921.639999999999</v>
+      </c>
+      <c r="Q12">
+        <v>6994.36</v>
+      </c>
+      <c r="R12">
+        <v>7906.19</v>
+      </c>
+      <c r="S12">
+        <v>9596.67</v>
+      </c>
+      <c r="T12">
+        <v>10114.21</v>
+      </c>
+      <c r="U12">
+        <v>9379.719999999999</v>
+      </c>
+      <c r="V12">
+        <v>10620.67</v>
+      </c>
+      <c r="W12">
+        <v>12733.23</v>
+      </c>
+      <c r="X12">
+        <v>12264.65</v>
+      </c>
+      <c r="Y12">
+        <v>12570.63</v>
+      </c>
+      <c r="Z12">
+        <v>11438.79</v>
+      </c>
+      <c r="AA12">
+        <v>11382.01</v>
+      </c>
+      <c r="AB12">
+        <v>12884.52</v>
+      </c>
+      <c r="AC12">
+        <v>12670.96</v>
+      </c>
+      <c r="AD12">
+        <v>12537.49</v>
+      </c>
+      <c r="AE12">
+        <v>12500.93</v>
+      </c>
+      <c r="AF12">
+        <v>13314.33</v>
+      </c>
+      <c r="AG12">
+        <v>12762.05</v>
+      </c>
+      <c r="AH12">
+        <v>12793.5</v>
+      </c>
+      <c r="AI12">
+        <v>12388.43</v>
+      </c>
+      <c r="AJ12">
+        <v>10207.9</v>
+      </c>
+      <c r="AK12">
+        <v>10442.96</v>
+      </c>
+      <c r="AL12">
+        <v>10127.89</v>
+      </c>
+      <c r="AM12">
+        <v>10105.05</v>
+      </c>
+      <c r="AN12">
+        <v>13793.36</v>
+      </c>
+      <c r="AO12">
+        <v>11771.82</v>
+      </c>
+      <c r="AP12">
+        <v>4102.25</v>
+      </c>
+      <c r="AQ12">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13">
+        <v>10833.14</v>
+      </c>
+      <c r="C13">
+        <v>10739.94</v>
+      </c>
+      <c r="D13">
+        <v>11689.39</v>
+      </c>
+      <c r="E13">
+        <v>10898.91</v>
+      </c>
+      <c r="F13">
+        <v>12270.49</v>
+      </c>
+      <c r="G13">
+        <v>10962.76</v>
+      </c>
+      <c r="H13">
+        <v>10494.27</v>
+      </c>
+      <c r="I13">
+        <v>11009.43</v>
+      </c>
+      <c r="J13">
+        <v>11032.54</v>
+      </c>
+      <c r="K13">
+        <v>12369.17</v>
+      </c>
+      <c r="L13">
+        <v>10438.35</v>
+      </c>
+      <c r="M13">
+        <v>10049.64</v>
+      </c>
+      <c r="N13">
+        <v>10621.43</v>
+      </c>
+      <c r="O13">
+        <v>10093.49</v>
+      </c>
+      <c r="P13">
+        <v>9665.030000000001</v>
+      </c>
+      <c r="Q13">
+        <v>6845.2</v>
+      </c>
+      <c r="R13">
+        <v>9407.4</v>
+      </c>
+      <c r="S13">
+        <v>10375.63</v>
+      </c>
+      <c r="T13">
+        <v>10651.56</v>
+      </c>
+      <c r="U13">
+        <v>10277.15</v>
+      </c>
+      <c r="V13">
+        <v>10291.16</v>
+      </c>
+      <c r="W13">
+        <v>10758.36</v>
+      </c>
+      <c r="X13">
+        <v>9214.09</v>
+      </c>
+      <c r="Y13">
+        <v>10051.66</v>
+      </c>
+      <c r="Z13">
+        <v>8775.27</v>
+      </c>
+      <c r="AA13">
+        <v>9189.809999999999</v>
+      </c>
+      <c r="AB13">
+        <v>11407.11</v>
+      </c>
+      <c r="AC13">
+        <v>9949.440000000001</v>
+      </c>
+      <c r="AD13">
+        <v>9676.83</v>
+      </c>
+      <c r="AE13">
+        <v>10488.41</v>
+      </c>
+      <c r="AF13">
+        <v>10379.35</v>
+      </c>
+      <c r="AG13">
+        <v>11679.9</v>
+      </c>
+      <c r="AH13">
+        <v>10633.63</v>
+      </c>
+      <c r="AI13">
+        <v>10963.11</v>
+      </c>
+      <c r="AJ13">
+        <v>8266.950000000001</v>
+      </c>
+      <c r="AK13">
+        <v>9519.41</v>
+      </c>
+      <c r="AL13">
+        <v>9854.469999999999</v>
+      </c>
+      <c r="AM13">
+        <v>9800.459999999999</v>
+      </c>
+      <c r="AN13">
+        <v>11793.51</v>
+      </c>
+      <c r="AO13">
+        <v>9856.540000000001</v>
+      </c>
+      <c r="AP13">
+        <v>3883.16</v>
+      </c>
+      <c r="AQ13">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14">
+        <v>13111.54</v>
+      </c>
+      <c r="C14">
+        <v>12971.28</v>
+      </c>
+      <c r="D14">
+        <v>13711.67</v>
+      </c>
+      <c r="E14">
+        <v>14880.55</v>
+      </c>
+      <c r="F14">
+        <v>14659.92</v>
+      </c>
+      <c r="G14">
+        <v>13357.04</v>
+      </c>
+      <c r="H14">
+        <v>14096.61</v>
+      </c>
+      <c r="I14">
+        <v>14302</v>
+      </c>
+      <c r="J14">
+        <v>13250.61</v>
+      </c>
+      <c r="K14">
+        <v>14938.75</v>
+      </c>
+      <c r="L14">
+        <v>13874.87</v>
+      </c>
+      <c r="M14">
+        <v>13434.84</v>
+      </c>
+      <c r="N14">
+        <v>13719.08</v>
+      </c>
+      <c r="O14">
+        <v>13553.89</v>
+      </c>
+      <c r="P14">
+        <v>11637.2</v>
+      </c>
+      <c r="Q14">
+        <v>8722.860000000001</v>
+      </c>
+      <c r="R14">
+        <v>11546.1</v>
+      </c>
+      <c r="S14">
+        <v>13603.19</v>
+      </c>
+      <c r="T14">
+        <v>14581.75</v>
+      </c>
+      <c r="U14">
+        <v>14585.99</v>
+      </c>
+      <c r="V14">
+        <v>14908.46</v>
+      </c>
+      <c r="W14">
+        <v>15930.43</v>
+      </c>
+      <c r="X14">
+        <v>14909.92</v>
+      </c>
+      <c r="Y14">
+        <v>15571.04</v>
+      </c>
+      <c r="Z14">
+        <v>13652.38</v>
+      </c>
+      <c r="AA14">
+        <v>13185.46</v>
+      </c>
+      <c r="AB14">
+        <v>14915.61</v>
+      </c>
+      <c r="AC14">
+        <v>15888.52</v>
+      </c>
+      <c r="AD14">
+        <v>14587.51</v>
+      </c>
+      <c r="AE14">
+        <v>15090.54</v>
+      </c>
+      <c r="AF14">
+        <v>14774.97</v>
+      </c>
+      <c r="AG14">
+        <v>14954.48</v>
+      </c>
+      <c r="AH14">
+        <v>15102.47</v>
+      </c>
+      <c r="AI14">
+        <v>15316.08</v>
+      </c>
+      <c r="AJ14">
+        <v>15139.9</v>
+      </c>
+      <c r="AK14">
+        <v>15031.44</v>
+      </c>
+      <c r="AL14">
+        <v>12873.72</v>
+      </c>
+      <c r="AM14">
+        <v>13015.47</v>
+      </c>
+      <c r="AN14">
+        <v>13548.38</v>
+      </c>
+      <c r="AO14">
+        <v>12394.33</v>
+      </c>
+      <c r="AP14">
+        <v>4525.24</v>
+      </c>
+      <c r="AQ14">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43">
+      <c r="A15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15">
+        <v>10905.27</v>
+      </c>
+      <c r="C15">
+        <v>11273.29</v>
+      </c>
+      <c r="D15">
+        <v>11934.17</v>
+      </c>
+      <c r="E15">
+        <v>12957.69</v>
+      </c>
+      <c r="F15">
+        <v>12833.08</v>
+      </c>
+      <c r="G15">
+        <v>11032.9</v>
+      </c>
+      <c r="H15">
+        <v>13037.52</v>
+      </c>
+      <c r="I15">
+        <v>13508.84</v>
+      </c>
+      <c r="J15">
+        <v>11179.17</v>
+      </c>
+      <c r="K15">
+        <v>13582.6</v>
+      </c>
+      <c r="L15">
+        <v>12037.12</v>
+      </c>
+      <c r="M15">
+        <v>13051.88</v>
+      </c>
+      <c r="N15">
+        <v>13100.87</v>
+      </c>
+      <c r="O15">
+        <v>13267.73</v>
+      </c>
+      <c r="P15">
+        <v>11745.55</v>
+      </c>
+      <c r="Q15">
+        <v>8053.35</v>
+      </c>
+      <c r="R15">
+        <v>10470.93</v>
+      </c>
+      <c r="S15">
+        <v>11896.68</v>
+      </c>
+      <c r="T15">
+        <v>13406.17</v>
+      </c>
+      <c r="U15">
+        <v>12871.38</v>
+      </c>
+      <c r="V15">
+        <v>13125.7</v>
+      </c>
+      <c r="W15">
+        <v>13660.93</v>
+      </c>
+      <c r="X15">
+        <v>13251.69</v>
+      </c>
+      <c r="Y15">
+        <v>14122.33</v>
+      </c>
+      <c r="Z15">
+        <v>12222.84</v>
+      </c>
+      <c r="AA15">
+        <v>11385.56</v>
+      </c>
+      <c r="AB15">
+        <v>13809.67</v>
+      </c>
+      <c r="AC15">
+        <v>12664.02</v>
+      </c>
+      <c r="AD15">
+        <v>13165.38</v>
+      </c>
+      <c r="AE15">
+        <v>13404.1</v>
+      </c>
+      <c r="AF15">
+        <v>12233.46</v>
+      </c>
+      <c r="AG15">
+        <v>13612.26</v>
+      </c>
+      <c r="AH15">
+        <v>12643.85</v>
+      </c>
+      <c r="AI15">
+        <v>14269.66</v>
+      </c>
+      <c r="AJ15">
+        <v>11019.92</v>
+      </c>
+      <c r="AK15">
+        <v>12078.79</v>
+      </c>
+      <c r="AL15">
+        <v>12891.06</v>
+      </c>
+      <c r="AM15">
+        <v>12834.78</v>
+      </c>
+      <c r="AN15">
+        <v>14319.63</v>
+      </c>
+      <c r="AO15">
+        <v>11690.33</v>
+      </c>
+      <c r="AP15">
+        <v>4491.77</v>
+      </c>
+      <c r="AQ15">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43">
+      <c r="A16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16">
+        <v>10844.82</v>
+      </c>
+      <c r="C16">
+        <v>10680.13</v>
+      </c>
+      <c r="D16">
+        <v>11653.46</v>
+      </c>
+      <c r="E16">
+        <v>12354.55</v>
+      </c>
+      <c r="F16">
+        <v>11807.18</v>
+      </c>
+      <c r="G16">
+        <v>10376.16</v>
+      </c>
+      <c r="H16">
+        <v>12852.98</v>
+      </c>
+      <c r="I16">
+        <v>13384.01</v>
+      </c>
+      <c r="J16">
+        <v>12245.15</v>
+      </c>
+      <c r="K16">
+        <v>13497.25</v>
+      </c>
+      <c r="L16">
+        <v>12411.26</v>
+      </c>
+      <c r="M16">
+        <v>12076.64</v>
+      </c>
+      <c r="N16">
+        <v>13370.38</v>
+      </c>
+      <c r="O16">
+        <v>12721.48</v>
+      </c>
+      <c r="P16">
+        <v>11482.69</v>
+      </c>
+      <c r="Q16">
+        <v>9447.41</v>
+      </c>
+      <c r="R16">
+        <v>10237.42</v>
+      </c>
+      <c r="S16">
+        <v>11130.24</v>
+      </c>
+      <c r="T16">
+        <v>12981.93</v>
+      </c>
+      <c r="U16">
+        <v>12762.64</v>
+      </c>
+      <c r="V16">
+        <v>12381.95</v>
+      </c>
+      <c r="W16">
+        <v>12937.93</v>
+      </c>
+      <c r="X16">
+        <v>12572.02</v>
+      </c>
+      <c r="Y16">
+        <v>13966.83</v>
+      </c>
+      <c r="Z16">
+        <v>12922.88</v>
+      </c>
+      <c r="AA16">
+        <v>11756.75</v>
+      </c>
+      <c r="AB16">
+        <v>13498.07</v>
+      </c>
+      <c r="AC16">
+        <v>12785.97</v>
+      </c>
+      <c r="AD16">
+        <v>12714.44</v>
+      </c>
+      <c r="AE16">
+        <v>12601.64</v>
+      </c>
+      <c r="AF16">
+        <v>13248.99</v>
+      </c>
+      <c r="AG16">
+        <v>13224.81</v>
+      </c>
+      <c r="AH16">
+        <v>12893.52</v>
+      </c>
+      <c r="AI16">
+        <v>12839.15</v>
+      </c>
+      <c r="AJ16">
+        <v>10079.86</v>
+      </c>
+      <c r="AK16">
+        <v>10931.89</v>
+      </c>
+      <c r="AL16">
+        <v>11448.81</v>
+      </c>
+      <c r="AM16">
+        <v>12252.34</v>
+      </c>
+      <c r="AN16">
+        <v>13459.41</v>
+      </c>
+      <c r="AO16">
+        <v>11492.57</v>
+      </c>
+      <c r="AP16">
+        <v>3866.35</v>
+      </c>
+      <c r="AQ16">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43">
+      <c r="A17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17">
+        <v>7924.7</v>
+      </c>
+      <c r="C17">
+        <v>7490.03</v>
+      </c>
+      <c r="D17">
+        <v>8206.07</v>
+      </c>
+      <c r="E17">
+        <v>8518.65</v>
+      </c>
+      <c r="F17">
+        <v>8815.51</v>
+      </c>
+      <c r="G17">
+        <v>8250.26</v>
+      </c>
+      <c r="H17">
+        <v>8304.82</v>
+      </c>
+      <c r="I17">
+        <v>9188.969999999999</v>
+      </c>
+      <c r="J17">
+        <v>9371.27</v>
+      </c>
+      <c r="K17">
+        <v>10280.33</v>
+      </c>
+      <c r="L17">
+        <v>8376.73</v>
+      </c>
+      <c r="M17">
+        <v>9757.809999999999</v>
+      </c>
+      <c r="N17">
+        <v>9765.450000000001</v>
+      </c>
+      <c r="O17">
+        <v>8378.01</v>
+      </c>
+      <c r="P17">
+        <v>7678.23</v>
+      </c>
+      <c r="Q17">
+        <v>5990.83</v>
+      </c>
+      <c r="R17">
+        <v>7503.97</v>
+      </c>
+      <c r="S17">
+        <v>9647.799999999999</v>
+      </c>
+      <c r="T17">
+        <v>8912.73</v>
+      </c>
+      <c r="U17">
+        <v>8893.780000000001</v>
+      </c>
+      <c r="V17">
+        <v>9381.379999999999</v>
+      </c>
+      <c r="W17">
+        <v>10684.33</v>
+      </c>
+      <c r="X17">
+        <v>9566.309999999999</v>
+      </c>
+      <c r="Y17">
+        <v>9882.67</v>
+      </c>
+      <c r="Z17">
+        <v>9507.67</v>
+      </c>
+      <c r="AA17">
+        <v>8642.200000000001</v>
+      </c>
+      <c r="AB17">
+        <v>8395.08</v>
+      </c>
+      <c r="AC17">
+        <v>9725.719999999999</v>
+      </c>
+      <c r="AD17">
+        <v>9268.139999999999</v>
+      </c>
+      <c r="AE17">
+        <v>8887.73</v>
+      </c>
+      <c r="AF17">
+        <v>9538.700000000001</v>
+      </c>
+      <c r="AG17">
+        <v>8819.74</v>
+      </c>
+      <c r="AH17">
+        <v>9257.040000000001</v>
+      </c>
+      <c r="AI17">
+        <v>10264.65</v>
+      </c>
+      <c r="AJ17">
+        <v>8393.51</v>
+      </c>
+      <c r="AK17">
+        <v>9067.57</v>
+      </c>
+      <c r="AL17">
+        <v>9712.27</v>
+      </c>
+      <c r="AM17">
+        <v>7615.99</v>
+      </c>
+      <c r="AN17">
+        <v>8981.32</v>
+      </c>
+      <c r="AO17">
+        <v>8457.290000000001</v>
+      </c>
+      <c r="AP17">
+        <v>3484.11</v>
+      </c>
+      <c r="AQ17">
+        <v>5.28</v>
       </c>
     </row>
   </sheetData>
